--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,159 +4,134 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="34520" windowHeight="17780" tabRatio="883" activeTab="13"/>
+    <workbookView xWindow="13740" yWindow="60" windowWidth="14160" windowHeight="13720" tabRatio="883" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
-    <sheet name="watchtower" sheetId="45" r:id="rId2"/>
-    <sheet name="dragoneyrie" sheetId="46" r:id="rId3"/>
+    <sheet name="watchTower" sheetId="45" r:id="rId2"/>
+    <sheet name="dragonEyire" sheetId="46" r:id="rId3"/>
     <sheet name="wall" sheetId="18" r:id="rId4"/>
     <sheet name="warehouse" sheetId="19" r:id="rId5"/>
     <sheet name="tower" sheetId="20" r:id="rId6"/>
-    <sheet name="dwelling" sheetId="21" r:id="rId7"/>
-    <sheet name="woodcutter" sheetId="22" r:id="rId8"/>
-    <sheet name="quarrier" sheetId="24" r:id="rId9"/>
-    <sheet name="miner" sheetId="25" r:id="rId10"/>
-    <sheet name="farmer" sheetId="26" r:id="rId11"/>
-    <sheet name="barracks" sheetId="32" r:id="rId12"/>
-    <sheet name="armycamp" sheetId="33" r:id="rId13"/>
-    <sheet name="blacksmith" sheetId="34" r:id="rId14"/>
-    <sheet name="materiardepot" sheetId="35" r:id="rId15"/>
-    <sheet name="toolshop" sheetId="36" r:id="rId16"/>
-    <sheet name="lumbermill" sheetId="27" r:id="rId17"/>
-    <sheet name="stonemason" sheetId="28" r:id="rId18"/>
-    <sheet name="foundry" sheetId="29" r:id="rId19"/>
-    <sheet name="mill" sheetId="30" r:id="rId20"/>
-    <sheet name="townhall" sheetId="31" r:id="rId21"/>
-    <sheet name="acdemy" sheetId="37" r:id="rId22"/>
-    <sheet name="hospital" sheetId="38" r:id="rId23"/>
-    <sheet name="tradeguild" sheetId="39" r:id="rId24"/>
-    <sheet name="prison" sheetId="40" r:id="rId25"/>
-    <sheet name="trainingground" sheetId="41" r:id="rId26"/>
-    <sheet name="hunterhall" sheetId="42" r:id="rId27"/>
-    <sheet name="stable" sheetId="43" r:id="rId28"/>
-    <sheet name="workshop" sheetId="44" r:id="rId29"/>
+    <sheet name="barracks" sheetId="32" r:id="rId7"/>
+    <sheet name="armyCamp" sheetId="33" r:id="rId8"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId11"/>
+    <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
+    <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
+    <sheet name="foundry" sheetId="29" r:id="rId14"/>
+    <sheet name="mill" sheetId="30" r:id="rId15"/>
+    <sheet name="townHall" sheetId="31" r:id="rId16"/>
+    <sheet name="acdemy" sheetId="37" r:id="rId17"/>
+    <sheet name="hospital" sheetId="38" r:id="rId18"/>
+    <sheet name="tradeguild" sheetId="39" r:id="rId19"/>
+    <sheet name="prison" sheetId="40" r:id="rId20"/>
+    <sheet name="trainingground" sheetId="41" r:id="rId21"/>
+    <sheet name="hunterhall" sheetId="42" r:id="rId22"/>
+    <sheet name="stable" sheetId="43" r:id="rId23"/>
+    <sheet name="workshop" sheetId="44" r:id="rId24"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="26">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="24">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="27">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="25">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="28">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="26">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="24">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="27">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="25">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="28">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="26">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="24">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="27">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="25">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="28">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="26">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="24">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="27">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="25">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="28">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -169,10 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
-  <si>
-    <t>INT_population</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -219,17 +191,6 @@
   </si>
   <si>
     <t>INT_atkcats</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_recoverycitizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_poduction</t>
-  </si>
-  <si>
-    <t>INT_poduction</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1549,13 +1510,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -1838,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -1857,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -1865,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>600</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -1873,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1800</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -1881,7 +1842,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -1889,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>10800</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -1897,7 +1858,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>21600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -1905,7 +1866,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>32400</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -1913,7 +1874,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>43200</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -1921,7 +1882,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -1929,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>64800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
@@ -1937,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>75600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
@@ -1945,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>86400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
@@ -1953,7 +1914,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>97200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
@@ -1961,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>108000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -1969,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>144000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -1977,7 +1938,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>180000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -1985,7 +1946,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>216000</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -1993,7 +1954,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>252000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -2001,7 +1962,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>288000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -2009,7 +1970,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>540000</v>
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
@@ -2039,9 +2000,9 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2049,7 +2010,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2057,160 +2018,160 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>300</v>
+      <c r="B3" s="1">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>600</v>
+      <c r="B4" s="1">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>1800</v>
+      <c r="B5" s="1">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>3600</v>
+      <c r="B6" s="1">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>10800</v>
+      <c r="B7" s="1">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>21600</v>
+      <c r="B8" s="1">
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>32400</v>
+      <c r="B9" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>43200</v>
+      <c r="B10" s="1">
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>54000</v>
+      <c r="B11" s="1">
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>64800</v>
+      <c r="B12" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>75600</v>
+      <c r="B13" s="1">
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>86400</v>
+      <c r="B14" s="1">
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>97200</v>
+      <c r="B15" s="1">
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>108000</v>
+      <c r="B16" s="1">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>144000</v>
+      <c r="B17" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>180000</v>
+      <c r="B18" s="1">
+        <v>0.32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <v>216000</v>
+      <c r="B19" s="1">
+        <v>0.34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <v>252000</v>
+      <c r="B20" s="1">
+        <v>0.36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <v>288000</v>
+      <c r="B21" s="1">
+        <v>0.38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>540000</v>
+      <c r="B22" s="1">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2188,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -2240,7 +2201,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -2259,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -2267,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -2275,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -2283,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -2291,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -2299,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -2307,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -2315,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -2323,7 +2284,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>180</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -2331,87 +2292,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2309,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -2441,10 +2322,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -2460,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -2468,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -2476,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -2484,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>6000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -2492,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>8000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -2500,7 +2381,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>10000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -2508,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>12000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -2516,7 +2397,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>16000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -2524,7 +2405,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>20000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -2532,87 +2413,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>64000</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2430,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2642,7 +2443,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -2661,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -2669,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -2677,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.06</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -2685,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.08</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -2693,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -2701,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -2709,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.14000000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -2717,7 +2518,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -2725,7 +2526,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -2733,87 +2534,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2830,7 +2551,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -2843,7 +2564,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -2862,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -2870,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -2878,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -2886,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>160</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -2894,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>320</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -2902,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>640</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -2910,7 +2631,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>960</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -2918,7 +2639,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1280</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -2926,7 +2647,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1600</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -2934,87 +2655,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9999</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3031,9 +2672,9 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -3042,180 +2683,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.4</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -3232,7 +2829,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3245,10 +2842,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -3264,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -3272,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -3280,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -3288,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -3296,7 +2893,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -3304,7 +2901,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -3312,7 +2909,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -3320,7 +2917,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -3328,7 +2925,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -3336,7 +2933,55 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -3353,7 +2998,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3364,100 +3009,202 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>3600</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>6000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>12000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>18000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>24000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>36000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>42000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>48000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>54000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>72000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>78000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>84000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>90000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +3221,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3485,100 +3232,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>800</v>
+      </c>
+      <c r="C6" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>1600</v>
+      </c>
+      <c r="C8" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="C10" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>2800</v>
+      </c>
+      <c r="C11" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>3200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3381,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3608,10 +3391,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -3796,7 +3579,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3807,100 +3590,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -3917,7 +3736,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3928,136 +3747,100 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="B3" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="B4" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="B5" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="B8" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="B9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="B10" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="B11" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>640</v>
+      <c r="B12" s="3">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +3857,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -4087,17 +3870,17 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4105,7 +3888,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.02</v>
       </c>
     </row>
@@ -4113,7 +3896,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.04</v>
       </c>
     </row>
@@ -4121,7 +3904,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.06</v>
       </c>
     </row>
@@ -4129,7 +3912,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.08</v>
       </c>
     </row>
@@ -4137,7 +3920,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -4145,7 +3928,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>0.12</v>
       </c>
     </row>
@@ -4153,7 +3936,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4161,7 +3944,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>0.16</v>
       </c>
     </row>
@@ -4169,7 +3952,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -4177,56 +3960,8 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -4243,7 +3978,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -4254,202 +3989,100 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="B3" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="B4" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>12000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="B5" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>18000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>24000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="B8" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>36000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="B9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>42000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="B10" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>48000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="B11" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>54000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>60000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>66000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>72000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>78000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>84000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>90000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.4</v>
+      <c r="B12" s="3">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -4466,320 +4099,6 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>400</v>
-      </c>
-      <c r="C5" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>800</v>
-      </c>
-      <c r="C6" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C8" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C10" s="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C11" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3200</v>
-      </c>
-      <c r="C12" s="1">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4793,373 +4112,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -5277,10 +4233,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -5478,10 +4434,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -5695,19 +4651,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6094,19 +5050,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6480,10 +5436,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6491,246 +5447,180 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>400</v>
-      </c>
-      <c r="C4" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C6" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>6000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>12000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>18000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>24000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>36000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>42000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>48000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>54000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>60000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>66000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>72000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>78000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>84000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>90000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>96000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6760,10 +5650,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -6779,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -6787,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -6795,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -6803,7 +5693,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -6811,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>10800</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -6819,7 +5709,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>21600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -6827,7 +5717,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>32400</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -6835,7 +5725,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>43200</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -6843,7 +5733,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -6851,7 +5741,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>64800</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
@@ -6859,7 +5749,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>75600</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
@@ -6867,7 +5757,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>86400</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
@@ -6875,7 +5765,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>97200</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
@@ -6883,7 +5773,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>108000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -6891,7 +5781,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>144000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -6899,7 +5789,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>180000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -6907,7 +5797,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>216000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -6915,7 +5805,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>252000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -6923,7 +5813,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>288000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -6931,7 +5821,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>540000</v>
+        <v>64000</v>
       </c>
     </row>
   </sheetData>
@@ -6951,7 +5841,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6961,10 +5851,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -6980,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -6988,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>600</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -6996,7 +5886,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1800</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -7004,7 +5894,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -7012,7 +5902,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>10800</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -7020,7 +5910,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>21600</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -7028,7 +5918,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>32400</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -7036,7 +5926,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>43200</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -7044,7 +5934,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -7052,7 +5942,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>64800</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
@@ -7060,7 +5950,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>75600</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
@@ -7068,7 +5958,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>86400</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
@@ -7076,7 +5966,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>97200</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
@@ -7084,7 +5974,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>108000</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -7092,7 +5982,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>144000</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -7100,7 +5990,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>180000</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -7108,7 +5998,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>216000</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -7116,7 +6006,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>252000</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -7124,7 +6014,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>288000</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -7132,7 +6022,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>540000</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="60" windowWidth="14160" windowHeight="13720" tabRatio="883" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="883" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <sheet name="townHall" sheetId="31" r:id="rId16"/>
     <sheet name="acdemy" sheetId="37" r:id="rId17"/>
     <sheet name="hospital" sheetId="38" r:id="rId18"/>
-    <sheet name="tradeguild" sheetId="39" r:id="rId19"/>
+    <sheet name="tradeGuild" sheetId="39" r:id="rId19"/>
     <sheet name="prison" sheetId="40" r:id="rId20"/>
-    <sheet name="trainingground" sheetId="41" r:id="rId21"/>
+    <sheet name="trainingGround" sheetId="41" r:id="rId21"/>
     <sheet name="hunterhall" sheetId="42" r:id="rId22"/>
     <sheet name="stable" sheetId="43" r:id="rId23"/>
     <sheet name="workshop" sheetId="44" r:id="rId24"/>
@@ -144,13 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>INT_scout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dragonrecovery</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -229,10 +225,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_taxcitizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_maxcasualty</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -241,19 +233,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_cartrecovery</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_imprisontime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_casualtyrate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_imprisonrate</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -263,6 +243,42 @@
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_wallRecovery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_dragonRecovery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_troopPopulation</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_taxCitizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_cartRecovery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_imprisonTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_imprisonRate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poduction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poductionType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -425,7 +441,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="302">
+  <cellStyleXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -440,6 +456,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -748,7 +796,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="302">
+  <cellStyles count="334">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -902,6 +950,22 @@
     <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1048,6 +1112,22 @@
     <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1510,13 +1590,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -1799,10 +1879,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -1987,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1998,180 +2078,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.4</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2201,10 +2347,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -2322,10 +2468,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -2443,10 +2589,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -2564,10 +2710,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -2674,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2685,13 +2831,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -2842,10 +2988,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -3011,13 +3157,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3224,7 +3370,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3234,13 +3380,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3391,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3581,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3592,13 +3738,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3620,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -3631,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -3642,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -3653,7 +3799,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -3664,7 +3810,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -3675,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -3686,7 +3832,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -3697,7 +3843,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -3708,7 +3854,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -3719,7 +3865,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -3749,10 +3895,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -3870,10 +4016,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -3991,10 +4137,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -4112,10 +4258,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -4223,7 +4369,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4233,10 +4379,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -4421,10 +4567,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4432,196 +4578,269 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>4000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>6000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>7000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>8000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>9000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+        <v>11000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+        <v>12000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+        <v>13000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+        <v>14000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+        <v>16000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+        <v>18000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+        <v>22000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+        <v>24000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
+        <v>26000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
+        <v>28000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>300000</v>
+        <v>30000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
@@ -4651,19 +4870,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -5050,19 +5269,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -5449,10 +5668,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -5640,7 +5859,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5650,10 +5869,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -5851,10 +6070,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="1440" windowWidth="33220" windowHeight="14700" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="8440" yWindow="22000" windowWidth="20240" windowHeight="15400" tabRatio="883" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -198,10 +198,6 @@
   </si>
   <si>
     <t>INT_wallRecovery</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dragonRecovery</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -310,6 +306,49 @@
   </si>
   <si>
     <t>INT_maxCart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxSoldierMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxDragonMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxDragonEquipment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_vitalityRecoveryPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_energyMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_perEnergyTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_taxTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_addEfficency</t>
+  </si>
+  <si>
+    <t>FLOAT_addEfficency</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_totalTax</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="452">
+  <cellStyleXfs count="506">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -488,6 +527,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -946,7 +1039,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="452">
+  <cellStyles count="506">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1175,6 +1268,33 @@
     <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1396,6 +1516,33 @@
     <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1861,13 +2008,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2207,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2218,245 +2365,443 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>160</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
+        <v>160</v>
+      </c>
+      <c r="D6" s="1">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1">
+        <v>160</v>
+      </c>
+      <c r="F6" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>320</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
+        <v>320</v>
+      </c>
+      <c r="D7" s="1">
+        <v>320</v>
+      </c>
+      <c r="E7" s="1">
+        <v>320</v>
+      </c>
+      <c r="F7" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>640</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
+        <v>640</v>
+      </c>
+      <c r="D8" s="1">
+        <v>640</v>
+      </c>
+      <c r="E8" s="1">
+        <v>640</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>960</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
+        <v>960</v>
+      </c>
+      <c r="D9" s="1">
+        <v>960</v>
+      </c>
+      <c r="E9" s="1">
+        <v>960</v>
+      </c>
+      <c r="F9" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>1280</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="F10" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1600</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F11" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>2000</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>2400</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F13" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>3000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>3600</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>4200</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F16" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>4800</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>5600</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>6400</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="F19" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>7200</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F20" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>8000</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>9999</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="F22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -2490,37 +2835,37 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -3335,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3346,18 +3691,21 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3367,8 +3715,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3376,105 +3727,135 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
         <v>2520</v>
       </c>
     </row>
@@ -3492,10 +3873,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3503,7 +3884,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3511,10 +3892,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3524,8 +3908,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3533,105 +3920,135 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
         <v>2520</v>
       </c>
     </row>
@@ -3649,10 +4066,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3660,7 +4077,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3668,10 +4085,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3681,8 +4101,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3690,105 +4113,135 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
         <v>2520</v>
       </c>
     </row>
@@ -3806,10 +4259,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3817,18 +4270,21 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3838,8 +4294,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3847,105 +4306,135 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
         <v>2520</v>
       </c>
     </row>
@@ -3963,10 +4452,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3974,7 +4463,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3982,13 +4471,19 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4001,8 +4496,14 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4010,136 +4511,196 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="D3" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="1">
+        <v>8640</v>
+      </c>
+      <c r="F3" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>160</v>
+        <v>2400</v>
       </c>
       <c r="D4" s="3">
         <v>840</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>220</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="3">
         <v>1080</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="1">
+        <v>11520</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>280</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="3">
         <v>1320</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="1">
+        <v>12960</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>340</v>
+        <v>24000</v>
       </c>
       <c r="D7" s="3">
         <v>1560</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="1">
+        <v>14400</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>400</v>
+        <v>36000</v>
       </c>
       <c r="D8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="1">
+        <v>15840.000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>460</v>
+        <v>48000</v>
       </c>
       <c r="D9" s="3">
         <v>2040</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="1">
+        <v>17280</v>
+      </c>
+      <c r="F9" s="1">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>520</v>
+        <v>60000</v>
       </c>
       <c r="D10" s="3">
         <v>2280</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="1">
+        <v>18720</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>580</v>
+        <v>72000</v>
       </c>
       <c r="D11" s="3">
         <v>2520</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="1">
+        <v>20160</v>
+      </c>
+      <c r="F11" s="1">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>640</v>
+        <v>96000</v>
       </c>
       <c r="D12" s="3">
         <v>2760</v>
+      </c>
+      <c r="E12" s="1">
+        <v>21600</v>
+      </c>
+      <c r="F12" s="1">
+        <v>96000</v>
       </c>
     </row>
   </sheetData>
@@ -4175,7 +4736,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4395,13 +4956,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4672,13 +5233,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4851,7 +5412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G22"/>
     </sheetView>
   </sheetViews>
@@ -4877,7 +5438,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -5330,13 +5891,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5526,7 +6087,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5683,7 +6244,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5840,7 +6401,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5997,7 +6558,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6154,10 +6715,10 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -6515,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6763,256 +7324,390 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1000</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>120</v>
+      </c>
+      <c r="E3" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>120</v>
+      </c>
+      <c r="E4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>6000</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>120</v>
+      </c>
+      <c r="E5" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="E6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>36000</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>120</v>
+      </c>
+      <c r="E7" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>72000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>120</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>108000</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>120</v>
+      </c>
+      <c r="E9" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>144000</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>120</v>
+      </c>
+      <c r="E10" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>180000</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>120</v>
+      </c>
+      <c r="E11" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>216000</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>252000</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>288000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>120</v>
+      </c>
+      <c r="E14" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>324000</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>120</v>
+      </c>
+      <c r="E15" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>360000</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <v>120</v>
+      </c>
+      <c r="E16" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>480000</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1">
+        <v>120</v>
+      </c>
+      <c r="E17" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>600000</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>120</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>720000</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>120</v>
+      </c>
+      <c r="E19" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>840000</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <v>120</v>
+      </c>
+      <c r="E20" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>960000</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1">
+        <v>120</v>
+      </c>
+      <c r="E21" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1800000</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <v>120</v>
+      </c>
+      <c r="E22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -7046,19 +7741,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -7511,10 +8206,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -7778,10 +8473,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8048,7 +8743,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="22000" windowWidth="20240" windowHeight="15400" tabRatio="883" activeTab="15"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -512,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="506">
+  <cellStyleXfs count="510">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -527,6 +527,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1039,7 +1043,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="506">
+  <cellStyles count="510">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1295,6 +1299,8 @@
     <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1543,6 +1549,8 @@
     <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4455,7 +4463,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4511,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3">
         <v>600</v>
@@ -4531,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2400</v>
+        <v>300</v>
       </c>
       <c r="D4" s="3">
         <v>840</v>
@@ -4551,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>6000</v>
+        <v>750</v>
       </c>
       <c r="D5" s="3">
         <v>1080</v>
@@ -4571,7 +4579,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="D6" s="3">
         <v>1320</v>
@@ -4591,7 +4599,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>24000</v>
+        <v>3000</v>
       </c>
       <c r="D7" s="3">
         <v>1560</v>
@@ -4611,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>36000</v>
+        <v>4500</v>
       </c>
       <c r="D8" s="3">
         <v>1800</v>
@@ -4631,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>48000</v>
+        <v>6000</v>
       </c>
       <c r="D9" s="3">
         <v>2040</v>
@@ -4651,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>60000</v>
+        <v>7500</v>
       </c>
       <c r="D10" s="3">
         <v>2280</v>
@@ -4671,7 +4679,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>72000</v>
+        <v>9000</v>
       </c>
       <c r="D11" s="3">
         <v>2520</v>
@@ -4691,7 +4699,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>96000</v>
+        <v>12000</v>
       </c>
       <c r="D12" s="3">
         <v>2760</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="15"/>
+    <workbookView xWindow="4480" yWindow="1180" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -325,10 +325,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_vitalityRecoveryPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_energyMax</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -349,6 +345,10 @@
   </si>
   <si>
     <t>INT_totalTax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_hpRecoveryPerHour</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3707,7 +3707,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>21</v>
@@ -3900,7 +3900,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>21</v>
@@ -4093,7 +4093,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>21</v>
@@ -4286,7 +4286,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>21</v>
@@ -4462,8 +4462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4485,10 +4485,10 @@
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -7334,8 +7334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7350,13 +7350,13 @@
         <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="1180" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="5740" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -2002,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7334,7 +7334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6800" yWindow="2920" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -144,25 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>INT_scout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkinfs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkarcs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkcavs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkcats</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -351,6 +335,26 @@
     <t>INT_hpRecoveryPerHour</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_infantry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_archer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_defencePower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -512,7 +516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="510">
+  <cellStyleXfs count="514">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -527,6 +531,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1043,7 +1051,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="510">
+  <cellStyles count="514">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1301,6 +1309,8 @@
     <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1551,6 +1561,8 @@
     <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2002,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2013,16 +2025,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2375,22 +2387,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -2840,40 +2852,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -3701,16 +3713,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -3894,16 +3906,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4087,16 +4099,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4280,16 +4292,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4473,22 +4485,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -4738,13 +4750,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4961,16 +4973,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5238,16 +5250,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5418,10 +5430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5429,31 +5441,34 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -5465,16 +5480,19 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>34</v>
+      <c r="B3" s="3">
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>34</v>
@@ -5485,16 +5503,19 @@
       <c r="E3" s="1">
         <v>34</v>
       </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="F3" s="1">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>68</v>
+      <c r="B4" s="3">
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>68</v>
@@ -5505,16 +5526,19 @@
       <c r="E4" s="1">
         <v>68</v>
       </c>
-      <c r="F4" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="F4" s="1">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>204.00000000000003</v>
+      <c r="B5" s="3">
+        <v>60</v>
       </c>
       <c r="C5" s="1">
         <v>204.00000000000003</v>
@@ -5525,16 +5549,19 @@
       <c r="E5" s="1">
         <v>204.00000000000003</v>
       </c>
-      <c r="F5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="F5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>408.00000000000006</v>
+      <c r="B6" s="3">
+        <v>120</v>
       </c>
       <c r="C6" s="1">
         <v>408.00000000000006</v>
@@ -5545,16 +5572,19 @@
       <c r="E6" s="1">
         <v>408.00000000000006</v>
       </c>
-      <c r="F6" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="F6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="G6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>1224</v>
+      <c r="B7" s="3">
+        <v>360</v>
       </c>
       <c r="C7" s="1">
         <v>1224</v>
@@ -5565,16 +5595,19 @@
       <c r="E7" s="1">
         <v>1224</v>
       </c>
-      <c r="F7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="F7" s="1">
+        <v>1224</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>2448</v>
+      <c r="B8" s="3">
+        <v>600</v>
       </c>
       <c r="C8" s="1">
         <v>2448</v>
@@ -5585,16 +5618,19 @@
       <c r="E8" s="1">
         <v>2448</v>
       </c>
-      <c r="F8" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="F8" s="1">
+        <v>2448</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>3672</v>
+      <c r="B9" s="3">
+        <v>840</v>
       </c>
       <c r="C9" s="1">
         <v>3672</v>
@@ -5605,16 +5641,19 @@
       <c r="E9" s="1">
         <v>3672</v>
       </c>
-      <c r="F9" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="F9" s="1">
+        <v>3672</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>4896</v>
+      <c r="B10" s="3">
+        <v>1080</v>
       </c>
       <c r="C10" s="1">
         <v>4896</v>
@@ -5625,16 +5664,19 @@
       <c r="E10" s="1">
         <v>4896</v>
       </c>
-      <c r="F10" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="F10" s="1">
+        <v>4896</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>6120.0000000000009</v>
+      <c r="B11" s="3">
+        <v>1320</v>
       </c>
       <c r="C11" s="1">
         <v>6120.0000000000009</v>
@@ -5645,16 +5687,19 @@
       <c r="E11" s="1">
         <v>6120.0000000000009</v>
       </c>
-      <c r="F11" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="F11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>7344</v>
+      <c r="B12" s="3">
+        <v>1560</v>
       </c>
       <c r="C12" s="1">
         <v>7344</v>
@@ -5665,16 +5710,19 @@
       <c r="E12" s="1">
         <v>7344</v>
       </c>
-      <c r="F12" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="F12" s="1">
+        <v>7344</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>8568</v>
+      <c r="B13" s="3">
+        <v>1800</v>
       </c>
       <c r="C13" s="1">
         <v>8568</v>
@@ -5685,16 +5733,19 @@
       <c r="E13" s="1">
         <v>8568</v>
       </c>
-      <c r="F13" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="F13" s="1">
+        <v>8568</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>9792</v>
+      <c r="B14" s="3">
+        <v>2040</v>
       </c>
       <c r="C14" s="1">
         <v>9792</v>
@@ -5705,16 +5756,19 @@
       <c r="E14" s="1">
         <v>9792</v>
       </c>
-      <c r="F14" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="F14" s="1">
+        <v>9792</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>11016.000000000002</v>
+      <c r="B15" s="3">
+        <v>2280</v>
       </c>
       <c r="C15" s="1">
         <v>11016.000000000002</v>
@@ -5725,16 +5779,19 @@
       <c r="E15" s="1">
         <v>11016.000000000002</v>
       </c>
-      <c r="F15" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="F15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>12240.000000000002</v>
+      <c r="B16" s="3">
+        <v>2520</v>
       </c>
       <c r="C16" s="1">
         <v>12240.000000000002</v>
@@ -5745,16 +5802,19 @@
       <c r="E16" s="1">
         <v>12240.000000000002</v>
       </c>
-      <c r="F16" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+      <c r="F16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>16320</v>
+      <c r="B17" s="3">
+        <v>2760</v>
       </c>
       <c r="C17" s="1">
         <v>16320</v>
@@ -5765,16 +5825,19 @@
       <c r="E17" s="1">
         <v>16320</v>
       </c>
-      <c r="F17" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="F17" s="1">
+        <v>16320</v>
+      </c>
+      <c r="G17" s="1">
+        <v>16320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>20400.000000000004</v>
+      <c r="B18" s="3">
+        <v>3000</v>
       </c>
       <c r="C18" s="1">
         <v>20400.000000000004</v>
@@ -5785,16 +5848,19 @@
       <c r="E18" s="1">
         <v>20400.000000000004</v>
       </c>
-      <c r="F18" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+      <c r="F18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>24480.000000000004</v>
+      <c r="B19" s="3">
+        <v>3240</v>
       </c>
       <c r="C19" s="1">
         <v>24480.000000000004</v>
@@ -5805,16 +5871,19 @@
       <c r="E19" s="1">
         <v>24480.000000000004</v>
       </c>
-      <c r="F19" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+      <c r="F19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="G19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>28560</v>
+      <c r="B20" s="3">
+        <v>3480</v>
       </c>
       <c r="C20" s="1">
         <v>28560</v>
@@ -5825,16 +5894,19 @@
       <c r="E20" s="1">
         <v>28560</v>
       </c>
-      <c r="F20" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+      <c r="F20" s="1">
+        <v>28560</v>
+      </c>
+      <c r="G20" s="1">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>32640</v>
+      <c r="B21" s="3">
+        <v>3720</v>
       </c>
       <c r="C21" s="1">
         <v>32640</v>
@@ -5845,16 +5917,19 @@
       <c r="E21" s="1">
         <v>32640</v>
       </c>
-      <c r="F21" s="3">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="F21" s="1">
+        <v>32640</v>
+      </c>
+      <c r="G21" s="1">
+        <v>32640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>61200</v>
+      <c r="B22" s="3">
+        <v>3960</v>
       </c>
       <c r="C22" s="1">
         <v>61200</v>
@@ -5865,8 +5940,11 @@
       <c r="E22" s="1">
         <v>61200</v>
       </c>
-      <c r="F22" s="3">
-        <v>3960</v>
+      <c r="F22" s="1">
+        <v>61200</v>
+      </c>
+      <c r="G22" s="1">
+        <v>61200</v>
       </c>
     </row>
   </sheetData>
@@ -5896,16 +5974,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -6089,13 +6167,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6246,13 +6324,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6403,13 +6481,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6560,13 +6638,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6717,16 +6795,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7078,13 +7156,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -7347,19 +7425,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7746,22 +7824,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -8211,13 +8289,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8478,13 +8556,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8745,13 +8823,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="2920" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="6020" yWindow="2200" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -516,7 +516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="514">
+  <cellStyleXfs count="516">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -531,6 +531,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1051,7 +1053,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="514">
+  <cellStyles count="516">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1311,6 +1313,7 @@
     <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1563,6 +1566,7 @@
     <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2841,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2946,7 +2950,7 @@
         <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>2000</v>
@@ -2958,7 +2962,7 @@
         <v>2000</v>
       </c>
       <c r="K3" s="1">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="L3" s="3">
         <v>10</v>
@@ -2984,7 +2988,7 @@
         <v>2000</v>
       </c>
       <c r="G4" s="1">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>4000</v>
@@ -2996,7 +3000,7 @@
         <v>4000</v>
       </c>
       <c r="K4" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3">
         <v>20</v>
@@ -3022,7 +3026,7 @@
         <v>3000</v>
       </c>
       <c r="G5" s="1">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1">
         <v>6000</v>
@@ -3034,7 +3038,7 @@
         <v>6000</v>
       </c>
       <c r="K5" s="1">
-        <v>1800</v>
+        <v>50</v>
       </c>
       <c r="L5" s="3">
         <v>60</v>
@@ -3060,7 +3064,7 @@
         <v>4000</v>
       </c>
       <c r="G6" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1">
         <v>8000</v>
@@ -3072,7 +3076,7 @@
         <v>8000</v>
       </c>
       <c r="K6" s="1">
-        <v>2400</v>
+        <v>60</v>
       </c>
       <c r="L6" s="3">
         <v>120</v>
@@ -3098,7 +3102,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="1">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1">
         <v>10000</v>
@@ -3110,7 +3114,7 @@
         <v>10000</v>
       </c>
       <c r="K7" s="1">
-        <v>3000</v>
+        <v>70</v>
       </c>
       <c r="L7" s="3">
         <v>360</v>
@@ -3136,7 +3140,7 @@
         <v>6000</v>
       </c>
       <c r="G8" s="1">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1">
         <v>12000</v>
@@ -3148,7 +3152,7 @@
         <v>12000</v>
       </c>
       <c r="K8" s="1">
-        <v>3600</v>
+        <v>80</v>
       </c>
       <c r="L8" s="3">
         <v>600</v>
@@ -3174,7 +3178,7 @@
         <v>7000</v>
       </c>
       <c r="G9" s="1">
-        <v>2100</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1">
         <v>14000</v>
@@ -3186,7 +3190,7 @@
         <v>14000</v>
       </c>
       <c r="K9" s="1">
-        <v>4200</v>
+        <v>90</v>
       </c>
       <c r="L9" s="3">
         <v>840</v>
@@ -3212,7 +3216,7 @@
         <v>8000</v>
       </c>
       <c r="G10" s="1">
-        <v>2400</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1">
         <v>16000</v>
@@ -3224,7 +3228,7 @@
         <v>16000</v>
       </c>
       <c r="K10" s="1">
-        <v>4800</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>1080</v>
@@ -3250,7 +3254,7 @@
         <v>9000</v>
       </c>
       <c r="G11" s="1">
-        <v>2700</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1">
         <v>18000</v>
@@ -3262,7 +3266,7 @@
         <v>18000</v>
       </c>
       <c r="K11" s="1">
-        <v>5400</v>
+        <v>110</v>
       </c>
       <c r="L11" s="3">
         <v>1320</v>
@@ -3288,7 +3292,7 @@
         <v>10000</v>
       </c>
       <c r="G12" s="1">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
         <v>20000</v>
@@ -3300,7 +3304,7 @@
         <v>20000</v>
       </c>
       <c r="K12" s="1">
-        <v>6000</v>
+        <v>120</v>
       </c>
       <c r="L12" s="3">
         <v>1560</v>
@@ -3326,7 +3330,7 @@
         <v>11000</v>
       </c>
       <c r="G13" s="1">
-        <v>3300</v>
+        <v>110</v>
       </c>
       <c r="H13" s="1">
         <v>22000</v>
@@ -3338,7 +3342,7 @@
         <v>22000</v>
       </c>
       <c r="K13" s="1">
-        <v>6600</v>
+        <v>130</v>
       </c>
       <c r="L13" s="3">
         <v>1800</v>
@@ -3364,7 +3368,7 @@
         <v>12000</v>
       </c>
       <c r="G14" s="1">
-        <v>3600</v>
+        <v>120</v>
       </c>
       <c r="H14" s="1">
         <v>24000</v>
@@ -3376,7 +3380,7 @@
         <v>24000</v>
       </c>
       <c r="K14" s="1">
-        <v>7200</v>
+        <v>140</v>
       </c>
       <c r="L14" s="3">
         <v>2040</v>
@@ -3402,7 +3406,7 @@
         <v>13000</v>
       </c>
       <c r="G15" s="1">
-        <v>3900</v>
+        <v>130</v>
       </c>
       <c r="H15" s="1">
         <v>26000</v>
@@ -3414,7 +3418,7 @@
         <v>26000</v>
       </c>
       <c r="K15" s="1">
-        <v>7800</v>
+        <v>150</v>
       </c>
       <c r="L15" s="3">
         <v>2280</v>
@@ -3440,7 +3444,7 @@
         <v>14000</v>
       </c>
       <c r="G16" s="1">
-        <v>4200</v>
+        <v>140</v>
       </c>
       <c r="H16" s="1">
         <v>28000</v>
@@ -3452,7 +3456,7 @@
         <v>28000</v>
       </c>
       <c r="K16" s="1">
-        <v>8400</v>
+        <v>160</v>
       </c>
       <c r="L16" s="3">
         <v>2520</v>
@@ -3478,7 +3482,7 @@
         <v>15000</v>
       </c>
       <c r="G17" s="1">
-        <v>4500</v>
+        <v>150</v>
       </c>
       <c r="H17" s="1">
         <v>30000</v>
@@ -3490,7 +3494,7 @@
         <v>30000</v>
       </c>
       <c r="K17" s="1">
-        <v>9000</v>
+        <v>170</v>
       </c>
       <c r="L17" s="3">
         <v>2760</v>
@@ -3516,7 +3520,7 @@
         <v>16000</v>
       </c>
       <c r="G18" s="1">
-        <v>4800</v>
+        <v>160</v>
       </c>
       <c r="H18" s="1">
         <v>32000</v>
@@ -3528,7 +3532,7 @@
         <v>32000</v>
       </c>
       <c r="K18" s="1">
-        <v>9600</v>
+        <v>180</v>
       </c>
       <c r="L18" s="3">
         <v>3000</v>
@@ -3554,7 +3558,7 @@
         <v>17000</v>
       </c>
       <c r="G19" s="1">
-        <v>5100</v>
+        <v>170</v>
       </c>
       <c r="H19" s="1">
         <v>34000</v>
@@ -3566,7 +3570,7 @@
         <v>34000</v>
       </c>
       <c r="K19" s="1">
-        <v>10200</v>
+        <v>190</v>
       </c>
       <c r="L19" s="3">
         <v>3240</v>
@@ -3592,7 +3596,7 @@
         <v>18000</v>
       </c>
       <c r="G20" s="1">
-        <v>5400</v>
+        <v>180</v>
       </c>
       <c r="H20" s="1">
         <v>36000</v>
@@ -3604,7 +3608,7 @@
         <v>36000</v>
       </c>
       <c r="K20" s="1">
-        <v>10800</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>3480</v>
@@ -3630,7 +3634,7 @@
         <v>19000</v>
       </c>
       <c r="G21" s="1">
-        <v>5700</v>
+        <v>190</v>
       </c>
       <c r="H21" s="1">
         <v>38000</v>
@@ -3642,7 +3646,7 @@
         <v>38000</v>
       </c>
       <c r="K21" s="1">
-        <v>11400</v>
+        <v>210</v>
       </c>
       <c r="L21" s="3">
         <v>3720</v>
@@ -3668,7 +3672,7 @@
         <v>20000</v>
       </c>
       <c r="G22" s="1">
-        <v>6000</v>
+        <v>200</v>
       </c>
       <c r="H22" s="1">
         <v>40000</v>
@@ -3680,7 +3684,7 @@
         <v>40000</v>
       </c>
       <c r="K22" s="1">
-        <v>12000</v>
+        <v>220</v>
       </c>
       <c r="L22" s="3">
         <v>3960</v>
@@ -5432,7 +5436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="2200" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="10"/>
+    <workbookView xWindow="6460" yWindow="2040" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -186,10 +186,6 @@
   </si>
   <si>
     <t>INT_troopPopulation</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_taxCitizen</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -317,18 +313,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_taxTime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_addEfficency</t>
   </si>
   <si>
     <t>FLOAT_addEfficency</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_totalTax</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -516,7 +504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="516">
+  <cellStyleXfs count="518">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -531,6 +519,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1053,7 +1043,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="516">
+  <cellStyles count="518">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1314,6 +1304,7 @@
     <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1567,6 +1558,7 @@
     <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2032,13 +2024,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2394,19 +2386,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -2845,7 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -2859,37 +2851,37 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -3720,13 +3712,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -3916,10 +3908,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4109,10 +4101,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4302,10 +4294,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4476,10 +4468,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4487,7 +4479,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -4495,236 +4487,128 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3">
         <v>600</v>
       </c>
-      <c r="E3" s="1">
-        <v>8640</v>
-      </c>
-      <c r="F3" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>300</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
         <v>840</v>
       </c>
-      <c r="E4" s="1">
-        <v>10080</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>750</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3">
         <v>1080</v>
       </c>
-      <c r="E5" s="1">
-        <v>11520</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3">
         <v>1320</v>
       </c>
-      <c r="E6" s="1">
-        <v>12960</v>
-      </c>
-      <c r="F6" s="1">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3">
         <v>1560</v>
       </c>
-      <c r="E7" s="1">
-        <v>14400</v>
-      </c>
-      <c r="F7" s="1">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <v>4500</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="1">
-        <v>15840.000000000002</v>
-      </c>
-      <c r="F8" s="1">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>6000</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3">
         <v>2040</v>
       </c>
-      <c r="E9" s="1">
-        <v>17280</v>
-      </c>
-      <c r="F9" s="1">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3">
         <v>2280</v>
       </c>
-      <c r="E10" s="1">
-        <v>18720</v>
-      </c>
-      <c r="F10" s="1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3">
         <v>2520</v>
       </c>
-      <c r="E11" s="1">
-        <v>20160</v>
-      </c>
-      <c r="F11" s="1">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
-        <v>12000</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3">
         <v>2760</v>
-      </c>
-      <c r="E12" s="1">
-        <v>21600</v>
-      </c>
-      <c r="F12" s="1">
-        <v>96000</v>
       </c>
     </row>
   </sheetData>
@@ -4760,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4980,13 +4864,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5257,13 +5141,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5450,22 +5334,22 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -5981,13 +5865,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -6177,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6334,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6491,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6648,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6808,7 +6692,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7166,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -7429,19 +7313,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7831,19 +7715,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -8296,10 +8180,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8566,7 +8450,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8833,7 +8717,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2040" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="7020" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -186,10 +186,6 @@
   </si>
   <si>
     <t>INT_troopPopulation</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_cartRecovery</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -305,14 +301,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_energyMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_perEnergyTime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_addEfficency</t>
   </si>
   <si>
@@ -341,6 +329,14 @@
   </si>
   <si>
     <t>INT_defencePower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_cartRecovery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxSellQueue</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +500,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="518">
+  <cellStyleXfs count="520">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -519,6 +515,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1043,7 +1041,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="518">
+  <cellStyles count="520">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1305,6 +1303,7 @@
     <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1559,6 +1558,7 @@
     <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2024,13 +2024,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2386,19 +2386,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -2851,37 +2851,37 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -3712,13 +3712,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -3891,7 +3891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
@@ -3908,10 +3908,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4101,10 +4101,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4294,10 +4294,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4470,7 +4470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4487,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4644,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4864,13 +4864,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5125,10 +5125,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5136,172 +5136,208 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
+        <v>600</v>
+      </c>
+      <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
+        <v>840</v>
+      </c>
+      <c r="C4" s="1">
         <v>200</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
+        <v>1080</v>
+      </c>
+      <c r="C5" s="1">
         <v>400</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>36</v>
       </c>
-      <c r="D5" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
+        <v>1320</v>
+      </c>
+      <c r="C6" s="1">
         <v>800</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>72</v>
       </c>
-      <c r="D6" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
+        <v>1560</v>
+      </c>
+      <c r="C7" s="1">
         <v>1200</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>100</v>
       </c>
-      <c r="D7" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="C8" s="1">
         <v>1600</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>132</v>
       </c>
-      <c r="D8" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
+        <v>2040</v>
+      </c>
+      <c r="C9" s="1">
         <v>2000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>164</v>
       </c>
-      <c r="D9" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
+        <v>2280</v>
+      </c>
+      <c r="C10" s="1">
         <v>2400</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>196</v>
       </c>
-      <c r="D10" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
+        <v>2520</v>
+      </c>
+      <c r="C11" s="1">
         <v>2800</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>228</v>
       </c>
-      <c r="D11" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
+        <v>2760</v>
+      </c>
+      <c r="C12" s="1">
         <v>3200</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>260</v>
       </c>
-      <c r="D12" s="3">
-        <v>2760</v>
+      <c r="E12" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5334,22 +5370,22 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -5865,13 +5901,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -6061,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6218,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6375,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6532,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6692,7 +6728,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7034,7 +7070,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7050,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -7298,10 +7334,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7311,377 +7347,245 @@
     <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>120</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1000</v>
       </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>120</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2000</v>
       </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>120</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>6000</v>
       </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>120</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12000</v>
       </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="3">
         <v>120</v>
       </c>
-      <c r="E6" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>36000</v>
       </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>120</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>72000</v>
       </c>
-      <c r="C8" s="1">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1">
-        <v>120</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>108000</v>
       </c>
-      <c r="C9" s="1">
-        <v>100</v>
-      </c>
-      <c r="D9" s="1">
-        <v>120</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>144000</v>
       </c>
-      <c r="C10" s="1">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1">
-        <v>120</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>180000</v>
       </c>
-      <c r="C11" s="1">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1">
-        <v>120</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>216000</v>
       </c>
-      <c r="C12" s="1">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1">
-        <v>120</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>252000</v>
       </c>
-      <c r="C13" s="1">
-        <v>100</v>
-      </c>
-      <c r="D13" s="1">
-        <v>120</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C13" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>288000</v>
       </c>
-      <c r="C14" s="1">
-        <v>100</v>
-      </c>
-      <c r="D14" s="1">
-        <v>120</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>324000</v>
       </c>
-      <c r="C15" s="1">
-        <v>100</v>
-      </c>
-      <c r="D15" s="1">
-        <v>120</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="C15" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>360000</v>
       </c>
-      <c r="C16" s="1">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1">
-        <v>120</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="C16" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>480000</v>
       </c>
-      <c r="C17" s="1">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1">
-        <v>120</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C17" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>600000</v>
       </c>
-      <c r="C18" s="1">
-        <v>100</v>
-      </c>
-      <c r="D18" s="1">
-        <v>120</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="C18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>720000</v>
       </c>
-      <c r="C19" s="1">
-        <v>100</v>
-      </c>
-      <c r="D19" s="1">
-        <v>120</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C19" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>840000</v>
       </c>
-      <c r="C20" s="1">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1">
-        <v>120</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C20" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>960000</v>
       </c>
-      <c r="C21" s="1">
-        <v>100</v>
-      </c>
-      <c r="D21" s="1">
-        <v>120</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="C21" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1800000</v>
       </c>
-      <c r="C22" s="1">
-        <v>100</v>
-      </c>
-      <c r="D22" s="1">
-        <v>120</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="C22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -7715,19 +7619,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -8180,10 +8084,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8450,7 +8354,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8717,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,134 +4,124 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="9" activeTab="18"/>
+    <workbookView xWindow="2400" yWindow="2620" windowWidth="33240" windowHeight="15980" tabRatio="883" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
     <sheet name="tower" sheetId="20" r:id="rId2"/>
     <sheet name="keep" sheetId="17" r:id="rId3"/>
     <sheet name="watchTower" sheetId="45" r:id="rId4"/>
-    <sheet name="dragonEyrie" sheetId="46" r:id="rId5"/>
-    <sheet name="warehouse" sheetId="19" r:id="rId6"/>
-    <sheet name="barracks" sheetId="32" r:id="rId7"/>
-    <sheet name="armyCamp" sheetId="33" r:id="rId8"/>
-    <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
-    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
-    <sheet name="toolShop" sheetId="36" r:id="rId11"/>
-    <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
+    <sheet name="warehouse" sheetId="19" r:id="rId5"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId6"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId7"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId8"/>
+    <sheet name="academy" sheetId="37" r:id="rId9"/>
+    <sheet name="barracks" sheetId="32" r:id="rId10"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId11"/>
+    <sheet name="foundry" sheetId="29" r:id="rId12"/>
     <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
-    <sheet name="foundry" sheetId="29" r:id="rId14"/>
+    <sheet name="lumbermill" sheetId="27" r:id="rId14"/>
     <sheet name="mill" sheetId="30" r:id="rId15"/>
-    <sheet name="townHall" sheetId="31" r:id="rId16"/>
-    <sheet name="acdemy" sheetId="37" r:id="rId17"/>
-    <sheet name="hospital" sheetId="38" r:id="rId18"/>
-    <sheet name="tradeGuild" sheetId="39" r:id="rId19"/>
-    <sheet name="prison" sheetId="40" r:id="rId20"/>
-    <sheet name="trainingGround" sheetId="41" r:id="rId21"/>
-    <sheet name="hunterhall" sheetId="42" r:id="rId22"/>
-    <sheet name="stable" sheetId="43" r:id="rId23"/>
-    <sheet name="workshop" sheetId="44" r:id="rId24"/>
+    <sheet name="hospital" sheetId="38" r:id="rId16"/>
+    <sheet name="townHall" sheetId="31" r:id="rId17"/>
+    <sheet name="tradeGuild" sheetId="39" r:id="rId18"/>
+    <sheet name="workshop" sheetId="44" r:id="rId19"/>
+    <sheet name="trainingGround" sheetId="41" r:id="rId20"/>
+    <sheet name="hunterhall" sheetId="42" r:id="rId21"/>
+    <sheet name="stable" sheetId="43" r:id="rId22"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -144,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -186,14 +176,6 @@
   </si>
   <si>
     <t>INT_troopPopulation</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_imprisonTime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_imprisonRate</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2024,13 +2006,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2370,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2381,443 +2363,245 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="C3" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="1">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1">
-        <v>80</v>
-      </c>
-      <c r="D5" s="1">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1">
-        <v>80</v>
-      </c>
-      <c r="F5" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>160</v>
-      </c>
-      <c r="C6" s="1">
-        <v>160</v>
-      </c>
-      <c r="D6" s="1">
-        <v>160</v>
-      </c>
-      <c r="E6" s="1">
-        <v>160</v>
-      </c>
-      <c r="F6" s="3">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>320</v>
-      </c>
-      <c r="C7" s="1">
-        <v>320</v>
-      </c>
-      <c r="D7" s="1">
-        <v>320</v>
-      </c>
-      <c r="E7" s="1">
-        <v>320</v>
-      </c>
-      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>640</v>
-      </c>
-      <c r="C8" s="1">
-        <v>640</v>
-      </c>
-      <c r="D8" s="1">
-        <v>640</v>
-      </c>
-      <c r="E8" s="1">
-        <v>640</v>
-      </c>
-      <c r="F8" s="3">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>960</v>
-      </c>
-      <c r="C9" s="1">
-        <v>960</v>
-      </c>
-      <c r="D9" s="1">
-        <v>960</v>
-      </c>
-      <c r="E9" s="1">
-        <v>960</v>
-      </c>
-      <c r="F9" s="3">
+        <v>140</v>
+      </c>
+      <c r="C9" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1280</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1280</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1280</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1280</v>
-      </c>
-      <c r="F10" s="3">
+        <v>160</v>
+      </c>
+      <c r="C10" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1600</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1600</v>
-      </c>
-      <c r="F11" s="3">
+        <v>180</v>
+      </c>
+      <c r="C11" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="C12" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2400</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2400</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F13" s="3">
+        <v>220</v>
+      </c>
+      <c r="C13" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F14" s="3">
+        <v>240</v>
+      </c>
+      <c r="C14" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3600</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F15" s="3">
+        <v>260</v>
+      </c>
+      <c r="C15" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>4200</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4200</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4200</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F16" s="3">
+        <v>280</v>
+      </c>
+      <c r="C16" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>4800</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4800</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4800</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="C17" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>5600</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5600</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5600</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5600</v>
-      </c>
-      <c r="F18" s="3">
+        <v>340</v>
+      </c>
+      <c r="C18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>6400</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6400</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6400</v>
-      </c>
-      <c r="E19" s="1">
-        <v>6400</v>
-      </c>
-      <c r="F19" s="3">
+        <v>380</v>
+      </c>
+      <c r="C19" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>7200</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7200</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7200</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F20" s="3">
+        <v>420</v>
+      </c>
+      <c r="C20" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F21" s="3">
+        <v>460</v>
+      </c>
+      <c r="C21" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>9999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>9999</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9999</v>
-      </c>
-      <c r="E22" s="1">
-        <v>9999</v>
-      </c>
-      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="C22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -2835,10 +2619,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2846,839 +2630,245 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G4" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C4" s="3">
         <v>20</v>
       </c>
-      <c r="H4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6000</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6000</v>
-      </c>
-      <c r="K5" s="1">
-        <v>50</v>
-      </c>
-      <c r="L5" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="C5" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1">
-        <v>8000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>8000</v>
-      </c>
-      <c r="K6" s="1">
-        <v>60</v>
-      </c>
-      <c r="L6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K7" s="1">
-        <v>70</v>
-      </c>
-      <c r="L7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>60</v>
-      </c>
-      <c r="H8" s="1">
-        <v>12000</v>
-      </c>
-      <c r="I8" s="1">
-        <v>12000</v>
-      </c>
-      <c r="J8" s="1">
-        <v>12000</v>
-      </c>
-      <c r="K8" s="1">
-        <v>80</v>
-      </c>
-      <c r="L8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>70</v>
-      </c>
-      <c r="H9" s="1">
-        <v>14000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>14000</v>
-      </c>
-      <c r="J9" s="1">
-        <v>14000</v>
-      </c>
-      <c r="K9" s="1">
-        <v>90</v>
-      </c>
-      <c r="L9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C9" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>80</v>
-      </c>
-      <c r="H10" s="1">
-        <v>16000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>16000</v>
-      </c>
-      <c r="J10" s="1">
-        <v>16000</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="C10" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>9000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>9000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>90</v>
-      </c>
-      <c r="H11" s="1">
-        <v>18000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>18000</v>
-      </c>
-      <c r="J11" s="1">
-        <v>18000</v>
-      </c>
-      <c r="K11" s="1">
-        <v>110</v>
-      </c>
-      <c r="L11" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="C11" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1">
-        <v>20000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>20000</v>
-      </c>
-      <c r="J12" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K12" s="1">
-        <v>120</v>
-      </c>
-      <c r="L12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>11000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>11000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>11000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>110</v>
-      </c>
-      <c r="H13" s="1">
-        <v>22000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>22000</v>
-      </c>
-      <c r="J13" s="1">
-        <v>22000</v>
-      </c>
-      <c r="K13" s="1">
-        <v>130</v>
-      </c>
-      <c r="L13" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="C13" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>12000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>12000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>12000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>120</v>
-      </c>
-      <c r="H14" s="1">
-        <v>24000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>24000</v>
-      </c>
-      <c r="J14" s="1">
-        <v>24000</v>
-      </c>
-      <c r="K14" s="1">
-        <v>140</v>
-      </c>
-      <c r="L14" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C14" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>13000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>13000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>13000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>130</v>
-      </c>
-      <c r="H15" s="1">
-        <v>26000</v>
-      </c>
-      <c r="I15" s="1">
-        <v>26000</v>
-      </c>
-      <c r="J15" s="1">
-        <v>26000</v>
-      </c>
-      <c r="K15" s="1">
-        <v>150</v>
-      </c>
-      <c r="L15" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="C15" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>14000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>14000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>14000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>140</v>
-      </c>
-      <c r="H16" s="1">
-        <v>28000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>28000</v>
-      </c>
-      <c r="J16" s="1">
-        <v>28000</v>
-      </c>
-      <c r="K16" s="1">
-        <v>160</v>
-      </c>
-      <c r="L16" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C16" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>15000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>15000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>150</v>
-      </c>
-      <c r="H17" s="1">
-        <v>30000</v>
-      </c>
-      <c r="I17" s="1">
-        <v>30000</v>
-      </c>
-      <c r="J17" s="1">
-        <v>30000</v>
-      </c>
-      <c r="K17" s="1">
-        <v>170</v>
-      </c>
-      <c r="L17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C17" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>16000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>16000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>160</v>
-      </c>
-      <c r="H18" s="1">
-        <v>32000</v>
-      </c>
-      <c r="I18" s="1">
-        <v>32000</v>
-      </c>
-      <c r="J18" s="1">
-        <v>32000</v>
-      </c>
-      <c r="K18" s="1">
-        <v>180</v>
-      </c>
-      <c r="L18" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="C18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>17000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>17000</v>
-      </c>
-      <c r="F19" s="1">
-        <v>17000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>170</v>
-      </c>
-      <c r="H19" s="1">
-        <v>34000</v>
-      </c>
-      <c r="I19" s="1">
-        <v>34000</v>
-      </c>
-      <c r="J19" s="1">
-        <v>34000</v>
-      </c>
-      <c r="K19" s="1">
-        <v>190</v>
-      </c>
-      <c r="L19" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="C19" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>18000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>18000</v>
-      </c>
-      <c r="F20" s="1">
-        <v>18000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>180</v>
-      </c>
-      <c r="H20" s="1">
-        <v>36000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>36000</v>
-      </c>
-      <c r="J20" s="1">
-        <v>36000</v>
-      </c>
-      <c r="K20" s="1">
-        <v>200</v>
-      </c>
-      <c r="L20" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="C20" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>19000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>19000</v>
-      </c>
-      <c r="F21" s="1">
-        <v>19000</v>
-      </c>
-      <c r="G21" s="1">
-        <v>190</v>
-      </c>
-      <c r="H21" s="1">
-        <v>38000</v>
-      </c>
-      <c r="I21" s="1">
-        <v>38000</v>
-      </c>
-      <c r="J21" s="1">
-        <v>38000</v>
-      </c>
-      <c r="K21" s="1">
-        <v>210</v>
-      </c>
-      <c r="L21" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="C21" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="20" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>200</v>
-      </c>
-      <c r="H22" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>40000</v>
-      </c>
-      <c r="J22" s="1">
-        <v>40000</v>
-      </c>
-      <c r="K22" s="1">
-        <v>220</v>
-      </c>
-      <c r="L22" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -3712,13 +2902,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -3908,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4098,13 +3288,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4294,10 +3484,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4467,6 +3657,283 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>24000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>36000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>48000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>54000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>72000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>78000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>84000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>90000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -4487,7 +3954,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4609,229 +4076,6 @@
       </c>
       <c r="C12" s="3">
         <v>2760</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="C3" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="C4" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="C5" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C6" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3720</v>
       </c>
     </row>
   </sheetData>
@@ -4848,10 +4092,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4859,256 +4103,208 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>3600</v>
+      <c r="B3" s="3">
+        <v>600</v>
       </c>
       <c r="C3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>6000</v>
+      <c r="B4" s="3">
+        <v>840</v>
       </c>
       <c r="C4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>12000</v>
+      <c r="B5" s="3">
+        <v>1080</v>
       </c>
       <c r="C5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+        <v>400</v>
+      </c>
+      <c r="D5" s="1">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>18000</v>
+      <c r="B6" s="3">
+        <v>1320</v>
       </c>
       <c r="C6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+        <v>800</v>
+      </c>
+      <c r="D6" s="1">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>24000</v>
+      <c r="B7" s="3">
+        <v>1560</v>
       </c>
       <c r="C7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>30000</v>
+      <c r="B8" s="3">
+        <v>1800</v>
       </c>
       <c r="C8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+        <v>1600</v>
+      </c>
+      <c r="D8" s="1">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>36000</v>
+      <c r="B9" s="3">
+        <v>2040</v>
       </c>
       <c r="C9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>164</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>42000</v>
+      <c r="B10" s="3">
+        <v>2280</v>
       </c>
       <c r="C10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="D10" s="1">
+        <v>196</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>48000</v>
+      <c r="B11" s="3">
+        <v>2520</v>
       </c>
       <c r="C11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+        <v>2800</v>
+      </c>
+      <c r="D11" s="1">
+        <v>228</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>54000</v>
+      <c r="B12" s="3">
+        <v>2760</v>
       </c>
       <c r="C12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>60000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>66000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>72000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>78000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>84000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>90000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3720</v>
+        <v>3200</v>
+      </c>
+      <c r="D12" s="1">
+        <v>260</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5125,10 +4321,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5136,208 +4332,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="3">
         <v>600</v>
       </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="C4" s="3">
         <v>840</v>
       </c>
-      <c r="C4" s="1">
-        <v>200</v>
-      </c>
-      <c r="D4" s="1">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="C5" s="3">
         <v>1080</v>
       </c>
-      <c r="C5" s="1">
-        <v>400</v>
-      </c>
-      <c r="D5" s="1">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="3">
         <v>1320</v>
       </c>
-      <c r="C6" s="1">
-        <v>800</v>
-      </c>
-      <c r="D6" s="1">
-        <v>72</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
         <v>1560</v>
       </c>
-      <c r="C7" s="1">
-        <v>1200</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C8" s="3">
         <v>1800</v>
       </c>
-      <c r="C8" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D8" s="1">
-        <v>132</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C9" s="3">
         <v>2040</v>
       </c>
-      <c r="C9" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>164</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="C10" s="3">
         <v>2280</v>
       </c>
-      <c r="C10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="D10" s="1">
-        <v>196</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="C11" s="3">
         <v>2520</v>
       </c>
-      <c r="C11" s="1">
-        <v>2800</v>
-      </c>
-      <c r="D11" s="1">
-        <v>228</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
         <v>2760</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3200</v>
-      </c>
-      <c r="D12" s="1">
-        <v>260</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5370,22 +4494,22 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -5885,10 +5009,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5896,171 +5020,135 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="C4" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="3">
         <v>0.06</v>
       </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C9" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="C10" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="C11" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
         <v>2760</v>
       </c>
     </row>
@@ -6081,7 +5169,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6097,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6238,7 +5326,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6254,321 +5342,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C3" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="C4" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C3" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="C4" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6728,7 +5502,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7086,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -7333,6 +6107,471 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>240000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>240000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>240000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>240000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>640000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>640000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>640000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>640000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1840000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1840000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1840000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1840000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2240000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2240000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2240000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2240000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2640000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2640000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2640000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2640000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3040000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3040000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3040000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3040000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3440000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3440000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3440000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3440000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3840000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3840000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3840000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3840000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4240000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4240000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4240000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4240000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4640000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4640000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4640000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4640000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5040000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5040000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5040000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5040000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5440000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5440000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5440000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5440000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5840000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5840000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5840000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5840000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6240000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6240000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6240000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6240000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6640000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6640000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6640000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6640000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7040000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7040000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7040000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7040000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -7349,13 +6588,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -7586,471 +6825,6 @@
         <v>1800000</v>
       </c>
       <c r="C22" s="3">
-        <v>3960</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>120000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>120000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>120000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>120000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>240000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>240000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>240000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>240000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>640000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>640000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>640000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>640000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1040000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1040000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1040000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1040000</v>
-      </c>
-      <c r="F7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1840000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1840000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1840000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1840000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2240000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2240000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2240000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2240000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2640000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2640000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2640000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2640000</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3040000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3040000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3040000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3040000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3440000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3440000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3440000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3440000</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3840000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3840000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3840000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3840000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4240000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4240000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4240000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4240000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4640000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4640000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4640000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4640000</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5040000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5040000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5040000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5040000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5440000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5440000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5440000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5440000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5840000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5840000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5840000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5840000</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6240000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6240000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6240000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>6240000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6640000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6640000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6640000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6640000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>7040000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7040000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>7040000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7040000</v>
-      </c>
-      <c r="F22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -8068,10 +6842,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showRuler="0" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8079,245 +6853,839 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="H3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K4" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="3">
+      <c r="L4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:12" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>50</v>
+      </c>
+      <c r="L5" s="3">
         <v>60</v>
       </c>
-      <c r="C5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>80</v>
-      </c>
-      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>60</v>
+      </c>
+      <c r="L6" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:12" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>70</v>
+      </c>
+      <c r="L7" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:12" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
-      </c>
-      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>80</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:12" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>140</v>
-      </c>
-      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>70</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>14000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>90</v>
+      </c>
+      <c r="L9" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:12" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>160</v>
-      </c>
-      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>16000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:12" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>180</v>
-      </c>
-      <c r="C11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1">
+        <v>18000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>18000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>18000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>110</v>
+      </c>
+      <c r="L11" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>200</v>
-      </c>
-      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>120</v>
+      </c>
+      <c r="L12" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>220</v>
-      </c>
-      <c r="C13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>110</v>
+      </c>
+      <c r="H13" s="1">
+        <v>22000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>22000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>22000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>130</v>
+      </c>
+      <c r="L13" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>240</v>
-      </c>
-      <c r="C14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>120</v>
+      </c>
+      <c r="H14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>140</v>
+      </c>
+      <c r="L14" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:12" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>260</v>
-      </c>
-      <c r="C15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>13000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>130</v>
+      </c>
+      <c r="H15" s="1">
+        <v>26000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>26000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>26000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>150</v>
+      </c>
+      <c r="L15" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:12" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>280</v>
-      </c>
-      <c r="C16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>14000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>140</v>
+      </c>
+      <c r="H16" s="1">
+        <v>28000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>28000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>28000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>160</v>
+      </c>
+      <c r="L16" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:12" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>300</v>
-      </c>
-      <c r="C17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>150</v>
+      </c>
+      <c r="H17" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>170</v>
+      </c>
+      <c r="L17" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:12" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>340</v>
-      </c>
-      <c r="C18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>160</v>
+      </c>
+      <c r="H18" s="1">
+        <v>32000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>32000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>32000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>180</v>
+      </c>
+      <c r="L18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:12" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>380</v>
-      </c>
-      <c r="C19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>17000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>170</v>
+      </c>
+      <c r="H19" s="1">
+        <v>34000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>34000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>34000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>190</v>
+      </c>
+      <c r="L19" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>420</v>
-      </c>
-      <c r="C20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>180</v>
+      </c>
+      <c r="H20" s="1">
+        <v>36000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>36000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>36000</v>
+      </c>
+      <c r="K20" s="1">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:12" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>460</v>
-      </c>
-      <c r="C21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>19000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>190</v>
+      </c>
+      <c r="H21" s="1">
+        <v>38000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>38000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>38000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>210</v>
+      </c>
+      <c r="L21" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:12" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>500</v>
-      </c>
-      <c r="C22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>200</v>
+      </c>
+      <c r="H22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>220</v>
+      </c>
+      <c r="L22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -8335,10 +7703,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8346,245 +7714,443 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="3">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C5" s="3">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>6000</v>
-      </c>
-      <c r="C6" s="3">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1">
+        <v>160</v>
+      </c>
+      <c r="D6" s="1">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1">
+        <v>160</v>
+      </c>
+      <c r="F6" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C7" s="3">
+        <v>320</v>
+      </c>
+      <c r="C7" s="1">
+        <v>320</v>
+      </c>
+      <c r="D7" s="1">
+        <v>320</v>
+      </c>
+      <c r="E7" s="1">
+        <v>320</v>
+      </c>
+      <c r="F7" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="3">
+        <v>640</v>
+      </c>
+      <c r="C8" s="1">
+        <v>640</v>
+      </c>
+      <c r="D8" s="1">
+        <v>640</v>
+      </c>
+      <c r="E8" s="1">
+        <v>640</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>12000</v>
-      </c>
-      <c r="C9" s="3">
+        <v>960</v>
+      </c>
+      <c r="C9" s="1">
+        <v>960</v>
+      </c>
+      <c r="D9" s="1">
+        <v>960</v>
+      </c>
+      <c r="E9" s="1">
+        <v>960</v>
+      </c>
+      <c r="F9" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>16000</v>
-      </c>
-      <c r="C10" s="3">
+        <v>1280</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="F10" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C11" s="3">
+        <v>1600</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F11" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>24000</v>
-      </c>
-      <c r="C12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>28000</v>
-      </c>
-      <c r="C13" s="3">
+        <v>2400</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F13" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>32000</v>
-      </c>
-      <c r="C14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>36000</v>
-      </c>
-      <c r="C15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>40000</v>
-      </c>
-      <c r="C16" s="3">
+        <v>4200</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F16" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>44000</v>
-      </c>
-      <c r="C17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>48000</v>
-      </c>
-      <c r="C18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>52000</v>
-      </c>
-      <c r="C19" s="3">
+        <v>6400</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="F19" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>56000</v>
-      </c>
-      <c r="C20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F20" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>60000</v>
-      </c>
-      <c r="C21" s="3">
+        <v>8000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>64000</v>
-      </c>
-      <c r="C22" s="3">
+        <v>9999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="F22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -8602,10 +8168,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8621,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8643,7 +8209,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="3">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -8654,7 +8220,7 @@
         <v>0.04</v>
       </c>
       <c r="C4" s="3">
-        <v>20</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -8665,7 +8231,7 @@
         <v>0.06</v>
       </c>
       <c r="C5" s="3">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -8676,7 +8242,7 @@
         <v>0.08</v>
       </c>
       <c r="C6" s="3">
-        <v>120</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -8687,7 +8253,7 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="3">
-        <v>360</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -8698,7 +8264,7 @@
         <v>0.12</v>
       </c>
       <c r="C8" s="3">
-        <v>600</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -8709,7 +8275,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C9" s="3">
-        <v>840</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -8720,7 +8286,7 @@
         <v>0.16</v>
       </c>
       <c r="C10" s="3">
-        <v>1080</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -8731,7 +8297,7 @@
         <v>0.18</v>
       </c>
       <c r="C11" s="3">
-        <v>1320</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -8742,7 +8308,7 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="3">
-        <v>1560</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -8753,7 +8319,7 @@
         <v>0.22</v>
       </c>
       <c r="C13" s="3">
-        <v>1800</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -8764,7 +8330,7 @@
         <v>0.24</v>
       </c>
       <c r="C14" s="3">
-        <v>2040</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -8775,7 +8341,7 @@
         <v>0.26</v>
       </c>
       <c r="C15" s="3">
-        <v>2280</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -8786,7 +8352,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C16" s="3">
-        <v>2520</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -8797,7 +8363,7 @@
         <v>0.3</v>
       </c>
       <c r="C17" s="3">
-        <v>2760</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -8808,51 +8374,7 @@
         <v>0.32</v>
       </c>
       <c r="C18" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="C21" s="3">
         <v>3720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3960</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1680" windowWidth="33240" windowHeight="15980" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="1160" yWindow="520" windowWidth="33240" windowHeight="15980" tabRatio="883" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -255,14 +255,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_maxCasualty</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_casualtyRate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_maxCart</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -319,6 +311,10 @@
   </si>
   <si>
     <t>INT_maxSellQueue</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxCitizen</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3564,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -4146,7 +4142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -4163,7 +4159,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -4762,7 +4758,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -5361,7 +5357,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -5941,10 +5937,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5952,577 +5948,454 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>3600</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>6000</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>12000</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>18000</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>24000</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>30000</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>36000</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>42000</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>48000</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>54000</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>60000</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>66000</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>72000</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>78000</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>84000</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>90000</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>96000</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="3">
         <v>3960</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>102000</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>108000</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="3">
         <v>4440</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>114000</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="3">
         <v>4680</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>120000</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="3">
         <v>4920</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>126000</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="3">
         <v>5160</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>132000</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>138000</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="3">
         <v>5640</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>144000</v>
       </c>
-      <c r="C26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="3">
         <v>5880</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>150000</v>
       </c>
-      <c r="C27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="3">
         <v>6120</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>156000</v>
       </c>
-      <c r="C28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="3">
         <v>6360</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>162000</v>
       </c>
-      <c r="C29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>168000</v>
       </c>
-      <c r="C30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="3">
         <v>6840</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>174000</v>
       </c>
-      <c r="C31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="3">
         <v>7080</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>180000</v>
       </c>
-      <c r="C32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="3">
         <v>7320</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>186000</v>
       </c>
-      <c r="C33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="3">
         <v>7560</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>192000</v>
       </c>
-      <c r="C34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>198000</v>
       </c>
-      <c r="C35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="3">
         <v>8040</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>204000</v>
       </c>
-      <c r="C36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="3">
         <v>8280</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>210000</v>
       </c>
-      <c r="C37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="3">
         <v>8520</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>216000</v>
       </c>
-      <c r="C38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="3">
         <v>8760</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>222000</v>
       </c>
-      <c r="C39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>228000</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="3">
         <v>9240</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>234000</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41" s="3">
         <v>9480</v>
       </c>
     </row>
@@ -7035,13 +6908,13 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -8233,19 +8106,19 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -12545,10 +12418,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -14610,13 +14483,13 @@
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>13</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="520" windowWidth="33240" windowHeight="15980" tabRatio="883" activeTab="15"/>
+    <workbookView xWindow="4340" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -13,17 +13,17 @@
     <sheet name="watchTower" sheetId="45" r:id="rId4"/>
     <sheet name="warehouse" sheetId="19" r:id="rId5"/>
     <sheet name="dragonEyrie" sheetId="46" r:id="rId6"/>
-    <sheet name="toolShop" sheetId="36" r:id="rId7"/>
-    <sheet name="materialDepot" sheetId="35" r:id="rId8"/>
+    <sheet name="barracks" sheetId="32" r:id="rId7"/>
+    <sheet name="hospital" sheetId="38" r:id="rId8"/>
     <sheet name="academy" sheetId="37" r:id="rId9"/>
-    <sheet name="barracks" sheetId="32" r:id="rId10"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
     <sheet name="blackSmith" sheetId="34" r:id="rId11"/>
     <sheet name="foundry" sheetId="29" r:id="rId12"/>
     <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
     <sheet name="lumbermill" sheetId="27" r:id="rId14"/>
     <sheet name="mill" sheetId="30" r:id="rId15"/>
-    <sheet name="hospital" sheetId="38" r:id="rId16"/>
-    <sheet name="townHall" sheetId="31" r:id="rId17"/>
+    <sheet name="townHall" sheetId="31" r:id="rId16"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId17"/>
     <sheet name="tradeGuild" sheetId="39" r:id="rId18"/>
     <sheet name="workshop" sheetId="44" r:id="rId19"/>
     <sheet name="trainingGround" sheetId="41" r:id="rId20"/>
@@ -32,21 +32,21 @@
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
@@ -55,21 +55,21 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
@@ -78,21 +78,21 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
@@ -101,21 +101,21 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
@@ -478,7 +478,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="522">
+  <cellStyleXfs count="526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -493,6 +493,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1021,7 +1025,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="522">
+  <cellStyles count="526">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1285,6 +1289,8 @@
     <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1541,6 +1547,8 @@
     <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1993,7 +2001,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2589,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2600,454 +2608,823 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>40</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3">
         <v>60</v>
       </c>
-      <c r="C4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
-      </c>
-      <c r="C5" s="3">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1">
+        <v>160</v>
+      </c>
+      <c r="D5" s="1">
+        <v>160</v>
+      </c>
+      <c r="E5" s="1">
+        <v>160</v>
+      </c>
+      <c r="F5" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="3">
+        <v>320</v>
+      </c>
+      <c r="C6" s="1">
+        <v>320</v>
+      </c>
+      <c r="D6" s="1">
+        <v>320</v>
+      </c>
+      <c r="E6" s="1">
+        <v>320</v>
+      </c>
+      <c r="F6" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>120</v>
-      </c>
-      <c r="C7" s="3">
+        <v>640</v>
+      </c>
+      <c r="C7" s="1">
+        <v>640</v>
+      </c>
+      <c r="D7" s="1">
+        <v>640</v>
+      </c>
+      <c r="E7" s="1">
+        <v>640</v>
+      </c>
+      <c r="F7" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>140</v>
-      </c>
-      <c r="C8" s="3">
+        <v>960</v>
+      </c>
+      <c r="C8" s="1">
+        <v>960</v>
+      </c>
+      <c r="D8" s="1">
+        <v>960</v>
+      </c>
+      <c r="E8" s="1">
+        <v>960</v>
+      </c>
+      <c r="F8" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>160</v>
-      </c>
-      <c r="C9" s="3">
+        <v>1280</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1280</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1280</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1280</v>
+      </c>
+      <c r="F9" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>180</v>
-      </c>
-      <c r="C10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F10" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>200</v>
-      </c>
-      <c r="C11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>220</v>
-      </c>
-      <c r="C12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>240</v>
-      </c>
-      <c r="C13" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F13" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>260</v>
-      </c>
-      <c r="C14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>280</v>
-      </c>
-      <c r="C15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4200</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F15" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>300</v>
-      </c>
-      <c r="C16" s="3">
+        <v>4800</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4800</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F16" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>340</v>
-      </c>
-      <c r="C17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5600</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>380</v>
-      </c>
-      <c r="C18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6400</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6400</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>420</v>
-      </c>
-      <c r="C19" s="3">
+        <v>7200</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7200</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7200</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F19" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>460</v>
-      </c>
-      <c r="C20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>500</v>
-      </c>
-      <c r="C21" s="3">
+        <v>9999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9999</v>
+      </c>
+      <c r="F21" s="3">
         <v>3960</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>540</v>
-      </c>
-      <c r="C22" s="3">
+        <v>11998</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>11998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11998</v>
+      </c>
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+    <row r="23" spans="1:6" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>580</v>
-      </c>
-      <c r="C23" s="3">
+        <v>13997</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13997</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13997</v>
+      </c>
+      <c r="E23" s="1">
+        <v>13997</v>
+      </c>
+      <c r="F23" s="3">
         <v>4440</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+    <row r="24" spans="1:6" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>620</v>
-      </c>
-      <c r="C24" s="3">
+        <v>15996</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15996</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15996</v>
+      </c>
+      <c r="E24" s="1">
+        <v>15996</v>
+      </c>
+      <c r="F24" s="3">
         <v>4680</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
+    <row r="25" spans="1:6" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>660</v>
-      </c>
-      <c r="C25" s="3">
+        <v>17995</v>
+      </c>
+      <c r="C25" s="1">
+        <v>17995</v>
+      </c>
+      <c r="D25" s="1">
+        <v>17995</v>
+      </c>
+      <c r="E25" s="1">
+        <v>17995</v>
+      </c>
+      <c r="F25" s="3">
         <v>4920</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
+    <row r="26" spans="1:6" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>700</v>
-      </c>
-      <c r="C26" s="3">
+        <v>19994</v>
+      </c>
+      <c r="C26" s="1">
+        <v>19994</v>
+      </c>
+      <c r="D26" s="1">
+        <v>19994</v>
+      </c>
+      <c r="E26" s="1">
+        <v>19994</v>
+      </c>
+      <c r="F26" s="3">
         <v>5160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
+    <row r="27" spans="1:6" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>740</v>
-      </c>
-      <c r="C27" s="3">
+        <v>21993</v>
+      </c>
+      <c r="C27" s="1">
+        <v>21993</v>
+      </c>
+      <c r="D27" s="1">
+        <v>21993</v>
+      </c>
+      <c r="E27" s="1">
+        <v>21993</v>
+      </c>
+      <c r="F27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
+    <row r="28" spans="1:6" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>780</v>
-      </c>
-      <c r="C28" s="3">
+        <v>23992</v>
+      </c>
+      <c r="C28" s="1">
+        <v>23992</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23992</v>
+      </c>
+      <c r="E28" s="1">
+        <v>23992</v>
+      </c>
+      <c r="F28" s="3">
         <v>5640</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
+    <row r="29" spans="1:6" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>820</v>
-      </c>
-      <c r="C29" s="3">
+        <v>25991</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25991</v>
+      </c>
+      <c r="D29" s="1">
+        <v>25991</v>
+      </c>
+      <c r="E29" s="1">
+        <v>25991</v>
+      </c>
+      <c r="F29" s="3">
         <v>5880</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
+    <row r="30" spans="1:6" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>860</v>
-      </c>
-      <c r="C30" s="3">
+        <v>27990</v>
+      </c>
+      <c r="C30" s="1">
+        <v>27990</v>
+      </c>
+      <c r="D30" s="1">
+        <v>27990</v>
+      </c>
+      <c r="E30" s="1">
+        <v>27990</v>
+      </c>
+      <c r="F30" s="3">
         <v>6120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1">
+    <row r="31" spans="1:6" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>900</v>
-      </c>
-      <c r="C31" s="3">
+        <v>29989</v>
+      </c>
+      <c r="C31" s="1">
+        <v>29989</v>
+      </c>
+      <c r="D31" s="1">
+        <v>29989</v>
+      </c>
+      <c r="E31" s="1">
+        <v>29989</v>
+      </c>
+      <c r="F31" s="3">
         <v>6360</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
+    <row r="32" spans="1:6" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>940</v>
-      </c>
-      <c r="C32" s="3">
+        <v>31988</v>
+      </c>
+      <c r="C32" s="1">
+        <v>31988</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31988</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31988</v>
+      </c>
+      <c r="F32" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1">
+    <row r="33" spans="1:6" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>980</v>
-      </c>
-      <c r="C33" s="3">
+        <v>33987</v>
+      </c>
+      <c r="C33" s="1">
+        <v>33987</v>
+      </c>
+      <c r="D33" s="1">
+        <v>33987</v>
+      </c>
+      <c r="E33" s="1">
+        <v>33987</v>
+      </c>
+      <c r="F33" s="3">
         <v>6840</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1">
+    <row r="34" spans="1:6" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1020</v>
-      </c>
-      <c r="C34" s="3">
+        <v>35986</v>
+      </c>
+      <c r="C34" s="1">
+        <v>35986</v>
+      </c>
+      <c r="D34" s="1">
+        <v>35986</v>
+      </c>
+      <c r="E34" s="1">
+        <v>35986</v>
+      </c>
+      <c r="F34" s="3">
         <v>7080</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1">
+    <row r="35" spans="1:6" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1060</v>
-      </c>
-      <c r="C35" s="3">
+        <v>37985</v>
+      </c>
+      <c r="C35" s="1">
+        <v>37985</v>
+      </c>
+      <c r="D35" s="1">
+        <v>37985</v>
+      </c>
+      <c r="E35" s="1">
+        <v>37985</v>
+      </c>
+      <c r="F35" s="3">
         <v>7320</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1">
+    <row r="36" spans="1:6" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C36" s="3">
+        <v>39984</v>
+      </c>
+      <c r="C36" s="1">
+        <v>39984</v>
+      </c>
+      <c r="D36" s="1">
+        <v>39984</v>
+      </c>
+      <c r="E36" s="1">
+        <v>39984</v>
+      </c>
+      <c r="F36" s="3">
         <v>7560</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1">
+    <row r="37" spans="1:6" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1140</v>
-      </c>
-      <c r="C37" s="3">
+        <v>41983</v>
+      </c>
+      <c r="C37" s="1">
+        <v>41983</v>
+      </c>
+      <c r="D37" s="1">
+        <v>41983</v>
+      </c>
+      <c r="E37" s="1">
+        <v>41983</v>
+      </c>
+      <c r="F37" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1">
+    <row r="38" spans="1:6" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>1180</v>
-      </c>
-      <c r="C38" s="3">
+        <v>43982</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43982</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F38" s="3">
         <v>8040</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1">
+    <row r="39" spans="1:6" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1220</v>
-      </c>
-      <c r="C39" s="3">
+        <v>45981</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45981</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45981</v>
+      </c>
+      <c r="F39" s="3">
         <v>8280</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1">
+    <row r="40" spans="1:6" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>1260</v>
-      </c>
-      <c r="C40" s="3">
+        <v>47980</v>
+      </c>
+      <c r="C40" s="1">
+        <v>47980</v>
+      </c>
+      <c r="D40" s="1">
+        <v>47980</v>
+      </c>
+      <c r="E40" s="1">
+        <v>47980</v>
+      </c>
+      <c r="F40" s="3">
         <v>8520</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1">
+    <row r="41" spans="1:6" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C41" s="3">
+        <v>49979</v>
+      </c>
+      <c r="C41" s="1">
+        <v>49979</v>
+      </c>
+      <c r="D41" s="1">
+        <v>49979</v>
+      </c>
+      <c r="E41" s="1">
+        <v>49979</v>
+      </c>
+      <c r="F41" s="3">
         <v>8760</v>
       </c>
     </row>
@@ -5939,8 +6316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5953,7 +6330,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -5964,10 +6341,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3600</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -5975,10 +6352,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>6000</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>360</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -5986,10 +6363,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>12000</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>600</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -5997,10 +6374,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>18000</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>840</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -6008,10 +6385,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>24000</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>1080</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -6019,10 +6396,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>30000</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>1320</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -6030,10 +6407,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>36000</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>1560</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -6041,10 +6418,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>42000</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>1800</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -6052,10 +6429,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>48000</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
-        <v>2040</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -6063,10 +6440,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>2280</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -6074,10 +6451,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>60000</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>2520</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -6085,10 +6462,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>66000</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>2760</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -6096,10 +6473,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>72000</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>3000</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -6107,10 +6484,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>78000</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
-        <v>3240</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -6118,10 +6495,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>84000</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3">
-        <v>3480</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -6129,10 +6506,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>90000</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3">
-        <v>3720</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -6140,10 +6517,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>96000</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3">
-        <v>3960</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -6151,10 +6528,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>102000</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3">
-        <v>4200</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -6162,10 +6539,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>108000</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
-        <v>4440</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -6173,10 +6550,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>114000</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3">
-        <v>4680</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -6184,10 +6561,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>120000</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>4920</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -6195,10 +6572,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>126000</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3">
-        <v>5160</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -6206,10 +6583,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>132000</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3">
-        <v>5400</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -6217,10 +6594,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>138000</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
-        <v>5640</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -6228,10 +6605,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>144000</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3">
-        <v>5880</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -6239,10 +6616,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>150000</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3">
-        <v>6120</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -6250,10 +6627,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>156000</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3">
-        <v>6360</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -6261,10 +6638,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>162000</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3">
-        <v>6600</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -6272,10 +6649,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>168000</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3">
-        <v>6840</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -6283,10 +6660,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>174000</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3">
-        <v>7080</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -6294,10 +6671,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>180000</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3">
-        <v>7320</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -6305,10 +6682,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>186000</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3">
-        <v>7560</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -6316,10 +6693,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>192000</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3">
-        <v>7800</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -6327,10 +6704,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>198000</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>8040</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -6338,10 +6715,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>204000</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>8280</v>
+        <v>8760</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -6349,10 +6726,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>210000</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3">
-        <v>8520</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -6360,10 +6737,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>216000</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3">
-        <v>8760</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -6371,10 +6748,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>222000</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
-        <v>9000</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6382,10 +6759,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>228000</v>
+        <v>35</v>
       </c>
       <c r="C40" s="3">
-        <v>9240</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -6393,10 +6770,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>234000</v>
+        <v>36</v>
       </c>
       <c r="C41" s="3">
-        <v>9480</v>
+        <v>9960</v>
       </c>
     </row>
   </sheetData>
@@ -6413,10 +6790,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6424,455 +6801,1562 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>40</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>60</v>
+      </c>
+      <c r="L5" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>70</v>
+      </c>
+      <c r="L6" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>80</v>
+      </c>
+      <c r="L7" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>70</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>14000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>14000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>90</v>
+      </c>
+      <c r="L8" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1">
+        <v>16000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>16000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>16000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>90</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>18000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>18000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>110</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>120</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>110</v>
+      </c>
+      <c r="H12" s="1">
+        <v>22000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>22000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>22000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>130</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>120</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>24000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>24000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>140</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>130</v>
+      </c>
+      <c r="H14" s="1">
+        <v>26000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>26000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>26000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>150</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>140</v>
+      </c>
+      <c r="H15" s="1">
+        <v>28000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>28000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>28000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>160</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>150</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>170</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>160</v>
+      </c>
+      <c r="H17" s="1">
+        <v>32000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>32000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>32000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>180</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>17000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>170</v>
+      </c>
+      <c r="H18" s="1">
+        <v>34000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>34000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>34000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>190</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4680</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>180</v>
+      </c>
+      <c r="H19" s="1">
+        <v>36000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>36000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>36000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>200</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>19000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>19000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>190</v>
+      </c>
+      <c r="H20" s="1">
+        <v>38000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>38000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>38000</v>
+      </c>
+      <c r="K20" s="1">
+        <v>210</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>200</v>
+      </c>
+      <c r="H21" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>220</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>21000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>210</v>
+      </c>
+      <c r="H22" s="1">
+        <v>42000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>42000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>42000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>230</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>22000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>22000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>220</v>
+      </c>
+      <c r="H23" s="1">
+        <v>44000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>44000</v>
+      </c>
+      <c r="K23" s="1">
+        <v>240</v>
+      </c>
+      <c r="L23" s="3">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5880</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>23000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>23000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>230</v>
+      </c>
+      <c r="H24" s="1">
+        <v>46000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>46000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>46000</v>
+      </c>
+      <c r="K24" s="1">
+        <v>250</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>24000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>24000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>240</v>
+      </c>
+      <c r="H25" s="1">
+        <v>48000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>48000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>48000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>260</v>
+      </c>
+      <c r="L25" s="3">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>21</v>
-      </c>
-      <c r="C26" s="3">
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>250</v>
+      </c>
+      <c r="H26" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>50000</v>
+      </c>
+      <c r="K26" s="1">
+        <v>270</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>22</v>
-      </c>
-      <c r="C27" s="3">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>26000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>26000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>26000</v>
+      </c>
+      <c r="G27" s="1">
+        <v>260</v>
+      </c>
+      <c r="H27" s="1">
+        <v>52000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>52000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>52000</v>
+      </c>
+      <c r="K27" s="1">
+        <v>280</v>
+      </c>
+      <c r="L27" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>23</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6840</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>27000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>27000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>27000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>270</v>
+      </c>
+      <c r="H28" s="1">
+        <v>54000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>54000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>54000</v>
+      </c>
+      <c r="K28" s="1">
+        <v>290</v>
+      </c>
+      <c r="L28" s="3">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>24</v>
-      </c>
-      <c r="C29" s="3">
-        <v>7080</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>28000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>28000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>28000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>280</v>
+      </c>
+      <c r="H29" s="1">
+        <v>56000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>56000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>56000</v>
+      </c>
+      <c r="K29" s="1">
+        <v>300</v>
+      </c>
+      <c r="L29" s="3">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3">
-        <v>7320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>29000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>29000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>29000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>290</v>
+      </c>
+      <c r="H30" s="1">
+        <v>58000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>58000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>58000</v>
+      </c>
+      <c r="K30" s="1">
+        <v>310</v>
+      </c>
+      <c r="L30" s="3">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>26</v>
-      </c>
-      <c r="C31" s="3">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>300</v>
+      </c>
+      <c r="H31" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>60000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>320</v>
+      </c>
+      <c r="L31" s="3">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>31000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>310</v>
+      </c>
+      <c r="H32" s="1">
+        <v>62000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>62000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>62000</v>
+      </c>
+      <c r="K32" s="1">
+        <v>330</v>
+      </c>
+      <c r="L32" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>28</v>
-      </c>
-      <c r="C33" s="3">
-        <v>8040</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>32000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>32000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>32000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>320</v>
+      </c>
+      <c r="H33" s="1">
+        <v>64000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>64000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>64000</v>
+      </c>
+      <c r="K33" s="1">
+        <v>340</v>
+      </c>
+      <c r="L33" s="3">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3">
-        <v>8280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>33000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>33000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>33000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>330</v>
+      </c>
+      <c r="H34" s="1">
+        <v>66000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>66000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>66000</v>
+      </c>
+      <c r="K34" s="1">
+        <v>350</v>
+      </c>
+      <c r="L34" s="3">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>30</v>
-      </c>
-      <c r="C35" s="3">
-        <v>8520</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>34000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>34000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>34000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>340</v>
+      </c>
+      <c r="H35" s="1">
+        <v>68000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>68000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>68000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>360</v>
+      </c>
+      <c r="L35" s="3">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>31</v>
-      </c>
-      <c r="C36" s="3">
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>35000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>35000</v>
+      </c>
+      <c r="F36" s="1">
+        <v>35000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>350</v>
+      </c>
+      <c r="H36" s="1">
+        <v>70000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>70000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>70000</v>
+      </c>
+      <c r="K36" s="1">
+        <v>370</v>
+      </c>
+      <c r="L36" s="3">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>32</v>
-      </c>
-      <c r="C37" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>36000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>36000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>360</v>
+      </c>
+      <c r="H37" s="1">
+        <v>72000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>72000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>72000</v>
+      </c>
+      <c r="K37" s="1">
+        <v>380</v>
+      </c>
+      <c r="L37" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>33</v>
-      </c>
-      <c r="C38" s="3">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>37000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>37000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>37000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>370</v>
+      </c>
+      <c r="H38" s="1">
+        <v>74000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>74000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>74000</v>
+      </c>
+      <c r="K38" s="1">
+        <v>390</v>
+      </c>
+      <c r="L38" s="3">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>34</v>
-      </c>
-      <c r="C39" s="3">
-        <v>9480</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>38000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>38000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>38000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>380</v>
+      </c>
+      <c r="H39" s="1">
+        <v>76000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>76000</v>
+      </c>
+      <c r="J39" s="1">
+        <v>76000</v>
+      </c>
+      <c r="K39" s="1">
+        <v>400</v>
+      </c>
+      <c r="L39" s="3">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>35</v>
-      </c>
-      <c r="C40" s="3">
-        <v>9720</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>39000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>39000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>39000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>390</v>
+      </c>
+      <c r="H40" s="1">
+        <v>78000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>78000</v>
+      </c>
+      <c r="J40" s="1">
+        <v>78000</v>
+      </c>
+      <c r="K40" s="1">
+        <v>410</v>
+      </c>
+      <c r="L40" s="3">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>36</v>
-      </c>
-      <c r="C41" s="3">
-        <v>9960</v>
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>40000</v>
+      </c>
+      <c r="G41" s="1">
+        <v>400</v>
+      </c>
+      <c r="H41" s="1">
+        <v>80000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J41" s="1">
+        <v>80000</v>
+      </c>
+      <c r="K41" s="1">
+        <v>420</v>
+      </c>
+      <c r="L41" s="3">
+        <v>8760</v>
       </c>
     </row>
   </sheetData>
@@ -12881,10 +14365,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:L41"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12892,1561 +14376,454 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K2" s="1">
-        <v>30</v>
-      </c>
-      <c r="L2" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G3" s="1">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3">
         <v>20</v>
       </c>
-      <c r="H3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>50</v>
-      </c>
-      <c r="L4" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="J5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="K5" s="1">
-        <v>60</v>
-      </c>
-      <c r="L5" s="3">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K6" s="1">
-        <v>70</v>
-      </c>
-      <c r="L6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>60</v>
-      </c>
-      <c r="H7" s="1">
-        <v>12000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>12000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>12000</v>
-      </c>
-      <c r="K7" s="1">
-        <v>80</v>
-      </c>
-      <c r="L7" s="3">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>70</v>
-      </c>
-      <c r="H8" s="1">
-        <v>14000</v>
-      </c>
-      <c r="I8" s="1">
-        <v>14000</v>
-      </c>
-      <c r="J8" s="1">
-        <v>14000</v>
-      </c>
-      <c r="K8" s="1">
-        <v>90</v>
-      </c>
-      <c r="L8" s="3">
+        <v>140</v>
+      </c>
+      <c r="C8" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>80</v>
-      </c>
-      <c r="H9" s="1">
-        <v>16000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>16000</v>
-      </c>
-      <c r="J9" s="1">
-        <v>16000</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3">
+        <v>160</v>
+      </c>
+      <c r="C9" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>90</v>
-      </c>
-      <c r="H10" s="1">
-        <v>18000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>18000</v>
-      </c>
-      <c r="J10" s="1">
-        <v>18000</v>
-      </c>
-      <c r="K10" s="1">
-        <v>110</v>
-      </c>
-      <c r="L10" s="3">
+        <v>180</v>
+      </c>
+      <c r="C10" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="1">
-        <v>20000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>20000</v>
-      </c>
-      <c r="J11" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K11" s="1">
-        <v>120</v>
-      </c>
-      <c r="L11" s="3">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>11000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>11000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>110</v>
-      </c>
-      <c r="H12" s="1">
-        <v>22000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>22000</v>
-      </c>
-      <c r="J12" s="1">
-        <v>22000</v>
-      </c>
-      <c r="K12" s="1">
-        <v>130</v>
-      </c>
-      <c r="L12" s="3">
+        <v>220</v>
+      </c>
+      <c r="C12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>12000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>12000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>12000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>120</v>
-      </c>
-      <c r="H13" s="1">
-        <v>24000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>24000</v>
-      </c>
-      <c r="J13" s="1">
-        <v>24000</v>
-      </c>
-      <c r="K13" s="1">
-        <v>140</v>
-      </c>
-      <c r="L13" s="3">
+        <v>240</v>
+      </c>
+      <c r="C13" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>13000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>13000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>130</v>
-      </c>
-      <c r="H14" s="1">
-        <v>26000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>26000</v>
-      </c>
-      <c r="J14" s="1">
-        <v>26000</v>
-      </c>
-      <c r="K14" s="1">
-        <v>150</v>
-      </c>
-      <c r="L14" s="3">
+        <v>260</v>
+      </c>
+      <c r="C14" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>14000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>14000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>14000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>140</v>
-      </c>
-      <c r="H15" s="1">
-        <v>28000</v>
-      </c>
-      <c r="I15" s="1">
-        <v>28000</v>
-      </c>
-      <c r="J15" s="1">
-        <v>28000</v>
-      </c>
-      <c r="K15" s="1">
-        <v>160</v>
-      </c>
-      <c r="L15" s="3">
+        <v>280</v>
+      </c>
+      <c r="C15" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>15000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>150</v>
-      </c>
-      <c r="H16" s="1">
-        <v>30000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>30000</v>
-      </c>
-      <c r="J16" s="1">
-        <v>30000</v>
-      </c>
-      <c r="K16" s="1">
-        <v>170</v>
-      </c>
-      <c r="L16" s="3">
+        <v>300</v>
+      </c>
+      <c r="C16" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>16000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>16000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>160</v>
-      </c>
-      <c r="H17" s="1">
-        <v>32000</v>
-      </c>
-      <c r="I17" s="1">
-        <v>32000</v>
-      </c>
-      <c r="J17" s="1">
-        <v>32000</v>
-      </c>
-      <c r="K17" s="1">
-        <v>180</v>
-      </c>
-      <c r="L17" s="3">
+        <v>340</v>
+      </c>
+      <c r="C17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>17000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>17000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>17000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>170</v>
-      </c>
-      <c r="H18" s="1">
-        <v>34000</v>
-      </c>
-      <c r="I18" s="1">
-        <v>34000</v>
-      </c>
-      <c r="J18" s="1">
-        <v>34000</v>
-      </c>
-      <c r="K18" s="1">
-        <v>190</v>
-      </c>
-      <c r="L18" s="3">
+        <v>380</v>
+      </c>
+      <c r="C18" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>18000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>18000</v>
-      </c>
-      <c r="F19" s="1">
-        <v>18000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>180</v>
-      </c>
-      <c r="H19" s="1">
-        <v>36000</v>
-      </c>
-      <c r="I19" s="1">
-        <v>36000</v>
-      </c>
-      <c r="J19" s="1">
-        <v>36000</v>
-      </c>
-      <c r="K19" s="1">
-        <v>200</v>
-      </c>
-      <c r="L19" s="3">
+        <v>420</v>
+      </c>
+      <c r="C19" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>19000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>19000</v>
-      </c>
-      <c r="F20" s="1">
-        <v>19000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>190</v>
-      </c>
-      <c r="H20" s="1">
-        <v>38000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>38000</v>
-      </c>
-      <c r="J20" s="1">
-        <v>38000</v>
-      </c>
-      <c r="K20" s="1">
-        <v>210</v>
-      </c>
-      <c r="L20" s="3">
+        <v>460</v>
+      </c>
+      <c r="C20" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F21" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G21" s="1">
-        <v>200</v>
-      </c>
-      <c r="H21" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I21" s="1">
-        <v>40000</v>
-      </c>
-      <c r="J21" s="1">
-        <v>40000</v>
-      </c>
-      <c r="K21" s="1">
-        <v>220</v>
-      </c>
-      <c r="L21" s="3">
+        <v>500</v>
+      </c>
+      <c r="C21" s="3">
         <v>3960</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="20" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>21000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>21000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>21000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>210</v>
-      </c>
-      <c r="H22" s="1">
-        <v>42000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>42000</v>
-      </c>
-      <c r="J22" s="1">
-        <v>42000</v>
-      </c>
-      <c r="K22" s="1">
-        <v>230</v>
-      </c>
-      <c r="L22" s="3">
+        <v>540</v>
+      </c>
+      <c r="C22" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="20" customHeight="1">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>22000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>22000</v>
-      </c>
-      <c r="F23" s="1">
-        <v>22000</v>
-      </c>
-      <c r="G23" s="1">
-        <v>220</v>
-      </c>
-      <c r="H23" s="1">
-        <v>44000</v>
-      </c>
-      <c r="I23" s="1">
-        <v>44000</v>
-      </c>
-      <c r="J23" s="1">
-        <v>44000</v>
-      </c>
-      <c r="K23" s="1">
-        <v>240</v>
-      </c>
-      <c r="L23" s="3">
+        <v>580</v>
+      </c>
+      <c r="C23" s="3">
         <v>4440</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>23000</v>
-      </c>
-      <c r="E24" s="1">
-        <v>23000</v>
-      </c>
-      <c r="F24" s="1">
-        <v>23000</v>
-      </c>
-      <c r="G24" s="1">
-        <v>230</v>
-      </c>
-      <c r="H24" s="1">
-        <v>46000</v>
-      </c>
-      <c r="I24" s="1">
-        <v>46000</v>
-      </c>
-      <c r="J24" s="1">
-        <v>46000</v>
-      </c>
-      <c r="K24" s="1">
-        <v>250</v>
-      </c>
-      <c r="L24" s="3">
+        <v>620</v>
+      </c>
+      <c r="C24" s="3">
         <v>4680</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20" customHeight="1">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>24000</v>
-      </c>
-      <c r="E25" s="1">
-        <v>24000</v>
-      </c>
-      <c r="F25" s="1">
-        <v>24000</v>
-      </c>
-      <c r="G25" s="1">
-        <v>240</v>
-      </c>
-      <c r="H25" s="1">
-        <v>48000</v>
-      </c>
-      <c r="I25" s="1">
-        <v>48000</v>
-      </c>
-      <c r="J25" s="1">
-        <v>48000</v>
-      </c>
-      <c r="K25" s="1">
-        <v>260</v>
-      </c>
-      <c r="L25" s="3">
+        <v>660</v>
+      </c>
+      <c r="C25" s="3">
         <v>4920</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="20" customHeight="1">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>25000</v>
-      </c>
-      <c r="E26" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F26" s="1">
-        <v>25000</v>
-      </c>
-      <c r="G26" s="1">
-        <v>250</v>
-      </c>
-      <c r="H26" s="1">
-        <v>50000</v>
-      </c>
-      <c r="I26" s="1">
-        <v>50000</v>
-      </c>
-      <c r="J26" s="1">
-        <v>50000</v>
-      </c>
-      <c r="K26" s="1">
-        <v>270</v>
-      </c>
-      <c r="L26" s="3">
+        <v>700</v>
+      </c>
+      <c r="C26" s="3">
         <v>5160</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20" customHeight="1">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1">
-        <v>26000</v>
-      </c>
-      <c r="E27" s="1">
-        <v>26000</v>
-      </c>
-      <c r="F27" s="1">
-        <v>26000</v>
-      </c>
-      <c r="G27" s="1">
-        <v>260</v>
-      </c>
-      <c r="H27" s="1">
-        <v>52000</v>
-      </c>
-      <c r="I27" s="1">
-        <v>52000</v>
-      </c>
-      <c r="J27" s="1">
-        <v>52000</v>
-      </c>
-      <c r="K27" s="1">
-        <v>280</v>
-      </c>
-      <c r="L27" s="3">
+        <v>740</v>
+      </c>
+      <c r="C27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20" customHeight="1">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>27000</v>
-      </c>
-      <c r="E28" s="1">
-        <v>27000</v>
-      </c>
-      <c r="F28" s="1">
-        <v>27000</v>
-      </c>
-      <c r="G28" s="1">
-        <v>270</v>
-      </c>
-      <c r="H28" s="1">
-        <v>54000</v>
-      </c>
-      <c r="I28" s="1">
-        <v>54000</v>
-      </c>
-      <c r="J28" s="1">
-        <v>54000</v>
-      </c>
-      <c r="K28" s="1">
-        <v>290</v>
-      </c>
-      <c r="L28" s="3">
+        <v>780</v>
+      </c>
+      <c r="C28" s="3">
         <v>5640</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="20" customHeight="1">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>28000</v>
-      </c>
-      <c r="E29" s="1">
-        <v>28000</v>
-      </c>
-      <c r="F29" s="1">
-        <v>28000</v>
-      </c>
-      <c r="G29" s="1">
-        <v>280</v>
-      </c>
-      <c r="H29" s="1">
-        <v>56000</v>
-      </c>
-      <c r="I29" s="1">
-        <v>56000</v>
-      </c>
-      <c r="J29" s="1">
-        <v>56000</v>
-      </c>
-      <c r="K29" s="1">
-        <v>300</v>
-      </c>
-      <c r="L29" s="3">
+        <v>820</v>
+      </c>
+      <c r="C29" s="3">
         <v>5880</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="20" customHeight="1">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>29000</v>
-      </c>
-      <c r="E30" s="1">
-        <v>29000</v>
-      </c>
-      <c r="F30" s="1">
-        <v>29000</v>
-      </c>
-      <c r="G30" s="1">
-        <v>290</v>
-      </c>
-      <c r="H30" s="1">
-        <v>58000</v>
-      </c>
-      <c r="I30" s="1">
-        <v>58000</v>
-      </c>
-      <c r="J30" s="1">
-        <v>58000</v>
-      </c>
-      <c r="K30" s="1">
-        <v>310</v>
-      </c>
-      <c r="L30" s="3">
+        <v>860</v>
+      </c>
+      <c r="C30" s="3">
         <v>6120</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="20" customHeight="1">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E31" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F31" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G31" s="1">
-        <v>300</v>
-      </c>
-      <c r="H31" s="1">
-        <v>60000</v>
-      </c>
-      <c r="I31" s="1">
-        <v>60000</v>
-      </c>
-      <c r="J31" s="1">
-        <v>60000</v>
-      </c>
-      <c r="K31" s="1">
-        <v>320</v>
-      </c>
-      <c r="L31" s="3">
+        <v>900</v>
+      </c>
+      <c r="C31" s="3">
         <v>6360</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="20" customHeight="1">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1">
-        <v>31000</v>
-      </c>
-      <c r="E32" s="1">
-        <v>31000</v>
-      </c>
-      <c r="F32" s="1">
-        <v>31000</v>
-      </c>
-      <c r="G32" s="1">
-        <v>310</v>
-      </c>
-      <c r="H32" s="1">
-        <v>62000</v>
-      </c>
-      <c r="I32" s="1">
-        <v>62000</v>
-      </c>
-      <c r="J32" s="1">
-        <v>62000</v>
-      </c>
-      <c r="K32" s="1">
-        <v>330</v>
-      </c>
-      <c r="L32" s="3">
+        <v>940</v>
+      </c>
+      <c r="C32" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="20" customHeight="1">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>32000</v>
-      </c>
-      <c r="E33" s="1">
-        <v>32000</v>
-      </c>
-      <c r="F33" s="1">
-        <v>32000</v>
-      </c>
-      <c r="G33" s="1">
-        <v>320</v>
-      </c>
-      <c r="H33" s="1">
-        <v>64000</v>
-      </c>
-      <c r="I33" s="1">
-        <v>64000</v>
-      </c>
-      <c r="J33" s="1">
-        <v>64000</v>
-      </c>
-      <c r="K33" s="1">
-        <v>340</v>
-      </c>
-      <c r="L33" s="3">
+        <v>980</v>
+      </c>
+      <c r="C33" s="3">
         <v>6840</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="20" customHeight="1">
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>33000</v>
-      </c>
-      <c r="E34" s="1">
-        <v>33000</v>
-      </c>
-      <c r="F34" s="1">
-        <v>33000</v>
-      </c>
-      <c r="G34" s="1">
-        <v>330</v>
-      </c>
-      <c r="H34" s="1">
-        <v>66000</v>
-      </c>
-      <c r="I34" s="1">
-        <v>66000</v>
-      </c>
-      <c r="J34" s="1">
-        <v>66000</v>
-      </c>
-      <c r="K34" s="1">
-        <v>350</v>
-      </c>
-      <c r="L34" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C34" s="3">
         <v>7080</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="20" customHeight="1">
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1">
-        <v>34000</v>
-      </c>
-      <c r="E35" s="1">
-        <v>34000</v>
-      </c>
-      <c r="F35" s="1">
-        <v>34000</v>
-      </c>
-      <c r="G35" s="1">
-        <v>340</v>
-      </c>
-      <c r="H35" s="1">
-        <v>68000</v>
-      </c>
-      <c r="I35" s="1">
-        <v>68000</v>
-      </c>
-      <c r="J35" s="1">
-        <v>68000</v>
-      </c>
-      <c r="K35" s="1">
-        <v>360</v>
-      </c>
-      <c r="L35" s="3">
+        <v>1060</v>
+      </c>
+      <c r="C35" s="3">
         <v>7320</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="20" customHeight="1">
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E36" s="1">
-        <v>35000</v>
-      </c>
-      <c r="F36" s="1">
-        <v>35000</v>
-      </c>
-      <c r="G36" s="1">
-        <v>350</v>
-      </c>
-      <c r="H36" s="1">
-        <v>70000</v>
-      </c>
-      <c r="I36" s="1">
-        <v>70000</v>
-      </c>
-      <c r="J36" s="1">
-        <v>70000</v>
-      </c>
-      <c r="K36" s="1">
-        <v>370</v>
-      </c>
-      <c r="L36" s="3">
+        <v>1100</v>
+      </c>
+      <c r="C36" s="3">
         <v>7560</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="20" customHeight="1">
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1">
-        <v>36000</v>
-      </c>
-      <c r="E37" s="1">
-        <v>36000</v>
-      </c>
-      <c r="F37" s="1">
-        <v>36000</v>
-      </c>
-      <c r="G37" s="1">
-        <v>360</v>
-      </c>
-      <c r="H37" s="1">
-        <v>72000</v>
-      </c>
-      <c r="I37" s="1">
-        <v>72000</v>
-      </c>
-      <c r="J37" s="1">
-        <v>72000</v>
-      </c>
-      <c r="K37" s="1">
-        <v>380</v>
-      </c>
-      <c r="L37" s="3">
+        <v>1140</v>
+      </c>
+      <c r="C37" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20" customHeight="1">
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1">
-        <v>37000</v>
-      </c>
-      <c r="E38" s="1">
-        <v>37000</v>
-      </c>
-      <c r="F38" s="1">
-        <v>37000</v>
-      </c>
-      <c r="G38" s="1">
-        <v>370</v>
-      </c>
-      <c r="H38" s="1">
-        <v>74000</v>
-      </c>
-      <c r="I38" s="1">
-        <v>74000</v>
-      </c>
-      <c r="J38" s="1">
-        <v>74000</v>
-      </c>
-      <c r="K38" s="1">
-        <v>390</v>
-      </c>
-      <c r="L38" s="3">
+        <v>1180</v>
+      </c>
+      <c r="C38" s="3">
         <v>8040</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="20" customHeight="1">
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1">
-        <v>38000</v>
-      </c>
-      <c r="E39" s="1">
-        <v>38000</v>
-      </c>
-      <c r="F39" s="1">
-        <v>38000</v>
-      </c>
-      <c r="G39" s="1">
-        <v>380</v>
-      </c>
-      <c r="H39" s="1">
-        <v>76000</v>
-      </c>
-      <c r="I39" s="1">
-        <v>76000</v>
-      </c>
-      <c r="J39" s="1">
-        <v>76000</v>
-      </c>
-      <c r="K39" s="1">
-        <v>400</v>
-      </c>
-      <c r="L39" s="3">
+        <v>1220</v>
+      </c>
+      <c r="C39" s="3">
         <v>8280</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="20" customHeight="1">
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1">
-        <v>39000</v>
-      </c>
-      <c r="E40" s="1">
-        <v>39000</v>
-      </c>
-      <c r="F40" s="1">
-        <v>39000</v>
-      </c>
-      <c r="G40" s="1">
-        <v>390</v>
-      </c>
-      <c r="H40" s="1">
-        <v>78000</v>
-      </c>
-      <c r="I40" s="1">
-        <v>78000</v>
-      </c>
-      <c r="J40" s="1">
-        <v>78000</v>
-      </c>
-      <c r="K40" s="1">
-        <v>410</v>
-      </c>
-      <c r="L40" s="3">
+        <v>1260</v>
+      </c>
+      <c r="C40" s="3">
         <v>8520</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="20" customHeight="1">
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E41" s="1">
-        <v>40000</v>
-      </c>
-      <c r="F41" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G41" s="1">
-        <v>400</v>
-      </c>
-      <c r="H41" s="1">
-        <v>80000</v>
-      </c>
-      <c r="I41" s="1">
-        <v>80000</v>
-      </c>
-      <c r="J41" s="1">
-        <v>80000</v>
-      </c>
-      <c r="K41" s="1">
-        <v>420</v>
-      </c>
-      <c r="L41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C41" s="3">
         <v>8760</v>
       </c>
     </row>
@@ -14464,10 +14841,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F41"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14475,824 +14852,455 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+        <v>3600</v>
+      </c>
+      <c r="C2" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+        <v>6000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1">
-        <v>80</v>
-      </c>
-      <c r="F4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+        <v>12000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>160</v>
-      </c>
-      <c r="C5" s="1">
-        <v>160</v>
-      </c>
-      <c r="D5" s="1">
-        <v>160</v>
-      </c>
-      <c r="E5" s="1">
-        <v>160</v>
-      </c>
-      <c r="F5" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+        <v>18000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>320</v>
-      </c>
-      <c r="C6" s="1">
-        <v>320</v>
-      </c>
-      <c r="D6" s="1">
-        <v>320</v>
-      </c>
-      <c r="E6" s="1">
-        <v>320</v>
-      </c>
-      <c r="F6" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+        <v>24000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>640</v>
-      </c>
-      <c r="C7" s="1">
-        <v>640</v>
-      </c>
-      <c r="D7" s="1">
-        <v>640</v>
-      </c>
-      <c r="E7" s="1">
-        <v>640</v>
-      </c>
-      <c r="F7" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>960</v>
-      </c>
-      <c r="C8" s="1">
-        <v>960</v>
-      </c>
-      <c r="D8" s="1">
-        <v>960</v>
-      </c>
-      <c r="E8" s="1">
-        <v>960</v>
-      </c>
-      <c r="F8" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+        <v>36000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1280</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1280</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1280</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1280</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+        <v>42000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1600</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+        <v>48000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+        <v>54000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2400</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2400</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+        <v>66000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3600</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+        <v>72000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4200</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4200</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4200</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+        <v>78000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4800</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4800</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4800</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+        <v>84000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>5600</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5600</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5600</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+        <v>90000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>6400</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6400</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6400</v>
-      </c>
-      <c r="E18" s="1">
-        <v>6400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+        <v>96000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>7200</v>
-      </c>
-      <c r="C19" s="1">
-        <v>7200</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7200</v>
-      </c>
-      <c r="E19" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+        <v>102000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+        <v>108000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>9999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>9999</v>
-      </c>
-      <c r="D21" s="1">
-        <v>9999</v>
-      </c>
-      <c r="E21" s="1">
-        <v>9999</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+        <v>114000</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>11998</v>
-      </c>
-      <c r="C22" s="1">
-        <v>11998</v>
-      </c>
-      <c r="D22" s="1">
-        <v>11998</v>
-      </c>
-      <c r="E22" s="1">
-        <v>11998</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
+        <v>120000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>13997</v>
-      </c>
-      <c r="C23" s="1">
-        <v>13997</v>
-      </c>
-      <c r="D23" s="1">
-        <v>13997</v>
-      </c>
-      <c r="E23" s="1">
-        <v>13997</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
+        <v>126000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>15996</v>
-      </c>
-      <c r="C24" s="1">
-        <v>15996</v>
-      </c>
-      <c r="D24" s="1">
-        <v>15996</v>
-      </c>
-      <c r="E24" s="1">
-        <v>15996</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4680</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
+        <v>132000</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>17995</v>
-      </c>
-      <c r="C25" s="1">
-        <v>17995</v>
-      </c>
-      <c r="D25" s="1">
-        <v>17995</v>
-      </c>
-      <c r="E25" s="1">
-        <v>17995</v>
-      </c>
-      <c r="F25" s="3">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
+        <v>138000</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>19994</v>
-      </c>
-      <c r="C26" s="1">
-        <v>19994</v>
-      </c>
-      <c r="D26" s="1">
-        <v>19994</v>
-      </c>
-      <c r="E26" s="1">
-        <v>19994</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
+        <v>144000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>21993</v>
-      </c>
-      <c r="C27" s="1">
-        <v>21993</v>
-      </c>
-      <c r="D27" s="1">
-        <v>21993</v>
-      </c>
-      <c r="E27" s="1">
-        <v>21993</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
+        <v>150000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>23992</v>
-      </c>
-      <c r="C28" s="1">
-        <v>23992</v>
-      </c>
-      <c r="D28" s="1">
-        <v>23992</v>
-      </c>
-      <c r="E28" s="1">
-        <v>23992</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
+        <v>156000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>25991</v>
-      </c>
-      <c r="C29" s="1">
-        <v>25991</v>
-      </c>
-      <c r="D29" s="1">
-        <v>25991</v>
-      </c>
-      <c r="E29" s="1">
-        <v>25991</v>
-      </c>
-      <c r="F29" s="3">
-        <v>5880</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
+        <v>162000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>27990</v>
-      </c>
-      <c r="C30" s="1">
-        <v>27990</v>
-      </c>
-      <c r="D30" s="1">
-        <v>27990</v>
-      </c>
-      <c r="E30" s="1">
-        <v>27990</v>
-      </c>
-      <c r="F30" s="3">
-        <v>6120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
+        <v>168000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>29989</v>
-      </c>
-      <c r="C31" s="1">
-        <v>29989</v>
-      </c>
-      <c r="D31" s="1">
-        <v>29989</v>
-      </c>
-      <c r="E31" s="1">
-        <v>29989</v>
-      </c>
-      <c r="F31" s="3">
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="C31" s="3">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>31988</v>
-      </c>
-      <c r="C32" s="1">
-        <v>31988</v>
-      </c>
-      <c r="D32" s="1">
-        <v>31988</v>
-      </c>
-      <c r="E32" s="1">
-        <v>31988</v>
-      </c>
-      <c r="F32" s="3">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
+        <v>180000</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>33987</v>
-      </c>
-      <c r="C33" s="1">
-        <v>33987</v>
-      </c>
-      <c r="D33" s="1">
-        <v>33987</v>
-      </c>
-      <c r="E33" s="1">
-        <v>33987</v>
-      </c>
-      <c r="F33" s="3">
-        <v>6840</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
+        <v>186000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>35986</v>
-      </c>
-      <c r="C34" s="1">
-        <v>35986</v>
-      </c>
-      <c r="D34" s="1">
-        <v>35986</v>
-      </c>
-      <c r="E34" s="1">
-        <v>35986</v>
-      </c>
-      <c r="F34" s="3">
-        <v>7080</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
+        <v>192000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>37985</v>
-      </c>
-      <c r="C35" s="1">
-        <v>37985</v>
-      </c>
-      <c r="D35" s="1">
-        <v>37985</v>
-      </c>
-      <c r="E35" s="1">
-        <v>37985</v>
-      </c>
-      <c r="F35" s="3">
-        <v>7320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
+        <v>198000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>39984</v>
-      </c>
-      <c r="C36" s="1">
-        <v>39984</v>
-      </c>
-      <c r="D36" s="1">
-        <v>39984</v>
-      </c>
-      <c r="E36" s="1">
-        <v>39984</v>
-      </c>
-      <c r="F36" s="3">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
+        <v>204000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>41983</v>
-      </c>
-      <c r="C37" s="1">
-        <v>41983</v>
-      </c>
-      <c r="D37" s="1">
-        <v>41983</v>
-      </c>
-      <c r="E37" s="1">
-        <v>41983</v>
-      </c>
-      <c r="F37" s="3">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
+        <v>210000</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>43982</v>
-      </c>
-      <c r="C38" s="1">
-        <v>43982</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43982</v>
-      </c>
-      <c r="E38" s="1">
-        <v>43982</v>
-      </c>
-      <c r="F38" s="3">
-        <v>8040</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
+        <v>216000</v>
+      </c>
+      <c r="C38" s="3">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>45981</v>
-      </c>
-      <c r="C39" s="1">
-        <v>45981</v>
-      </c>
-      <c r="D39" s="1">
-        <v>45981</v>
-      </c>
-      <c r="E39" s="1">
-        <v>45981</v>
-      </c>
-      <c r="F39" s="3">
-        <v>8280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
+        <v>222000</v>
+      </c>
+      <c r="C39" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>47980</v>
-      </c>
-      <c r="C40" s="1">
-        <v>47980</v>
-      </c>
-      <c r="D40" s="1">
-        <v>47980</v>
-      </c>
-      <c r="E40" s="1">
-        <v>47980</v>
-      </c>
-      <c r="F40" s="3">
-        <v>8520</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
+        <v>228000</v>
+      </c>
+      <c r="C40" s="3">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>49979</v>
-      </c>
-      <c r="C41" s="1">
-        <v>49979</v>
-      </c>
-      <c r="D41" s="1">
-        <v>49979</v>
-      </c>
-      <c r="E41" s="1">
-        <v>49979</v>
-      </c>
-      <c r="F41" s="3">
-        <v>8760</v>
+        <v>234000</v>
+      </c>
+      <c r="C41" s="3">
+        <v>9480</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="21"/>
+    <workbookView xWindow="4340" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -144,22 +144,6 @@
   </si>
   <si>
     <t>FLOAT_efficiency</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_quarrier</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_miner</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_farmer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dwelling</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -251,10 +235,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_woodcutter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_maxCart</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -315,6 +295,17 @@
   </si>
   <si>
     <t>INT_maxCitizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_houseAdd</t>
+  </si>
+  <si>
+    <t>INT_houseAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_houseAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +469,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="526">
+  <cellStyleXfs count="550">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -493,6 +484,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1025,7 +1040,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="526">
+  <cellStyles count="550">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1291,6 +1306,18 @@
     <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1549,6 +1576,18 @@
     <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2011,16 +2050,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2599,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2610,16 +2649,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2655,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>0.01</v>
@@ -2669,7 +2708,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>0.02</v>
@@ -2683,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>0.02</v>
@@ -2697,7 +2736,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>0.03</v>
@@ -2711,7 +2750,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>0.03</v>
@@ -2725,7 +2764,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0.04</v>
@@ -2739,7 +2778,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>0.04</v>
@@ -2753,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>0.05</v>
@@ -2767,7 +2806,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <v>0.06</v>
@@ -2781,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
         <v>7.0000000000000007E-2</v>
@@ -2795,7 +2834,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>0.08</v>
@@ -2809,7 +2848,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>0.09</v>
@@ -2823,7 +2862,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>0.1</v>
@@ -2837,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>0.11</v>
@@ -2851,7 +2890,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>0.12</v>
@@ -2865,7 +2904,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>0.13</v>
@@ -2879,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>0.14000000000000001</v>
@@ -2893,7 +2932,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <v>0.15</v>
@@ -2907,7 +2946,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
         <v>0.16</v>
@@ -2921,7 +2960,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>0.17</v>
@@ -2935,7 +2974,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>0.18</v>
@@ -2949,7 +2988,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>0.19</v>
@@ -2963,7 +3002,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>0.2</v>
@@ -2977,7 +3016,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>0.21</v>
@@ -2991,7 +3030,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>0.22</v>
@@ -3005,7 +3044,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3">
         <v>0.23</v>
@@ -3019,7 +3058,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
         <v>0.24</v>
@@ -3033,7 +3072,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
         <v>0.25</v>
@@ -3047,7 +3086,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
         <v>0.26</v>
@@ -3061,7 +3100,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3">
         <v>0.27</v>
@@ -3075,7 +3114,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3">
         <v>0.28000000000000003</v>
@@ -3089,7 +3128,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
         <v>0.28999999999999998</v>
@@ -3103,7 +3142,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
         <v>0.3</v>
@@ -3117,7 +3156,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
         <v>0.31</v>
@@ -3131,7 +3170,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3">
         <v>0.32</v>
@@ -3145,7 +3184,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3">
         <v>0.33</v>
@@ -3159,7 +3198,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
         <v>0.34</v>
@@ -3173,7 +3212,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3">
         <v>0.35</v>
@@ -3198,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3209,16 +3248,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -3254,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>0.01</v>
@@ -3268,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>0.02</v>
@@ -3282,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>0.02</v>
@@ -3296,7 +3335,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>0.03</v>
@@ -3310,7 +3349,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>0.03</v>
@@ -3324,7 +3363,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0.04</v>
@@ -3338,7 +3377,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>0.04</v>
@@ -3352,7 +3391,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>0.05</v>
@@ -3366,7 +3405,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <v>0.06</v>
@@ -3380,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3394,7 +3433,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>0.08</v>
@@ -3408,7 +3447,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>0.09</v>
@@ -3422,7 +3461,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>0.1</v>
@@ -3436,7 +3475,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>0.11</v>
@@ -3450,7 +3489,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>0.12</v>
@@ -3464,7 +3503,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>0.13</v>
@@ -3478,7 +3517,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>0.14000000000000001</v>
@@ -3492,7 +3531,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <v>0.15</v>
@@ -3506,7 +3545,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
         <v>0.16</v>
@@ -3520,7 +3559,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>0.17</v>
@@ -3534,7 +3573,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>0.18</v>
@@ -3548,7 +3587,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>0.19</v>
@@ -3562,7 +3601,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>0.2</v>
@@ -3576,7 +3615,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>0.21</v>
@@ -3590,7 +3629,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>0.22</v>
@@ -3604,7 +3643,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3">
         <v>0.23</v>
@@ -3618,7 +3657,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
         <v>0.24</v>
@@ -3632,7 +3671,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
         <v>0.25</v>
@@ -3646,7 +3685,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
         <v>0.26</v>
@@ -3660,7 +3699,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3">
         <v>0.27</v>
@@ -3674,7 +3713,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3">
         <v>0.28000000000000003</v>
@@ -3688,7 +3727,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
         <v>0.28999999999999998</v>
@@ -3702,7 +3741,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
         <v>0.3</v>
@@ -3716,7 +3755,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
         <v>0.31</v>
@@ -3730,7 +3769,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3">
         <v>0.32</v>
@@ -3744,7 +3783,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3">
         <v>0.33</v>
@@ -3758,7 +3797,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
         <v>0.34</v>
@@ -3772,7 +3811,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3">
         <v>0.35</v>
@@ -3797,8 +3836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3808,16 +3847,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -3853,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>0.01</v>
@@ -3867,7 +3906,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>0.02</v>
@@ -3881,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>0.02</v>
@@ -3895,7 +3934,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>0.03</v>
@@ -3909,7 +3948,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>0.03</v>
@@ -3923,7 +3962,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0.04</v>
@@ -3937,7 +3976,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>0.04</v>
@@ -3951,7 +3990,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>0.05</v>
@@ -3965,7 +4004,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <v>0.06</v>
@@ -3979,7 +4018,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3993,7 +4032,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>0.08</v>
@@ -4007,7 +4046,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>0.09</v>
@@ -4021,7 +4060,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>0.1</v>
@@ -4035,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>0.11</v>
@@ -4049,7 +4088,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>0.12</v>
@@ -4063,7 +4102,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>0.13</v>
@@ -4077,7 +4116,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>0.14000000000000001</v>
@@ -4091,7 +4130,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <v>0.15</v>
@@ -4105,7 +4144,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
         <v>0.16</v>
@@ -4119,7 +4158,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>0.17</v>
@@ -4133,7 +4172,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>0.18</v>
@@ -4147,7 +4186,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>0.19</v>
@@ -4161,7 +4200,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>0.2</v>
@@ -4175,7 +4214,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>0.21</v>
@@ -4189,7 +4228,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>0.22</v>
@@ -4203,7 +4242,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3">
         <v>0.23</v>
@@ -4217,7 +4256,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
         <v>0.24</v>
@@ -4231,7 +4270,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
         <v>0.25</v>
@@ -4245,7 +4284,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
         <v>0.26</v>
@@ -4259,7 +4298,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3">
         <v>0.27</v>
@@ -4273,7 +4312,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3">
         <v>0.28000000000000003</v>
@@ -4287,7 +4326,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
         <v>0.28999999999999998</v>
@@ -4301,7 +4340,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
         <v>0.3</v>
@@ -4315,7 +4354,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
         <v>0.31</v>
@@ -4329,7 +4368,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3">
         <v>0.32</v>
@@ -4343,7 +4382,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3">
         <v>0.33</v>
@@ -4357,7 +4396,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
         <v>0.34</v>
@@ -4371,7 +4410,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3">
         <v>0.35</v>
@@ -4396,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4407,16 +4446,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4452,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>0.01</v>
@@ -4466,7 +4505,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>0.02</v>
@@ -4480,7 +4519,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>0.02</v>
@@ -4494,7 +4533,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>0.03</v>
@@ -4508,7 +4547,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>0.03</v>
@@ -4522,7 +4561,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0.04</v>
@@ -4536,7 +4575,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>0.04</v>
@@ -4550,7 +4589,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>0.05</v>
@@ -4564,7 +4603,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <v>0.06</v>
@@ -4578,7 +4617,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
         <v>7.0000000000000007E-2</v>
@@ -4592,7 +4631,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>0.08</v>
@@ -4606,7 +4645,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>0.09</v>
@@ -4620,7 +4659,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>0.1</v>
@@ -4634,7 +4673,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>0.11</v>
@@ -4648,7 +4687,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>0.12</v>
@@ -4662,7 +4701,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>0.13</v>
@@ -4676,7 +4715,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>0.14000000000000001</v>
@@ -4690,7 +4729,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <v>0.15</v>
@@ -4704,7 +4743,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
         <v>0.16</v>
@@ -4718,7 +4757,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>0.17</v>
@@ -4732,7 +4771,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>0.18</v>
@@ -4746,7 +4785,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>0.19</v>
@@ -4760,7 +4799,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>0.2</v>
@@ -4774,7 +4813,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>0.21</v>
@@ -4788,7 +4827,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>0.22</v>
@@ -4802,7 +4841,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3">
         <v>0.23</v>
@@ -4816,7 +4855,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
         <v>0.24</v>
@@ -4830,7 +4869,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
         <v>0.25</v>
@@ -4844,7 +4883,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
         <v>0.26</v>
@@ -4858,7 +4897,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3">
         <v>0.27</v>
@@ -4872,7 +4911,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3">
         <v>0.28000000000000003</v>
@@ -4886,7 +4925,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
         <v>0.28999999999999998</v>
@@ -4900,7 +4939,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
         <v>0.3</v>
@@ -4914,7 +4953,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
         <v>0.31</v>
@@ -4928,7 +4967,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3">
         <v>0.32</v>
@@ -4942,7 +4981,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3">
         <v>0.33</v>
@@ -4956,7 +4995,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
         <v>0.34</v>
@@ -4970,7 +5009,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3">
         <v>0.35</v>
@@ -4995,8 +5034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5006,13 +5045,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5042,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>1080</v>
@@ -5053,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>1320</v>
@@ -5064,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>1560</v>
@@ -5075,7 +5114,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>1800</v>
@@ -5086,7 +5125,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>2040</v>
@@ -5097,7 +5136,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>2280</v>
@@ -5108,7 +5147,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>2520</v>
@@ -5119,7 +5158,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>2760</v>
@@ -5130,7 +5169,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <v>3000</v>
@@ -5141,7 +5180,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
         <v>3240</v>
@@ -5152,7 +5191,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>3480</v>
@@ -5163,7 +5202,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>3720</v>
@@ -5174,7 +5213,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>3960</v>
@@ -5185,7 +5224,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>4200</v>
@@ -5196,7 +5235,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>4440</v>
@@ -5207,7 +5246,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>4680</v>
@@ -5218,7 +5257,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>4920</v>
@@ -5229,7 +5268,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <v>5160</v>
@@ -5240,7 +5279,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
         <v>5400</v>
@@ -5251,7 +5290,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>5640</v>
@@ -5262,7 +5301,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>5880</v>
@@ -5273,7 +5312,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>6120</v>
@@ -5284,7 +5323,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>6360</v>
@@ -5295,7 +5334,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>6600</v>
@@ -5306,7 +5345,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>6840</v>
@@ -5317,7 +5356,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3">
         <v>7080</v>
@@ -5328,7 +5367,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
         <v>7320</v>
@@ -5339,7 +5378,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
         <v>7560</v>
@@ -5350,7 +5389,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
         <v>7800</v>
@@ -5361,7 +5400,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3">
         <v>8040</v>
@@ -5372,7 +5411,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3">
         <v>8280</v>
@@ -5383,7 +5422,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
         <v>8520</v>
@@ -5394,7 +5433,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
         <v>8760</v>
@@ -5405,7 +5444,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
         <v>9000</v>
@@ -5416,7 +5455,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3">
         <v>9240</v>
@@ -5427,7 +5466,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3">
         <v>9480</v>
@@ -5438,7 +5477,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
         <v>9720</v>
@@ -5449,7 +5488,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3">
         <v>9960</v>
@@ -5482,40 +5521,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -7065,19 +7104,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7787,13 +7826,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8263,13 +8302,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8739,13 +8778,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -9215,13 +9254,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -9691,13 +9730,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -10167,16 +10206,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -10755,7 +10794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -10766,25 +10805,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -11734,22 +11773,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -12581,13 +12620,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -13057,13 +13096,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -13533,13 +13572,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -14009,13 +14048,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -14485,22 +14524,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -15330,13 +15369,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="2600" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="6560" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -156,14 +156,6 @@
   </si>
   <si>
     <t>INT_wallRecovery</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_poduction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_poductionType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -317,18 +309,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horsArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horsArcher,catapult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horsArcher,catapult,balista</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -341,20 +321,37 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_protection</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
-  </si>
-  <si>
-    <t>INT_protection</t>
   </si>
   <si>
     <t>INT_power</t>
   </si>
   <si>
-    <t>INT_protection</t>
+    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult,ballista</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_protection</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_production</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productionType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="568">
+  <cellStyleXfs count="572">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -557,6 +554,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1140,7 +1141,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="568">
+  <cellStyles count="572">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1427,6 +1428,8 @@
     <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1706,6 +1709,8 @@
     <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2174,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2770,19 +2775,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -3618,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4088,16 +4093,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4676,8 +4681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4690,37 +4695,37 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -6273,16 +6278,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6981,8 +6986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6992,16 +6997,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7581,7 +7586,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7591,16 +7596,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8180,7 +8185,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8190,16 +8195,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8779,7 +8784,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8789,16 +8794,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -9394,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -9866,13 +9871,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -10348,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -10824,7 +10829,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -11300,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -11776,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -12249,13 +12254,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -12848,19 +12853,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -13693,22 +13698,22 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -14648,7 +14653,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14661,13 +14666,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -14678,7 +14683,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3">
         <v>37</v>
@@ -14692,7 +14697,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3">
         <v>75</v>
@@ -14706,7 +14711,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3">
         <v>112</v>
@@ -14720,7 +14725,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3">
         <v>150</v>
@@ -14734,7 +14739,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3">
         <v>187</v>
@@ -14748,7 +14753,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3">
         <v>225</v>
@@ -14762,7 +14767,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3">
         <v>262</v>
@@ -14776,7 +14781,7 @@
         <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3">
         <v>300</v>
@@ -14790,7 +14795,7 @@
         <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3">
         <v>337</v>
@@ -14804,7 +14809,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3">
         <v>375</v>
@@ -14818,7 +14823,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3">
         <v>562</v>
@@ -14832,7 +14837,7 @@
         <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3">
         <v>750</v>
@@ -14846,7 +14851,7 @@
         <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3">
         <v>1125</v>
@@ -14860,7 +14865,7 @@
         <v>260</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3">
         <v>1500</v>
@@ -14874,7 +14879,7 @@
         <v>280</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3">
         <v>2250</v>
@@ -14888,7 +14893,7 @@
         <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3">
         <v>3000</v>
@@ -14902,7 +14907,7 @@
         <v>320</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3">
         <v>3750</v>
@@ -14916,7 +14921,7 @@
         <v>340</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3">
         <v>4500</v>
@@ -14930,7 +14935,7 @@
         <v>360</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3">
         <v>5250</v>
@@ -14944,7 +14949,7 @@
         <v>380</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3">
         <v>6000</v>
@@ -14958,7 +14963,7 @@
         <v>400</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3">
         <v>6750</v>
@@ -14972,7 +14977,7 @@
         <v>420</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3">
         <v>10125</v>
@@ -14986,7 +14991,7 @@
         <v>440</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3">
         <v>13500</v>
@@ -15000,7 +15005,7 @@
         <v>460</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3">
         <v>16875</v>
@@ -15014,7 +15019,7 @@
         <v>480</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3">
         <v>22500</v>
@@ -15028,7 +15033,7 @@
         <v>500</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D27" s="3">
         <v>33750</v>
@@ -15042,7 +15047,7 @@
         <v>520</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D28" s="3">
         <v>45000</v>
@@ -15056,7 +15061,7 @@
         <v>540</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3">
         <v>60000</v>
@@ -15070,7 +15075,7 @@
         <v>560</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3">
         <v>75000</v>
@@ -15084,7 +15089,7 @@
         <v>580</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3">
         <v>90000</v>
@@ -15098,7 +15103,7 @@
         <v>600</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3">
         <v>105000</v>
@@ -15112,7 +15117,7 @@
         <v>640</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D33" s="3">
         <v>120000</v>
@@ -15126,7 +15131,7 @@
         <v>680</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D34" s="3">
         <v>135000</v>
@@ -15140,7 +15145,7 @@
         <v>720</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3">
         <v>150000</v>
@@ -15154,7 +15159,7 @@
         <v>760</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D36" s="3">
         <v>165000</v>
@@ -15168,7 +15173,7 @@
         <v>800</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D37" s="3">
         <v>187500</v>
@@ -15182,7 +15187,7 @@
         <v>840</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D38" s="3">
         <v>210000</v>
@@ -15196,7 +15201,7 @@
         <v>880</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D39" s="3">
         <v>232500</v>
@@ -15210,7 +15215,7 @@
         <v>920</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D40" s="3">
         <v>255000</v>
@@ -15224,7 +15229,7 @@
         <v>1000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D41" s="1">
         <v>337500</v>
@@ -15260,10 +15265,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -15739,7 +15744,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="-24340" yWindow="0" windowWidth="26340" windowHeight="14720" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -539,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="572">
+  <cellStyleXfs count="580">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -554,6 +554,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1141,7 +1149,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="572">
+  <cellStyles count="580">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1430,6 +1438,10 @@
     <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1711,6 +1723,10 @@
     <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4681,7 +4697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9858,14 +9874,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -9884,7 +9900,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>40</v>
       </c>
       <c r="C2" s="6">
@@ -9984,7 +10000,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" s="6">
         <v>600</v>
@@ -9995,7 +10011,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6">
         <v>900</v>
@@ -10006,7 +10022,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6">
         <v>1200</v>
@@ -10017,7 +10033,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C14" s="6">
         <v>1800</v>
@@ -10028,7 +10044,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C15" s="6">
         <v>2400</v>
@@ -10039,7 +10055,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C16" s="6">
         <v>3600</v>
@@ -10050,7 +10066,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C17" s="6">
         <v>4800</v>
@@ -10061,7 +10077,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C18" s="6">
         <v>6000</v>
@@ -10072,7 +10088,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C19" s="6">
         <v>7200</v>
@@ -10083,7 +10099,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C20" s="6">
         <v>8400</v>
@@ -10094,7 +10110,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C21" s="6">
         <v>9600</v>
@@ -10105,7 +10121,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="C22" s="6">
         <v>10800</v>
@@ -10116,7 +10132,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="C23" s="6">
         <v>16200</v>
@@ -10127,7 +10143,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="C24" s="6">
         <v>21600</v>
@@ -10138,7 +10154,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="C25" s="6">
         <v>27000</v>
@@ -10149,7 +10165,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>724</v>
+        <v>660</v>
       </c>
       <c r="C26" s="6">
         <v>36000</v>
@@ -10160,7 +10176,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>788</v>
+        <v>710</v>
       </c>
       <c r="C27" s="6">
         <v>54000</v>
@@ -10171,7 +10187,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>852</v>
+        <v>770</v>
       </c>
       <c r="C28" s="6">
         <v>72000</v>
@@ -10182,7 +10198,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>916</v>
+        <v>830</v>
       </c>
       <c r="C29" s="6">
         <v>96000</v>
@@ -10193,7 +10209,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>980</v>
+        <v>890</v>
       </c>
       <c r="C30" s="6">
         <v>120000</v>
@@ -10204,7 +10220,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>1044</v>
+        <v>940</v>
       </c>
       <c r="C31" s="6">
         <v>144000</v>
@@ -10215,7 +10231,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>2068</v>
+        <v>1410</v>
       </c>
       <c r="C32" s="6">
         <v>168000</v>
@@ -10226,7 +10242,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>2324</v>
+        <v>1520</v>
       </c>
       <c r="C33" s="6">
         <v>192000</v>
@@ -10237,7 +10253,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>2580</v>
+        <v>1640</v>
       </c>
       <c r="C34" s="6">
         <v>216000</v>
@@ -10248,7 +10264,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>2836</v>
+        <v>1750</v>
       </c>
       <c r="C35" s="6">
         <v>240000</v>
@@ -10259,7 +10275,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <v>3092</v>
+        <v>1870</v>
       </c>
       <c r="C36" s="6">
         <v>264000</v>
@@ -10270,7 +10286,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>3348</v>
+        <v>1980</v>
       </c>
       <c r="C37" s="6">
         <v>300000</v>
@@ -10281,7 +10297,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>3604</v>
+        <v>2100</v>
       </c>
       <c r="C38" s="6">
         <v>336000</v>
@@ -10292,7 +10308,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>3860</v>
+        <v>2210</v>
       </c>
       <c r="C39" s="6">
         <v>372000</v>
@@ -10302,8 +10318,8 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
-        <v>4200</v>
+      <c r="B40" s="3">
+        <v>2330</v>
       </c>
       <c r="C40" s="6">
         <v>408000</v>
@@ -10314,7 +10330,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6">
-        <v>5000</v>
+        <v>2440</v>
       </c>
       <c r="C41" s="6">
         <v>540000</v>
@@ -11764,7 +11780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C41"/>
     </sheetView>
   </sheetViews>
@@ -12240,8 +12256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D41"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12268,10 +12284,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>496</v>
-      </c>
-      <c r="C2" s="5">
         <v>124</v>
+      </c>
+      <c r="C2" s="6">
+        <v>31</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
@@ -12282,10 +12298,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>833</v>
+        <v>229</v>
       </c>
       <c r="C3" s="6">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6">
         <v>80</v>
@@ -12296,10 +12312,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1065</v>
+        <v>306</v>
       </c>
       <c r="C4" s="6">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6">
         <v>120</v>
@@ -12310,10 +12326,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1224</v>
+        <v>367</v>
       </c>
       <c r="C5" s="6">
-        <v>306</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6">
         <v>160</v>
@@ -12324,10 +12340,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1333</v>
+        <v>417</v>
       </c>
       <c r="C6" s="6">
-        <v>333</v>
+        <v>104</v>
       </c>
       <c r="D6" s="6">
         <v>200</v>
@@ -12338,10 +12354,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1406</v>
+        <v>457</v>
       </c>
       <c r="C7" s="6">
-        <v>352</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6">
         <v>240</v>
@@ -12352,10 +12368,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1453</v>
+        <v>490</v>
       </c>
       <c r="C8" s="6">
-        <v>363</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6">
         <v>280</v>
@@ -12366,10 +12382,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1481</v>
+        <v>519</v>
       </c>
       <c r="C9" s="6">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="D9" s="6">
         <v>320</v>
@@ -12380,10 +12396,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>1496</v>
+        <v>542</v>
       </c>
       <c r="C10" s="6">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="D10" s="6">
         <v>360</v>
@@ -12394,10 +12410,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="C11" s="6">
-        <v>375</v>
+        <v>141</v>
       </c>
       <c r="D11" s="6">
         <v>400</v>
@@ -12408,10 +12424,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>2721</v>
+        <v>1054</v>
       </c>
       <c r="C12" s="6">
-        <v>680</v>
+        <v>264</v>
       </c>
       <c r="D12" s="6">
         <v>600</v>
@@ -12422,10 +12438,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>2975</v>
+        <v>1190</v>
       </c>
       <c r="C13" s="6">
-        <v>744</v>
+        <v>298</v>
       </c>
       <c r="D13" s="6">
         <v>800</v>
@@ -12436,10 +12452,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>3176</v>
+        <v>1310</v>
       </c>
       <c r="C14" s="6">
-        <v>794</v>
+        <v>328</v>
       </c>
       <c r="D14" s="6">
         <v>1200</v>
@@ -12450,10 +12466,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>3333</v>
+        <v>1417</v>
       </c>
       <c r="C15" s="6">
-        <v>833</v>
+        <v>354</v>
       </c>
       <c r="D15" s="6">
         <v>1600</v>
@@ -12464,10 +12480,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>3456</v>
+        <v>1512</v>
       </c>
       <c r="C16" s="6">
-        <v>864</v>
+        <v>378</v>
       </c>
       <c r="D16" s="6">
         <v>2400</v>
@@ -12478,10 +12494,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>3550</v>
+        <v>1598</v>
       </c>
       <c r="C17" s="6">
-        <v>888</v>
+        <v>399</v>
       </c>
       <c r="D17" s="6">
         <v>3200</v>
@@ -12492,10 +12508,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>3621</v>
+        <v>1675</v>
       </c>
       <c r="C18" s="6">
-        <v>905</v>
+        <v>419</v>
       </c>
       <c r="D18" s="6">
         <v>4000</v>
@@ -12506,10 +12522,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>3673</v>
+        <v>1745</v>
       </c>
       <c r="C19" s="6">
-        <v>918</v>
+        <v>436</v>
       </c>
       <c r="D19" s="6">
         <v>4800</v>
@@ -12520,10 +12536,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>3710</v>
+        <v>1809</v>
       </c>
       <c r="C20" s="6">
-        <v>927</v>
+        <v>452</v>
       </c>
       <c r="D20" s="6">
         <v>5600</v>
@@ -12534,10 +12550,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>3733</v>
+        <v>1867</v>
       </c>
       <c r="C21" s="6">
-        <v>933</v>
+        <v>467</v>
       </c>
       <c r="D21" s="6">
         <v>6400</v>
@@ -12548,10 +12564,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>6993</v>
+        <v>3846</v>
       </c>
       <c r="C22" s="6">
-        <v>1748</v>
+        <v>961</v>
       </c>
       <c r="D22" s="6">
         <v>7200</v>
@@ -12562,10 +12578,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="C23" s="6">
-        <v>1875</v>
+        <v>1125</v>
       </c>
       <c r="D23" s="6">
         <v>10800</v>
@@ -12576,10 +12592,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>7934</v>
+        <v>5157</v>
       </c>
       <c r="C24" s="6">
-        <v>1983</v>
+        <v>1289</v>
       </c>
       <c r="D24" s="6">
         <v>14400</v>
@@ -12590,10 +12606,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>8304</v>
+        <v>5813</v>
       </c>
       <c r="C25" s="6">
-        <v>2076</v>
+        <v>1453</v>
       </c>
       <c r="D25" s="6">
         <v>18000</v>
@@ -12604,10 +12620,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>8620</v>
+        <v>6465</v>
       </c>
       <c r="C26" s="6">
-        <v>2155</v>
+        <v>1616</v>
       </c>
       <c r="D26" s="6">
         <v>24000</v>
@@ -12618,10 +12634,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>8889</v>
+        <v>7111</v>
       </c>
       <c r="C27" s="6">
-        <v>2222</v>
+        <v>1778</v>
       </c>
       <c r="D27" s="6">
         <v>36000</v>
@@ -12632,10 +12648,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>9116</v>
+        <v>7749</v>
       </c>
       <c r="C28" s="6">
-        <v>2279</v>
+        <v>1937</v>
       </c>
       <c r="D28" s="6">
         <v>48000</v>
@@ -12646,10 +12662,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>9307</v>
+        <v>8377</v>
       </c>
       <c r="C29" s="6">
-        <v>2327</v>
+        <v>2094</v>
       </c>
       <c r="D29" s="6">
         <v>64000</v>
@@ -12660,10 +12676,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>9467</v>
+        <v>8994</v>
       </c>
       <c r="C30" s="6">
-        <v>2367</v>
+        <v>2249</v>
       </c>
       <c r="D30" s="6">
         <v>80000</v>
@@ -12688,10 +12704,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>18275</v>
+        <v>15077</v>
       </c>
       <c r="C32" s="6">
-        <v>4569</v>
+        <v>3769</v>
       </c>
       <c r="D32" s="6">
         <v>112000</v>
@@ -12702,10 +12718,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>19592</v>
+        <v>16980</v>
       </c>
       <c r="C33" s="6">
-        <v>4898</v>
+        <v>4245</v>
       </c>
       <c r="D33" s="6">
         <v>128000</v>
@@ -12716,10 +12732,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>20768</v>
+        <v>18899</v>
       </c>
       <c r="C34" s="6">
-        <v>5192</v>
+        <v>4725</v>
       </c>
       <c r="D34" s="6">
         <v>144000</v>
@@ -12730,10 +12746,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>21818</v>
+        <v>20826</v>
       </c>
       <c r="C35" s="6">
-        <v>5455</v>
+        <v>5207</v>
       </c>
       <c r="D35" s="6">
         <v>160000</v>
@@ -12758,10 +12774,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>23592</v>
+        <v>24681</v>
       </c>
       <c r="C37" s="6">
-        <v>5898</v>
+        <v>6170</v>
       </c>
       <c r="D37" s="6">
         <v>200000</v>
@@ -12772,10 +12788,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>24337</v>
+        <v>26597</v>
       </c>
       <c r="C38" s="6">
-        <v>6084</v>
+        <v>6649</v>
       </c>
       <c r="D38" s="6">
         <v>224000</v>
@@ -12786,10 +12802,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>25000</v>
+        <v>28500</v>
       </c>
       <c r="C39" s="6">
-        <v>6250</v>
+        <v>7125</v>
       </c>
       <c r="D39" s="6">
         <v>248000</v>
@@ -12800,10 +12816,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>25589</v>
+        <v>30387</v>
       </c>
       <c r="C40" s="6">
-        <v>6397</v>
+        <v>7597</v>
       </c>
       <c r="D40" s="6">
         <v>272000</v>
@@ -12813,11 +12829,11 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>26112</v>
-      </c>
-      <c r="C41" s="6">
-        <v>6528</v>
+      <c r="B41" s="1">
+        <v>32256</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8064</v>
       </c>
       <c r="D41" s="6">
         <v>360000</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24340" yWindow="0" windowWidth="26340" windowHeight="14720" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -539,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="580">
+  <cellStyleXfs count="582">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -554,6 +554,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1149,7 +1151,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="580">
+  <cellStyles count="582">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1442,6 +1444,7 @@
     <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1727,6 +1730,7 @@
     <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -7002,8 +7006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7029,7 +7033,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="3">
@@ -7043,7 +7047,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="3">
@@ -7057,7 +7061,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -7071,7 +7075,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -7085,7 +7089,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -7099,7 +7103,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -7113,7 +7117,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -7127,7 +7131,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="3">
@@ -7141,7 +7145,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="3">
@@ -7155,7 +7159,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="3">
@@ -7169,7 +7173,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="3">
@@ -7183,7 +7187,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
       <c r="C13" s="3">
@@ -7197,7 +7201,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="3">
@@ -7211,7 +7215,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="3">
@@ -7225,8 +7229,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
+      <c r="B16" s="6">
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>0.15</v>
@@ -7239,7 +7243,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="3">
@@ -7253,7 +7257,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="3">
@@ -7267,7 +7271,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="3">
@@ -7281,7 +7285,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>3</v>
       </c>
       <c r="C20" s="3">
@@ -7295,7 +7299,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>3</v>
       </c>
       <c r="C21" s="3">
@@ -7309,7 +7313,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="3">
@@ -7323,8 +7327,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>3</v>
+      <c r="B23" s="6">
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>0.22</v>
@@ -7337,8 +7341,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
+      <c r="B24" s="6">
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>0.23</v>
@@ -7351,7 +7355,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>4</v>
       </c>
       <c r="C25" s="3">
@@ -7365,7 +7369,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
       <c r="C26" s="3">
@@ -7379,7 +7383,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>4</v>
       </c>
       <c r="C27" s="3">
@@ -7393,7 +7397,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>4</v>
       </c>
       <c r="C28" s="3">
@@ -7407,7 +7411,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
       <c r="C29" s="3">
@@ -7421,8 +7425,8 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>4</v>
+      <c r="B30" s="6">
+        <v>5</v>
       </c>
       <c r="C30" s="3">
         <v>0.28999999999999998</v>
@@ -7435,8 +7439,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>4</v>
+      <c r="B31" s="6">
+        <v>5</v>
       </c>
       <c r="C31" s="3">
         <v>0.3</v>
@@ -7449,8 +7453,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>4</v>
+      <c r="B32" s="6">
+        <v>5</v>
       </c>
       <c r="C32" s="3">
         <v>0.31</v>
@@ -7463,7 +7467,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>5</v>
       </c>
       <c r="C33" s="3">
@@ -7477,7 +7481,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="3">
@@ -7491,7 +7495,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>5</v>
       </c>
       <c r="C35" s="3">
@@ -7505,7 +7509,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>5</v>
       </c>
       <c r="C36" s="3">
@@ -7519,8 +7523,8 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>5</v>
+      <c r="B37" s="6">
+        <v>6</v>
       </c>
       <c r="C37" s="3">
         <v>0.36</v>
@@ -7533,8 +7537,8 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>5</v>
+      <c r="B38" s="6">
+        <v>6</v>
       </c>
       <c r="C38" s="3">
         <v>0.37</v>
@@ -7547,8 +7551,8 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>5</v>
+      <c r="B39" s="6">
+        <v>6</v>
       </c>
       <c r="C39" s="3">
         <v>0.38</v>
@@ -7561,8 +7565,8 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>5</v>
+      <c r="B40" s="6">
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>0.39</v>
@@ -7575,7 +7579,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>6</v>
       </c>
       <c r="C41" s="1">
@@ -7601,8 +7605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showRuler="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B41" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7825,7 +7829,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6">
         <v>0.15</v>
@@ -7923,7 +7927,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="6">
         <v>0.22</v>
@@ -7937,7 +7941,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="6">
         <v>0.23</v>
@@ -8021,7 +8025,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="6">
         <v>0.28999999999999998</v>
@@ -8035,7 +8039,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="6">
         <v>0.3</v>
@@ -8049,7 +8053,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="6">
         <v>0.31</v>
@@ -8119,7 +8123,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="6">
         <v>0.36</v>
@@ -8133,7 +8137,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="6">
         <v>0.37</v>
@@ -8147,7 +8151,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="6">
         <v>0.38</v>
@@ -8161,7 +8165,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="6">
         <v>0.39</v>
@@ -8200,8 +8204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8227,7 +8231,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="3">
@@ -8241,7 +8245,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="3">
@@ -8255,7 +8259,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -8269,7 +8273,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -8283,7 +8287,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -8297,7 +8301,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -8311,7 +8315,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -8325,7 +8329,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="3">
@@ -8339,7 +8343,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="3">
@@ -8353,7 +8357,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="3">
@@ -8367,7 +8371,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="3">
@@ -8381,7 +8385,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
       <c r="C13" s="3">
@@ -8395,7 +8399,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="3">
@@ -8409,7 +8413,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="3">
@@ -8423,8 +8427,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
+      <c r="B16" s="6">
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>0.15</v>
@@ -8437,7 +8441,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="3">
@@ -8451,7 +8455,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="3">
@@ -8465,7 +8469,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="3">
@@ -8479,7 +8483,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>3</v>
       </c>
       <c r="C20" s="3">
@@ -8493,7 +8497,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>3</v>
       </c>
       <c r="C21" s="3">
@@ -8507,7 +8511,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="3">
@@ -8521,8 +8525,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>3</v>
+      <c r="B23" s="6">
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>0.22</v>
@@ -8535,8 +8539,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
+      <c r="B24" s="6">
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>0.23</v>
@@ -8549,7 +8553,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>4</v>
       </c>
       <c r="C25" s="3">
@@ -8563,7 +8567,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
       <c r="C26" s="3">
@@ -8577,7 +8581,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>4</v>
       </c>
       <c r="C27" s="3">
@@ -8591,7 +8595,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>4</v>
       </c>
       <c r="C28" s="3">
@@ -8605,7 +8609,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
       <c r="C29" s="3">
@@ -8619,8 +8623,8 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>4</v>
+      <c r="B30" s="6">
+        <v>5</v>
       </c>
       <c r="C30" s="3">
         <v>0.28999999999999998</v>
@@ -8633,8 +8637,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>4</v>
+      <c r="B31" s="6">
+        <v>5</v>
       </c>
       <c r="C31" s="3">
         <v>0.3</v>
@@ -8647,8 +8651,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>4</v>
+      <c r="B32" s="6">
+        <v>5</v>
       </c>
       <c r="C32" s="3">
         <v>0.31</v>
@@ -8661,7 +8665,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>5</v>
       </c>
       <c r="C33" s="3">
@@ -8675,7 +8679,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="3">
@@ -8689,7 +8693,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>5</v>
       </c>
       <c r="C35" s="3">
@@ -8703,7 +8707,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>5</v>
       </c>
       <c r="C36" s="3">
@@ -8717,8 +8721,8 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>5</v>
+      <c r="B37" s="6">
+        <v>6</v>
       </c>
       <c r="C37" s="3">
         <v>0.36</v>
@@ -8731,8 +8735,8 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>5</v>
+      <c r="B38" s="6">
+        <v>6</v>
       </c>
       <c r="C38" s="3">
         <v>0.37</v>
@@ -8745,8 +8749,8 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>5</v>
+      <c r="B39" s="6">
+        <v>6</v>
       </c>
       <c r="C39" s="3">
         <v>0.38</v>
@@ -8759,8 +8763,8 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>5</v>
+      <c r="B40" s="6">
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>0.39</v>
@@ -8773,7 +8777,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>6</v>
       </c>
       <c r="C41" s="1">
@@ -8799,8 +8803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8826,7 +8830,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="3">
@@ -8840,7 +8844,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="3">
@@ -8854,7 +8858,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -8868,7 +8872,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -8882,7 +8886,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -8896,7 +8900,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -8910,7 +8914,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -8924,7 +8928,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="3">
@@ -8938,7 +8942,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="3">
@@ -8952,7 +8956,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="3">
@@ -8966,7 +8970,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="3">
@@ -8980,7 +8984,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
       <c r="C13" s="3">
@@ -8994,7 +8998,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="3">
@@ -9008,7 +9012,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="3">
@@ -9022,8 +9026,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
+      <c r="B16" s="6">
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>0.15</v>
@@ -9036,7 +9040,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="3">
@@ -9050,7 +9054,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="3">
@@ -9064,7 +9068,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="3">
@@ -9078,7 +9082,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>3</v>
       </c>
       <c r="C20" s="3">
@@ -9092,7 +9096,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>3</v>
       </c>
       <c r="C21" s="3">
@@ -9106,7 +9110,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="3">
@@ -9120,8 +9124,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>3</v>
+      <c r="B23" s="6">
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>0.22</v>
@@ -9134,8 +9138,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
+      <c r="B24" s="6">
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>0.23</v>
@@ -9148,7 +9152,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>4</v>
       </c>
       <c r="C25" s="3">
@@ -9162,7 +9166,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
       <c r="C26" s="3">
@@ -9176,7 +9180,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>4</v>
       </c>
       <c r="C27" s="3">
@@ -9190,7 +9194,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>4</v>
       </c>
       <c r="C28" s="3">
@@ -9204,7 +9208,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
       <c r="C29" s="3">
@@ -9218,8 +9222,8 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>4</v>
+      <c r="B30" s="6">
+        <v>5</v>
       </c>
       <c r="C30" s="3">
         <v>0.28999999999999998</v>
@@ -9232,8 +9236,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>4</v>
+      <c r="B31" s="6">
+        <v>5</v>
       </c>
       <c r="C31" s="3">
         <v>0.3</v>
@@ -9246,8 +9250,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>4</v>
+      <c r="B32" s="6">
+        <v>5</v>
       </c>
       <c r="C32" s="3">
         <v>0.31</v>
@@ -9260,7 +9264,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>5</v>
       </c>
       <c r="C33" s="3">
@@ -9274,7 +9278,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="3">
@@ -9288,7 +9292,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>5</v>
       </c>
       <c r="C35" s="3">
@@ -9302,7 +9306,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>5</v>
       </c>
       <c r="C36" s="3">
@@ -9316,8 +9320,8 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>5</v>
+      <c r="B37" s="6">
+        <v>6</v>
       </c>
       <c r="C37" s="3">
         <v>0.36</v>
@@ -9330,8 +9334,8 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>5</v>
+      <c r="B38" s="6">
+        <v>6</v>
       </c>
       <c r="C38" s="3">
         <v>0.37</v>
@@ -9344,8 +9348,8 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>5</v>
+      <c r="B39" s="6">
+        <v>6</v>
       </c>
       <c r="C39" s="3">
         <v>0.38</v>
@@ -9358,8 +9362,8 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>5</v>
+      <c r="B40" s="6">
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>0.39</v>
@@ -9372,7 +9376,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>6</v>
       </c>
       <c r="C41" s="1">
@@ -9874,7 +9878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="17"/>
+    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -160,38 +160,6 @@
   </si>
   <si>
     <t>INT_power</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productBmtime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productBmIron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productBmStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productBmWood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productAmWood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productAmStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productAmIron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productAmtime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -347,11 +315,51 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_production</t>
+    <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_productionType</t>
+    <t>INT_poduction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poductionType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmtime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmtime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2199,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -2795,16 +2803,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -4113,16 +4121,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4701,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection sqref="A1:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4712,1559 +4720,1559 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
-        <v>50000</v>
-      </c>
-      <c r="E2" s="5">
-        <v>50000</v>
-      </c>
-      <c r="F2" s="5">
-        <v>50000</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="D2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="1">
         <v>300</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>600</v>
+      </c>
+      <c r="L2" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>600</v>
+      </c>
+      <c r="H3" s="1">
+        <v>80000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>80000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1200</v>
+      </c>
+      <c r="L3" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>60000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>900</v>
+      </c>
+      <c r="H4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="L4" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>80000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>160000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>160000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>160000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2400</v>
+      </c>
+      <c r="L5" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>100000</v>
       </c>
-      <c r="I2" s="5">
+      <c r="E6" s="1">
         <v>100000</v>
       </c>
-      <c r="J2" s="5">
+      <c r="F6" s="1">
         <v>100000</v>
       </c>
-      <c r="K2" s="5">
-        <v>600</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="G6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H6" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>200000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>200000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L6" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>120000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>120000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H7" s="1">
+        <v>240000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>240000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>240000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3600</v>
+      </c>
+      <c r="L7" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>140000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>140000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>140000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2100</v>
+      </c>
+      <c r="H8" s="1">
+        <v>280000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>280000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>280000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>160000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>160000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>160000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H9" s="1">
+        <v>320000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>320000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>320000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>180000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>180000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>180000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2700</v>
+      </c>
+      <c r="H10" s="1">
+        <v>360000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>360000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>360000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>400000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>400000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>400000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L11" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>220000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>220000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>220000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H12" s="1">
+        <v>440000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>440000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>440000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>240000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>240000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>240000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="1">
+        <v>480000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>480000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>480000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>7200</v>
+      </c>
+      <c r="L13" s="3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>260000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>260000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>260000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3900</v>
+      </c>
+      <c r="H14" s="1">
+        <v>520000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>520000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>520000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7800</v>
+      </c>
+      <c r="L14" s="3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>280000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>280000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>280000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>560000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>560000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>560000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8400</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>300000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H16" s="1">
+        <v>600000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>600000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>600000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9000</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>320000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>320000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>320000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="H17" s="1">
+        <v>640000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>640000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>640000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>9600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>340000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>340000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5100</v>
+      </c>
+      <c r="H18" s="1">
+        <v>680000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>680000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>680000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>360000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>360000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>360000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5400</v>
+      </c>
+      <c r="H19" s="1">
+        <v>720000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>720000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>720000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10800</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>95</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>380000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>380000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>380000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5700</v>
+      </c>
+      <c r="H20" s="1">
+        <v>760000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>760000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>760000</v>
+      </c>
+      <c r="K20" s="1">
+        <v>11400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>400000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>400000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>400000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>800000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>800000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>800000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>12000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>420000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>420000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>420000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6300</v>
+      </c>
+      <c r="H22" s="1">
+        <v>840000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>840000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>840000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>12600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>110</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>440000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>440000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>440000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H23" s="1">
+        <v>880000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>880000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>880000</v>
+      </c>
+      <c r="K23" s="1">
+        <v>13200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>115</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>460000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>460000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>460000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6900</v>
+      </c>
+      <c r="H24" s="1">
+        <v>920000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>920000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>920000</v>
+      </c>
+      <c r="K24" s="1">
+        <v>13800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>120</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>480000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>480000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>480000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7200</v>
+      </c>
+      <c r="H25" s="1">
+        <v>960000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>960000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>960000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>14400</v>
+      </c>
+      <c r="L25" s="3">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>7500</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K26" s="1">
+        <v>15000</v>
+      </c>
+      <c r="L26" s="3">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>130</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>520000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>520000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>520000</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7800</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="K27" s="1">
+        <v>15600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>135</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>540000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>540000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>540000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8100</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1080000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1080000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1080000</v>
+      </c>
+      <c r="K28" s="1">
+        <v>16200</v>
+      </c>
+      <c r="L28" s="3">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>560000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>560000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>560000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8400</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1120000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1120000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1120000</v>
+      </c>
+      <c r="K29" s="1">
+        <v>16800</v>
+      </c>
+      <c r="L29" s="3">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>145</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>580000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>580000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>580000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8700</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="K30" s="1">
+        <v>17400</v>
+      </c>
+      <c r="L30" s="3">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>150</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>600000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>600000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>600000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>9000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>18000</v>
+      </c>
+      <c r="L31" s="3">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>155</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>620000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>620000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>620000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>9300</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1240000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1240000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1240000</v>
+      </c>
+      <c r="K32" s="1">
+        <v>18600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>160</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>640000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>640000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>640000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>9600</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1280000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1280000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1280000</v>
+      </c>
+      <c r="K33" s="1">
+        <v>19200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>105600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="20" customHeight="1">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>100000</v>
-      </c>
-      <c r="E3" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="6">
-        <v>600</v>
-      </c>
-      <c r="H3" s="6">
-        <v>200000</v>
-      </c>
-      <c r="I3" s="6">
-        <v>200000</v>
-      </c>
-      <c r="J3" s="6">
-        <v>200000</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1200</v>
-      </c>
-      <c r="L3" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1">
-      <c r="A4" s="3">
+      <c r="B34" s="1">
+        <v>165</v>
+      </c>
+      <c r="C34" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>150000</v>
-      </c>
-      <c r="E4" s="6">
-        <v>150000</v>
-      </c>
-      <c r="F4" s="6">
-        <v>150000</v>
-      </c>
-      <c r="G4" s="6">
-        <v>900</v>
-      </c>
-      <c r="H4" s="6">
-        <v>300000</v>
-      </c>
-      <c r="I4" s="6">
-        <v>300000</v>
-      </c>
-      <c r="J4" s="6">
-        <v>300000</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1800</v>
-      </c>
-      <c r="L4" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>200000</v>
-      </c>
-      <c r="E5" s="6">
-        <v>200000</v>
-      </c>
-      <c r="F5" s="6">
-        <v>200000</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1200</v>
-      </c>
-      <c r="H5" s="6">
-        <v>400000</v>
-      </c>
-      <c r="I5" s="6">
-        <v>400000</v>
-      </c>
-      <c r="J5" s="6">
-        <v>400000</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2400</v>
-      </c>
-      <c r="L5" s="6">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>250000</v>
-      </c>
-      <c r="E6" s="6">
-        <v>250000</v>
-      </c>
-      <c r="F6" s="6">
-        <v>250000</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1500</v>
-      </c>
-      <c r="H6" s="6">
-        <v>500000</v>
-      </c>
-      <c r="I6" s="6">
-        <v>500000</v>
-      </c>
-      <c r="J6" s="6">
-        <v>500000</v>
-      </c>
-      <c r="K6" s="6">
-        <v>3000</v>
-      </c>
-      <c r="L6" s="6">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>300000</v>
-      </c>
-      <c r="E7" s="6">
-        <v>300000</v>
-      </c>
-      <c r="F7" s="6">
-        <v>300000</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1800</v>
-      </c>
-      <c r="H7" s="6">
-        <v>600000</v>
-      </c>
-      <c r="I7" s="6">
-        <v>600000</v>
-      </c>
-      <c r="J7" s="6">
-        <v>600000</v>
-      </c>
-      <c r="K7" s="6">
-        <v>3600</v>
-      </c>
-      <c r="L7" s="6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="D34" s="1">
+        <v>660000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>660000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>660000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9900</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1320000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1320000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1320000</v>
+      </c>
+      <c r="K34" s="1">
+        <v>19800</v>
+      </c>
+      <c r="L34" s="3">
+        <v>118800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>170</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>680000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>680000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>680000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10200</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1360000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1360000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1360000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>20400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="20" customHeight="1">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>350000</v>
-      </c>
-      <c r="E8" s="6">
-        <v>350000</v>
-      </c>
-      <c r="F8" s="6">
-        <v>350000</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="B36" s="1">
+        <v>175</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
         <v>700000</v>
       </c>
-      <c r="I8" s="6">
+      <c r="E36" s="1">
         <v>700000</v>
       </c>
-      <c r="J8" s="6">
+      <c r="F36" s="1">
         <v>700000</v>
       </c>
-      <c r="K8" s="6">
-        <v>4200</v>
-      </c>
-      <c r="L8" s="6">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="G36" s="1">
+        <v>10500</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="K36" s="1">
+        <v>21000</v>
+      </c>
+      <c r="L36" s="3">
+        <v>145200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>180</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>720000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>720000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>720000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10800</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="K37" s="1">
+        <v>21600</v>
+      </c>
+      <c r="L37" s="3">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>185</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>740000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>740000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>740000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>11100</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="K38" s="1">
+        <v>22200</v>
+      </c>
+      <c r="L38" s="3">
+        <v>184800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>190</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>760000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>760000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>760000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>11400</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1520000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1520000</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1520000</v>
+      </c>
+      <c r="K39" s="1">
+        <v>22800</v>
+      </c>
+      <c r="L39" s="3">
+        <v>204600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>195</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>780000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>780000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>780000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>11700</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1560000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1560000</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1560000</v>
+      </c>
+      <c r="K40" s="1">
+        <v>23400</v>
+      </c>
+      <c r="L40" s="3">
+        <v>224400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="20" customHeight="1">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>400000</v>
-      </c>
-      <c r="E9" s="6">
-        <v>400000</v>
-      </c>
-      <c r="F9" s="6">
-        <v>400000</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2400</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="B41" s="1">
+        <v>200</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
         <v>800000</v>
       </c>
-      <c r="I9" s="6">
+      <c r="E41" s="1">
         <v>800000</v>
       </c>
-      <c r="J9" s="6">
+      <c r="F41" s="1">
         <v>800000</v>
       </c>
-      <c r="K9" s="6">
-        <v>4800</v>
-      </c>
-      <c r="L9" s="6">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="20" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>450000</v>
-      </c>
-      <c r="E10" s="6">
-        <v>450000</v>
-      </c>
-      <c r="F10" s="6">
-        <v>450000</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2700</v>
-      </c>
-      <c r="H10" s="6">
-        <v>900000</v>
-      </c>
-      <c r="I10" s="6">
-        <v>900000</v>
-      </c>
-      <c r="J10" s="6">
-        <v>900000</v>
-      </c>
-      <c r="K10" s="6">
-        <v>5400</v>
-      </c>
-      <c r="L10" s="6">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="20" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>50</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>500000</v>
-      </c>
-      <c r="E11" s="6">
-        <v>500000</v>
-      </c>
-      <c r="F11" s="6">
-        <v>500000</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3000</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="K11" s="6">
-        <v>6000</v>
-      </c>
-      <c r="L11" s="6">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="20" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>55</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6">
-        <v>550000</v>
-      </c>
-      <c r="E12" s="6">
-        <v>550000</v>
-      </c>
-      <c r="F12" s="6">
-        <v>550000</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3300</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="K12" s="6">
-        <v>6600</v>
-      </c>
-      <c r="L12" s="6">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="20" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>60</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6">
-        <v>600000</v>
-      </c>
-      <c r="E13" s="6">
-        <v>600000</v>
-      </c>
-      <c r="F13" s="6">
-        <v>600000</v>
-      </c>
-      <c r="G13" s="6">
-        <v>3600</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="K13" s="6">
-        <v>7200</v>
-      </c>
-      <c r="L13" s="6">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="20" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>65</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>650000</v>
-      </c>
-      <c r="E14" s="6">
-        <v>650000</v>
-      </c>
-      <c r="F14" s="6">
-        <v>650000</v>
-      </c>
-      <c r="G14" s="6">
-        <v>3900</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="K14" s="6">
-        <v>7800</v>
-      </c>
-      <c r="L14" s="6">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="20" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>70</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>700000</v>
-      </c>
-      <c r="E15" s="6">
-        <v>700000</v>
-      </c>
-      <c r="F15" s="6">
-        <v>700000</v>
-      </c>
-      <c r="G15" s="6">
-        <v>4200</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="K15" s="6">
-        <v>8400</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>75</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6">
-        <v>750000</v>
-      </c>
-      <c r="E16" s="6">
-        <v>750000</v>
-      </c>
-      <c r="F16" s="6">
-        <v>750000</v>
-      </c>
-      <c r="G16" s="6">
-        <v>4500</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="K16" s="6">
-        <v>9000</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="20" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>80</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6">
-        <v>800000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>800000</v>
-      </c>
-      <c r="F17" s="6">
-        <v>800000</v>
-      </c>
-      <c r="G17" s="6">
-        <v>4800</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G41" s="1">
+        <v>12000</v>
+      </c>
+      <c r="H41" s="1">
         <v>1600000</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I41" s="1">
         <v>1600000</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J41" s="1">
         <v>1600000</v>
       </c>
-      <c r="K17" s="6">
-        <v>9600</v>
-      </c>
-      <c r="L17" s="6">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>85</v>
-      </c>
-      <c r="C18" s="6">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6">
-        <v>850000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>850000</v>
-      </c>
-      <c r="F18" s="6">
-        <v>850000</v>
-      </c>
-      <c r="G18" s="6">
-        <v>5100</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="K18" s="6">
-        <v>10200</v>
-      </c>
-      <c r="L18" s="6">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>90</v>
-      </c>
-      <c r="C19" s="6">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6">
-        <v>900000</v>
-      </c>
-      <c r="E19" s="6">
-        <v>900000</v>
-      </c>
-      <c r="F19" s="6">
-        <v>900000</v>
-      </c>
-      <c r="G19" s="6">
-        <v>5400</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="K19" s="6">
-        <v>10800</v>
-      </c>
-      <c r="L19" s="6">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>95</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6">
-        <v>950000</v>
-      </c>
-      <c r="E20" s="6">
-        <v>950000</v>
-      </c>
-      <c r="F20" s="6">
-        <v>950000</v>
-      </c>
-      <c r="G20" s="6">
-        <v>5700</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="K20" s="6">
-        <v>11400</v>
-      </c>
-      <c r="L20" s="6">
-        <v>4620</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>100</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="G21" s="6">
-        <v>6000</v>
-      </c>
-      <c r="H21" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="I21" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="J21" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="K21" s="6">
-        <v>12000</v>
-      </c>
-      <c r="L21" s="6">
-        <v>5280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="20" customHeight="1">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <v>105</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1050000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1050000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1050000</v>
-      </c>
-      <c r="G22" s="6">
-        <v>6300</v>
-      </c>
-      <c r="H22" s="6">
-        <v>2100000</v>
-      </c>
-      <c r="I22" s="6">
-        <v>2100000</v>
-      </c>
-      <c r="J22" s="6">
-        <v>2100000</v>
-      </c>
-      <c r="K22" s="6">
-        <v>12600</v>
-      </c>
-      <c r="L22" s="6">
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="20" customHeight="1">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <v>110</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="G23" s="6">
-        <v>6600</v>
-      </c>
-      <c r="H23" s="6">
-        <v>2200000</v>
-      </c>
-      <c r="I23" s="6">
-        <v>2200000</v>
-      </c>
-      <c r="J23" s="6">
-        <v>2200000</v>
-      </c>
-      <c r="K23" s="6">
-        <v>13200</v>
-      </c>
-      <c r="L23" s="6">
-        <v>8910</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
-        <v>115</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1150000</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1150000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1150000</v>
-      </c>
-      <c r="G24" s="6">
-        <v>6900</v>
-      </c>
-      <c r="H24" s="6">
-        <v>2300000</v>
-      </c>
-      <c r="I24" s="6">
-        <v>2300000</v>
-      </c>
-      <c r="J24" s="6">
-        <v>2300000</v>
-      </c>
-      <c r="K24" s="6">
-        <v>13800</v>
-      </c>
-      <c r="L24" s="6">
-        <v>11880</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="20" customHeight="1">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <v>120</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="G25" s="6">
-        <v>7200</v>
-      </c>
-      <c r="H25" s="6">
-        <v>2400000</v>
-      </c>
-      <c r="I25" s="6">
-        <v>2400000</v>
-      </c>
-      <c r="J25" s="6">
-        <v>2400000</v>
-      </c>
-      <c r="K25" s="6">
-        <v>14400</v>
-      </c>
-      <c r="L25" s="6">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="20" customHeight="1">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <v>125</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1250000</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1250000</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1250000</v>
-      </c>
-      <c r="G26" s="6">
-        <v>7500</v>
-      </c>
-      <c r="H26" s="6">
-        <v>2500000</v>
-      </c>
-      <c r="I26" s="6">
-        <v>2500000</v>
-      </c>
-      <c r="J26" s="6">
-        <v>2500000</v>
-      </c>
-      <c r="K26" s="6">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="6">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="20" customHeight="1">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6">
-        <v>130</v>
-      </c>
-      <c r="C27" s="6">
-        <v>3</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="G27" s="6">
-        <v>7800</v>
-      </c>
-      <c r="H27" s="6">
-        <v>2600000</v>
-      </c>
-      <c r="I27" s="6">
-        <v>2600000</v>
-      </c>
-      <c r="J27" s="6">
-        <v>2600000</v>
-      </c>
-      <c r="K27" s="6">
-        <v>15600</v>
-      </c>
-      <c r="L27" s="6">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="20" customHeight="1">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
-        <v>135</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1350000</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1350000</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1350000</v>
-      </c>
-      <c r="G28" s="6">
-        <v>8100</v>
-      </c>
-      <c r="H28" s="6">
-        <v>2700000</v>
-      </c>
-      <c r="I28" s="6">
-        <v>2700000</v>
-      </c>
-      <c r="J28" s="6">
-        <v>2700000</v>
-      </c>
-      <c r="K28" s="6">
-        <v>16200</v>
-      </c>
-      <c r="L28" s="6">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="20" customHeight="1">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <v>140</v>
-      </c>
-      <c r="C29" s="6">
-        <v>3</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="G29" s="6">
-        <v>8400</v>
-      </c>
-      <c r="H29" s="6">
-        <v>2800000</v>
-      </c>
-      <c r="I29" s="6">
-        <v>2800000</v>
-      </c>
-      <c r="J29" s="6">
-        <v>2800000</v>
-      </c>
-      <c r="K29" s="6">
-        <v>16800</v>
-      </c>
-      <c r="L29" s="6">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="20" customHeight="1">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6">
-        <v>145</v>
-      </c>
-      <c r="C30" s="6">
-        <v>3</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1450000</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1450000</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1450000</v>
-      </c>
-      <c r="G30" s="6">
-        <v>8700</v>
-      </c>
-      <c r="H30" s="6">
-        <v>2900000</v>
-      </c>
-      <c r="I30" s="6">
-        <v>2900000</v>
-      </c>
-      <c r="J30" s="6">
-        <v>2900000</v>
-      </c>
-      <c r="K30" s="6">
-        <v>17400</v>
-      </c>
-      <c r="L30" s="6">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="20" customHeight="1">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6">
-        <v>150</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="G31" s="6">
-        <v>9000</v>
-      </c>
-      <c r="H31" s="6">
-        <v>3000000</v>
-      </c>
-      <c r="I31" s="6">
-        <v>3000000</v>
-      </c>
-      <c r="J31" s="6">
-        <v>3000000</v>
-      </c>
-      <c r="K31" s="6">
-        <v>18000</v>
-      </c>
-      <c r="L31" s="6">
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="20" customHeight="1">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6">
-        <v>155</v>
-      </c>
-      <c r="C32" s="6">
-        <v>3</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1550000</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1550000</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1550000</v>
-      </c>
-      <c r="G32" s="6">
-        <v>9300</v>
-      </c>
-      <c r="H32" s="6">
-        <v>3100000</v>
-      </c>
-      <c r="I32" s="6">
-        <v>3100000</v>
-      </c>
-      <c r="J32" s="6">
-        <v>3100000</v>
-      </c>
-      <c r="K32" s="6">
-        <v>18600</v>
-      </c>
-      <c r="L32" s="6">
-        <v>92400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="20" customHeight="1">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6">
-        <v>160</v>
-      </c>
-      <c r="C33" s="6">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1600000</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1600000</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1600000</v>
-      </c>
-      <c r="G33" s="6">
-        <v>9600</v>
-      </c>
-      <c r="H33" s="6">
-        <v>3200000</v>
-      </c>
-      <c r="I33" s="6">
-        <v>3200000</v>
-      </c>
-      <c r="J33" s="6">
-        <v>3200000</v>
-      </c>
-      <c r="K33" s="6">
-        <v>19200</v>
-      </c>
-      <c r="L33" s="6">
-        <v>105600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="20" customHeight="1">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6">
-        <v>165</v>
-      </c>
-      <c r="C34" s="6">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1650000</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1650000</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1650000</v>
-      </c>
-      <c r="G34" s="6">
-        <v>9900</v>
-      </c>
-      <c r="H34" s="6">
-        <v>3300000</v>
-      </c>
-      <c r="I34" s="6">
-        <v>3300000</v>
-      </c>
-      <c r="J34" s="6">
-        <v>3300000</v>
-      </c>
-      <c r="K34" s="6">
-        <v>19800</v>
-      </c>
-      <c r="L34" s="6">
-        <v>118800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="20" customHeight="1">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6">
-        <v>170</v>
-      </c>
-      <c r="C35" s="6">
-        <v>3</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="G35" s="6">
-        <v>10200</v>
-      </c>
-      <c r="H35" s="6">
-        <v>3400000</v>
-      </c>
-      <c r="I35" s="6">
-        <v>3400000</v>
-      </c>
-      <c r="J35" s="6">
-        <v>3400000</v>
-      </c>
-      <c r="K35" s="6">
-        <v>20400</v>
-      </c>
-      <c r="L35" s="6">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="20" customHeight="1">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6">
-        <v>175</v>
-      </c>
-      <c r="C36" s="6">
-        <v>3</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1750000</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1750000</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1750000</v>
-      </c>
-      <c r="G36" s="6">
-        <v>10500</v>
-      </c>
-      <c r="H36" s="6">
-        <v>3500000</v>
-      </c>
-      <c r="I36" s="6">
-        <v>3500000</v>
-      </c>
-      <c r="J36" s="6">
-        <v>3500000</v>
-      </c>
-      <c r="K36" s="6">
-        <v>21000</v>
-      </c>
-      <c r="L36" s="6">
-        <v>145200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="20" customHeight="1">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6">
-        <v>180</v>
-      </c>
-      <c r="C37" s="6">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="G37" s="6">
-        <v>10800</v>
-      </c>
-      <c r="H37" s="6">
-        <v>3600000</v>
-      </c>
-      <c r="I37" s="6">
-        <v>3600000</v>
-      </c>
-      <c r="J37" s="6">
-        <v>3600000</v>
-      </c>
-      <c r="K37" s="6">
-        <v>21600</v>
-      </c>
-      <c r="L37" s="6">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="20" customHeight="1">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6">
-        <v>185</v>
-      </c>
-      <c r="C38" s="6">
-        <v>3</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1850000</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1850000</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1850000</v>
-      </c>
-      <c r="G38" s="6">
-        <v>11100</v>
-      </c>
-      <c r="H38" s="6">
-        <v>3700000</v>
-      </c>
-      <c r="I38" s="6">
-        <v>3700000</v>
-      </c>
-      <c r="J38" s="6">
-        <v>3700000</v>
-      </c>
-      <c r="K38" s="6">
-        <v>22200</v>
-      </c>
-      <c r="L38" s="6">
-        <v>184800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="20" customHeight="1">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6">
-        <v>190</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="G39" s="6">
-        <v>11400</v>
-      </c>
-      <c r="H39" s="6">
-        <v>3800000</v>
-      </c>
-      <c r="I39" s="6">
-        <v>3800000</v>
-      </c>
-      <c r="J39" s="6">
-        <v>3800000</v>
-      </c>
-      <c r="K39" s="6">
-        <v>22800</v>
-      </c>
-      <c r="L39" s="6">
-        <v>204600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="20" customHeight="1">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6">
-        <v>195</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1950000</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1950000</v>
-      </c>
-      <c r="F40" s="6">
-        <v>1950000</v>
-      </c>
-      <c r="G40" s="6">
-        <v>11700</v>
-      </c>
-      <c r="H40" s="6">
-        <v>3900000</v>
-      </c>
-      <c r="I40" s="6">
-        <v>3900000</v>
-      </c>
-      <c r="J40" s="6">
-        <v>3900000</v>
-      </c>
-      <c r="K40" s="6">
-        <v>23400</v>
-      </c>
-      <c r="L40" s="6">
-        <v>224400</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="20" customHeight="1">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6">
-        <v>200</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="E41" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="F41" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="G41" s="6">
-        <v>12000</v>
-      </c>
-      <c r="H41" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="I41" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="J41" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="K41" s="6">
+      <c r="K41" s="1">
         <v>24000</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="3">
         <v>297000</v>
       </c>
     </row>
@@ -6301,13 +6309,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7017,16 +7025,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7616,16 +7624,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8215,16 +8223,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8803,7 +8811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -8814,16 +8822,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -9891,10 +9899,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -12274,7 +12282,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -12873,16 +12881,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -13721,19 +13729,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -14686,10 +14694,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -14703,7 +14711,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3">
         <v>37</v>
@@ -14717,7 +14725,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3">
         <v>75</v>
@@ -14731,7 +14739,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3">
         <v>112</v>
@@ -14745,7 +14753,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3">
         <v>150</v>
@@ -14759,7 +14767,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3">
         <v>187</v>
@@ -14773,7 +14781,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>225</v>
@@ -14787,7 +14795,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3">
         <v>262</v>
@@ -14801,7 +14809,7 @@
         <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3">
         <v>300</v>
@@ -14815,7 +14823,7 @@
         <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3">
         <v>337</v>
@@ -14829,7 +14837,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3">
         <v>375</v>
@@ -14843,7 +14851,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3">
         <v>562</v>
@@ -14857,7 +14865,7 @@
         <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3">
         <v>750</v>
@@ -14871,7 +14879,7 @@
         <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3">
         <v>1125</v>
@@ -14885,7 +14893,7 @@
         <v>260</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3">
         <v>1500</v>
@@ -14899,7 +14907,7 @@
         <v>280</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3">
         <v>2250</v>
@@ -14913,7 +14921,7 @@
         <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3">
         <v>3000</v>
@@ -14927,7 +14935,7 @@
         <v>320</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3">
         <v>3750</v>
@@ -14941,7 +14949,7 @@
         <v>340</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3">
         <v>4500</v>
@@ -14955,7 +14963,7 @@
         <v>360</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3">
         <v>5250</v>
@@ -14969,7 +14977,7 @@
         <v>380</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3">
         <v>6000</v>
@@ -14983,7 +14991,7 @@
         <v>400</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D22" s="3">
         <v>6750</v>
@@ -14997,7 +15005,7 @@
         <v>420</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3">
         <v>10125</v>
@@ -15011,7 +15019,7 @@
         <v>440</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D24" s="3">
         <v>13500</v>
@@ -15025,7 +15033,7 @@
         <v>460</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3">
         <v>16875</v>
@@ -15039,7 +15047,7 @@
         <v>480</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3">
         <v>22500</v>
@@ -15053,7 +15061,7 @@
         <v>500</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3">
         <v>33750</v>
@@ -15067,7 +15075,7 @@
         <v>520</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3">
         <v>45000</v>
@@ -15081,7 +15089,7 @@
         <v>540</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D29" s="3">
         <v>60000</v>
@@ -15095,7 +15103,7 @@
         <v>560</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3">
         <v>75000</v>
@@ -15109,7 +15117,7 @@
         <v>580</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3">
         <v>90000</v>
@@ -15123,7 +15131,7 @@
         <v>600</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3">
         <v>105000</v>
@@ -15137,7 +15145,7 @@
         <v>640</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3">
         <v>120000</v>
@@ -15151,7 +15159,7 @@
         <v>680</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D34" s="3">
         <v>135000</v>
@@ -15165,7 +15173,7 @@
         <v>720</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D35" s="3">
         <v>150000</v>
@@ -15179,7 +15187,7 @@
         <v>760</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D36" s="3">
         <v>165000</v>
@@ -15193,7 +15201,7 @@
         <v>800</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D37" s="3">
         <v>187500</v>
@@ -15207,7 +15215,7 @@
         <v>840</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D38" s="3">
         <v>210000</v>
@@ -15221,7 +15229,7 @@
         <v>880</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D39" s="3">
         <v>232500</v>
@@ -15235,7 +15243,7 @@
         <v>920</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D40" s="3">
         <v>255000</v>
@@ -15249,7 +15257,7 @@
         <v>1000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1">
         <v>337500</v>
@@ -15285,7 +15293,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="12"/>
@@ -319,10 +319,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_poduction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_poductionType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -360,6 +356,10 @@
   </si>
   <si>
     <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_production</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4710,7 +4710,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:L41"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4723,37 +4723,37 @@
         <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -4709,7 +4709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -15755,8 +15755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15780,7 +15780,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C2" s="3">
         <v>42</v>
@@ -15791,7 +15791,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C3" s="3">
         <v>85</v>
@@ -15802,7 +15802,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="C4" s="3">
         <v>127</v>
@@ -15813,7 +15813,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C5" s="3">
         <v>170</v>
@@ -15824,7 +15824,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="3">
         <v>212</v>
@@ -15835,7 +15835,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="C7" s="3">
         <v>255</v>
@@ -15846,7 +15846,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="3">
         <v>297</v>
@@ -15857,7 +15857,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="C9" s="3">
         <v>340</v>
@@ -15868,7 +15868,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="C10" s="3">
         <v>382</v>
@@ -15879,7 +15879,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C11" s="3">
         <v>425</v>
@@ -15890,7 +15890,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="C12" s="3">
         <v>637</v>
@@ -15901,7 +15901,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="C13" s="3">
         <v>850</v>
@@ -15912,7 +15912,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="C14" s="3">
         <v>1275</v>
@@ -15923,7 +15923,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C15" s="3">
         <v>1700</v>
@@ -15934,7 +15934,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="C16" s="3">
         <v>2550</v>
@@ -15945,7 +15945,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="C17" s="3">
         <v>3400</v>
@@ -15956,7 +15956,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="C18" s="3">
         <v>4250</v>
@@ -15967,7 +15967,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="C19" s="3">
         <v>5100</v>
@@ -15978,7 +15978,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="C20" s="3">
         <v>5950</v>
@@ -15989,7 +15989,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C21" s="3">
         <v>6800</v>
@@ -16000,7 +16000,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="C22" s="3">
         <v>7650</v>
@@ -16011,7 +16011,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="C23" s="3">
         <v>11475</v>
@@ -16022,7 +16022,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="C24" s="3">
         <v>15300</v>
@@ -16033,7 +16033,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="C25" s="3">
         <v>19125</v>
@@ -16044,7 +16044,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C26" s="3">
         <v>25500</v>
@@ -16055,7 +16055,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="C27" s="3">
         <v>38250</v>
@@ -16066,7 +16066,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="C28" s="3">
         <v>51000</v>
@@ -16077,7 +16077,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C29" s="3">
         <v>68000</v>
@@ -16088,7 +16088,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C30" s="3">
         <v>85000</v>
@@ -16099,7 +16099,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C31" s="3">
         <v>102000</v>
@@ -16110,7 +16110,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="C32" s="3">
         <v>119000</v>
@@ -16121,7 +16121,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="C33" s="3">
         <v>136000</v>
@@ -16132,7 +16132,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="C34" s="3">
         <v>153000</v>
@@ -16143,7 +16143,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="C35" s="3">
         <v>170000</v>
@@ -16154,7 +16154,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="C36" s="3">
         <v>187000</v>
@@ -16165,7 +16165,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="C37" s="3">
         <v>212500</v>
@@ -16176,7 +16176,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="C38" s="3">
         <v>238000</v>
@@ -16187,7 +16187,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="C39" s="3">
         <v>263500</v>
@@ -16198,7 +16198,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="C40" s="3">
         <v>289000</v>
@@ -16209,7 +16209,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C41" s="1">
         <v>382500</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="8"/>
+    <workbookView xWindow="4140" yWindow="2920" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -319,10 +319,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_poductionType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_productBmWood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -360,6 +356,10 @@
   </si>
   <si>
     <t>INT_production</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productionType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4709,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4723,37 +4723,37 @@
         <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -15755,7 +15755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2920" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="2020" windowWidth="33160" windowHeight="16460" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="582">
+  <cellStyleXfs count="588">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1159,7 +1165,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="582">
+  <cellStyles count="588">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1453,6 +1459,9 @@
     <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1739,6 +1748,9 @@
     <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4709,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9886,8 +9898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9912,7 +9924,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1">
         <v>40</v>
       </c>
       <c r="C2" s="6">
@@ -9923,7 +9935,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="1">
         <v>45</v>
       </c>
       <c r="C3" s="6">
@@ -9934,7 +9946,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
       <c r="C4" s="6">
@@ -9945,7 +9957,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>55</v>
       </c>
       <c r="C5" s="6">
@@ -9956,7 +9968,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>60</v>
       </c>
       <c r="C6" s="6">
@@ -9967,7 +9979,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>65</v>
       </c>
       <c r="C7" s="6">
@@ -9978,7 +9990,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>70</v>
       </c>
       <c r="C8" s="6">
@@ -9989,7 +10001,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>75</v>
       </c>
       <c r="C9" s="6">
@@ -10000,7 +10012,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="1">
         <v>80</v>
       </c>
       <c r="C10" s="6">
@@ -10011,7 +10023,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>85</v>
       </c>
       <c r="C11" s="6">
@@ -10022,7 +10034,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <v>90</v>
       </c>
       <c r="C12" s="6">
@@ -10033,7 +10045,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="1">
         <v>105</v>
       </c>
       <c r="C13" s="6">
@@ -10044,8 +10056,8 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>120</v>
+      <c r="B14" s="1">
+        <v>170</v>
       </c>
       <c r="C14" s="6">
         <v>1800</v>
@@ -10055,8 +10067,8 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>140</v>
+      <c r="B15" s="1">
+        <v>200</v>
       </c>
       <c r="C15" s="6">
         <v>2400</v>
@@ -10066,8 +10078,8 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
-        <v>150</v>
+      <c r="B16" s="1">
+        <v>220</v>
       </c>
       <c r="C16" s="6">
         <v>3600</v>
@@ -10077,8 +10089,8 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>170</v>
+      <c r="B17" s="1">
+        <v>240</v>
       </c>
       <c r="C17" s="6">
         <v>4800</v>
@@ -10088,8 +10100,8 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
-        <v>180</v>
+      <c r="B18" s="1">
+        <v>260</v>
       </c>
       <c r="C18" s="6">
         <v>6000</v>
@@ -10099,8 +10111,8 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
-        <v>200</v>
+      <c r="B19" s="1">
+        <v>280</v>
       </c>
       <c r="C19" s="6">
         <v>7200</v>
@@ -10110,8 +10122,8 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
-        <v>210</v>
+      <c r="B20" s="1">
+        <v>300</v>
       </c>
       <c r="C20" s="6">
         <v>8400</v>
@@ -10121,8 +10133,8 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
-        <v>220</v>
+      <c r="B21" s="1">
+        <v>330</v>
       </c>
       <c r="C21" s="6">
         <v>9600</v>
@@ -10132,8 +10144,8 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
-        <v>430</v>
+      <c r="B22" s="1">
+        <v>590</v>
       </c>
       <c r="C22" s="6">
         <v>10800</v>
@@ -10143,8 +10155,8 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
-        <v>480</v>
+      <c r="B23" s="1">
+        <v>680</v>
       </c>
       <c r="C23" s="6">
         <v>16200</v>
@@ -10154,8 +10166,8 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
-        <v>540</v>
+      <c r="B24" s="1">
+        <v>760</v>
       </c>
       <c r="C24" s="6">
         <v>21600</v>
@@ -10165,8 +10177,8 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
-        <v>600</v>
+      <c r="B25" s="1">
+        <v>850</v>
       </c>
       <c r="C25" s="6">
         <v>27000</v>
@@ -10176,8 +10188,8 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
-        <v>660</v>
+      <c r="B26" s="1">
+        <v>940</v>
       </c>
       <c r="C26" s="6">
         <v>36000</v>
@@ -10187,8 +10199,8 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
-        <v>710</v>
+      <c r="B27" s="1">
+        <v>1020</v>
       </c>
       <c r="C27" s="6">
         <v>54000</v>
@@ -10198,8 +10210,8 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
-        <v>770</v>
+      <c r="B28" s="1">
+        <v>1110</v>
       </c>
       <c r="C28" s="6">
         <v>72000</v>
@@ -10209,8 +10221,8 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
-        <v>830</v>
+      <c r="B29" s="1">
+        <v>1200</v>
       </c>
       <c r="C29" s="6">
         <v>96000</v>
@@ -10220,8 +10232,8 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
-        <v>890</v>
+      <c r="B30" s="1">
+        <v>1280</v>
       </c>
       <c r="C30" s="6">
         <v>120000</v>
@@ -10231,8 +10243,8 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
-        <v>940</v>
+      <c r="B31" s="1">
+        <v>1370</v>
       </c>
       <c r="C31" s="6">
         <v>144000</v>
@@ -10242,8 +10254,8 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
-        <v>1410</v>
+      <c r="B32" s="1">
+        <v>2240</v>
       </c>
       <c r="C32" s="6">
         <v>168000</v>
@@ -10253,8 +10265,8 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
-        <v>1520</v>
+      <c r="B33" s="1">
+        <v>2410</v>
       </c>
       <c r="C33" s="6">
         <v>192000</v>
@@ -10264,8 +10276,8 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
-        <v>1640</v>
+      <c r="B34" s="1">
+        <v>2580</v>
       </c>
       <c r="C34" s="6">
         <v>216000</v>
@@ -10275,8 +10287,8 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
-        <v>1750</v>
+      <c r="B35" s="1">
+        <v>2750</v>
       </c>
       <c r="C35" s="6">
         <v>240000</v>
@@ -10286,8 +10298,8 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
-        <v>1870</v>
+      <c r="B36" s="1">
+        <v>2930</v>
       </c>
       <c r="C36" s="6">
         <v>264000</v>
@@ -10297,8 +10309,8 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="6">
-        <v>1980</v>
+      <c r="B37" s="1">
+        <v>3100</v>
       </c>
       <c r="C37" s="6">
         <v>300000</v>
@@ -10308,8 +10320,8 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
-        <v>2100</v>
+      <c r="B38" s="1">
+        <v>3270</v>
       </c>
       <c r="C38" s="6">
         <v>336000</v>
@@ -10319,8 +10331,8 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
-        <v>2210</v>
+      <c r="B39" s="1">
+        <v>3450</v>
       </c>
       <c r="C39" s="6">
         <v>372000</v>
@@ -10330,8 +10342,8 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <v>2330</v>
+      <c r="B40" s="1">
+        <v>3620</v>
       </c>
       <c r="C40" s="6">
         <v>408000</v>
@@ -10341,8 +10353,8 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>2440</v>
+      <c r="B41" s="1">
+        <v>3800</v>
       </c>
       <c r="C41" s="6">
         <v>540000</v>
@@ -12867,8 +12879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12901,16 +12913,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="C2" s="1">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="D2" s="1">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="E2" s="1">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="F2" s="3">
         <v>30</v>
@@ -12921,16 +12933,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="C3" s="3">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="D3" s="3">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="E3" s="3">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="F3" s="3">
         <v>60</v>
@@ -12941,16 +12953,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>380000</v>
+        <v>228000</v>
       </c>
       <c r="C4" s="3">
-        <v>380000</v>
+        <v>228000</v>
       </c>
       <c r="D4" s="3">
-        <v>380000</v>
+        <v>228000</v>
       </c>
       <c r="E4" s="3">
-        <v>380000</v>
+        <v>228000</v>
       </c>
       <c r="F4" s="3">
         <v>90</v>
@@ -12961,16 +12973,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>700000</v>
+        <v>420000</v>
       </c>
       <c r="C5" s="3">
-        <v>700000</v>
+        <v>420000</v>
       </c>
       <c r="D5" s="3">
-        <v>700000</v>
+        <v>420000</v>
       </c>
       <c r="E5" s="3">
-        <v>700000</v>
+        <v>420000</v>
       </c>
       <c r="F5" s="3">
         <v>120</v>
@@ -12981,16 +12993,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1140000</v>
+        <v>684000</v>
       </c>
       <c r="C6" s="3">
-        <v>1140000</v>
+        <v>684000</v>
       </c>
       <c r="D6" s="3">
-        <v>1140000</v>
+        <v>684000</v>
       </c>
       <c r="E6" s="3">
-        <v>1140000</v>
+        <v>684000</v>
       </c>
       <c r="F6" s="3">
         <v>150</v>
@@ -13001,16 +13013,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1700000</v>
+        <v>1020000</v>
       </c>
       <c r="C7" s="3">
-        <v>1700000</v>
+        <v>1020000</v>
       </c>
       <c r="D7" s="3">
-        <v>1700000</v>
+        <v>1020000</v>
       </c>
       <c r="E7" s="3">
-        <v>1700000</v>
+        <v>1020000</v>
       </c>
       <c r="F7" s="3">
         <v>180</v>
@@ -13021,16 +13033,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2380000</v>
+        <v>1428000</v>
       </c>
       <c r="C8" s="3">
-        <v>2380000</v>
+        <v>1428000</v>
       </c>
       <c r="D8" s="3">
-        <v>2380000</v>
+        <v>1428000</v>
       </c>
       <c r="E8" s="3">
-        <v>2380000</v>
+        <v>1428000</v>
       </c>
       <c r="F8" s="3">
         <v>210</v>
@@ -13041,16 +13053,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3180000</v>
+        <v>1908000</v>
       </c>
       <c r="C9" s="3">
-        <v>3180000</v>
+        <v>1908000</v>
       </c>
       <c r="D9" s="3">
-        <v>3180000</v>
+        <v>1908000</v>
       </c>
       <c r="E9" s="3">
-        <v>3180000</v>
+        <v>1908000</v>
       </c>
       <c r="F9" s="3">
         <v>240</v>
@@ -13061,16 +13073,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4100000</v>
+        <v>2460000</v>
       </c>
       <c r="C10" s="3">
-        <v>4100000</v>
+        <v>2460000</v>
       </c>
       <c r="D10" s="3">
-        <v>4100000</v>
+        <v>2460000</v>
       </c>
       <c r="E10" s="3">
-        <v>4100000</v>
+        <v>2460000</v>
       </c>
       <c r="F10" s="3">
         <v>270</v>
@@ -13081,16 +13093,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>5140000</v>
+        <v>3084000</v>
       </c>
       <c r="C11" s="3">
-        <v>5140000</v>
+        <v>3084000</v>
       </c>
       <c r="D11" s="3">
-        <v>5140000</v>
+        <v>3084000</v>
       </c>
       <c r="E11" s="3">
-        <v>5140000</v>
+        <v>3084000</v>
       </c>
       <c r="F11" s="3">
         <v>300</v>
@@ -13101,16 +13113,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>6300000</v>
+        <v>3780000</v>
       </c>
       <c r="C12" s="3">
-        <v>6300000</v>
+        <v>3780000</v>
       </c>
       <c r="D12" s="3">
-        <v>6300000</v>
+        <v>3780000</v>
       </c>
       <c r="E12" s="3">
-        <v>6300000</v>
+        <v>3780000</v>
       </c>
       <c r="F12" s="3">
         <v>450</v>
@@ -13121,16 +13133,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>7580000</v>
+        <v>4548000</v>
       </c>
       <c r="C13" s="3">
-        <v>7580000</v>
+        <v>4548000</v>
       </c>
       <c r="D13" s="3">
-        <v>7580000</v>
+        <v>4548000</v>
       </c>
       <c r="E13" s="3">
-        <v>7580000</v>
+        <v>4548000</v>
       </c>
       <c r="F13" s="3">
         <v>600</v>
@@ -13141,16 +13153,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>8980000</v>
+        <v>5388000</v>
       </c>
       <c r="C14" s="3">
-        <v>8980000</v>
+        <v>5388000</v>
       </c>
       <c r="D14" s="3">
-        <v>8980000</v>
+        <v>5388000</v>
       </c>
       <c r="E14" s="3">
-        <v>8980000</v>
+        <v>5388000</v>
       </c>
       <c r="F14" s="3">
         <v>900</v>
@@ -13161,16 +13173,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>10500000</v>
+        <v>6300000</v>
       </c>
       <c r="C15" s="3">
-        <v>10500000</v>
+        <v>6300000</v>
       </c>
       <c r="D15" s="3">
-        <v>10500000</v>
+        <v>6300000</v>
       </c>
       <c r="E15" s="3">
-        <v>10500000</v>
+        <v>6300000</v>
       </c>
       <c r="F15" s="3">
         <v>1200</v>
@@ -13181,16 +13193,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>12140000</v>
+        <v>7284000</v>
       </c>
       <c r="C16" s="3">
-        <v>12140000</v>
+        <v>7284000</v>
       </c>
       <c r="D16" s="3">
-        <v>12140000</v>
+        <v>7284000</v>
       </c>
       <c r="E16" s="3">
-        <v>12140000</v>
+        <v>7284000</v>
       </c>
       <c r="F16" s="3">
         <v>1800</v>
@@ -13201,16 +13213,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>13900000</v>
+        <v>8340000</v>
       </c>
       <c r="C17" s="3">
-        <v>13900000</v>
+        <v>8340000</v>
       </c>
       <c r="D17" s="3">
-        <v>13900000</v>
+        <v>8340000</v>
       </c>
       <c r="E17" s="3">
-        <v>13900000</v>
+        <v>8340000</v>
       </c>
       <c r="F17" s="3">
         <v>2400</v>
@@ -13221,16 +13233,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>15780000</v>
+        <v>9468000</v>
       </c>
       <c r="C18" s="3">
-        <v>15780000</v>
+        <v>9468000</v>
       </c>
       <c r="D18" s="3">
-        <v>15780000</v>
+        <v>9468000</v>
       </c>
       <c r="E18" s="3">
-        <v>15780000</v>
+        <v>9468000</v>
       </c>
       <c r="F18" s="3">
         <v>3000</v>
@@ -13241,16 +13253,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>17780000</v>
+        <v>10668000</v>
       </c>
       <c r="C19" s="3">
-        <v>17780000</v>
+        <v>10668000</v>
       </c>
       <c r="D19" s="3">
-        <v>17780000</v>
+        <v>10668000</v>
       </c>
       <c r="E19" s="3">
-        <v>17780000</v>
+        <v>10668000</v>
       </c>
       <c r="F19" s="3">
         <v>3600</v>
@@ -13261,16 +13273,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>19900000</v>
+        <v>11940000</v>
       </c>
       <c r="C20" s="3">
-        <v>19900000</v>
+        <v>11940000</v>
       </c>
       <c r="D20" s="3">
-        <v>19900000</v>
+        <v>11940000</v>
       </c>
       <c r="E20" s="3">
-        <v>19900000</v>
+        <v>11940000</v>
       </c>
       <c r="F20" s="3">
         <v>4200</v>
@@ -13281,16 +13293,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>22140000</v>
+        <v>13284000</v>
       </c>
       <c r="C21" s="3">
-        <v>22140000</v>
+        <v>13284000</v>
       </c>
       <c r="D21" s="3">
-        <v>22140000</v>
+        <v>13284000</v>
       </c>
       <c r="E21" s="3">
-        <v>22140000</v>
+        <v>13284000</v>
       </c>
       <c r="F21" s="3">
         <v>4800</v>
@@ -13301,16 +13313,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>24500000</v>
+        <v>14700000</v>
       </c>
       <c r="C22" s="3">
-        <v>24500000</v>
+        <v>14700000</v>
       </c>
       <c r="D22" s="3">
-        <v>24500000</v>
+        <v>14700000</v>
       </c>
       <c r="E22" s="3">
-        <v>24500000</v>
+        <v>14700000</v>
       </c>
       <c r="F22" s="3">
         <v>5400</v>
@@ -13321,16 +13333,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>26980000</v>
+        <v>16188000</v>
       </c>
       <c r="C23" s="3">
-        <v>26980000</v>
+        <v>16188000</v>
       </c>
       <c r="D23" s="3">
-        <v>26980000</v>
+        <v>16188000</v>
       </c>
       <c r="E23" s="3">
-        <v>26980000</v>
+        <v>16188000</v>
       </c>
       <c r="F23" s="3">
         <v>8100</v>
@@ -13341,16 +13353,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>29580000</v>
+        <v>17748000</v>
       </c>
       <c r="C24" s="3">
-        <v>29580000</v>
+        <v>17748000</v>
       </c>
       <c r="D24" s="3">
-        <v>29580000</v>
+        <v>17748000</v>
       </c>
       <c r="E24" s="3">
-        <v>29580000</v>
+        <v>17748000</v>
       </c>
       <c r="F24" s="3">
         <v>10800</v>
@@ -13361,16 +13373,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>32300000</v>
+        <v>19380000</v>
       </c>
       <c r="C25" s="3">
-        <v>32300000</v>
+        <v>19380000</v>
       </c>
       <c r="D25" s="3">
-        <v>32300000</v>
+        <v>19380000</v>
       </c>
       <c r="E25" s="3">
-        <v>32300000</v>
+        <v>19380000</v>
       </c>
       <c r="F25" s="3">
         <v>13500</v>
@@ -13381,16 +13393,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>35140000</v>
+        <v>21084000</v>
       </c>
       <c r="C26" s="3">
-        <v>35140000</v>
+        <v>21084000</v>
       </c>
       <c r="D26" s="3">
-        <v>35140000</v>
+        <v>21084000</v>
       </c>
       <c r="E26" s="3">
-        <v>35140000</v>
+        <v>21084000</v>
       </c>
       <c r="F26" s="3">
         <v>18000</v>
@@ -13401,16 +13413,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>38100000</v>
+        <v>22860000</v>
       </c>
       <c r="C27" s="3">
-        <v>38100000</v>
+        <v>22860000</v>
       </c>
       <c r="D27" s="3">
-        <v>38100000</v>
+        <v>22860000</v>
       </c>
       <c r="E27" s="3">
-        <v>38100000</v>
+        <v>22860000</v>
       </c>
       <c r="F27" s="3">
         <v>27000</v>
@@ -13421,16 +13433,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>41180000</v>
+        <v>24708000</v>
       </c>
       <c r="C28" s="3">
-        <v>41180000</v>
+        <v>24708000</v>
       </c>
       <c r="D28" s="3">
-        <v>41180000</v>
+        <v>24708000</v>
       </c>
       <c r="E28" s="3">
-        <v>41180000</v>
+        <v>24708000</v>
       </c>
       <c r="F28" s="3">
         <v>36000</v>
@@ -13441,16 +13453,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>44380000</v>
+        <v>26628000</v>
       </c>
       <c r="C29" s="3">
-        <v>44380000</v>
+        <v>26628000</v>
       </c>
       <c r="D29" s="3">
-        <v>44380000</v>
+        <v>26628000</v>
       </c>
       <c r="E29" s="3">
-        <v>44380000</v>
+        <v>26628000</v>
       </c>
       <c r="F29" s="3">
         <v>48000</v>
@@ -13461,16 +13473,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>47700000</v>
+        <v>28620000</v>
       </c>
       <c r="C30" s="3">
-        <v>47700000</v>
+        <v>28620000</v>
       </c>
       <c r="D30" s="3">
-        <v>47700000</v>
+        <v>28620000</v>
       </c>
       <c r="E30" s="3">
-        <v>47700000</v>
+        <v>28620000</v>
       </c>
       <c r="F30" s="3">
         <v>60000</v>
@@ -13481,16 +13493,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>51140000</v>
+        <v>30684000</v>
       </c>
       <c r="C31" s="3">
-        <v>51140000</v>
+        <v>30684000</v>
       </c>
       <c r="D31" s="3">
-        <v>51140000</v>
+        <v>30684000</v>
       </c>
       <c r="E31" s="3">
-        <v>51140000</v>
+        <v>30684000</v>
       </c>
       <c r="F31" s="3">
         <v>72000</v>
@@ -13501,16 +13513,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>54700000</v>
+        <v>32820000</v>
       </c>
       <c r="C32" s="3">
-        <v>54700000</v>
+        <v>32820000</v>
       </c>
       <c r="D32" s="3">
-        <v>54700000</v>
+        <v>32820000</v>
       </c>
       <c r="E32" s="3">
-        <v>54700000</v>
+        <v>32820000</v>
       </c>
       <c r="F32" s="3">
         <v>84000</v>
@@ -13521,16 +13533,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>58380000</v>
+        <v>35028000</v>
       </c>
       <c r="C33" s="3">
-        <v>58380000</v>
+        <v>35028000</v>
       </c>
       <c r="D33" s="3">
-        <v>58380000</v>
+        <v>35028000</v>
       </c>
       <c r="E33" s="3">
-        <v>58380000</v>
+        <v>35028000</v>
       </c>
       <c r="F33" s="3">
         <v>96000</v>
@@ -13541,16 +13553,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>62180000</v>
+        <v>37308000</v>
       </c>
       <c r="C34" s="3">
-        <v>62180000</v>
+        <v>37308000</v>
       </c>
       <c r="D34" s="3">
-        <v>62180000</v>
+        <v>37308000</v>
       </c>
       <c r="E34" s="3">
-        <v>62180000</v>
+        <v>37308000</v>
       </c>
       <c r="F34" s="3">
         <v>108000</v>
@@ -13561,16 +13573,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>66100000</v>
+        <v>39660000</v>
       </c>
       <c r="C35" s="3">
-        <v>66100000</v>
+        <v>39660000</v>
       </c>
       <c r="D35" s="3">
-        <v>66100000</v>
+        <v>39660000</v>
       </c>
       <c r="E35" s="3">
-        <v>66100000</v>
+        <v>39660000</v>
       </c>
       <c r="F35" s="3">
         <v>120000</v>
@@ -13581,16 +13593,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>70140000</v>
+        <v>42084000</v>
       </c>
       <c r="C36" s="3">
-        <v>70140000</v>
+        <v>42084000</v>
       </c>
       <c r="D36" s="3">
-        <v>70140000</v>
+        <v>42084000</v>
       </c>
       <c r="E36" s="3">
-        <v>70140000</v>
+        <v>42084000</v>
       </c>
       <c r="F36" s="3">
         <v>132000</v>
@@ -13601,16 +13613,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>75000000</v>
+        <v>45000000</v>
       </c>
       <c r="C37" s="3">
-        <v>75000000</v>
+        <v>45000000</v>
       </c>
       <c r="D37" s="3">
-        <v>75000000</v>
+        <v>45000000</v>
       </c>
       <c r="E37" s="3">
-        <v>75000000</v>
+        <v>45000000</v>
       </c>
       <c r="F37" s="3">
         <v>150000</v>
@@ -13621,16 +13633,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>80000000</v>
+        <v>48000000</v>
       </c>
       <c r="C38" s="3">
-        <v>80000000</v>
+        <v>48000000</v>
       </c>
       <c r="D38" s="3">
-        <v>80000000</v>
+        <v>48000000</v>
       </c>
       <c r="E38" s="3">
-        <v>80000000</v>
+        <v>48000000</v>
       </c>
       <c r="F38" s="3">
         <v>168000</v>
@@ -13641,16 +13653,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="C39" s="3">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="D39" s="3">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="E39" s="3">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="F39" s="3">
         <v>186000</v>
@@ -13661,16 +13673,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>120000000</v>
+        <v>72000000</v>
       </c>
       <c r="C40" s="3">
-        <v>120000000</v>
+        <v>72000000</v>
       </c>
       <c r="D40" s="3">
-        <v>120000000</v>
+        <v>72000000</v>
       </c>
       <c r="E40" s="3">
-        <v>120000000</v>
+        <v>72000000</v>
       </c>
       <c r="F40" s="3">
         <v>204000</v>
@@ -13681,16 +13693,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>150000000</v>
+        <v>90000000</v>
       </c>
       <c r="C41" s="3">
-        <v>150000000</v>
+        <v>90000000</v>
       </c>
       <c r="D41" s="3">
-        <v>150000000</v>
+        <v>90000000</v>
       </c>
       <c r="E41" s="3">
-        <v>150000000</v>
+        <v>90000000</v>
       </c>
       <c r="F41" s="1">
         <v>270000</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="2020" windowWidth="33160" windowHeight="16460" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="3840" yWindow="3780" windowWidth="23440" windowHeight="11860" tabRatio="883" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="588">
+  <cellStyleXfs count="594">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1165,7 +1171,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="588">
+  <cellStyles count="594">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1462,6 +1468,9 @@
     <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1751,6 +1760,9 @@
     <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2801,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2844,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3">
         <v>32</v>
@@ -2857,14 +2869,14 @@
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3">
         <v>65</v>
@@ -2877,14 +2889,14 @@
       <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>40</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>40</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3">
         <v>97</v>
@@ -2897,14 +2909,14 @@
       <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>60</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>60</v>
       </c>
       <c r="E5" s="1">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3">
         <v>130</v>
@@ -2917,14 +2929,14 @@
       <c r="B6" s="1">
         <v>80</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>80</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>80</v>
       </c>
       <c r="E6" s="1">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3">
         <v>162</v>
@@ -2937,14 +2949,14 @@
       <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>100</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3">
         <v>195</v>
@@ -2957,14 +2969,14 @@
       <c r="B8" s="1">
         <v>120</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>120</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>120</v>
       </c>
       <c r="E8" s="1">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F8" s="3">
         <v>227</v>
@@ -2977,14 +2989,14 @@
       <c r="B9" s="1">
         <v>140</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>140</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>140</v>
       </c>
       <c r="E9" s="1">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="F9" s="3">
         <v>260</v>
@@ -2997,14 +3009,14 @@
       <c r="B10" s="1">
         <v>160</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>160</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>160</v>
       </c>
       <c r="E10" s="1">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F10" s="3">
         <v>292</v>
@@ -3017,14 +3029,14 @@
       <c r="B11" s="1">
         <v>180</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>180</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>180</v>
       </c>
       <c r="E11" s="1">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="F11" s="3">
         <v>325</v>
@@ -3037,14 +3049,14 @@
       <c r="B12" s="1">
         <v>200</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>200</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>200</v>
       </c>
       <c r="E12" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>487</v>
@@ -3057,14 +3069,14 @@
       <c r="B13" s="1">
         <v>220</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>220</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>220</v>
       </c>
       <c r="E13" s="1">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="F13" s="3">
         <v>650</v>
@@ -3077,14 +3089,14 @@
       <c r="B14" s="1">
         <v>240</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>240</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>240</v>
       </c>
       <c r="E14" s="1">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="F14" s="3">
         <v>975</v>
@@ -3097,14 +3109,14 @@
       <c r="B15" s="1">
         <v>260</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>260</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>260</v>
       </c>
       <c r="E15" s="1">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="F15" s="3">
         <v>1300</v>
@@ -3117,14 +3129,14 @@
       <c r="B16" s="1">
         <v>280</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>280</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>280</v>
       </c>
       <c r="E16" s="1">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="F16" s="3">
         <v>1950</v>
@@ -3137,14 +3149,14 @@
       <c r="B17" s="1">
         <v>300</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>300</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>300</v>
       </c>
       <c r="E17" s="1">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>2600</v>
@@ -3157,14 +3169,14 @@
       <c r="B18" s="1">
         <v>320</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>320</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>320</v>
       </c>
       <c r="E18" s="1">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="F18" s="3">
         <v>3250</v>
@@ -3177,14 +3189,14 @@
       <c r="B19" s="1">
         <v>340</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>340</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>340</v>
       </c>
       <c r="E19" s="1">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="F19" s="3">
         <v>3900</v>
@@ -3197,14 +3209,14 @@
       <c r="B20" s="1">
         <v>360</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>360</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>360</v>
       </c>
       <c r="E20" s="1">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="F20" s="3">
         <v>4550</v>
@@ -3217,14 +3229,14 @@
       <c r="B21" s="1">
         <v>380</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>380</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>380</v>
       </c>
       <c r="E21" s="1">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="F21" s="3">
         <v>5200</v>
@@ -3237,14 +3249,14 @@
       <c r="B22" s="1">
         <v>400</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>400</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>400</v>
       </c>
       <c r="E22" s="1">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>5850</v>
@@ -3257,14 +3269,14 @@
       <c r="B23" s="1">
         <v>420</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>420</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>420</v>
       </c>
       <c r="E23" s="1">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="F23" s="3">
         <v>8775</v>
@@ -3277,14 +3289,14 @@
       <c r="B24" s="1">
         <v>440</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>440</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>440</v>
       </c>
       <c r="E24" s="1">
-        <v>88</v>
+        <v>440</v>
       </c>
       <c r="F24" s="3">
         <v>11700</v>
@@ -3297,14 +3309,14 @@
       <c r="B25" s="1">
         <v>460</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>460</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>460</v>
       </c>
       <c r="E25" s="1">
-        <v>92</v>
+        <v>460</v>
       </c>
       <c r="F25" s="3">
         <v>14625</v>
@@ -3317,14 +3329,14 @@
       <c r="B26" s="1">
         <v>480</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>480</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>480</v>
       </c>
       <c r="E26" s="1">
-        <v>96</v>
+        <v>480</v>
       </c>
       <c r="F26" s="3">
         <v>19500</v>
@@ -3337,14 +3349,14 @@
       <c r="B27" s="1">
         <v>500</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>500</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>500</v>
       </c>
       <c r="E27" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F27" s="3">
         <v>29250</v>
@@ -3357,14 +3369,14 @@
       <c r="B28" s="1">
         <v>550</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>550</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>550</v>
       </c>
       <c r="E28" s="1">
-        <v>110</v>
+        <v>550</v>
       </c>
       <c r="F28" s="3">
         <v>39000</v>
@@ -3377,14 +3389,14 @@
       <c r="B29" s="1">
         <v>600</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>600</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>600</v>
       </c>
       <c r="E29" s="1">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="F29" s="3">
         <v>52000</v>
@@ -3397,14 +3409,14 @@
       <c r="B30" s="1">
         <v>700</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>700</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>700</v>
       </c>
       <c r="E30" s="1">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="F30" s="3">
         <v>65000</v>
@@ -3417,14 +3429,14 @@
       <c r="B31" s="1">
         <v>800</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>800</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>800</v>
       </c>
       <c r="E31" s="1">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="F31" s="3">
         <v>78000</v>
@@ -3437,14 +3449,14 @@
       <c r="B32" s="1">
         <v>900</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>900</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>900</v>
       </c>
       <c r="E32" s="1">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="F32" s="3">
         <v>91000</v>
@@ -3457,14 +3469,14 @@
       <c r="B33" s="1">
         <v>1000</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>1000</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>1000</v>
       </c>
       <c r="E33" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="3">
         <v>104000</v>
@@ -3477,14 +3489,14 @@
       <c r="B34" s="1">
         <v>1200</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>1200</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>1200</v>
       </c>
       <c r="E34" s="1">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="F34" s="3">
         <v>117000</v>
@@ -3495,16 +3507,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1500</v>
+        <v>1400</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1400</v>
       </c>
       <c r="E35" s="1">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="F35" s="3">
         <v>130000</v>
@@ -3515,16 +3527,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2000</v>
+        <v>1600</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1600</v>
       </c>
       <c r="E36" s="1">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="F36" s="3">
         <v>143000</v>
@@ -3535,16 +3547,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2500</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2500</v>
+        <v>1800</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1800</v>
       </c>
       <c r="E37" s="1">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="F37" s="3">
         <v>162500</v>
@@ -3555,16 +3567,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3000</v>
+        <v>2000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2000</v>
       </c>
       <c r="E38" s="1">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="F38" s="3">
         <v>182000</v>
@@ -3575,16 +3587,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>3500</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3500</v>
+        <v>2200</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2200</v>
       </c>
       <c r="E39" s="1">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="F39" s="3">
         <v>201500</v>
@@ -3595,16 +3607,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>4000</v>
+        <v>2500</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2500</v>
       </c>
       <c r="E40" s="1">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="F40" s="3">
         <v>221000</v>
@@ -3615,16 +3627,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C41" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D41" s="3">
-        <v>5000</v>
+        <v>3000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3000</v>
       </c>
       <c r="E41" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F41" s="1">
         <v>292500</v>
@@ -3647,7 +3659,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4123,7 +4135,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4722,7 +4734,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6304,7 +6316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E41"/>
     </sheetView>
   </sheetViews>
@@ -7026,7 +7038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -8224,7 +8236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -9898,7 +9910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -12879,7 +12891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -14693,7 +14705,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14748,7 +14760,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -14762,7 +14774,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -14776,7 +14788,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -14790,7 +14802,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -14804,7 +14816,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>34</v>
@@ -14818,7 +14830,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
@@ -14832,7 +14844,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
@@ -14846,7 +14858,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -14860,7 +14872,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
@@ -14874,7 +14886,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
@@ -14888,7 +14900,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
@@ -14902,7 +14914,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
@@ -14916,7 +14928,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
@@ -14930,7 +14942,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
@@ -14944,7 +14956,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>320</v>
+        <v>750</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -14958,7 +14970,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
@@ -14972,7 +14984,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>360</v>
+        <v>850</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
@@ -14986,7 +14998,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>380</v>
+        <v>900</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>44</v>
@@ -15000,7 +15012,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -15014,7 +15026,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>44</v>
@@ -15028,7 +15040,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>440</v>
+        <v>1100</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>44</v>
@@ -15042,7 +15054,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>460</v>
+        <v>1200</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>44</v>
@@ -15056,7 +15068,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>480</v>
+        <v>1300</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>44</v>
@@ -15070,7 +15082,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>44</v>
@@ -15084,7 +15096,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>520</v>
+        <v>1500</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -15098,7 +15110,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>540</v>
+        <v>1600</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>44</v>
@@ -15112,7 +15124,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>560</v>
+        <v>1700</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>44</v>
@@ -15126,7 +15138,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>580</v>
+        <v>1800</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>44</v>
@@ -15140,7 +15152,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
@@ -15154,7 +15166,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>640</v>
+        <v>2000</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>44</v>
@@ -15168,7 +15180,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>680</v>
+        <v>2100</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>44</v>
@@ -15182,7 +15194,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>720</v>
+        <v>2200</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>44</v>
@@ -15196,7 +15208,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>760</v>
+        <v>2300</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>44</v>
@@ -15210,7 +15222,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -15224,7 +15236,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>840</v>
+        <v>2500</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>44</v>
@@ -15238,7 +15250,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>880</v>
+        <v>2600</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>44</v>
@@ -15252,7 +15264,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>920</v>
+        <v>2800</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>44</v>
@@ -15266,7 +15278,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>44</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3780" windowWidth="23440" windowHeight="11860" tabRatio="883" activeTab="9"/>
+    <workbookView xWindow="3820" yWindow="400" windowWidth="25660" windowHeight="20460" tabRatio="883" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -200,10 +200,6 @@
   </si>
   <si>
     <t>INT_maxDragonMaterial</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxDragonEquipment</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2231,7 +2227,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -2811,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2822,7 +2818,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2836,13 +2832,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2855,14 +2848,11 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2875,14 +2865,11 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2895,14 +2882,11 @@
       <c r="D4" s="1">
         <v>40</v>
       </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2915,14 +2899,11 @@
       <c r="D5" s="1">
         <v>60</v>
       </c>
-      <c r="E5" s="1">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2935,14 +2916,11 @@
       <c r="D6" s="1">
         <v>80</v>
       </c>
-      <c r="E6" s="1">
-        <v>80</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2955,14 +2933,11 @@
       <c r="D7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2975,14 +2950,11 @@
       <c r="D8" s="1">
         <v>120</v>
       </c>
-      <c r="E8" s="1">
-        <v>120</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2995,14 +2967,11 @@
       <c r="D9" s="1">
         <v>140</v>
       </c>
-      <c r="E9" s="1">
-        <v>140</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3015,14 +2984,11 @@
       <c r="D10" s="1">
         <v>160</v>
       </c>
-      <c r="E10" s="1">
-        <v>160</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3035,14 +3001,11 @@
       <c r="D11" s="1">
         <v>180</v>
       </c>
-      <c r="E11" s="1">
-        <v>180</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="3">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3055,14 +3018,11 @@
       <c r="D12" s="1">
         <v>200</v>
       </c>
-      <c r="E12" s="1">
-        <v>200</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="3">
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3075,14 +3035,11 @@
       <c r="D13" s="1">
         <v>220</v>
       </c>
-      <c r="E13" s="1">
-        <v>220</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="3">
         <v>650</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3095,14 +3052,11 @@
       <c r="D14" s="1">
         <v>240</v>
       </c>
-      <c r="E14" s="1">
-        <v>240</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
         <v>975</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3115,14 +3069,11 @@
       <c r="D15" s="1">
         <v>260</v>
       </c>
-      <c r="E15" s="1">
-        <v>260</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3135,14 +3086,11 @@
       <c r="D16" s="1">
         <v>280</v>
       </c>
-      <c r="E16" s="1">
-        <v>280</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="3">
         <v>1950</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3155,14 +3103,11 @@
       <c r="D17" s="1">
         <v>300</v>
       </c>
-      <c r="E17" s="1">
-        <v>300</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3175,14 +3120,11 @@
       <c r="D18" s="1">
         <v>320</v>
       </c>
-      <c r="E18" s="1">
-        <v>320</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="3">
         <v>3250</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3195,14 +3137,11 @@
       <c r="D19" s="1">
         <v>340</v>
       </c>
-      <c r="E19" s="1">
-        <v>340</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E19" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3215,14 +3154,11 @@
       <c r="D20" s="1">
         <v>360</v>
       </c>
-      <c r="E20" s="1">
-        <v>360</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="3">
         <v>4550</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3235,14 +3171,11 @@
       <c r="D21" s="1">
         <v>380</v>
       </c>
-      <c r="E21" s="1">
-        <v>380</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3255,14 +3188,11 @@
       <c r="D22" s="1">
         <v>400</v>
       </c>
-      <c r="E22" s="1">
-        <v>400</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="3">
         <v>5850</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3275,14 +3205,11 @@
       <c r="D23" s="1">
         <v>420</v>
       </c>
-      <c r="E23" s="1">
-        <v>420</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="3">
         <v>8775</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3295,14 +3222,11 @@
       <c r="D24" s="1">
         <v>440</v>
       </c>
-      <c r="E24" s="1">
-        <v>440</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3315,14 +3239,11 @@
       <c r="D25" s="1">
         <v>460</v>
       </c>
-      <c r="E25" s="1">
-        <v>460</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="3">
         <v>14625</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3335,14 +3256,11 @@
       <c r="D26" s="1">
         <v>480</v>
       </c>
-      <c r="E26" s="1">
-        <v>480</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3355,14 +3273,11 @@
       <c r="D27" s="1">
         <v>500</v>
       </c>
-      <c r="E27" s="1">
-        <v>500</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="3">
         <v>29250</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3375,14 +3290,11 @@
       <c r="D28" s="1">
         <v>550</v>
       </c>
-      <c r="E28" s="1">
-        <v>550</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3395,14 +3307,11 @@
       <c r="D29" s="1">
         <v>600</v>
       </c>
-      <c r="E29" s="1">
-        <v>600</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3415,14 +3324,11 @@
       <c r="D30" s="1">
         <v>700</v>
       </c>
-      <c r="E30" s="1">
-        <v>700</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3435,14 +3341,11 @@
       <c r="D31" s="1">
         <v>800</v>
       </c>
-      <c r="E31" s="1">
-        <v>800</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3455,14 +3358,11 @@
       <c r="D32" s="1">
         <v>900</v>
       </c>
-      <c r="E32" s="1">
-        <v>900</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3475,14 +3375,11 @@
       <c r="D33" s="1">
         <v>1000</v>
       </c>
-      <c r="E33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3495,14 +3392,11 @@
       <c r="D34" s="1">
         <v>1200</v>
       </c>
-      <c r="E34" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3515,14 +3409,11 @@
       <c r="D35" s="1">
         <v>1400</v>
       </c>
-      <c r="E35" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3535,14 +3426,11 @@
       <c r="D36" s="1">
         <v>1600</v>
       </c>
-      <c r="E36" s="1">
-        <v>1600</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
+    <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3555,14 +3443,11 @@
       <c r="D37" s="1">
         <v>1800</v>
       </c>
-      <c r="E37" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3575,14 +3460,11 @@
       <c r="D38" s="1">
         <v>2000</v>
       </c>
-      <c r="E38" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
+    <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3595,14 +3477,11 @@
       <c r="D39" s="1">
         <v>2200</v>
       </c>
-      <c r="E39" s="1">
-        <v>2200</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="E39" s="3">
         <v>201500</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
+    <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3615,14 +3494,11 @@
       <c r="D40" s="1">
         <v>2500</v>
       </c>
-      <c r="E40" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
+    <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3636,9 +3512,6 @@
         <v>3000</v>
       </c>
       <c r="E41" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F41" s="1">
         <v>292500</v>
       </c>
     </row>
@@ -4145,16 +4018,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4744,40 +4617,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -6336,10 +6209,10 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7049,16 +6922,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7648,16 +7521,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8247,16 +8120,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8846,16 +8719,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -9923,10 +9796,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -13753,19 +13626,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -14721,7 +14594,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -14735,7 +14608,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3">
         <v>37</v>
@@ -14749,7 +14622,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3">
         <v>75</v>
@@ -14763,7 +14636,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3">
         <v>112</v>
@@ -14777,7 +14650,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <v>150</v>
@@ -14791,7 +14664,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3">
         <v>187</v>
@@ -14805,7 +14678,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3">
         <v>225</v>
@@ -14819,7 +14692,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3">
         <v>262</v>
@@ -14833,7 +14706,7 @@
         <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3">
         <v>300</v>
@@ -14847,7 +14720,7 @@
         <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3">
         <v>337</v>
@@ -14861,7 +14734,7 @@
         <v>400</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3">
         <v>375</v>
@@ -14875,7 +14748,7 @@
         <v>450</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3">
         <v>562</v>
@@ -14889,7 +14762,7 @@
         <v>500</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3">
         <v>750</v>
@@ -14903,7 +14776,7 @@
         <v>550</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3">
         <v>1125</v>
@@ -14917,7 +14790,7 @@
         <v>600</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3">
         <v>1500</v>
@@ -14931,7 +14804,7 @@
         <v>650</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3">
         <v>2250</v>
@@ -14945,7 +14818,7 @@
         <v>700</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3">
         <v>3000</v>
@@ -14959,7 +14832,7 @@
         <v>750</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3">
         <v>3750</v>
@@ -14973,7 +14846,7 @@
         <v>800</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3">
         <v>4500</v>
@@ -14987,7 +14860,7 @@
         <v>850</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3">
         <v>5250</v>
@@ -15001,7 +14874,7 @@
         <v>900</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3">
         <v>6000</v>
@@ -15015,7 +14888,7 @@
         <v>950</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3">
         <v>6750</v>
@@ -15029,7 +14902,7 @@
         <v>1000</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3">
         <v>10125</v>
@@ -15043,7 +14916,7 @@
         <v>1100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3">
         <v>13500</v>
@@ -15057,7 +14930,7 @@
         <v>1200</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3">
         <v>16875</v>
@@ -15071,7 +14944,7 @@
         <v>1300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="3">
         <v>22500</v>
@@ -15085,7 +14958,7 @@
         <v>1400</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3">
         <v>33750</v>
@@ -15099,7 +14972,7 @@
         <v>1500</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="3">
         <v>45000</v>
@@ -15113,7 +14986,7 @@
         <v>1600</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="3">
         <v>60000</v>
@@ -15127,7 +15000,7 @@
         <v>1700</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="3">
         <v>75000</v>
@@ -15141,7 +15014,7 @@
         <v>1800</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3">
         <v>90000</v>
@@ -15155,7 +15028,7 @@
         <v>1900</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="3">
         <v>105000</v>
@@ -15169,7 +15042,7 @@
         <v>2000</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="3">
         <v>120000</v>
@@ -15183,7 +15056,7 @@
         <v>2100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="3">
         <v>135000</v>
@@ -15197,7 +15070,7 @@
         <v>2200</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="3">
         <v>150000</v>
@@ -15211,7 +15084,7 @@
         <v>2300</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="3">
         <v>165000</v>
@@ -15225,7 +15098,7 @@
         <v>2400</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="3">
         <v>187500</v>
@@ -15239,7 +15112,7 @@
         <v>2500</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="3">
         <v>210000</v>
@@ -15253,7 +15126,7 @@
         <v>2600</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="3">
         <v>232500</v>
@@ -15267,7 +15140,7 @@
         <v>2800</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3">
         <v>255000</v>
@@ -15281,7 +15154,7 @@
         <v>3000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1">
         <v>337500</v>
@@ -15317,7 +15190,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="400" windowWidth="25660" windowHeight="20460" tabRatio="883" activeTab="9"/>
+    <workbookView xWindow="2900" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" firstSheet="2" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -543,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="594">
+  <cellStyleXfs count="648">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +558,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1167,7 +1221,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="594">
+  <cellStyles count="648">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1467,6 +1521,33 @@
     <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1759,6 +1840,33 @@
     <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2211,7 +2319,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D2" sqref="D2:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2244,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -2258,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -2272,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -2286,7 +2394,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -2300,7 +2408,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -2314,7 +2422,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2328,7 +2436,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3">
-        <v>350</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2342,7 +2450,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2356,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>450</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -2370,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>500</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2384,7 +2492,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3">
-        <v>750</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2398,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="3">
-        <v>1000</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2412,7 +2520,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -2426,7 +2534,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3">
-        <v>2000</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2440,7 +2548,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>3000</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2454,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3">
-        <v>4000</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2468,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3">
-        <v>5000</v>
+        <v>14160</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2482,7 +2590,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3">
-        <v>6000</v>
+        <v>17440</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -2496,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>21310</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -2510,7 +2618,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="3">
-        <v>8000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -2524,7 +2632,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3">
-        <v>9000</v>
+        <v>33980</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -2538,7 +2646,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="3">
-        <v>13500</v>
+        <v>38950</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -2552,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="3">
-        <v>18000</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -2566,7 +2674,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="3">
-        <v>22500</v>
+        <v>50600</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -2580,7 +2688,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="3">
-        <v>30000</v>
+        <v>69130</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -2594,7 +2702,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="3">
-        <v>45000</v>
+        <v>77180</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -2608,7 +2716,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="3">
-        <v>60000</v>
+        <v>86830</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -2622,7 +2730,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="3">
-        <v>80000</v>
+        <v>95950</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -2636,7 +2744,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="3">
-        <v>100000</v>
+        <v>136570</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -2650,7 +2758,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="3">
-        <v>120000</v>
+        <v>157660</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -2664,7 +2772,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="3">
-        <v>140000</v>
+        <v>182100</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -2678,7 +2786,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="3">
-        <v>160000</v>
+        <v>206620</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -2692,7 +2800,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="3">
-        <v>180000</v>
+        <v>282820</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -2706,7 +2814,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="3">
-        <v>200000</v>
+        <v>317800</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -2720,7 +2828,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="3">
-        <v>220000</v>
+        <v>357980</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -2734,7 +2842,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="3">
-        <v>250000</v>
+        <v>398440</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -2748,7 +2856,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="3">
-        <v>280000</v>
+        <v>535830</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -2761,8 +2869,8 @@
       <c r="C39" s="1">
         <v>38</v>
       </c>
-      <c r="D39" s="3">
-        <v>310000</v>
+      <c r="D39" s="1">
+        <v>592750</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -2775,8 +2883,8 @@
       <c r="C40" s="1">
         <v>39</v>
       </c>
-      <c r="D40" s="3">
-        <v>340000</v>
+      <c r="D40" s="1">
+        <v>657150</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -2790,7 +2898,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="1">
-        <v>450000</v>
+        <v>722840</v>
       </c>
     </row>
   </sheetData>
@@ -2809,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showRuler="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2849,7 +2957,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2866,7 +2974,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="3">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2883,7 +2991,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="3">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2900,7 +3008,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="3">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2917,7 +3025,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="3">
-        <v>162</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2934,7 +3042,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="3">
-        <v>195</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2951,7 +3059,7 @@
         <v>120</v>
       </c>
       <c r="E8" s="3">
-        <v>227</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2968,7 +3076,7 @@
         <v>140</v>
       </c>
       <c r="E9" s="3">
-        <v>260</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2985,7 +3093,7 @@
         <v>160</v>
       </c>
       <c r="E10" s="3">
-        <v>292</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3002,7 +3110,7 @@
         <v>180</v>
       </c>
       <c r="E11" s="3">
-        <v>325</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3019,7 +3127,7 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>487</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3036,7 +3144,7 @@
         <v>220</v>
       </c>
       <c r="E13" s="3">
-        <v>650</v>
+        <v>920</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3053,7 +3161,7 @@
         <v>240</v>
       </c>
       <c r="E14" s="3">
-        <v>975</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3070,7 +3178,7 @@
         <v>260</v>
       </c>
       <c r="E15" s="3">
-        <v>1300</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -3087,7 +3195,7 @@
         <v>280</v>
       </c>
       <c r="E16" s="3">
-        <v>1950</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -3104,7 +3212,7 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>2600</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -3121,7 +3229,7 @@
         <v>320</v>
       </c>
       <c r="E18" s="3">
-        <v>3250</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -3138,7 +3246,7 @@
         <v>340</v>
       </c>
       <c r="E19" s="3">
-        <v>3900</v>
+        <v>9610</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -3155,7 +3263,7 @@
         <v>360</v>
       </c>
       <c r="E20" s="3">
-        <v>4550</v>
+        <v>11730</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -3172,7 +3280,7 @@
         <v>380</v>
       </c>
       <c r="E21" s="3">
-        <v>5200</v>
+        <v>13770</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -3189,7 +3297,7 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>5850</v>
+        <v>18700</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
@@ -3206,7 +3314,7 @@
         <v>420</v>
       </c>
       <c r="E23" s="3">
-        <v>8775</v>
+        <v>21440</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">
@@ -3223,7 +3331,7 @@
         <v>440</v>
       </c>
       <c r="E24" s="3">
-        <v>11700</v>
+        <v>24740</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1">
@@ -3240,7 +3348,7 @@
         <v>460</v>
       </c>
       <c r="E25" s="3">
-        <v>14625</v>
+        <v>27850</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1">
@@ -3257,7 +3365,7 @@
         <v>480</v>
       </c>
       <c r="E26" s="3">
-        <v>19500</v>
+        <v>38030</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1">
@@ -3274,7 +3382,7 @@
         <v>500</v>
       </c>
       <c r="E27" s="3">
-        <v>29250</v>
+        <v>42460</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1">
@@ -3291,7 +3399,7 @@
         <v>550</v>
       </c>
       <c r="E28" s="3">
-        <v>39000</v>
+        <v>47770</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1">
@@ -3308,7 +3416,7 @@
         <v>600</v>
       </c>
       <c r="E29" s="3">
-        <v>52000</v>
+        <v>52780</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1">
@@ -3325,7 +3433,7 @@
         <v>700</v>
       </c>
       <c r="E30" s="3">
-        <v>65000</v>
+        <v>75130</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1">
@@ -3342,7 +3450,7 @@
         <v>800</v>
       </c>
       <c r="E31" s="3">
-        <v>78000</v>
+        <v>86730</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1">
@@ -3359,7 +3467,7 @@
         <v>900</v>
       </c>
       <c r="E32" s="3">
-        <v>91000</v>
+        <v>100170</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1">
@@ -3376,7 +3484,7 @@
         <v>1000</v>
       </c>
       <c r="E33" s="3">
-        <v>104000</v>
+        <v>113650</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1">
@@ -3393,7 +3501,7 @@
         <v>1200</v>
       </c>
       <c r="E34" s="3">
-        <v>117000</v>
+        <v>155560</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1">
@@ -3410,7 +3518,7 @@
         <v>1400</v>
       </c>
       <c r="E35" s="3">
-        <v>130000</v>
+        <v>174800</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1">
@@ -3427,7 +3535,7 @@
         <v>1600</v>
       </c>
       <c r="E36" s="3">
-        <v>143000</v>
+        <v>196900</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1">
@@ -3444,7 +3552,7 @@
         <v>1800</v>
       </c>
       <c r="E37" s="3">
-        <v>162500</v>
+        <v>219150</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1">
@@ -3461,7 +3569,7 @@
         <v>2000</v>
       </c>
       <c r="E38" s="3">
-        <v>182000</v>
+        <v>294720</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1">
@@ -3478,7 +3586,7 @@
         <v>2200</v>
       </c>
       <c r="E39" s="3">
-        <v>201500</v>
+        <v>326020</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1">
@@ -3494,8 +3602,8 @@
       <c r="D40" s="1">
         <v>2500</v>
       </c>
-      <c r="E40" s="3">
-        <v>221000</v>
+      <c r="E40" s="1">
+        <v>361440</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1">
@@ -3512,7 +3620,7 @@
         <v>3000</v>
       </c>
       <c r="E41" s="1">
-        <v>292500</v>
+        <v>397570</v>
       </c>
     </row>
   </sheetData>
@@ -3531,8 +3639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3559,7 +3667,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="3">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -3570,7 +3678,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="3">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -3581,7 +3689,7 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="3">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -3592,7 +3700,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="3">
-        <v>124</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -3603,7 +3711,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="3">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -3614,7 +3722,7 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="3">
-        <v>186</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -3625,7 +3733,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>217</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -3636,7 +3744,7 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="3">
-        <v>248</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -3647,7 +3755,7 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="3">
-        <v>279</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -3658,7 +3766,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="3">
-        <v>310</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -3669,7 +3777,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="3">
-        <v>465</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -3680,7 +3788,7 @@
         <v>0.12</v>
       </c>
       <c r="C13" s="3">
-        <v>620</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -3691,7 +3799,7 @@
         <v>0.13</v>
       </c>
       <c r="C14" s="3">
-        <v>930</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -3702,7 +3810,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="3">
-        <v>1240</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -3713,7 +3821,7 @@
         <v>0.15</v>
       </c>
       <c r="C16" s="3">
-        <v>1860</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -3724,7 +3832,7 @@
         <v>0.16</v>
       </c>
       <c r="C17" s="3">
-        <v>2480</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -3735,7 +3843,7 @@
         <v>0.17</v>
       </c>
       <c r="C18" s="3">
-        <v>3100</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -3746,7 +3854,7 @@
         <v>0.18</v>
       </c>
       <c r="C19" s="3">
-        <v>3720</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -3757,7 +3865,7 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="3">
-        <v>4340</v>
+        <v>11110</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -3768,7 +3876,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="3">
-        <v>4960</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -3779,7 +3887,7 @@
         <v>0.21</v>
       </c>
       <c r="C22" s="3">
-        <v>5580</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -3790,7 +3898,7 @@
         <v>0.22</v>
       </c>
       <c r="C23" s="3">
-        <v>8370</v>
+        <v>20280</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -3801,7 +3909,7 @@
         <v>0.23</v>
       </c>
       <c r="C24" s="3">
-        <v>11160</v>
+        <v>23410</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -3812,7 +3920,7 @@
         <v>0.24</v>
       </c>
       <c r="C25" s="3">
-        <v>13950</v>
+        <v>26340</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -3823,7 +3931,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="3">
-        <v>18600</v>
+        <v>35980</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -3834,7 +3942,7 @@
         <v>0.26</v>
       </c>
       <c r="C27" s="3">
-        <v>27900</v>
+        <v>40160</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -3845,7 +3953,7 @@
         <v>0.27</v>
       </c>
       <c r="C28" s="3">
-        <v>37200</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -3856,7 +3964,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C29" s="3">
-        <v>49600</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -3867,7 +3975,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30" s="3">
-        <v>62000</v>
+        <v>71050</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -3878,7 +3986,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="3">
-        <v>74400</v>
+        <v>82010</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -3889,7 +3997,7 @@
         <v>0.31</v>
       </c>
       <c r="C32" s="3">
-        <v>86800</v>
+        <v>94720</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -3900,7 +4008,7 @@
         <v>0.32</v>
       </c>
       <c r="C33" s="3">
-        <v>99200</v>
+        <v>107470</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -3911,7 +4019,7 @@
         <v>0.33</v>
       </c>
       <c r="C34" s="3">
-        <v>111600</v>
+        <v>147090</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -3922,7 +4030,7 @@
         <v>0.34</v>
       </c>
       <c r="C35" s="3">
-        <v>124000</v>
+        <v>165280</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -3933,7 +4041,7 @@
         <v>0.35</v>
       </c>
       <c r="C36" s="3">
-        <v>136400</v>
+        <v>186180</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -3944,7 +4052,7 @@
         <v>0.36</v>
       </c>
       <c r="C37" s="3">
-        <v>155000</v>
+        <v>207210</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -3955,7 +4063,7 @@
         <v>0.37</v>
       </c>
       <c r="C38" s="3">
-        <v>173600</v>
+        <v>278660</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -3966,7 +4074,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="3">
-        <v>192200</v>
+        <v>308260</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -3976,8 +4084,8 @@
       <c r="B40" s="1">
         <v>0.39</v>
       </c>
-      <c r="C40" s="3">
-        <v>210800</v>
+      <c r="C40" s="1">
+        <v>341740</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -3988,7 +4096,7 @@
         <v>0.4</v>
       </c>
       <c r="C41" s="1">
-        <v>279000</v>
+        <v>375900</v>
       </c>
     </row>
   </sheetData>
@@ -4005,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4041,7 +4149,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="3">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -4055,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -4069,7 +4177,7 @@
         <v>1.5</v>
       </c>
       <c r="D4" s="3">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -4083,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -4097,7 +4205,7 @@
         <v>2.5</v>
       </c>
       <c r="D6" s="3">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -4111,7 +4219,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>192</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -4125,7 +4233,7 @@
         <v>3.5</v>
       </c>
       <c r="D8" s="3">
-        <v>224</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -4139,7 +4247,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>256</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -4153,7 +4261,7 @@
         <v>4.5</v>
       </c>
       <c r="D10" s="3">
-        <v>288</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -4167,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>320</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -4181,7 +4289,7 @@
         <v>5.5</v>
       </c>
       <c r="D12" s="3">
-        <v>480</v>
+        <v>760</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -4195,7 +4303,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="3">
-        <v>640</v>
+        <v>950</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -4209,7 +4317,7 @@
         <v>6.5</v>
       </c>
       <c r="D14" s="3">
-        <v>960</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -4223,7 +4331,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3">
-        <v>1280</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -4237,7 +4345,7 @@
         <v>7.5</v>
       </c>
       <c r="D16" s="3">
-        <v>1920</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -4251,7 +4359,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="3">
-        <v>2560</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -4265,7 +4373,7 @@
         <v>8.5</v>
       </c>
       <c r="D18" s="3">
-        <v>3200</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -4279,7 +4387,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="3">
-        <v>3840</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -4293,7 +4401,7 @@
         <v>9.5</v>
       </c>
       <c r="D20" s="3">
-        <v>4480</v>
+        <v>11570</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -4307,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>5120</v>
+        <v>13560</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -4321,7 +4429,7 @@
         <v>10.5</v>
       </c>
       <c r="D22" s="3">
-        <v>5760</v>
+        <v>18410</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -4335,7 +4443,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="3">
-        <v>8640</v>
+        <v>21090</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -4349,7 +4457,7 @@
         <v>11.5</v>
       </c>
       <c r="D24" s="3">
-        <v>11520</v>
+        <v>24340</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -4363,7 +4471,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="3">
-        <v>14400</v>
+        <v>27380</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -4377,7 +4485,7 @@
         <v>12.5</v>
       </c>
       <c r="D26" s="3">
-        <v>19200</v>
+        <v>37390</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -4391,7 +4499,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="3">
-        <v>28800</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -4405,7 +4513,7 @@
         <v>13.5</v>
       </c>
       <c r="D28" s="3">
-        <v>38400</v>
+        <v>46940</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -4419,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="3">
-        <v>51200</v>
+        <v>51870</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -4433,7 +4541,7 @@
         <v>14.5</v>
       </c>
       <c r="D30" s="3">
-        <v>64000</v>
+        <v>73810</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -4447,7 +4555,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="3">
-        <v>76800</v>
+        <v>85200</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -4461,7 +4569,7 @@
         <v>15.5</v>
       </c>
       <c r="D32" s="3">
-        <v>89600</v>
+        <v>98390</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -4475,7 +4583,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="3">
-        <v>102400</v>
+        <v>111630</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -4489,7 +4597,7 @@
         <v>16.5</v>
       </c>
       <c r="D34" s="3">
-        <v>115200</v>
+        <v>152780</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -4503,7 +4611,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="3">
-        <v>128000</v>
+        <v>171670</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -4517,7 +4625,7 @@
         <v>17.5</v>
       </c>
       <c r="D36" s="3">
-        <v>140800</v>
+        <v>193370</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -4531,7 +4639,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="3">
-        <v>160000</v>
+        <v>215210</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -4545,7 +4653,7 @@
         <v>18.5</v>
       </c>
       <c r="D38" s="3">
-        <v>179200</v>
+        <v>289400</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -4559,7 +4667,7 @@
         <v>19</v>
       </c>
       <c r="D39" s="3">
-        <v>198400</v>
+        <v>320140</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -4573,7 +4681,7 @@
         <v>19.5</v>
       </c>
       <c r="D40" s="3">
-        <v>217600</v>
+        <v>354920</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -4586,9 +4694,12 @@
       <c r="C41" s="1">
         <v>20</v>
       </c>
-      <c r="D41" s="1">
-        <v>288000</v>
-      </c>
+      <c r="D41" s="3">
+        <v>390390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4606,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:M14"/>
+    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4673,7 +4784,7 @@
         <v>20000</v>
       </c>
       <c r="G2" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H2" s="1">
         <v>40000</v>
@@ -4685,10 +4796,10 @@
         <v>40000</v>
       </c>
       <c r="K2" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L2" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1">
@@ -4711,7 +4822,7 @@
         <v>40000</v>
       </c>
       <c r="G3" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H3" s="1">
         <v>80000</v>
@@ -4723,10 +4834,10 @@
         <v>80000</v>
       </c>
       <c r="K3" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L3" s="3">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1">
@@ -4734,37 +4845,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E4" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="F4" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="G4" s="1">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H4" s="1">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="I4" s="1">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="J4" s="1">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="K4" s="1">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L4" s="3">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1">
@@ -4772,37 +4883,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="E5" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="F5" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G5" s="1">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="H5" s="1">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="I5" s="1">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="J5" s="1">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="K5" s="1">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L5" s="3">
-        <v>132</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20" customHeight="1">
@@ -4810,37 +4921,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="E6" s="1">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="F6" s="1">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="G6" s="1">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H6" s="1">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="I6" s="1">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="J6" s="1">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="K6" s="1">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L6" s="3">
-        <v>165</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1">
@@ -4848,37 +4959,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="E7" s="1">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="F7" s="1">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G7" s="1">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="H7" s="1">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="I7" s="1">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="J7" s="1">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="K7" s="1">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L7" s="3">
-        <v>198</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20" customHeight="1">
@@ -4886,37 +4997,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="E8" s="1">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="F8" s="1">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="G8" s="1">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="H8" s="1">
-        <v>280000</v>
+        <v>480000</v>
       </c>
       <c r="I8" s="1">
-        <v>280000</v>
+        <v>480000</v>
       </c>
       <c r="J8" s="1">
-        <v>280000</v>
+        <v>480000</v>
       </c>
       <c r="K8" s="1">
-        <v>4200</v>
+        <v>3600</v>
       </c>
       <c r="L8" s="3">
-        <v>231</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1">
@@ -4924,37 +5035,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="E9" s="1">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="F9" s="1">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="G9" s="1">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="H9" s="1">
-        <v>320000</v>
+        <v>560000</v>
       </c>
       <c r="I9" s="1">
-        <v>320000</v>
+        <v>560000</v>
       </c>
       <c r="J9" s="1">
-        <v>320000</v>
+        <v>560000</v>
       </c>
       <c r="K9" s="1">
-        <v>4800</v>
+        <v>4200</v>
       </c>
       <c r="L9" s="3">
-        <v>264</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
@@ -4962,37 +5073,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>180000</v>
+        <v>320000</v>
       </c>
       <c r="E10" s="1">
-        <v>180000</v>
+        <v>320000</v>
       </c>
       <c r="F10" s="1">
-        <v>180000</v>
+        <v>320000</v>
       </c>
       <c r="G10" s="1">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="H10" s="1">
-        <v>360000</v>
+        <v>640000</v>
       </c>
       <c r="I10" s="1">
-        <v>360000</v>
+        <v>640000</v>
       </c>
       <c r="J10" s="1">
-        <v>360000</v>
+        <v>640000</v>
       </c>
       <c r="K10" s="1">
-        <v>5400</v>
+        <v>4800</v>
       </c>
       <c r="L10" s="3">
-        <v>297</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1">
@@ -5000,37 +5111,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="E11" s="1">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="F11" s="1">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="G11" s="1">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="H11" s="1">
-        <v>400000</v>
+        <v>720000</v>
       </c>
       <c r="I11" s="1">
-        <v>400000</v>
+        <v>720000</v>
       </c>
       <c r="J11" s="1">
-        <v>400000</v>
+        <v>720000</v>
       </c>
       <c r="K11" s="1">
-        <v>6000</v>
+        <v>5400</v>
       </c>
       <c r="L11" s="3">
-        <v>330</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
@@ -5038,37 +5149,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="E12" s="1">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="F12" s="1">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="G12" s="1">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H12" s="1">
-        <v>440000</v>
+        <v>800000</v>
       </c>
       <c r="I12" s="1">
-        <v>440000</v>
+        <v>800000</v>
       </c>
       <c r="J12" s="1">
-        <v>440000</v>
+        <v>800000</v>
       </c>
       <c r="K12" s="1">
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="L12" s="3">
-        <v>495</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
@@ -5076,37 +5187,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>240000</v>
+        <v>440000</v>
       </c>
       <c r="E13" s="1">
-        <v>240000</v>
+        <v>440000</v>
       </c>
       <c r="F13" s="1">
-        <v>240000</v>
+        <v>440000</v>
       </c>
       <c r="G13" s="1">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="H13" s="1">
-        <v>480000</v>
+        <v>880000</v>
       </c>
       <c r="I13" s="1">
-        <v>480000</v>
+        <v>880000</v>
       </c>
       <c r="J13" s="1">
-        <v>480000</v>
+        <v>880000</v>
       </c>
       <c r="K13" s="1">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="L13" s="3">
-        <v>660</v>
+        <v>950</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1">
@@ -5114,37 +5225,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="E14" s="1">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="F14" s="1">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="G14" s="1">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="H14" s="1">
-        <v>520000</v>
+        <v>960000</v>
       </c>
       <c r="I14" s="1">
-        <v>520000</v>
+        <v>960000</v>
       </c>
       <c r="J14" s="1">
-        <v>520000</v>
+        <v>960000</v>
       </c>
       <c r="K14" s="1">
-        <v>7800</v>
+        <v>7200</v>
       </c>
       <c r="L14" s="3">
-        <v>990</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1">
@@ -5152,37 +5263,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>280000</v>
+        <v>520000</v>
       </c>
       <c r="E15" s="1">
-        <v>280000</v>
+        <v>520000</v>
       </c>
       <c r="F15" s="1">
-        <v>280000</v>
+        <v>520000</v>
       </c>
       <c r="G15" s="1">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="H15" s="1">
-        <v>560000</v>
+        <v>1040000</v>
       </c>
       <c r="I15" s="1">
-        <v>560000</v>
+        <v>1040000</v>
       </c>
       <c r="J15" s="1">
-        <v>560000</v>
+        <v>1040000</v>
       </c>
       <c r="K15" s="1">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="L15" s="3">
-        <v>1320</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1">
@@ -5190,37 +5301,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>300000</v>
+        <v>560000</v>
       </c>
       <c r="E16" s="1">
-        <v>300000</v>
+        <v>560000</v>
       </c>
       <c r="F16" s="1">
-        <v>300000</v>
+        <v>560000</v>
       </c>
       <c r="G16" s="1">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="H16" s="1">
-        <v>600000</v>
+        <v>1120000</v>
       </c>
       <c r="I16" s="1">
-        <v>600000</v>
+        <v>1120000</v>
       </c>
       <c r="J16" s="1">
-        <v>600000</v>
+        <v>1120000</v>
       </c>
       <c r="K16" s="1">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="L16" s="3">
-        <v>1980</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1">
@@ -5228,37 +5339,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>320000</v>
+        <v>600000</v>
       </c>
       <c r="E17" s="1">
-        <v>320000</v>
+        <v>600000</v>
       </c>
       <c r="F17" s="1">
-        <v>320000</v>
+        <v>600000</v>
       </c>
       <c r="G17" s="1">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H17" s="1">
-        <v>640000</v>
+        <v>1200000</v>
       </c>
       <c r="I17" s="1">
-        <v>640000</v>
+        <v>1200000</v>
       </c>
       <c r="J17" s="1">
-        <v>640000</v>
+        <v>1200000</v>
       </c>
       <c r="K17" s="1">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="L17" s="3">
-        <v>2640</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="20" customHeight="1">
@@ -5266,37 +5377,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>340000</v>
+        <v>640000</v>
       </c>
       <c r="E18" s="1">
-        <v>340000</v>
+        <v>640000</v>
       </c>
       <c r="F18" s="1">
-        <v>340000</v>
+        <v>640000</v>
       </c>
       <c r="G18" s="1">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="H18" s="1">
-        <v>680000</v>
+        <v>1280000</v>
       </c>
       <c r="I18" s="1">
-        <v>680000</v>
+        <v>1280000</v>
       </c>
       <c r="J18" s="1">
-        <v>680000</v>
+        <v>1280000</v>
       </c>
       <c r="K18" s="1">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="L18" s="3">
-        <v>3300</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1">
@@ -5304,37 +5415,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>360000</v>
+        <v>680000</v>
       </c>
       <c r="E19" s="1">
-        <v>360000</v>
+        <v>680000</v>
       </c>
       <c r="F19" s="1">
-        <v>360000</v>
+        <v>680000</v>
       </c>
       <c r="G19" s="1">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="H19" s="1">
-        <v>720000</v>
+        <v>1360000</v>
       </c>
       <c r="I19" s="1">
-        <v>720000</v>
+        <v>1360000</v>
       </c>
       <c r="J19" s="1">
-        <v>720000</v>
+        <v>1360000</v>
       </c>
       <c r="K19" s="1">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="L19" s="3">
-        <v>3960</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
@@ -5342,37 +5453,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>380000</v>
+        <v>720000</v>
       </c>
       <c r="E20" s="1">
-        <v>380000</v>
+        <v>720000</v>
       </c>
       <c r="F20" s="1">
-        <v>380000</v>
+        <v>720000</v>
       </c>
       <c r="G20" s="1">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="1">
-        <v>760000</v>
+        <v>1440000</v>
       </c>
       <c r="I20" s="1">
-        <v>760000</v>
+        <v>1440000</v>
       </c>
       <c r="J20" s="1">
-        <v>760000</v>
+        <v>1440000</v>
       </c>
       <c r="K20" s="1">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="L20" s="3">
-        <v>4620</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
@@ -5380,37 +5491,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>400000</v>
+        <v>760000</v>
       </c>
       <c r="E21" s="1">
-        <v>400000</v>
+        <v>760000</v>
       </c>
       <c r="F21" s="1">
-        <v>400000</v>
+        <v>760000</v>
       </c>
       <c r="G21" s="1">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="H21" s="1">
-        <v>800000</v>
+        <v>1520000</v>
       </c>
       <c r="I21" s="1">
-        <v>800000</v>
+        <v>1520000</v>
       </c>
       <c r="J21" s="1">
-        <v>800000</v>
+        <v>1520000</v>
       </c>
       <c r="K21" s="1">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="L21" s="3">
-        <v>5280</v>
+        <v>14030</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1">
@@ -5418,37 +5529,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>420000</v>
+        <v>800000</v>
       </c>
       <c r="E22" s="1">
-        <v>420000</v>
+        <v>800000</v>
       </c>
       <c r="F22" s="1">
-        <v>420000</v>
+        <v>800000</v>
       </c>
       <c r="G22" s="1">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="1">
-        <v>840000</v>
+        <v>1600000</v>
       </c>
       <c r="I22" s="1">
-        <v>840000</v>
+        <v>1600000</v>
       </c>
       <c r="J22" s="1">
-        <v>840000</v>
+        <v>1600000</v>
       </c>
       <c r="K22" s="1">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="L22" s="3">
-        <v>5940</v>
+        <v>19060</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1">
@@ -5456,37 +5567,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>440000</v>
+        <v>840000</v>
       </c>
       <c r="E23" s="1">
-        <v>440000</v>
+        <v>840000</v>
       </c>
       <c r="F23" s="1">
-        <v>440000</v>
+        <v>840000</v>
       </c>
       <c r="G23" s="1">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="H23" s="1">
-        <v>880000</v>
+        <v>1680000</v>
       </c>
       <c r="I23" s="1">
-        <v>880000</v>
+        <v>1680000</v>
       </c>
       <c r="J23" s="1">
-        <v>880000</v>
+        <v>1680000</v>
       </c>
       <c r="K23" s="1">
-        <v>13200</v>
+        <v>12600</v>
       </c>
       <c r="L23" s="3">
-        <v>8910</v>
+        <v>21840</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1">
@@ -5494,37 +5605,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>460000</v>
+        <v>880000</v>
       </c>
       <c r="E24" s="1">
-        <v>460000</v>
+        <v>880000</v>
       </c>
       <c r="F24" s="1">
-        <v>460000</v>
+        <v>880000</v>
       </c>
       <c r="G24" s="1">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="H24" s="1">
-        <v>920000</v>
+        <v>1760000</v>
       </c>
       <c r="I24" s="1">
-        <v>920000</v>
+        <v>1760000</v>
       </c>
       <c r="J24" s="1">
-        <v>920000</v>
+        <v>1760000</v>
       </c>
       <c r="K24" s="1">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="L24" s="3">
-        <v>11880</v>
+        <v>25210</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1">
@@ -5532,37 +5643,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>480000</v>
+        <v>920000</v>
       </c>
       <c r="E25" s="1">
-        <v>480000</v>
+        <v>920000</v>
       </c>
       <c r="F25" s="1">
-        <v>480000</v>
+        <v>920000</v>
       </c>
       <c r="G25" s="1">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="H25" s="1">
-        <v>960000</v>
+        <v>1840000</v>
       </c>
       <c r="I25" s="1">
-        <v>960000</v>
+        <v>1840000</v>
       </c>
       <c r="J25" s="1">
-        <v>960000</v>
+        <v>1840000</v>
       </c>
       <c r="K25" s="1">
-        <v>14400</v>
+        <v>13800</v>
       </c>
       <c r="L25" s="3">
-        <v>14850</v>
+        <v>28370</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="20" customHeight="1">
@@ -5570,37 +5681,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>500000</v>
+        <v>960000</v>
       </c>
       <c r="E26" s="1">
-        <v>500000</v>
+        <v>960000</v>
       </c>
       <c r="F26" s="1">
-        <v>500000</v>
+        <v>960000</v>
       </c>
       <c r="G26" s="1">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="H26" s="1">
-        <v>1000000</v>
+        <v>1920000</v>
       </c>
       <c r="I26" s="1">
-        <v>1000000</v>
+        <v>1920000</v>
       </c>
       <c r="J26" s="1">
-        <v>1000000</v>
+        <v>1920000</v>
       </c>
       <c r="K26" s="1">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="L26" s="3">
-        <v>19800</v>
+        <v>38740</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="20" customHeight="1">
@@ -5608,37 +5719,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>520000</v>
+        <v>1000000</v>
       </c>
       <c r="E27" s="1">
-        <v>520000</v>
+        <v>1000000</v>
       </c>
       <c r="F27" s="1">
-        <v>520000</v>
+        <v>1000000</v>
       </c>
       <c r="G27" s="1">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="H27" s="1">
-        <v>1040000</v>
+        <v>2000000</v>
       </c>
       <c r="I27" s="1">
-        <v>1040000</v>
+        <v>2000000</v>
       </c>
       <c r="J27" s="1">
-        <v>1040000</v>
+        <v>2000000</v>
       </c>
       <c r="K27" s="1">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="L27" s="3">
-        <v>29700</v>
+        <v>43250</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="20" customHeight="1">
@@ -5646,37 +5757,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>540000</v>
+        <v>1040000</v>
       </c>
       <c r="E28" s="1">
-        <v>540000</v>
+        <v>1040000</v>
       </c>
       <c r="F28" s="1">
-        <v>540000</v>
+        <v>1040000</v>
       </c>
       <c r="G28" s="1">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="H28" s="1">
-        <v>1080000</v>
+        <v>2080000</v>
       </c>
       <c r="I28" s="1">
-        <v>1080000</v>
+        <v>2080000</v>
       </c>
       <c r="J28" s="1">
-        <v>1080000</v>
+        <v>2080000</v>
       </c>
       <c r="K28" s="1">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="L28" s="3">
-        <v>39600</v>
+        <v>48650</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="20" customHeight="1">
@@ -5684,37 +5795,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>560000</v>
+        <v>1080000</v>
       </c>
       <c r="E29" s="1">
-        <v>560000</v>
+        <v>1080000</v>
       </c>
       <c r="F29" s="1">
-        <v>560000</v>
+        <v>1080000</v>
       </c>
       <c r="G29" s="1">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="H29" s="1">
-        <v>1120000</v>
+        <v>2160000</v>
       </c>
       <c r="I29" s="1">
-        <v>1120000</v>
+        <v>2160000</v>
       </c>
       <c r="J29" s="1">
-        <v>1120000</v>
+        <v>2160000</v>
       </c>
       <c r="K29" s="1">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="L29" s="3">
-        <v>52800</v>
+        <v>53760</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="20" customHeight="1">
@@ -5722,37 +5833,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>580000</v>
+        <v>1120000</v>
       </c>
       <c r="E30" s="1">
-        <v>580000</v>
+        <v>1120000</v>
       </c>
       <c r="F30" s="1">
-        <v>580000</v>
+        <v>1120000</v>
       </c>
       <c r="G30" s="1">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="H30" s="1">
-        <v>1160000</v>
+        <v>2240000</v>
       </c>
       <c r="I30" s="1">
-        <v>1160000</v>
+        <v>2240000</v>
       </c>
       <c r="J30" s="1">
-        <v>1160000</v>
+        <v>2240000</v>
       </c>
       <c r="K30" s="1">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="L30" s="3">
-        <v>66000</v>
+        <v>76510</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="20" customHeight="1">
@@ -5760,37 +5871,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>600000</v>
+        <v>1160000</v>
       </c>
       <c r="E31" s="1">
-        <v>600000</v>
+        <v>1160000</v>
       </c>
       <c r="F31" s="1">
-        <v>600000</v>
+        <v>1160000</v>
       </c>
       <c r="G31" s="1">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="H31" s="1">
-        <v>1200000</v>
+        <v>2320000</v>
       </c>
       <c r="I31" s="1">
-        <v>1200000</v>
+        <v>2320000</v>
       </c>
       <c r="J31" s="1">
-        <v>1200000</v>
+        <v>2320000</v>
       </c>
       <c r="K31" s="1">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="L31" s="3">
-        <v>79200</v>
+        <v>88320</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20" customHeight="1">
@@ -5798,37 +5909,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>620000</v>
+        <v>1200000</v>
       </c>
       <c r="E32" s="1">
-        <v>620000</v>
+        <v>1200000</v>
       </c>
       <c r="F32" s="1">
-        <v>620000</v>
+        <v>1200000</v>
       </c>
       <c r="G32" s="1">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="H32" s="1">
-        <v>1240000</v>
+        <v>2400000</v>
       </c>
       <c r="I32" s="1">
-        <v>1240000</v>
+        <v>2400000</v>
       </c>
       <c r="J32" s="1">
-        <v>1240000</v>
+        <v>2400000</v>
       </c>
       <c r="K32" s="1">
-        <v>18600</v>
+        <v>18000</v>
       </c>
       <c r="L32" s="3">
-        <v>92400</v>
+        <v>102010</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="20" customHeight="1">
@@ -5836,37 +5947,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>640000</v>
+        <v>1280000</v>
       </c>
       <c r="E33" s="1">
-        <v>640000</v>
+        <v>1280000</v>
       </c>
       <c r="F33" s="1">
-        <v>640000</v>
+        <v>1280000</v>
       </c>
       <c r="G33" s="1">
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>1280000</v>
+        <v>2560000</v>
       </c>
       <c r="I33" s="1">
-        <v>1280000</v>
+        <v>2560000</v>
       </c>
       <c r="J33" s="1">
-        <v>1280000</v>
+        <v>2560000</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
       </c>
       <c r="L33" s="3">
-        <v>105600</v>
+        <v>115730</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="20" customHeight="1">
@@ -5874,37 +5985,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>660000</v>
+        <v>1360000</v>
       </c>
       <c r="E34" s="1">
-        <v>660000</v>
+        <v>1360000</v>
       </c>
       <c r="F34" s="1">
-        <v>660000</v>
+        <v>1360000</v>
       </c>
       <c r="G34" s="1">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="H34" s="1">
-        <v>1320000</v>
+        <v>2720000</v>
       </c>
       <c r="I34" s="1">
-        <v>1320000</v>
+        <v>2720000</v>
       </c>
       <c r="J34" s="1">
-        <v>1320000</v>
+        <v>2720000</v>
       </c>
       <c r="K34" s="1">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="L34" s="3">
-        <v>118800</v>
+        <v>158410</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="20" customHeight="1">
@@ -5912,37 +6023,37 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>680000</v>
+        <v>1440000</v>
       </c>
       <c r="E35" s="1">
-        <v>680000</v>
+        <v>1440000</v>
       </c>
       <c r="F35" s="1">
-        <v>680000</v>
+        <v>1440000</v>
       </c>
       <c r="G35" s="1">
-        <v>10200</v>
+        <v>10800</v>
       </c>
       <c r="H35" s="1">
-        <v>1360000</v>
+        <v>2880000</v>
       </c>
       <c r="I35" s="1">
-        <v>1360000</v>
+        <v>2880000</v>
       </c>
       <c r="J35" s="1">
-        <v>1360000</v>
+        <v>2880000</v>
       </c>
       <c r="K35" s="1">
-        <v>20400</v>
+        <v>21600</v>
       </c>
       <c r="L35" s="3">
-        <v>132000</v>
+        <v>178000</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="20" customHeight="1">
@@ -5950,37 +6061,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>700000</v>
+        <v>1520000</v>
       </c>
       <c r="E36" s="1">
-        <v>700000</v>
+        <v>1520000</v>
       </c>
       <c r="F36" s="1">
-        <v>700000</v>
+        <v>1520000</v>
       </c>
       <c r="G36" s="1">
-        <v>10500</v>
+        <v>11400</v>
       </c>
       <c r="H36" s="1">
-        <v>1400000</v>
+        <v>3040000</v>
       </c>
       <c r="I36" s="1">
-        <v>1400000</v>
+        <v>3040000</v>
       </c>
       <c r="J36" s="1">
-        <v>1400000</v>
+        <v>3040000</v>
       </c>
       <c r="K36" s="1">
-        <v>21000</v>
+        <v>22800</v>
       </c>
       <c r="L36" s="3">
-        <v>145200</v>
+        <v>200500</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="20" customHeight="1">
@@ -5988,37 +6099,37 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>720000</v>
+        <v>1600000</v>
       </c>
       <c r="E37" s="1">
-        <v>720000</v>
+        <v>1600000</v>
       </c>
       <c r="F37" s="1">
-        <v>720000</v>
+        <v>1600000</v>
       </c>
       <c r="G37" s="1">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="H37" s="1">
-        <v>1440000</v>
+        <v>3200000</v>
       </c>
       <c r="I37" s="1">
-        <v>1440000</v>
+        <v>3200000</v>
       </c>
       <c r="J37" s="1">
-        <v>1440000</v>
+        <v>3200000</v>
       </c>
       <c r="K37" s="1">
-        <v>21600</v>
+        <v>24000</v>
       </c>
       <c r="L37" s="3">
-        <v>165000</v>
+        <v>223150</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="20" customHeight="1">
@@ -6026,37 +6137,37 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>740000</v>
+        <v>1680000</v>
       </c>
       <c r="E38" s="1">
-        <v>740000</v>
+        <v>1680000</v>
       </c>
       <c r="F38" s="1">
-        <v>740000</v>
+        <v>1680000</v>
       </c>
       <c r="G38" s="1">
-        <v>11100</v>
+        <v>12600</v>
       </c>
       <c r="H38" s="1">
-        <v>1480000</v>
+        <v>3360000</v>
       </c>
       <c r="I38" s="1">
-        <v>1480000</v>
+        <v>3360000</v>
       </c>
       <c r="J38" s="1">
-        <v>1480000</v>
+        <v>3360000</v>
       </c>
       <c r="K38" s="1">
-        <v>22200</v>
+        <v>25200</v>
       </c>
       <c r="L38" s="3">
-        <v>184800</v>
+        <v>300090</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="20" customHeight="1">
@@ -6064,37 +6175,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>190</v>
+        <v>440</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>760000</v>
+        <v>1760000</v>
       </c>
       <c r="E39" s="1">
-        <v>760000</v>
+        <v>1760000</v>
       </c>
       <c r="F39" s="1">
-        <v>760000</v>
+        <v>1760000</v>
       </c>
       <c r="G39" s="1">
-        <v>11400</v>
+        <v>13200</v>
       </c>
       <c r="H39" s="1">
-        <v>1520000</v>
+        <v>3520000</v>
       </c>
       <c r="I39" s="1">
-        <v>1520000</v>
+        <v>3520000</v>
       </c>
       <c r="J39" s="1">
-        <v>1520000</v>
+        <v>3520000</v>
       </c>
       <c r="K39" s="1">
-        <v>22800</v>
+        <v>26400</v>
       </c>
       <c r="L39" s="3">
-        <v>204600</v>
+        <v>331970</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="20" customHeight="1">
@@ -6102,37 +6213,37 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>195</v>
+        <v>460</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>780000</v>
+        <v>1840000</v>
       </c>
       <c r="E40" s="1">
-        <v>780000</v>
+        <v>1840000</v>
       </c>
       <c r="F40" s="1">
-        <v>780000</v>
+        <v>1840000</v>
       </c>
       <c r="G40" s="1">
-        <v>11700</v>
+        <v>13800</v>
       </c>
       <c r="H40" s="1">
-        <v>1560000</v>
+        <v>3680000</v>
       </c>
       <c r="I40" s="1">
-        <v>1560000</v>
+        <v>3680000</v>
       </c>
       <c r="J40" s="1">
-        <v>1560000</v>
+        <v>3680000</v>
       </c>
       <c r="K40" s="1">
-        <v>23400</v>
+        <v>27600</v>
       </c>
       <c r="L40" s="3">
-        <v>224400</v>
+        <v>368030</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="20" customHeight="1">
@@ -6140,37 +6251,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>800000</v>
+        <v>1920000</v>
       </c>
       <c r="E41" s="1">
-        <v>800000</v>
+        <v>1920000</v>
       </c>
       <c r="F41" s="1">
-        <v>800000</v>
+        <v>1920000</v>
       </c>
       <c r="G41" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="H41" s="1">
-        <v>1600000</v>
+        <v>3840000</v>
       </c>
       <c r="I41" s="1">
-        <v>1600000</v>
+        <v>3840000</v>
       </c>
       <c r="J41" s="1">
-        <v>1600000</v>
+        <v>3840000</v>
       </c>
       <c r="K41" s="1">
-        <v>24000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>297000</v>
+        <v>28800</v>
+      </c>
+      <c r="L41" s="1">
+        <v>404820</v>
       </c>
     </row>
   </sheetData>
@@ -6189,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E41"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6220,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5">
         <v>20</v>
@@ -6237,7 +6348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6">
         <v>40</v>
@@ -6254,7 +6365,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6">
         <v>60</v>
@@ -6271,7 +6382,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6">
         <v>80</v>
@@ -6288,7 +6399,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6">
         <v>100</v>
@@ -6305,7 +6416,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6">
         <v>120</v>
@@ -6322,7 +6433,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="C8" s="6">
         <v>140</v>
@@ -6339,7 +6450,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="C9" s="6">
         <v>160</v>
@@ -6356,7 +6467,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="C10" s="6">
         <v>180</v>
@@ -6373,7 +6484,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
@@ -6390,7 +6501,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>450</v>
+        <v>660</v>
       </c>
       <c r="C12" s="6">
         <v>240</v>
@@ -6407,7 +6518,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="C13" s="6">
         <v>280</v>
@@ -6424,7 +6535,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>900</v>
+        <v>1110</v>
       </c>
       <c r="C14" s="6">
         <v>320</v>
@@ -6441,7 +6552,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>1200</v>
+        <v>2240</v>
       </c>
       <c r="C15" s="6">
         <v>360</v>
@@ -6458,7 +6569,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>1800</v>
+        <v>3510</v>
       </c>
       <c r="C16" s="6">
         <v>400</v>
@@ -6475,7 +6586,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>2400</v>
+        <v>4850</v>
       </c>
       <c r="C17" s="6">
         <v>600</v>
@@ -6492,7 +6603,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>3000</v>
+        <v>7090</v>
       </c>
       <c r="C18" s="6">
         <v>800</v>
@@ -6509,7 +6620,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>3600</v>
+        <v>8730</v>
       </c>
       <c r="C19" s="6">
         <v>1000</v>
@@ -6526,7 +6637,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>4200</v>
+        <v>10670</v>
       </c>
       <c r="C20" s="6">
         <v>1200</v>
@@ -6543,7 +6654,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>4800</v>
+        <v>12510</v>
       </c>
       <c r="C21" s="6">
         <v>1600</v>
@@ -6560,7 +6671,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>5400</v>
+        <v>17000</v>
       </c>
       <c r="C22" s="6">
         <v>2000</v>
@@ -6577,7 +6688,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>8100</v>
+        <v>19490</v>
       </c>
       <c r="C23" s="6">
         <v>2400</v>
@@ -6594,7 +6705,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>10800</v>
+        <v>22490</v>
       </c>
       <c r="C24" s="6">
         <v>3000</v>
@@ -6611,7 +6722,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>13500</v>
+        <v>25310</v>
       </c>
       <c r="C25" s="6">
         <v>4000</v>
@@ -6628,7 +6739,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>18000</v>
+        <v>34580</v>
       </c>
       <c r="C26" s="6">
         <v>5000</v>
@@ -6645,7 +6756,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>27000</v>
+        <v>38600</v>
       </c>
       <c r="C27" s="6">
         <v>6000</v>
@@ -6662,7 +6773,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>36000</v>
+        <v>43430</v>
       </c>
       <c r="C28" s="6">
         <v>8000</v>
@@ -6679,7 +6790,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>48000</v>
+        <v>47990</v>
       </c>
       <c r="C29" s="6">
         <v>10000</v>
@@ -6696,7 +6807,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>60000</v>
+        <v>68300</v>
       </c>
       <c r="C30" s="6">
         <v>12000</v>
@@ -6713,7 +6824,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>72000</v>
+        <v>78840</v>
       </c>
       <c r="C31" s="6">
         <v>14000</v>
@@ -6730,7 +6841,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>84000</v>
+        <v>91060</v>
       </c>
       <c r="C32" s="6">
         <v>16000</v>
@@ -6747,7 +6858,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>96000</v>
+        <v>103320</v>
       </c>
       <c r="C33" s="6">
         <v>18000</v>
@@ -6764,7 +6875,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>108000</v>
+        <v>141420</v>
       </c>
       <c r="C34" s="6">
         <v>20000</v>
@@ -6781,7 +6892,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>120000</v>
+        <v>158910</v>
       </c>
       <c r="C35" s="6">
         <v>24000</v>
@@ -6798,7 +6909,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <v>132000</v>
+        <v>179000</v>
       </c>
       <c r="C36" s="6">
         <v>28000</v>
@@ -6815,7 +6926,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>150000</v>
+        <v>199230</v>
       </c>
       <c r="C37" s="6">
         <v>32000</v>
@@ -6832,7 +6943,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>168000</v>
+        <v>267930</v>
       </c>
       <c r="C38" s="6">
         <v>40000</v>
@@ -6849,7 +6960,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>186000</v>
+        <v>296390</v>
       </c>
       <c r="C39" s="6">
         <v>48000</v>
@@ -6866,7 +6977,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>204000</v>
+        <v>328590</v>
       </c>
       <c r="C40" s="6">
         <v>56000</v>
@@ -6882,8 +6993,8 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>270000</v>
+      <c r="B41" s="1">
+        <v>361430</v>
       </c>
       <c r="C41" s="6">
         <v>72000</v>
@@ -6911,8 +7022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6945,7 +7056,7 @@
         <v>0.01</v>
       </c>
       <c r="D2" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -6959,7 +7070,7 @@
         <v>0.02</v>
       </c>
       <c r="D3" s="3">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -6973,7 +7084,7 @@
         <v>0.03</v>
       </c>
       <c r="D4" s="3">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -6987,7 +7098,7 @@
         <v>0.04</v>
       </c>
       <c r="D5" s="3">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -7001,7 +7112,7 @@
         <v>0.05</v>
       </c>
       <c r="D6" s="3">
-        <v>135</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -7015,7 +7126,7 @@
         <v>0.06</v>
       </c>
       <c r="D7" s="3">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -7029,7 +7140,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -7043,7 +7154,7 @@
         <v>0.08</v>
       </c>
       <c r="D9" s="3">
-        <v>216</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -7057,7 +7168,7 @@
         <v>0.09</v>
       </c>
       <c r="D10" s="3">
-        <v>243</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -7071,7 +7182,7 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="3">
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -7085,7 +7196,7 @@
         <v>0.11</v>
       </c>
       <c r="D12" s="3">
-        <v>405</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -7099,7 +7210,7 @@
         <v>0.12</v>
       </c>
       <c r="D13" s="3">
-        <v>540</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -7113,7 +7224,7 @@
         <v>0.13</v>
       </c>
       <c r="D14" s="3">
-        <v>810</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -7127,7 +7238,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D15" s="3">
-        <v>1080</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -7141,7 +7252,7 @@
         <v>0.15</v>
       </c>
       <c r="D16" s="3">
-        <v>1620</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -7155,7 +7266,7 @@
         <v>0.16</v>
       </c>
       <c r="D17" s="3">
-        <v>2160</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -7169,7 +7280,7 @@
         <v>0.17</v>
       </c>
       <c r="D18" s="3">
-        <v>2700</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -7183,7 +7294,7 @@
         <v>0.18</v>
       </c>
       <c r="D19" s="3">
-        <v>3240</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -7197,7 +7308,7 @@
         <v>0.19</v>
       </c>
       <c r="D20" s="3">
-        <v>3780</v>
+        <v>9420</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -7211,7 +7322,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="3">
-        <v>4320</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -7225,7 +7336,7 @@
         <v>0.21</v>
       </c>
       <c r="D22" s="3">
-        <v>4860</v>
+        <v>14990</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -7239,7 +7350,7 @@
         <v>0.22</v>
       </c>
       <c r="D23" s="3">
-        <v>7290</v>
+        <v>17180</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -7253,7 +7364,7 @@
         <v>0.23</v>
       </c>
       <c r="D24" s="3">
-        <v>9720</v>
+        <v>19830</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -7267,7 +7378,7 @@
         <v>0.24</v>
       </c>
       <c r="D25" s="3">
-        <v>12150</v>
+        <v>22310</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -7281,7 +7392,7 @@
         <v>0.25</v>
       </c>
       <c r="D26" s="3">
-        <v>16200</v>
+        <v>30460</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -7295,7 +7406,7 @@
         <v>0.26</v>
       </c>
       <c r="D27" s="3">
-        <v>24300</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -7309,7 +7420,7 @@
         <v>0.27</v>
       </c>
       <c r="D28" s="3">
-        <v>32400</v>
+        <v>38250</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -7323,7 +7434,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D29" s="3">
-        <v>43200</v>
+        <v>42260</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -7337,7 +7448,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>54000</v>
+        <v>60130</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -7351,7 +7462,7 @@
         <v>0.3</v>
       </c>
       <c r="D31" s="3">
-        <v>64800</v>
+        <v>69410</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -7365,7 +7476,7 @@
         <v>0.31</v>
       </c>
       <c r="D32" s="3">
-        <v>75600</v>
+        <v>80170</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -7379,7 +7490,7 @@
         <v>0.32</v>
       </c>
       <c r="D33" s="3">
-        <v>86400</v>
+        <v>90950</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -7393,7 +7504,7 @@
         <v>0.33</v>
       </c>
       <c r="D34" s="3">
-        <v>97200</v>
+        <v>124480</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -7407,7 +7518,7 @@
         <v>0.34</v>
       </c>
       <c r="D35" s="3">
-        <v>108000</v>
+        <v>139870</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -7421,7 +7532,7 @@
         <v>0.35</v>
       </c>
       <c r="D36" s="3">
-        <v>118800</v>
+        <v>157550</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -7435,7 +7546,7 @@
         <v>0.36</v>
       </c>
       <c r="D37" s="3">
-        <v>135000</v>
+        <v>175350</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -7449,7 +7560,7 @@
         <v>0.37</v>
       </c>
       <c r="D38" s="3">
-        <v>151200</v>
+        <v>235810</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -7463,7 +7574,7 @@
         <v>0.38</v>
       </c>
       <c r="D39" s="3">
-        <v>167400</v>
+        <v>260850</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -7476,8 +7587,8 @@
       <c r="C40" s="1">
         <v>0.39</v>
       </c>
-      <c r="D40" s="3">
-        <v>183600</v>
+      <c r="D40" s="1">
+        <v>289190</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -7491,7 +7602,7 @@
         <v>0.4</v>
       </c>
       <c r="D41" s="1">
-        <v>243000</v>
+        <v>318090</v>
       </c>
     </row>
   </sheetData>
@@ -7510,8 +7621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B41" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7544,7 +7655,7 @@
         <v>0.01</v>
       </c>
       <c r="D2" s="6">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -7558,7 +7669,7 @@
         <v>0.02</v>
       </c>
       <c r="D3" s="6">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -7572,7 +7683,7 @@
         <v>0.03</v>
       </c>
       <c r="D4" s="6">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -7586,7 +7697,7 @@
         <v>0.04</v>
       </c>
       <c r="D5" s="6">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -7600,7 +7711,7 @@
         <v>0.05</v>
       </c>
       <c r="D6" s="6">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -7614,7 +7725,7 @@
         <v>0.06</v>
       </c>
       <c r="D7" s="6">
-        <v>168</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -7628,7 +7739,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="6">
-        <v>196</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -7642,7 +7753,7 @@
         <v>0.08</v>
       </c>
       <c r="D9" s="6">
-        <v>224</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -7656,7 +7767,7 @@
         <v>0.09</v>
       </c>
       <c r="D10" s="6">
-        <v>252</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -7670,7 +7781,7 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="6">
-        <v>280</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -7684,7 +7795,7 @@
         <v>0.11</v>
       </c>
       <c r="D12" s="6">
-        <v>420</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -7698,7 +7809,7 @@
         <v>0.12</v>
       </c>
       <c r="D13" s="6">
-        <v>560</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -7712,7 +7823,7 @@
         <v>0.13</v>
       </c>
       <c r="D14" s="6">
-        <v>840</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -7726,7 +7837,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D15" s="6">
-        <v>1120</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -7740,7 +7851,7 @@
         <v>0.15</v>
       </c>
       <c r="D16" s="6">
-        <v>1680</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -7754,7 +7865,7 @@
         <v>0.16</v>
       </c>
       <c r="D17" s="6">
-        <v>2240</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -7768,7 +7879,7 @@
         <v>0.17</v>
       </c>
       <c r="D18" s="6">
-        <v>2800</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -7782,7 +7893,7 @@
         <v>0.18</v>
       </c>
       <c r="D19" s="6">
-        <v>3360</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -7796,7 +7907,7 @@
         <v>0.19</v>
       </c>
       <c r="D20" s="6">
-        <v>3920</v>
+        <v>9850</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -7810,7 +7921,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="6">
-        <v>4480</v>
+        <v>11540</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -7824,7 +7935,7 @@
         <v>0.21</v>
       </c>
       <c r="D22" s="6">
-        <v>5040</v>
+        <v>15670</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -7838,7 +7949,7 @@
         <v>0.22</v>
       </c>
       <c r="D23" s="6">
-        <v>7560</v>
+        <v>17960</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -7852,7 +7963,7 @@
         <v>0.23</v>
       </c>
       <c r="D24" s="6">
-        <v>10080</v>
+        <v>20720</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -7866,7 +7977,7 @@
         <v>0.24</v>
       </c>
       <c r="D25" s="6">
-        <v>12600</v>
+        <v>23320</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -7880,7 +7991,7 @@
         <v>0.25</v>
       </c>
       <c r="D26" s="6">
-        <v>16800</v>
+        <v>31840</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -7894,7 +8005,7 @@
         <v>0.26</v>
       </c>
       <c r="D27" s="6">
-        <v>25200</v>
+        <v>35540</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -7908,7 +8019,7 @@
         <v>0.27</v>
       </c>
       <c r="D28" s="6">
-        <v>33600</v>
+        <v>39980</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -7922,7 +8033,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D29" s="6">
-        <v>44800</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -7936,7 +8047,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D30" s="6">
-        <v>56000</v>
+        <v>62870</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -7950,7 +8061,7 @@
         <v>0.3</v>
       </c>
       <c r="D31" s="6">
-        <v>67200</v>
+        <v>72570</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -7964,7 +8075,7 @@
         <v>0.31</v>
       </c>
       <c r="D32" s="6">
-        <v>78400</v>
+        <v>83810</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -7978,7 +8089,7 @@
         <v>0.32</v>
       </c>
       <c r="D33" s="6">
-        <v>89600</v>
+        <v>95090</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -7992,7 +8103,7 @@
         <v>0.33</v>
       </c>
       <c r="D34" s="6">
-        <v>100800</v>
+        <v>130140</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -8006,7 +8117,7 @@
         <v>0.34</v>
       </c>
       <c r="D35" s="6">
-        <v>112000</v>
+        <v>146230</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -8020,7 +8131,7 @@
         <v>0.35</v>
       </c>
       <c r="D36" s="6">
-        <v>123200</v>
+        <v>164710</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -8034,7 +8145,7 @@
         <v>0.36</v>
       </c>
       <c r="D37" s="6">
-        <v>140000</v>
+        <v>183320</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -8048,7 +8159,7 @@
         <v>0.37</v>
       </c>
       <c r="D38" s="6">
-        <v>156800</v>
+        <v>246520</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -8062,7 +8173,7 @@
         <v>0.38</v>
       </c>
       <c r="D39" s="6">
-        <v>173600</v>
+        <v>272710</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -8076,7 +8187,7 @@
         <v>0.39</v>
       </c>
       <c r="D40" s="6">
-        <v>190400</v>
+        <v>302330</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -8089,8 +8200,8 @@
       <c r="C41" s="6">
         <v>0.4</v>
       </c>
-      <c r="D41" s="6">
-        <v>252000</v>
+      <c r="D41" s="1">
+        <v>332550</v>
       </c>
     </row>
   </sheetData>
@@ -8107,10 +8218,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8143,7 +8254,7 @@
         <v>0.01</v>
       </c>
       <c r="D2" s="3">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -8157,7 +8268,7 @@
         <v>0.02</v>
       </c>
       <c r="D3" s="3">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -8171,7 +8282,7 @@
         <v>0.03</v>
       </c>
       <c r="D4" s="3">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -8185,7 +8296,7 @@
         <v>0.04</v>
       </c>
       <c r="D5" s="3">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -8199,7 +8310,7 @@
         <v>0.05</v>
       </c>
       <c r="D6" s="3">
-        <v>145</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -8213,7 +8324,7 @@
         <v>0.06</v>
       </c>
       <c r="D7" s="3">
-        <v>174</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -8227,7 +8338,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>203</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -8241,7 +8352,7 @@
         <v>0.08</v>
       </c>
       <c r="D9" s="3">
-        <v>231</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -8255,7 +8366,7 @@
         <v>0.09</v>
       </c>
       <c r="D10" s="3">
-        <v>261</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -8269,7 +8380,7 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="3">
-        <v>290</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -8283,7 +8394,7 @@
         <v>0.11</v>
       </c>
       <c r="D12" s="3">
-        <v>434</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -8297,7 +8408,7 @@
         <v>0.12</v>
       </c>
       <c r="D13" s="3">
-        <v>580</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -8311,7 +8422,7 @@
         <v>0.13</v>
       </c>
       <c r="D14" s="3">
-        <v>869</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -8325,7 +8436,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D15" s="3">
-        <v>1160</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -8339,7 +8450,7 @@
         <v>0.15</v>
       </c>
       <c r="D16" s="3">
-        <v>1739</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -8353,7 +8464,7 @@
         <v>0.16</v>
       </c>
       <c r="D17" s="3">
-        <v>2320</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -8367,7 +8478,7 @@
         <v>0.17</v>
       </c>
       <c r="D18" s="3">
-        <v>2900</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -8381,7 +8492,7 @@
         <v>0.18</v>
       </c>
       <c r="D19" s="3">
-        <v>3479</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -8395,7 +8506,7 @@
         <v>0.19</v>
       </c>
       <c r="D20" s="3">
-        <v>4059</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -8409,7 +8520,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="3">
-        <v>4640</v>
+        <v>12040</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -8423,7 +8534,7 @@
         <v>0.21</v>
       </c>
       <c r="D22" s="3">
-        <v>5220</v>
+        <v>16350</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -8437,7 +8548,7 @@
         <v>0.22</v>
       </c>
       <c r="D23" s="3">
-        <v>7829</v>
+        <v>18740</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -8451,7 +8562,7 @@
         <v>0.23</v>
       </c>
       <c r="D24" s="3">
-        <v>10440</v>
+        <v>21620</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -8465,7 +8576,7 @@
         <v>0.24</v>
       </c>
       <c r="D25" s="3">
-        <v>13050</v>
+        <v>24330</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -8479,7 +8590,7 @@
         <v>0.25</v>
       </c>
       <c r="D26" s="3">
-        <v>17400</v>
+        <v>33230</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -8493,7 +8604,7 @@
         <v>0.26</v>
       </c>
       <c r="D27" s="3">
-        <v>26100</v>
+        <v>37090</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -8507,7 +8618,7 @@
         <v>0.27</v>
       </c>
       <c r="D28" s="3">
-        <v>34800</v>
+        <v>41720</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -8521,7 +8632,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D29" s="3">
-        <v>46400</v>
+        <v>46100</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -8535,7 +8646,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>57999</v>
+        <v>65600</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -8549,7 +8660,7 @@
         <v>0.3</v>
       </c>
       <c r="D31" s="3">
-        <v>69600</v>
+        <v>75720</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -8563,7 +8674,7 @@
         <v>0.31</v>
       </c>
       <c r="D32" s="3">
-        <v>81200</v>
+        <v>87450</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -8577,7 +8688,7 @@
         <v>0.32</v>
       </c>
       <c r="D33" s="3">
-        <v>92800</v>
+        <v>99220</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -8591,7 +8702,7 @@
         <v>0.33</v>
       </c>
       <c r="D34" s="3">
-        <v>104400</v>
+        <v>135800</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -8605,7 +8716,7 @@
         <v>0.34</v>
       </c>
       <c r="D35" s="3">
-        <v>115999</v>
+        <v>152590</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -8619,7 +8730,7 @@
         <v>0.35</v>
       </c>
       <c r="D36" s="3">
-        <v>127599</v>
+        <v>171870</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -8633,7 +8744,7 @@
         <v>0.36</v>
       </c>
       <c r="D37" s="3">
-        <v>145000</v>
+        <v>191290</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -8647,7 +8758,7 @@
         <v>0.37</v>
       </c>
       <c r="D38" s="3">
-        <v>162400</v>
+        <v>257240</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -8661,7 +8772,7 @@
         <v>0.38</v>
       </c>
       <c r="D39" s="3">
-        <v>179800</v>
+        <v>284560</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -8675,7 +8786,7 @@
         <v>0.39</v>
       </c>
       <c r="D40" s="3">
-        <v>197200</v>
+        <v>315470</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -8688,9 +8799,12 @@
       <c r="C41" s="1">
         <v>0.4</v>
       </c>
-      <c r="D41" s="1">
-        <v>260999</v>
-      </c>
+      <c r="D41" s="3">
+        <v>347000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -8708,8 +8822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8742,7 +8856,7 @@
         <v>0.01</v>
       </c>
       <c r="D2" s="3">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -8756,7 +8870,7 @@
         <v>0.02</v>
       </c>
       <c r="D3" s="3">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -8770,7 +8884,7 @@
         <v>0.03</v>
       </c>
       <c r="D4" s="3">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -8784,7 +8898,7 @@
         <v>0.04</v>
       </c>
       <c r="D5" s="3">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -8798,7 +8912,7 @@
         <v>0.05</v>
       </c>
       <c r="D6" s="3">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -8812,7 +8926,7 @@
         <v>0.06</v>
       </c>
       <c r="D7" s="3">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -8826,7 +8940,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>182</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -8840,7 +8954,7 @@
         <v>0.08</v>
       </c>
       <c r="D9" s="3">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -8854,7 +8968,7 @@
         <v>0.09</v>
       </c>
       <c r="D10" s="3">
-        <v>234</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -8868,7 +8982,7 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="3">
-        <v>260</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -8882,7 +8996,7 @@
         <v>0.11</v>
       </c>
       <c r="D12" s="3">
-        <v>390</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -8896,7 +9010,7 @@
         <v>0.12</v>
       </c>
       <c r="D13" s="3">
-        <v>520</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -8910,7 +9024,7 @@
         <v>0.13</v>
       </c>
       <c r="D14" s="3">
-        <v>780</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -8924,7 +9038,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D15" s="3">
-        <v>1040</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -8938,7 +9052,7 @@
         <v>0.15</v>
       </c>
       <c r="D16" s="3">
-        <v>1560</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -8952,7 +9066,7 @@
         <v>0.16</v>
       </c>
       <c r="D17" s="3">
-        <v>2080</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -8966,7 +9080,7 @@
         <v>0.17</v>
       </c>
       <c r="D18" s="3">
-        <v>2600</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -8980,7 +9094,7 @@
         <v>0.18</v>
       </c>
       <c r="D19" s="3">
-        <v>3120</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -8994,7 +9108,7 @@
         <v>0.19</v>
       </c>
       <c r="D20" s="3">
-        <v>3640</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -9008,7 +9122,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="3">
-        <v>4160</v>
+        <v>10540</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -9022,7 +9136,7 @@
         <v>0.21</v>
       </c>
       <c r="D22" s="3">
-        <v>4680</v>
+        <v>14310</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -9036,7 +9150,7 @@
         <v>0.22</v>
       </c>
       <c r="D23" s="3">
-        <v>7020</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -9050,7 +9164,7 @@
         <v>0.23</v>
       </c>
       <c r="D24" s="3">
-        <v>9360</v>
+        <v>18930</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -9064,7 +9178,7 @@
         <v>0.24</v>
       </c>
       <c r="D25" s="3">
-        <v>11700</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -9078,7 +9192,7 @@
         <v>0.25</v>
       </c>
       <c r="D26" s="3">
-        <v>15600</v>
+        <v>29080</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -9092,7 +9206,7 @@
         <v>0.26</v>
       </c>
       <c r="D27" s="3">
-        <v>23400</v>
+        <v>32460</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -9106,7 +9220,7 @@
         <v>0.27</v>
       </c>
       <c r="D28" s="3">
-        <v>31200</v>
+        <v>36510</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -9120,7 +9234,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D29" s="3">
-        <v>41600</v>
+        <v>40340</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -9134,7 +9248,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>52000</v>
+        <v>57400</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -9148,7 +9262,7 @@
         <v>0.3</v>
       </c>
       <c r="D31" s="3">
-        <v>62400</v>
+        <v>66260</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -9162,7 +9276,7 @@
         <v>0.31</v>
       </c>
       <c r="D32" s="3">
-        <v>72800</v>
+        <v>76530</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -9176,7 +9290,7 @@
         <v>0.32</v>
       </c>
       <c r="D33" s="3">
-        <v>83200</v>
+        <v>86820</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -9190,7 +9304,7 @@
         <v>0.33</v>
       </c>
       <c r="D34" s="3">
-        <v>93600</v>
+        <v>118830</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -9204,7 +9318,7 @@
         <v>0.34</v>
       </c>
       <c r="D35" s="3">
-        <v>104000</v>
+        <v>133520</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -9218,7 +9332,7 @@
         <v>0.35</v>
       </c>
       <c r="D36" s="3">
-        <v>114400</v>
+        <v>150390</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -9232,7 +9346,7 @@
         <v>0.36</v>
       </c>
       <c r="D37" s="3">
-        <v>130000</v>
+        <v>167390</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -9246,7 +9360,7 @@
         <v>0.37</v>
       </c>
       <c r="D38" s="3">
-        <v>145600</v>
+        <v>225090</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -9260,7 +9374,7 @@
         <v>0.38</v>
       </c>
       <c r="D39" s="3">
-        <v>161200</v>
+        <v>249000</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -9273,8 +9387,8 @@
       <c r="C40" s="1">
         <v>0.39</v>
       </c>
-      <c r="D40" s="3">
-        <v>176800</v>
+      <c r="D40" s="1">
+        <v>276040</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -9288,7 +9402,7 @@
         <v>0.4</v>
       </c>
       <c r="D41" s="1">
-        <v>234000</v>
+        <v>303630</v>
       </c>
     </row>
   </sheetData>
@@ -9307,8 +9421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView showRuler="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I23" sqref="I22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9335,7 +9449,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="6">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -9346,7 +9460,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="6">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -9357,7 +9471,7 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -9368,7 +9482,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="6">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -9379,7 +9493,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="6">
-        <v>205</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -9390,7 +9504,7 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="6">
-        <v>245</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -9401,7 +9515,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>287</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -9412,7 +9526,7 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="6">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -9423,7 +9537,7 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="6">
-        <v>369</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -9434,7 +9548,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="6">
-        <v>410</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -9445,7 +9559,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="6">
-        <v>615</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -9456,7 +9570,7 @@
         <v>0.12</v>
       </c>
       <c r="C13" s="6">
-        <v>820</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -9467,7 +9581,7 @@
         <v>0.13</v>
       </c>
       <c r="C14" s="6">
-        <v>1230</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -9478,7 +9592,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="6">
-        <v>1640</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -9489,7 +9603,7 @@
         <v>0.15</v>
       </c>
       <c r="C16" s="6">
-        <v>2460</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -9500,7 +9614,7 @@
         <v>0.16</v>
       </c>
       <c r="C17" s="6">
-        <v>3280</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -9511,7 +9625,7 @@
         <v>0.17</v>
       </c>
       <c r="C18" s="6">
-        <v>4100</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -9522,7 +9636,7 @@
         <v>0.18</v>
       </c>
       <c r="C19" s="6">
-        <v>4920</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -9533,7 +9647,7 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="6">
-        <v>5740</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -9544,7 +9658,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="6">
-        <v>6560</v>
+        <v>18110</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -9555,7 +9669,7 @@
         <v>0.21</v>
       </c>
       <c r="C22" s="6">
-        <v>7380</v>
+        <v>24570</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -9566,7 +9680,7 @@
         <v>0.22</v>
       </c>
       <c r="C23" s="6">
-        <v>11070</v>
+        <v>28150</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -9577,7 +9691,7 @@
         <v>0.23</v>
       </c>
       <c r="C24" s="6">
-        <v>14760</v>
+        <v>32480</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -9588,7 +9702,7 @@
         <v>0.24</v>
       </c>
       <c r="C25" s="6">
-        <v>18450</v>
+        <v>36540</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -9599,7 +9713,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="6">
-        <v>24600</v>
+        <v>49880</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -9610,7 +9724,7 @@
         <v>0.26</v>
       </c>
       <c r="C27" s="6">
-        <v>36900</v>
+        <v>55670</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -9621,7 +9735,7 @@
         <v>0.27</v>
       </c>
       <c r="C28" s="6">
-        <v>49200</v>
+        <v>62620</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -9632,7 +9746,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C29" s="6">
-        <v>65600</v>
+        <v>69190</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -9643,7 +9757,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30" s="6">
-        <v>82000</v>
+        <v>98440</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -9654,7 +9768,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="6">
-        <v>98400</v>
+        <v>113620</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -9665,7 +9779,7 @@
         <v>0.31</v>
       </c>
       <c r="C32" s="6">
-        <v>114800</v>
+        <v>131220</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -9676,7 +9790,7 @@
         <v>0.32</v>
       </c>
       <c r="C33" s="6">
-        <v>131200</v>
+        <v>148870</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -9687,7 +9801,7 @@
         <v>0.33</v>
       </c>
       <c r="C34" s="6">
-        <v>147600</v>
+        <v>203730</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -9698,7 +9812,7 @@
         <v>0.34</v>
       </c>
       <c r="C35" s="6">
-        <v>164000</v>
+        <v>228920</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -9709,7 +9823,7 @@
         <v>0.35</v>
       </c>
       <c r="C36" s="6">
-        <v>180400</v>
+        <v>257850</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -9720,7 +9834,7 @@
         <v>0.36</v>
       </c>
       <c r="C37" s="6">
-        <v>205000</v>
+        <v>286980</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -9731,7 +9845,7 @@
         <v>0.37</v>
       </c>
       <c r="C38" s="6">
-        <v>229600</v>
+        <v>385900</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -9742,7 +9856,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="6">
-        <v>254199</v>
+        <v>426880</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -9753,7 +9867,7 @@
         <v>0.39</v>
       </c>
       <c r="C40" s="6">
-        <v>278800</v>
+        <v>473250</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -9763,8 +9877,8 @@
       <c r="B41" s="6">
         <v>0.4</v>
       </c>
-      <c r="C41" s="6">
-        <v>369000</v>
+      <c r="C41" s="1">
+        <v>520550</v>
       </c>
     </row>
   </sheetData>
@@ -9783,8 +9897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9813,7 +9927,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -9824,7 +9938,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="6">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -9835,7 +9949,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="6">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -9846,7 +9960,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="6">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -9857,7 +9971,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="6">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -9868,7 +9982,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="6">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -9879,7 +9993,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="6">
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -9890,7 +10004,7 @@
         <v>75</v>
       </c>
       <c r="C9" s="6">
-        <v>480</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -9901,7 +10015,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="6">
-        <v>540</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -9912,7 +10026,7 @@
         <v>85</v>
       </c>
       <c r="C11" s="6">
-        <v>600</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -9923,7 +10037,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="6">
-        <v>900</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -9934,7 +10048,7 @@
         <v>105</v>
       </c>
       <c r="C13" s="6">
-        <v>1200</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -9945,7 +10059,7 @@
         <v>170</v>
       </c>
       <c r="C14" s="6">
-        <v>1800</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -9956,7 +10070,7 @@
         <v>200</v>
       </c>
       <c r="C15" s="6">
-        <v>2400</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -9967,7 +10081,7 @@
         <v>220</v>
       </c>
       <c r="C16" s="6">
-        <v>3600</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -9978,7 +10092,7 @@
         <v>240</v>
       </c>
       <c r="C17" s="6">
-        <v>4800</v>
+        <v>11650</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -9989,7 +10103,7 @@
         <v>260</v>
       </c>
       <c r="C18" s="6">
-        <v>6000</v>
+        <v>17030</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -10000,7 +10114,7 @@
         <v>280</v>
       </c>
       <c r="C19" s="6">
-        <v>7200</v>
+        <v>20960</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -10011,7 +10125,7 @@
         <v>300</v>
       </c>
       <c r="C20" s="6">
-        <v>8400</v>
+        <v>25610</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -10022,7 +10136,7 @@
         <v>330</v>
       </c>
       <c r="C21" s="6">
-        <v>9600</v>
+        <v>30040</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -10033,7 +10147,7 @@
         <v>590</v>
       </c>
       <c r="C22" s="6">
-        <v>10800</v>
+        <v>40800</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -10044,7 +10158,7 @@
         <v>680</v>
       </c>
       <c r="C23" s="6">
-        <v>16200</v>
+        <v>46780</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -10055,7 +10169,7 @@
         <v>760</v>
       </c>
       <c r="C24" s="6">
-        <v>21600</v>
+        <v>53980</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -10066,7 +10180,7 @@
         <v>850</v>
       </c>
       <c r="C25" s="6">
-        <v>27000</v>
+        <v>60760</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -10077,7 +10191,7 @@
         <v>940</v>
       </c>
       <c r="C26" s="6">
-        <v>36000</v>
+        <v>82990</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -10088,7 +10202,7 @@
         <v>1020</v>
       </c>
       <c r="C27" s="6">
-        <v>54000</v>
+        <v>92640</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -10099,7 +10213,7 @@
         <v>1110</v>
       </c>
       <c r="C28" s="6">
-        <v>72000</v>
+        <v>104220</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -10110,7 +10224,7 @@
         <v>1200</v>
       </c>
       <c r="C29" s="6">
-        <v>96000</v>
+        <v>115170</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -10121,7 +10235,7 @@
         <v>1280</v>
       </c>
       <c r="C30" s="6">
-        <v>120000</v>
+        <v>163920</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -10132,7 +10246,7 @@
         <v>1370</v>
       </c>
       <c r="C31" s="6">
-        <v>144000</v>
+        <v>189230</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -10143,7 +10257,7 @@
         <v>2240</v>
       </c>
       <c r="C32" s="6">
-        <v>168000</v>
+        <v>218560</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -10154,7 +10268,7 @@
         <v>2410</v>
       </c>
       <c r="C33" s="6">
-        <v>192000</v>
+        <v>247970</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -10165,7 +10279,7 @@
         <v>2580</v>
       </c>
       <c r="C34" s="6">
-        <v>216000</v>
+        <v>339420</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -10176,7 +10290,7 @@
         <v>2750</v>
       </c>
       <c r="C35" s="6">
-        <v>240000</v>
+        <v>381390</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -10187,7 +10301,7 @@
         <v>2930</v>
       </c>
       <c r="C36" s="6">
-        <v>264000</v>
+        <v>429610</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -10198,7 +10312,7 @@
         <v>3100</v>
       </c>
       <c r="C37" s="6">
-        <v>300000</v>
+        <v>478150</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -10209,7 +10323,7 @@
         <v>3270</v>
       </c>
       <c r="C38" s="6">
-        <v>336000</v>
+        <v>643020</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -10220,7 +10334,7 @@
         <v>3450</v>
       </c>
       <c r="C39" s="6">
-        <v>372000</v>
+        <v>711330</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -10231,7 +10345,7 @@
         <v>3620</v>
       </c>
       <c r="C40" s="6">
-        <v>408000</v>
+        <v>788610</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -10241,8 +10355,8 @@
       <c r="B41" s="1">
         <v>3800</v>
       </c>
-      <c r="C41" s="6">
-        <v>540000</v>
+      <c r="C41" s="1">
+        <v>867440</v>
       </c>
     </row>
   </sheetData>
@@ -10261,8 +10375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10289,7 +10403,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="6">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -10300,7 +10414,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="6">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -10311,7 +10425,7 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -10322,7 +10436,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="6">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -10333,7 +10447,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="6">
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -10344,7 +10458,7 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="6">
-        <v>252</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -10355,7 +10469,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>294</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -10366,7 +10480,7 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="6">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -10377,7 +10491,7 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="6">
-        <v>378</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -10388,7 +10502,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="6">
-        <v>420</v>
+        <v>790</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -10399,7 +10513,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="6">
-        <v>630</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -10410,7 +10524,7 @@
         <v>0.12</v>
       </c>
       <c r="C13" s="6">
-        <v>840</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -10421,7 +10535,7 @@
         <v>0.13</v>
       </c>
       <c r="C14" s="6">
-        <v>1260</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -10432,7 +10546,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="6">
-        <v>1680</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -10443,7 +10557,7 @@
         <v>0.15</v>
       </c>
       <c r="C16" s="6">
-        <v>2520</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -10454,7 +10568,7 @@
         <v>0.16</v>
       </c>
       <c r="C17" s="6">
-        <v>3360</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -10465,7 +10579,7 @@
         <v>0.17</v>
       </c>
       <c r="C18" s="6">
-        <v>4200</v>
+        <v>10580</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -10476,7 +10590,7 @@
         <v>0.18</v>
       </c>
       <c r="C19" s="6">
-        <v>5040</v>
+        <v>13010</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -10487,7 +10601,7 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="6">
-        <v>5880</v>
+        <v>15870</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -10498,7 +10612,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="6">
-        <v>6720</v>
+        <v>18610</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -10509,7 +10623,7 @@
         <v>0.21</v>
       </c>
       <c r="C22" s="6">
-        <v>7560</v>
+        <v>25250</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -10520,7 +10634,7 @@
         <v>0.22</v>
       </c>
       <c r="C23" s="6">
-        <v>11340</v>
+        <v>28930</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -10531,7 +10645,7 @@
         <v>0.23</v>
       </c>
       <c r="C24" s="6">
-        <v>15120</v>
+        <v>33380</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -10542,7 +10656,7 @@
         <v>0.24</v>
       </c>
       <c r="C25" s="6">
-        <v>18900</v>
+        <v>37550</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -10553,7 +10667,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="6">
-        <v>25200</v>
+        <v>51260</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -10564,7 +10678,7 @@
         <v>0.26</v>
       </c>
       <c r="C27" s="6">
-        <v>37800</v>
+        <v>57220</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -10575,7 +10689,7 @@
         <v>0.27</v>
       </c>
       <c r="C28" s="6">
-        <v>50400</v>
+        <v>64350</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -10586,7 +10700,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C29" s="6">
-        <v>67200</v>
+        <v>71100</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -10597,7 +10711,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30" s="6">
-        <v>84000</v>
+        <v>101170</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -10608,7 +10722,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="6">
-        <v>100800</v>
+        <v>116770</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -10619,7 +10733,7 @@
         <v>0.31</v>
       </c>
       <c r="C32" s="6">
-        <v>117600</v>
+        <v>134860</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -10630,7 +10744,7 @@
         <v>0.32</v>
       </c>
       <c r="C33" s="6">
-        <v>134400</v>
+        <v>153000</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -10641,7 +10755,7 @@
         <v>0.33</v>
       </c>
       <c r="C34" s="6">
-        <v>151200</v>
+        <v>209390</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -10652,7 +10766,7 @@
         <v>0.34</v>
       </c>
       <c r="C35" s="6">
-        <v>168000</v>
+        <v>235280</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -10663,7 +10777,7 @@
         <v>0.35</v>
       </c>
       <c r="C36" s="6">
-        <v>184800</v>
+        <v>265010</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -10674,7 +10788,7 @@
         <v>0.36</v>
       </c>
       <c r="C37" s="6">
-        <v>210000</v>
+        <v>294950</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -10685,7 +10799,7 @@
         <v>0.37</v>
       </c>
       <c r="C38" s="6">
-        <v>235200</v>
+        <v>396610</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -10696,7 +10810,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="6">
-        <v>260400</v>
+        <v>438740</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -10707,7 +10821,7 @@
         <v>0.39</v>
       </c>
       <c r="C40" s="6">
-        <v>285600</v>
+        <v>486390</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -10717,8 +10831,8 @@
       <c r="B41" s="6">
         <v>0.4</v>
       </c>
-      <c r="C41" s="6">
-        <v>378000</v>
+      <c r="C41" s="1">
+        <v>535000</v>
       </c>
     </row>
   </sheetData>
@@ -10737,8 +10851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10765,7 +10879,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="6">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -10776,7 +10890,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="6">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -10787,7 +10901,7 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -10798,7 +10912,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="6">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -10809,7 +10923,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="6">
-        <v>215</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -10820,7 +10934,7 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="6">
-        <v>258</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -10831,7 +10945,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>301</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -10842,7 +10956,7 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="6">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -10853,7 +10967,7 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="6">
-        <v>387</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -10864,7 +10978,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="6">
-        <v>430</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -10875,7 +10989,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="6">
-        <v>645</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -10886,7 +11000,7 @@
         <v>0.12</v>
       </c>
       <c r="C13" s="6">
-        <v>860</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -10897,7 +11011,7 @@
         <v>0.13</v>
       </c>
       <c r="C14" s="6">
-        <v>1290</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -10908,7 +11022,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="6">
-        <v>1720</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -10919,7 +11033,7 @@
         <v>0.15</v>
       </c>
       <c r="C16" s="6">
-        <v>2580</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -10930,7 +11044,7 @@
         <v>0.16</v>
       </c>
       <c r="C17" s="6">
-        <v>3440</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -10941,7 +11055,7 @@
         <v>0.17</v>
       </c>
       <c r="C18" s="6">
-        <v>4300</v>
+        <v>10870</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -10952,7 +11066,7 @@
         <v>0.18</v>
       </c>
       <c r="C19" s="6">
-        <v>5160</v>
+        <v>13360</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -10963,7 +11077,7 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="6">
-        <v>6020</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -10974,7 +11088,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="6">
-        <v>6880</v>
+        <v>19110</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -10985,7 +11099,7 @@
         <v>0.21</v>
       </c>
       <c r="C22" s="6">
-        <v>7740</v>
+        <v>25930</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -10996,7 +11110,7 @@
         <v>0.22</v>
       </c>
       <c r="C23" s="6">
-        <v>11610</v>
+        <v>29710</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -11007,7 +11121,7 @@
         <v>0.23</v>
       </c>
       <c r="C24" s="6">
-        <v>15480</v>
+        <v>34270</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -11018,7 +11132,7 @@
         <v>0.24</v>
       </c>
       <c r="C25" s="6">
-        <v>19350</v>
+        <v>38560</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -11029,7 +11143,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="6">
-        <v>25800</v>
+        <v>52640</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -11040,7 +11154,7 @@
         <v>0.26</v>
       </c>
       <c r="C27" s="6">
-        <v>38700</v>
+        <v>58760</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -11051,7 +11165,7 @@
         <v>0.27</v>
       </c>
       <c r="C28" s="6">
-        <v>51600</v>
+        <v>66090</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -11062,7 +11176,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C29" s="6">
-        <v>68800</v>
+        <v>73020</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -11073,7 +11187,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30" s="6">
-        <v>86000</v>
+        <v>103900</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -11084,7 +11198,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="6">
-        <v>103200</v>
+        <v>119930</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -11095,7 +11209,7 @@
         <v>0.31</v>
       </c>
       <c r="C32" s="6">
-        <v>120400</v>
+        <v>138500</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -11106,7 +11220,7 @@
         <v>0.32</v>
       </c>
       <c r="C33" s="6">
-        <v>137600</v>
+        <v>157130</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -11117,7 +11231,7 @@
         <v>0.33</v>
       </c>
       <c r="C34" s="6">
-        <v>154800</v>
+        <v>215050</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -11128,7 +11242,7 @@
         <v>0.34</v>
       </c>
       <c r="C35" s="6">
-        <v>172000</v>
+        <v>241630</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -11139,7 +11253,7 @@
         <v>0.35</v>
       </c>
       <c r="C36" s="6">
-        <v>189200</v>
+        <v>272170</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -11150,7 +11264,7 @@
         <v>0.36</v>
       </c>
       <c r="C37" s="6">
-        <v>215000</v>
+        <v>302920</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -11161,7 +11275,7 @@
         <v>0.37</v>
       </c>
       <c r="C38" s="6">
-        <v>240800</v>
+        <v>407330</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -11172,7 +11286,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="6">
-        <v>266600</v>
+        <v>450590</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -11183,7 +11297,7 @@
         <v>0.39</v>
       </c>
       <c r="C40" s="6">
-        <v>292400</v>
+        <v>499540</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -11193,8 +11307,8 @@
       <c r="B41" s="6">
         <v>0.4</v>
       </c>
-      <c r="C41" s="6">
-        <v>387000</v>
+      <c r="C41" s="1">
+        <v>549460</v>
       </c>
     </row>
   </sheetData>
@@ -11213,8 +11327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11241,7 +11355,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="3">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -11252,7 +11366,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="3">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -11263,7 +11377,7 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="3">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -11274,7 +11388,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="3">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -11285,7 +11399,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="3">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -11296,7 +11410,7 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="3">
-        <v>264</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -11307,7 +11421,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>308</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -11318,7 +11432,7 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="3">
-        <v>352</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -11329,7 +11443,7 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="3">
-        <v>396</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -11340,7 +11454,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="3">
-        <v>440</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -11351,7 +11465,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="3">
-        <v>660</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -11362,7 +11476,7 @@
         <v>0.12</v>
       </c>
       <c r="C13" s="3">
-        <v>880</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -11373,7 +11487,7 @@
         <v>0.13</v>
       </c>
       <c r="C14" s="3">
-        <v>1320</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -11384,7 +11498,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="3">
-        <v>1760</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -11395,7 +11509,7 @@
         <v>0.15</v>
       </c>
       <c r="C16" s="3">
-        <v>2640</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -11406,7 +11520,7 @@
         <v>0.16</v>
       </c>
       <c r="C17" s="3">
-        <v>3520</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -11417,7 +11531,7 @@
         <v>0.17</v>
       </c>
       <c r="C18" s="3">
-        <v>4400</v>
+        <v>11150</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -11428,7 +11542,7 @@
         <v>0.18</v>
       </c>
       <c r="C19" s="3">
-        <v>5280</v>
+        <v>13710</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -11439,7 +11553,7 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="3">
-        <v>6160</v>
+        <v>16730</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -11450,7 +11564,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="3">
-        <v>7040</v>
+        <v>19610</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -11461,7 +11575,7 @@
         <v>0.21</v>
       </c>
       <c r="C22" s="3">
-        <v>7920</v>
+        <v>26610</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -11472,7 +11586,7 @@
         <v>0.22</v>
       </c>
       <c r="C23" s="3">
-        <v>11880</v>
+        <v>30490</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -11483,7 +11597,7 @@
         <v>0.23</v>
       </c>
       <c r="C24" s="3">
-        <v>15840</v>
+        <v>35170</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -11494,7 +11608,7 @@
         <v>0.24</v>
       </c>
       <c r="C25" s="3">
-        <v>19800</v>
+        <v>39580</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -11505,7 +11619,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="3">
-        <v>26400</v>
+        <v>54030</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -11516,7 +11630,7 @@
         <v>0.26</v>
       </c>
       <c r="C27" s="3">
-        <v>39600</v>
+        <v>60300</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -11527,7 +11641,7 @@
         <v>0.27</v>
       </c>
       <c r="C28" s="3">
-        <v>52800</v>
+        <v>67830</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -11538,7 +11652,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C29" s="3">
-        <v>70400</v>
+        <v>74940</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -11549,7 +11663,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30" s="3">
-        <v>88000</v>
+        <v>106630</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -11560,7 +11674,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="3">
-        <v>105600</v>
+        <v>123080</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -11571,7 +11685,7 @@
         <v>0.31</v>
       </c>
       <c r="C32" s="3">
-        <v>123200</v>
+        <v>142150</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -11582,7 +11696,7 @@
         <v>0.32</v>
       </c>
       <c r="C33" s="3">
-        <v>140800</v>
+        <v>161260</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -11593,7 +11707,7 @@
         <v>0.33</v>
       </c>
       <c r="C34" s="3">
-        <v>158400</v>
+        <v>220700</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -11604,7 +11718,7 @@
         <v>0.34</v>
       </c>
       <c r="C35" s="3">
-        <v>176000</v>
+        <v>247990</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -11615,7 +11729,7 @@
         <v>0.35</v>
       </c>
       <c r="C36" s="3">
-        <v>193600</v>
+        <v>279330</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -11626,7 +11740,7 @@
         <v>0.36</v>
       </c>
       <c r="C37" s="3">
-        <v>220000</v>
+        <v>310880</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -11637,7 +11751,7 @@
         <v>0.37</v>
       </c>
       <c r="C38" s="3">
-        <v>246400</v>
+        <v>418050</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -11648,7 +11762,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="3">
-        <v>272800</v>
+        <v>462450</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -11658,8 +11772,8 @@
       <c r="B40" s="3">
         <v>0.39</v>
       </c>
-      <c r="C40" s="3">
-        <v>299200</v>
+      <c r="C40" s="1">
+        <v>512680</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -11670,7 +11784,7 @@
         <v>0.4</v>
       </c>
       <c r="C41" s="1">
-        <v>396000</v>
+        <v>563920</v>
       </c>
     </row>
   </sheetData>
@@ -11689,8 +11803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11717,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -11728,7 +11842,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -11739,7 +11853,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -11750,7 +11864,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -11761,7 +11875,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>175</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -11772,7 +11886,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -11783,7 +11897,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>244</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -11794,7 +11908,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>280</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -11805,7 +11919,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>315</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -11816,7 +11930,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>350</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -11827,7 +11941,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>525</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -11838,7 +11952,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -11849,7 +11963,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>1050</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -11860,7 +11974,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>1400</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -11871,7 +11985,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>2100</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -11882,7 +11996,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>2800</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -11893,7 +12007,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>3500</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -11904,7 +12018,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>4200</v>
+        <v>10480</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -11915,7 +12029,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>4900</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -11926,7 +12040,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3">
-        <v>5600</v>
+        <v>15020</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -11937,7 +12051,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3">
-        <v>6300</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -11948,7 +12062,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>9450</v>
+        <v>23390</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -11959,7 +12073,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3">
-        <v>12600</v>
+        <v>26990</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -11970,7 +12084,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3">
-        <v>15749</v>
+        <v>30380</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -11981,7 +12095,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <v>21000</v>
+        <v>41490</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -11992,7 +12106,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="3">
-        <v>31499</v>
+        <v>46320</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -12003,7 +12117,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="3">
-        <v>42000</v>
+        <v>52110</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -12014,7 +12128,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="3">
-        <v>56000</v>
+        <v>57580</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -12025,7 +12139,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="3">
-        <v>70000</v>
+        <v>81960</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -12036,7 +12150,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="3">
-        <v>84000</v>
+        <v>94610</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -12047,7 +12161,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="3">
-        <v>98000</v>
+        <v>109280</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -12058,7 +12172,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="3">
-        <v>112000</v>
+        <v>123980</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -12069,7 +12183,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="3">
-        <v>125999</v>
+        <v>169710</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -12080,7 +12194,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="3">
-        <v>140000</v>
+        <v>190690</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -12091,7 +12205,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="3">
-        <v>154000</v>
+        <v>214800</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -12102,7 +12216,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="3">
-        <v>175000</v>
+        <v>239070</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -12113,7 +12227,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="3">
-        <v>196000</v>
+        <v>321510</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -12124,7 +12238,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="3">
-        <v>217000</v>
+        <v>355660</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -12134,8 +12248,8 @@
       <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="C40" s="3">
-        <v>237999</v>
+      <c r="C40" s="1">
+        <v>394300</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -12146,7 +12260,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1">
-        <v>315000</v>
+        <v>433720</v>
       </c>
     </row>
   </sheetData>
@@ -12165,8 +12279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12199,7 +12313,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -12213,7 +12327,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -12227,7 +12341,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="6">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -12241,7 +12355,7 @@
         <v>92</v>
       </c>
       <c r="D5" s="6">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -12255,7 +12369,7 @@
         <v>104</v>
       </c>
       <c r="D6" s="6">
-        <v>200</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -12269,7 +12383,7 @@
         <v>114</v>
       </c>
       <c r="D7" s="6">
-        <v>240</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -12283,7 +12397,7 @@
         <v>123</v>
       </c>
       <c r="D8" s="6">
-        <v>280</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -12297,7 +12411,7 @@
         <v>130</v>
       </c>
       <c r="D9" s="6">
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -12311,7 +12425,7 @@
         <v>136</v>
       </c>
       <c r="D10" s="6">
-        <v>360</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -12325,7 +12439,7 @@
         <v>141</v>
       </c>
       <c r="D11" s="6">
-        <v>400</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -12339,7 +12453,7 @@
         <v>264</v>
       </c>
       <c r="D12" s="6">
-        <v>600</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -12353,7 +12467,7 @@
         <v>298</v>
       </c>
       <c r="D13" s="6">
-        <v>800</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -12367,7 +12481,7 @@
         <v>328</v>
       </c>
       <c r="D14" s="6">
-        <v>1200</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -12381,7 +12495,7 @@
         <v>354</v>
       </c>
       <c r="D15" s="6">
-        <v>1600</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -12395,7 +12509,7 @@
         <v>378</v>
       </c>
       <c r="D16" s="6">
-        <v>2400</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -12409,7 +12523,7 @@
         <v>399</v>
       </c>
       <c r="D17" s="6">
-        <v>3200</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -12423,7 +12537,7 @@
         <v>419</v>
       </c>
       <c r="D18" s="6">
-        <v>4000</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -12437,7 +12551,7 @@
         <v>436</v>
       </c>
       <c r="D19" s="6">
-        <v>4800</v>
+        <v>13980</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -12451,7 +12565,7 @@
         <v>452</v>
       </c>
       <c r="D20" s="6">
-        <v>5600</v>
+        <v>17080</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -12465,7 +12579,7 @@
         <v>467</v>
       </c>
       <c r="D21" s="6">
-        <v>6400</v>
+        <v>20030</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -12479,7 +12593,7 @@
         <v>961</v>
       </c>
       <c r="D22" s="6">
-        <v>7200</v>
+        <v>27210</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -12493,7 +12607,7 @@
         <v>1125</v>
       </c>
       <c r="D23" s="6">
-        <v>10800</v>
+        <v>31190</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -12507,7 +12621,7 @@
         <v>1289</v>
       </c>
       <c r="D24" s="6">
-        <v>14400</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -12521,7 +12635,7 @@
         <v>1453</v>
       </c>
       <c r="D25" s="6">
-        <v>18000</v>
+        <v>40510</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -12535,7 +12649,7 @@
         <v>1616</v>
       </c>
       <c r="D26" s="6">
-        <v>24000</v>
+        <v>55330</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -12549,7 +12663,7 @@
         <v>1778</v>
       </c>
       <c r="D27" s="6">
-        <v>36000</v>
+        <v>61770</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -12563,7 +12677,7 @@
         <v>1937</v>
       </c>
       <c r="D28" s="6">
-        <v>48000</v>
+        <v>69490</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -12577,7 +12691,7 @@
         <v>2094</v>
       </c>
       <c r="D29" s="6">
-        <v>64000</v>
+        <v>76790</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -12591,7 +12705,7 @@
         <v>2249</v>
       </c>
       <c r="D30" s="6">
-        <v>80000</v>
+        <v>109290</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -12605,7 +12719,7 @@
         <v>2400</v>
       </c>
       <c r="D31" s="6">
-        <v>96000</v>
+        <v>126160</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -12619,7 +12733,7 @@
         <v>3769</v>
       </c>
       <c r="D32" s="6">
-        <v>112000</v>
+        <v>145710</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -12633,7 +12747,7 @@
         <v>4245</v>
       </c>
       <c r="D33" s="6">
-        <v>128000</v>
+        <v>165320</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -12647,7 +12761,7 @@
         <v>4725</v>
       </c>
       <c r="D34" s="6">
-        <v>144000</v>
+        <v>226290</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -12661,7 +12775,7 @@
         <v>5207</v>
       </c>
       <c r="D35" s="6">
-        <v>160000</v>
+        <v>254270</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -12675,7 +12789,7 @@
         <v>5689</v>
       </c>
       <c r="D36" s="6">
-        <v>176000</v>
+        <v>286410</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -12689,7 +12803,7 @@
         <v>6170</v>
       </c>
       <c r="D37" s="6">
-        <v>200000</v>
+        <v>318780</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -12703,7 +12817,7 @@
         <v>6649</v>
       </c>
       <c r="D38" s="6">
-        <v>224000</v>
+        <v>428690</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -12717,7 +12831,7 @@
         <v>7125</v>
       </c>
       <c r="D39" s="6">
-        <v>248000</v>
+        <v>474230</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -12731,7 +12845,7 @@
         <v>7597</v>
       </c>
       <c r="D40" s="6">
-        <v>272000</v>
+        <v>525750</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -12744,8 +12858,8 @@
       <c r="C41" s="1">
         <v>8064</v>
       </c>
-      <c r="D41" s="6">
-        <v>360000</v>
+      <c r="D41" s="1">
+        <v>578300</v>
       </c>
     </row>
   </sheetData>
@@ -12764,8 +12878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12810,7 +12924,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -12830,7 +12944,7 @@
         <v>108000</v>
       </c>
       <c r="F3" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -12850,7 +12964,7 @@
         <v>228000</v>
       </c>
       <c r="F4" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -12870,7 +12984,7 @@
         <v>420000</v>
       </c>
       <c r="F5" s="3">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -12890,7 +13004,7 @@
         <v>684000</v>
       </c>
       <c r="F6" s="3">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
@@ -12910,7 +13024,7 @@
         <v>1020000</v>
       </c>
       <c r="F7" s="3">
-        <v>180</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -12930,7 +13044,7 @@
         <v>1428000</v>
       </c>
       <c r="F8" s="3">
-        <v>210</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -12950,7 +13064,7 @@
         <v>1908000</v>
       </c>
       <c r="F9" s="3">
-        <v>240</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -12970,7 +13084,7 @@
         <v>2460000</v>
       </c>
       <c r="F10" s="3">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -12990,7 +13104,7 @@
         <v>3084000</v>
       </c>
       <c r="F11" s="3">
-        <v>300</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -13010,7 +13124,7 @@
         <v>3780000</v>
       </c>
       <c r="F12" s="3">
-        <v>450</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
@@ -13030,7 +13144,7 @@
         <v>4548000</v>
       </c>
       <c r="F13" s="3">
-        <v>600</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -13050,7 +13164,7 @@
         <v>5388000</v>
       </c>
       <c r="F14" s="3">
-        <v>900</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -13070,7 +13184,7 @@
         <v>6300000</v>
       </c>
       <c r="F15" s="3">
-        <v>1200</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -13090,7 +13204,7 @@
         <v>7284000</v>
       </c>
       <c r="F16" s="3">
-        <v>1800</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -13110,7 +13224,7 @@
         <v>8340000</v>
       </c>
       <c r="F17" s="3">
-        <v>2400</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
@@ -13130,7 +13244,7 @@
         <v>9468000</v>
       </c>
       <c r="F18" s="3">
-        <v>3000</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
@@ -13150,7 +13264,7 @@
         <v>10668000</v>
       </c>
       <c r="F19" s="3">
-        <v>3600</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1">
@@ -13170,7 +13284,7 @@
         <v>11940000</v>
       </c>
       <c r="F20" s="3">
-        <v>4200</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1">
@@ -13190,7 +13304,7 @@
         <v>13284000</v>
       </c>
       <c r="F21" s="3">
-        <v>4800</v>
+        <v>12510</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
@@ -13210,7 +13324,7 @@
         <v>14700000</v>
       </c>
       <c r="F22" s="3">
-        <v>5400</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
@@ -13230,7 +13344,7 @@
         <v>16188000</v>
       </c>
       <c r="F23" s="3">
-        <v>8100</v>
+        <v>19490</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
@@ -13250,7 +13364,7 @@
         <v>17748000</v>
       </c>
       <c r="F24" s="3">
-        <v>10800</v>
+        <v>22490</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
@@ -13270,7 +13384,7 @@
         <v>19380000</v>
       </c>
       <c r="F25" s="3">
-        <v>13500</v>
+        <v>25310</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
@@ -13290,7 +13404,7 @@
         <v>21084000</v>
       </c>
       <c r="F26" s="3">
-        <v>18000</v>
+        <v>34580</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1">
@@ -13310,7 +13424,7 @@
         <v>22860000</v>
       </c>
       <c r="F27" s="3">
-        <v>27000</v>
+        <v>38600</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20" customHeight="1">
@@ -13330,7 +13444,7 @@
         <v>24708000</v>
       </c>
       <c r="F28" s="3">
-        <v>36000</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1">
@@ -13350,7 +13464,7 @@
         <v>26628000</v>
       </c>
       <c r="F29" s="3">
-        <v>48000</v>
+        <v>47990</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1">
@@ -13370,7 +13484,7 @@
         <v>28620000</v>
       </c>
       <c r="F30" s="3">
-        <v>60000</v>
+        <v>68300</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1">
@@ -13390,7 +13504,7 @@
         <v>30684000</v>
       </c>
       <c r="F31" s="3">
-        <v>72000</v>
+        <v>78840</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20" customHeight="1">
@@ -13410,7 +13524,7 @@
         <v>32820000</v>
       </c>
       <c r="F32" s="3">
-        <v>84000</v>
+        <v>91060</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20" customHeight="1">
@@ -13430,7 +13544,7 @@
         <v>35028000</v>
       </c>
       <c r="F33" s="3">
-        <v>96000</v>
+        <v>103320</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1">
@@ -13450,7 +13564,7 @@
         <v>37308000</v>
       </c>
       <c r="F34" s="3">
-        <v>108000</v>
+        <v>141420</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1">
@@ -13470,7 +13584,7 @@
         <v>39660000</v>
       </c>
       <c r="F35" s="3">
-        <v>120000</v>
+        <v>158910</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1">
@@ -13490,7 +13604,7 @@
         <v>42084000</v>
       </c>
       <c r="F36" s="3">
-        <v>132000</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20" customHeight="1">
@@ -13510,7 +13624,7 @@
         <v>45000000</v>
       </c>
       <c r="F37" s="3">
-        <v>150000</v>
+        <v>199230</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20" customHeight="1">
@@ -13530,7 +13644,7 @@
         <v>48000000</v>
       </c>
       <c r="F38" s="3">
-        <v>168000</v>
+        <v>267930</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1">
@@ -13550,7 +13664,7 @@
         <v>60000000</v>
       </c>
       <c r="F39" s="3">
-        <v>186000</v>
+        <v>296390</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20" customHeight="1">
@@ -13569,8 +13683,8 @@
       <c r="E40" s="3">
         <v>72000000</v>
       </c>
-      <c r="F40" s="3">
-        <v>204000</v>
+      <c r="F40" s="1">
+        <v>328590</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20" customHeight="1">
@@ -13590,7 +13704,7 @@
         <v>90000000</v>
       </c>
       <c r="F41" s="1">
-        <v>270000</v>
+        <v>361430</v>
       </c>
     </row>
   </sheetData>
@@ -13609,8 +13723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G41"/>
+    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13669,7 +13783,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6">
         <v>12</v>
@@ -13692,7 +13806,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6">
         <v>13</v>
@@ -13715,7 +13829,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6">
         <v>14</v>
@@ -13738,7 +13852,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6">
         <v>15</v>
@@ -13761,7 +13875,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6">
         <v>16</v>
@@ -13784,7 +13898,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C8" s="6">
         <v>17</v>
@@ -13807,7 +13921,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C9" s="6">
         <v>18</v>
@@ -13830,7 +13944,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="C10" s="6">
         <v>19</v>
@@ -13853,7 +13967,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C11" s="6">
         <v>20</v>
@@ -13876,7 +13990,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="C12" s="6">
         <v>21</v>
@@ -13899,7 +14013,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>500</v>
+        <v>690</v>
       </c>
       <c r="C13" s="6">
         <v>22</v>
@@ -13922,7 +14036,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="C14" s="6">
         <v>23</v>
@@ -13945,7 +14059,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>1000</v>
+        <v>1810</v>
       </c>
       <c r="C15" s="6">
         <v>24</v>
@@ -13968,7 +14082,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>1500</v>
+        <v>2820</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
@@ -13991,7 +14105,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="C17" s="6">
         <v>26</v>
@@ -14014,7 +14128,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>2500</v>
+        <v>5690</v>
       </c>
       <c r="C18" s="6">
         <v>27</v>
@@ -14037,7 +14151,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="C19" s="6">
         <v>28</v>
@@ -14060,7 +14174,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>3500</v>
+        <v>8550</v>
       </c>
       <c r="C20" s="6">
         <v>29</v>
@@ -14083,7 +14197,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>4000</v>
+        <v>10030</v>
       </c>
       <c r="C21" s="6">
         <v>30</v>
@@ -14106,7 +14220,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>4500</v>
+        <v>13620</v>
       </c>
       <c r="C22" s="6">
         <v>31</v>
@@ -14129,7 +14243,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>6750</v>
+        <v>15610</v>
       </c>
       <c r="C23" s="6">
         <v>32</v>
@@ -14152,7 +14266,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>9000</v>
+        <v>18010</v>
       </c>
       <c r="C24" s="6">
         <v>33</v>
@@ -14175,7 +14289,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>11250</v>
+        <v>20270</v>
       </c>
       <c r="C25" s="6">
         <v>34</v>
@@ -14198,7 +14312,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>15000</v>
+        <v>27680</v>
       </c>
       <c r="C26" s="6">
         <v>35</v>
@@ -14221,7 +14335,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>22500</v>
+        <v>30900</v>
       </c>
       <c r="C27" s="6">
         <v>36</v>
@@ -14244,7 +14358,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>30000</v>
+        <v>34760</v>
       </c>
       <c r="C28" s="6">
         <v>37</v>
@@ -14267,7 +14381,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>40000</v>
+        <v>38410</v>
       </c>
       <c r="C29" s="6">
         <v>38</v>
@@ -14290,7 +14404,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>50000</v>
+        <v>54660</v>
       </c>
       <c r="C30" s="6">
         <v>39</v>
@@ -14313,7 +14427,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>60000</v>
+        <v>63090</v>
       </c>
       <c r="C31" s="6">
         <v>40</v>
@@ -14336,7 +14450,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>70000</v>
+        <v>72870</v>
       </c>
       <c r="C32" s="6">
         <v>41</v>
@@ -14359,7 +14473,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>80000</v>
+        <v>82670</v>
       </c>
       <c r="C33" s="6">
         <v>42</v>
@@ -14382,7 +14496,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>90000</v>
+        <v>113160</v>
       </c>
       <c r="C34" s="6">
         <v>43</v>
@@ -14405,7 +14519,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>100000</v>
+        <v>127150</v>
       </c>
       <c r="C35" s="6">
         <v>44</v>
@@ -14428,7 +14542,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <v>110000</v>
+        <v>143220</v>
       </c>
       <c r="C36" s="6">
         <v>45</v>
@@ -14451,7 +14565,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>125000</v>
+        <v>159400</v>
       </c>
       <c r="C37" s="6">
         <v>46</v>
@@ -14474,7 +14588,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>140000</v>
+        <v>214360</v>
       </c>
       <c r="C38" s="6">
         <v>47</v>
@@ -14497,7 +14611,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>155000</v>
+        <v>237130</v>
       </c>
       <c r="C39" s="6">
         <v>48</v>
@@ -14520,7 +14634,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>170000</v>
+        <v>262890</v>
       </c>
       <c r="C40" s="6">
         <v>49</v>
@@ -14542,8 +14656,8 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>225000</v>
+      <c r="B41" s="1">
+        <v>289160</v>
       </c>
       <c r="C41" s="6">
         <v>50</v>
@@ -14578,7 +14692,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14611,7 +14725,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -14625,7 +14739,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -14639,7 +14753,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="3">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -14653,7 +14767,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="3">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -14667,7 +14781,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3">
-        <v>187</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -14681,7 +14795,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -14695,7 +14809,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="3">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -14709,7 +14823,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -14723,7 +14837,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="3">
-        <v>337</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -14737,7 +14851,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="3">
-        <v>375</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -14751,7 +14865,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="3">
-        <v>562</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -14765,7 +14879,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="3">
-        <v>750</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -14779,7 +14893,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="3">
-        <v>1125</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -14793,7 +14907,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="3">
-        <v>1500</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -14807,7 +14921,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="3">
-        <v>2250</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -14821,7 +14935,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="3">
-        <v>3000</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -14835,7 +14949,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="3">
-        <v>3750</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -14849,7 +14963,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="3">
-        <v>4500</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -14863,7 +14977,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="3">
-        <v>5250</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -14877,7 +14991,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="3">
-        <v>6000</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -14891,7 +15005,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="3">
-        <v>6750</v>
+        <v>22130</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -14905,7 +15019,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="3">
-        <v>10125</v>
+        <v>25360</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -14919,7 +15033,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="3">
-        <v>13500</v>
+        <v>29270</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -14933,7 +15047,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="3">
-        <v>16875</v>
+        <v>32940</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -14947,7 +15061,7 @@
         <v>43</v>
       </c>
       <c r="D26" s="3">
-        <v>22500</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -14961,7 +15075,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="3">
-        <v>33750</v>
+        <v>50210</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -14975,7 +15089,7 @@
         <v>43</v>
       </c>
       <c r="D28" s="3">
-        <v>45000</v>
+        <v>56480</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -14989,7 +15103,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="3">
-        <v>60000</v>
+        <v>62410</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -15003,7 +15117,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="3">
-        <v>75000</v>
+        <v>88820</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -15017,7 +15131,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="3">
-        <v>90000</v>
+        <v>102520</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -15031,7 +15145,7 @@
         <v>43</v>
       </c>
       <c r="D32" s="3">
-        <v>105000</v>
+        <v>118410</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -15045,7 +15159,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="3">
-        <v>120000</v>
+        <v>134340</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -15059,7 +15173,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="3">
-        <v>135000</v>
+        <v>183880</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -15073,7 +15187,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="3">
-        <v>150000</v>
+        <v>206610</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -15087,7 +15201,7 @@
         <v>43</v>
       </c>
       <c r="D36" s="3">
-        <v>165000</v>
+        <v>232730</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -15101,7 +15215,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="3">
-        <v>187500</v>
+        <v>259030</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -15115,7 +15229,7 @@
         <v>43</v>
       </c>
       <c r="D38" s="3">
-        <v>210000</v>
+        <v>348330</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -15129,7 +15243,7 @@
         <v>43</v>
       </c>
       <c r="D39" s="3">
-        <v>232500</v>
+        <v>385330</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -15142,8 +15256,8 @@
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="3">
-        <v>255000</v>
+      <c r="D40" s="1">
+        <v>427190</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -15157,7 +15271,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="1">
-        <v>337500</v>
+        <v>469890</v>
       </c>
     </row>
   </sheetData>
@@ -15176,8 +15290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15204,7 +15318,7 @@
         <v>400</v>
       </c>
       <c r="C2" s="3">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -15215,7 +15329,7 @@
         <v>800</v>
       </c>
       <c r="C3" s="3">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -15226,7 +15340,7 @@
         <v>1200</v>
       </c>
       <c r="C4" s="3">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -15237,7 +15351,7 @@
         <v>1600</v>
       </c>
       <c r="C5" s="3">
-        <v>144</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -15248,7 +15362,7 @@
         <v>2000</v>
       </c>
       <c r="C6" s="3">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -15259,7 +15373,7 @@
         <v>2400</v>
       </c>
       <c r="C7" s="3">
-        <v>216</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -15270,7 +15384,7 @@
         <v>2800</v>
       </c>
       <c r="C8" s="3">
-        <v>252</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -15281,7 +15395,7 @@
         <v>3200</v>
       </c>
       <c r="C9" s="3">
-        <v>288</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -15292,7 +15406,7 @@
         <v>3600</v>
       </c>
       <c r="C10" s="3">
-        <v>324</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -15303,7 +15417,7 @@
         <v>4000</v>
       </c>
       <c r="C11" s="3">
-        <v>360</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -15314,7 +15428,7 @@
         <v>8000</v>
       </c>
       <c r="C12" s="3">
-        <v>540</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -15325,7 +15439,7 @@
         <v>9600</v>
       </c>
       <c r="C13" s="3">
-        <v>720</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -15336,7 +15450,7 @@
         <v>11200</v>
       </c>
       <c r="C14" s="3">
-        <v>1080</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -15347,7 +15461,7 @@
         <v>12800</v>
       </c>
       <c r="C15" s="3">
-        <v>1440</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -15358,7 +15472,7 @@
         <v>14400</v>
       </c>
       <c r="C16" s="3">
-        <v>2160</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -15369,7 +15483,7 @@
         <v>16000</v>
       </c>
       <c r="C17" s="3">
-        <v>2880</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -15380,7 +15494,7 @@
         <v>17600</v>
       </c>
       <c r="C18" s="3">
-        <v>3600</v>
+        <v>8810</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -15391,7 +15505,7 @@
         <v>19200</v>
       </c>
       <c r="C19" s="3">
-        <v>4320</v>
+        <v>10840</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -15402,7 +15516,7 @@
         <v>20800</v>
       </c>
       <c r="C20" s="3">
-        <v>5040</v>
+        <v>13240</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -15413,7 +15527,7 @@
         <v>22400</v>
       </c>
       <c r="C21" s="3">
-        <v>5760</v>
+        <v>15530</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -15424,7 +15538,7 @@
         <v>44800</v>
       </c>
       <c r="C22" s="3">
-        <v>6480</v>
+        <v>21090</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -15435,7 +15549,7 @@
         <v>51200</v>
       </c>
       <c r="C23" s="3">
-        <v>9720</v>
+        <v>24180</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -15446,7 +15560,7 @@
         <v>57600</v>
       </c>
       <c r="C24" s="3">
-        <v>12960</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -15457,7 +15571,7 @@
         <v>64000</v>
       </c>
       <c r="C25" s="3">
-        <v>16200</v>
+        <v>31400</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -15468,7 +15582,7 @@
         <v>70400</v>
       </c>
       <c r="C26" s="3">
-        <v>21600</v>
+        <v>42890</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -15479,7 +15593,7 @@
         <v>76800</v>
       </c>
       <c r="C27" s="3">
-        <v>32400</v>
+        <v>47880</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -15490,7 +15604,7 @@
         <v>83200</v>
       </c>
       <c r="C28" s="3">
-        <v>43200</v>
+        <v>53860</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -15501,7 +15615,7 @@
         <v>89600</v>
       </c>
       <c r="C29" s="3">
-        <v>57600</v>
+        <v>59520</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -15512,7 +15626,7 @@
         <v>96000</v>
       </c>
       <c r="C30" s="3">
-        <v>72000</v>
+        <v>84700</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -15523,7 +15637,7 @@
         <v>102400</v>
       </c>
       <c r="C31" s="3">
-        <v>86400</v>
+        <v>97780</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -15534,7 +15648,7 @@
         <v>204800</v>
       </c>
       <c r="C32" s="3">
-        <v>100800</v>
+        <v>112930</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -15545,7 +15659,7 @@
         <v>230400</v>
       </c>
       <c r="C33" s="3">
-        <v>115200</v>
+        <v>128130</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -15556,7 +15670,7 @@
         <v>256000</v>
       </c>
       <c r="C34" s="3">
-        <v>129600</v>
+        <v>175380</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -15567,7 +15681,7 @@
         <v>281600</v>
       </c>
       <c r="C35" s="3">
-        <v>144000</v>
+        <v>197060</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -15578,7 +15692,7 @@
         <v>307200</v>
       </c>
       <c r="C36" s="3">
-        <v>158400</v>
+        <v>221980</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -15589,7 +15703,7 @@
         <v>332800</v>
       </c>
       <c r="C37" s="3">
-        <v>180000</v>
+        <v>247060</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -15600,7 +15714,7 @@
         <v>358400</v>
       </c>
       <c r="C38" s="3">
-        <v>201600</v>
+        <v>332240</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -15611,7 +15725,7 @@
         <v>384000</v>
       </c>
       <c r="C39" s="3">
-        <v>223200</v>
+        <v>367530</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -15621,8 +15735,8 @@
       <c r="B40" s="1">
         <v>409600</v>
       </c>
-      <c r="C40" s="3">
-        <v>244800</v>
+      <c r="C40" s="1">
+        <v>407460</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -15633,7 +15747,7 @@
         <v>450000</v>
       </c>
       <c r="C41" s="1">
-        <v>324000</v>
+        <v>448190</v>
       </c>
     </row>
   </sheetData>
@@ -15652,8 +15766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15680,7 +15794,7 @@
         <v>0.02</v>
       </c>
       <c r="C2" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -15691,7 +15805,7 @@
         <v>0.04</v>
       </c>
       <c r="C3" s="3">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -15702,7 +15816,7 @@
         <v>0.06</v>
       </c>
       <c r="C4" s="3">
-        <v>127</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -15713,7 +15827,7 @@
         <v>0.08</v>
       </c>
       <c r="C5" s="3">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -15724,7 +15838,7 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="3">
-        <v>212</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -15735,7 +15849,7 @@
         <v>0.12</v>
       </c>
       <c r="C7" s="3">
-        <v>255</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -15746,7 +15860,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="3">
-        <v>297</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -15757,7 +15871,7 @@
         <v>0.16</v>
       </c>
       <c r="C9" s="3">
-        <v>340</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -15768,7 +15882,7 @@
         <v>0.18</v>
       </c>
       <c r="C10" s="3">
-        <v>382</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -15779,7 +15893,7 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="3">
-        <v>425</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -15790,7 +15904,7 @@
         <v>0.22</v>
       </c>
       <c r="C12" s="3">
-        <v>637</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -15801,7 +15915,7 @@
         <v>0.24</v>
       </c>
       <c r="C13" s="3">
-        <v>850</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -15812,7 +15926,7 @@
         <v>0.26</v>
       </c>
       <c r="C14" s="3">
-        <v>1275</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -15823,7 +15937,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C15" s="3">
-        <v>1700</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -15834,7 +15948,7 @@
         <v>0.3</v>
       </c>
       <c r="C16" s="3">
-        <v>2550</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -15845,7 +15959,7 @@
         <v>0.32</v>
       </c>
       <c r="C17" s="3">
-        <v>3400</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -15856,7 +15970,7 @@
         <v>0.34</v>
       </c>
       <c r="C18" s="3">
-        <v>4250</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -15867,7 +15981,7 @@
         <v>0.36</v>
       </c>
       <c r="C19" s="3">
-        <v>5100</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -15878,7 +15992,7 @@
         <v>0.38</v>
       </c>
       <c r="C20" s="3">
-        <v>5950</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -15889,7 +16003,7 @@
         <v>0.4</v>
       </c>
       <c r="C21" s="3">
-        <v>6800</v>
+        <v>18050</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -15900,7 +16014,7 @@
         <v>0.42</v>
       </c>
       <c r="C22" s="3">
-        <v>7650</v>
+        <v>24510</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -15911,7 +16025,7 @@
         <v>0.44</v>
       </c>
       <c r="C23" s="3">
-        <v>11475</v>
+        <v>28090</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -15922,7 +16036,7 @@
         <v>0.46</v>
       </c>
       <c r="C24" s="3">
-        <v>15300</v>
+        <v>32420</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -15933,7 +16047,7 @@
         <v>0.48</v>
       </c>
       <c r="C25" s="3">
-        <v>19125</v>
+        <v>36480</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -15944,7 +16058,7 @@
         <v>0.5</v>
       </c>
       <c r="C26" s="3">
-        <v>25500</v>
+        <v>49820</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -15955,7 +16069,7 @@
         <v>0.52</v>
       </c>
       <c r="C27" s="3">
-        <v>38250</v>
+        <v>55610</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -15966,7 +16080,7 @@
         <v>0.54</v>
       </c>
       <c r="C28" s="3">
-        <v>51000</v>
+        <v>62560</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -15977,7 +16091,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C29" s="3">
-        <v>68000</v>
+        <v>69130</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -15988,7 +16102,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C30" s="3">
-        <v>85000</v>
+        <v>98380</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -15999,7 +16113,7 @@
         <v>0.6</v>
       </c>
       <c r="C31" s="3">
-        <v>102000</v>
+        <v>113560</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -16010,7 +16124,7 @@
         <v>0.62</v>
       </c>
       <c r="C32" s="3">
-        <v>119000</v>
+        <v>131160</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -16021,7 +16135,7 @@
         <v>0.64</v>
       </c>
       <c r="C33" s="3">
-        <v>136000</v>
+        <v>148810</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -16032,7 +16146,7 @@
         <v>0.66</v>
       </c>
       <c r="C34" s="3">
-        <v>153000</v>
+        <v>203670</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -16043,7 +16157,7 @@
         <v>0.68</v>
       </c>
       <c r="C35" s="3">
-        <v>170000</v>
+        <v>228860</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -16054,7 +16168,7 @@
         <v>0.7</v>
       </c>
       <c r="C36" s="3">
-        <v>187000</v>
+        <v>257790</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -16065,7 +16179,7 @@
         <v>0.72</v>
       </c>
       <c r="C37" s="3">
-        <v>212500</v>
+        <v>286920</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -16076,7 +16190,7 @@
         <v>0.74</v>
       </c>
       <c r="C38" s="3">
-        <v>238000</v>
+        <v>385840</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -16087,7 +16201,7 @@
         <v>0.76</v>
       </c>
       <c r="C39" s="3">
-        <v>263500</v>
+        <v>426820</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -16097,8 +16211,8 @@
       <c r="B40" s="1">
         <v>0.78</v>
       </c>
-      <c r="C40" s="3">
-        <v>289000</v>
+      <c r="C40" s="1">
+        <v>473190</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -16109,7 +16223,7 @@
         <v>0.8</v>
       </c>
       <c r="C41" s="1">
-        <v>382500</v>
+        <v>520490</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" firstSheet="2" activeTab="21"/>
+    <workbookView xWindow="-24640" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -543,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="648">
+  <cellStyleXfs count="650">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +558,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1221,7 +1223,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="648">
+  <cellStyles count="650">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1548,6 +1550,7 @@
     <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1867,6 +1870,7 @@
     <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -9897,8 +9901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9924,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6">
         <v>40</v>
@@ -9935,7 +9939,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6">
         <v>50</v>
@@ -9946,7 +9950,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6">
         <v>60</v>
@@ -9957,7 +9961,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6">
         <v>80</v>
@@ -9968,7 +9972,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6">
         <v>100</v>
@@ -9979,7 +9983,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6">
         <v>120</v>
@@ -9990,7 +9994,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C8" s="6">
         <v>180</v>
@@ -10001,7 +10005,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C9" s="6">
         <v>350</v>
@@ -10012,7 +10016,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C10" s="6">
         <v>760</v>
@@ -10023,7 +10027,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C11" s="6">
         <v>1150</v>
@@ -10034,7 +10038,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C12" s="6">
         <v>1590</v>
@@ -10045,7 +10049,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C13" s="6">
         <v>2010</v>
@@ -10056,7 +10060,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="6">
         <v>2660</v>
@@ -10067,7 +10071,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C15" s="6">
         <v>5390</v>
@@ -10078,7 +10082,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C16" s="6">
         <v>8420</v>
@@ -10089,7 +10093,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C17" s="6">
         <v>11650</v>
@@ -10100,7 +10104,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C18" s="6">
         <v>17030</v>
@@ -10111,7 +10115,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C19" s="6">
         <v>20960</v>
@@ -10122,7 +10126,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="C20" s="6">
         <v>25610</v>
@@ -10133,7 +10137,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="C21" s="6">
         <v>30040</v>
@@ -10144,7 +10148,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>590</v>
+        <v>428</v>
       </c>
       <c r="C22" s="6">
         <v>40800</v>
@@ -10155,7 +10159,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>680</v>
+        <v>492</v>
       </c>
       <c r="C23" s="6">
         <v>46780</v>
@@ -10166,7 +10170,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>760</v>
+        <v>556</v>
       </c>
       <c r="C24" s="6">
         <v>53980</v>
@@ -10177,7 +10181,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>850</v>
+        <v>620</v>
       </c>
       <c r="C25" s="6">
         <v>60760</v>
@@ -10188,7 +10192,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>940</v>
+        <v>684</v>
       </c>
       <c r="C26" s="6">
         <v>82990</v>
@@ -10199,7 +10203,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1020</v>
+        <v>780</v>
       </c>
       <c r="C27" s="6">
         <v>92640</v>
@@ -10210,7 +10214,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1110</v>
+        <v>886</v>
       </c>
       <c r="C28" s="6">
         <v>104220</v>
@@ -10221,7 +10225,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1200</v>
+        <v>1002</v>
       </c>
       <c r="C29" s="6">
         <v>115170</v>
@@ -10232,7 +10236,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1280</v>
+        <v>1128</v>
       </c>
       <c r="C30" s="6">
         <v>163920</v>
@@ -10243,7 +10247,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1370</v>
+        <v>1264</v>
       </c>
       <c r="C31" s="6">
         <v>189230</v>
@@ -10254,7 +10258,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>2240</v>
+        <v>1410</v>
       </c>
       <c r="C32" s="6">
         <v>218560</v>
@@ -10265,7 +10269,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2410</v>
+        <v>1566</v>
       </c>
       <c r="C33" s="6">
         <v>247970</v>
@@ -10276,7 +10280,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>2580</v>
+        <v>1732</v>
       </c>
       <c r="C34" s="6">
         <v>339420</v>
@@ -10287,7 +10291,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>2750</v>
+        <v>1908</v>
       </c>
       <c r="C35" s="6">
         <v>381390</v>
@@ -10298,7 +10302,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>2930</v>
+        <v>2094</v>
       </c>
       <c r="C36" s="6">
         <v>429610</v>
@@ -10309,7 +10313,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>3100</v>
+        <v>2290</v>
       </c>
       <c r="C37" s="6">
         <v>478150</v>
@@ -10320,7 +10324,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>3270</v>
+        <v>2496</v>
       </c>
       <c r="C38" s="6">
         <v>643020</v>
@@ -10331,7 +10335,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>3450</v>
+        <v>2712</v>
       </c>
       <c r="C39" s="6">
         <v>711330</v>
@@ -10342,7 +10346,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>3620</v>
+        <v>2940</v>
       </c>
       <c r="C40" s="6">
         <v>788610</v>
@@ -10353,7 +10357,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>3800</v>
+        <v>3220</v>
       </c>
       <c r="C41" s="1">
         <v>867440</v>
@@ -11327,7 +11331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24640" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="1440" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -543,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="650">
+  <cellStyleXfs count="652">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +558,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1223,7 +1225,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="650">
+  <cellStyles count="652">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1551,6 +1553,7 @@
     <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1871,6 +1874,7 @@
     <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -9901,7 +9905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B43"/>
     </sheetView>
   </sheetViews>
@@ -13727,8 +13731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B46"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13779,7 +13783,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="5">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -13802,7 +13806,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="6">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -13825,7 +13829,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="6">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -13848,7 +13852,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="6">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -13871,7 +13875,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -13894,7 +13898,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="6">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -13917,7 +13921,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="6">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -13940,7 +13944,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="6">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -13963,7 +13967,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="6">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -13986,7 +13990,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -14009,7 +14013,7 @@
         <v>21</v>
       </c>
       <c r="G12" s="6">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -14032,7 +14036,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="6">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -14055,7 +14059,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="6">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -14078,7 +14082,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="6">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -14101,7 +14105,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
@@ -14124,7 +14128,7 @@
         <v>26</v>
       </c>
       <c r="G17" s="6">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
@@ -14147,7 +14151,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="6">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
@@ -14170,7 +14174,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="6">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
@@ -14193,7 +14197,7 @@
         <v>29</v>
       </c>
       <c r="G20" s="6">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
@@ -14216,7 +14220,7 @@
         <v>30</v>
       </c>
       <c r="G21" s="6">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
@@ -14239,7 +14243,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="6">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
@@ -14262,7 +14266,7 @@
         <v>32</v>
       </c>
       <c r="G23" s="6">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
@@ -14285,7 +14289,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="6">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
@@ -14308,7 +14312,7 @@
         <v>34</v>
       </c>
       <c r="G25" s="6">
-        <v>68</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
@@ -14331,7 +14335,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="6">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
@@ -14354,7 +14358,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="6">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
@@ -14377,7 +14381,7 @@
         <v>37</v>
       </c>
       <c r="G28" s="6">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -14400,7 +14404,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="6">
-        <v>76</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -14423,7 +14427,7 @@
         <v>39</v>
       </c>
       <c r="G30" s="6">
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
@@ -14446,7 +14450,7 @@
         <v>40</v>
       </c>
       <c r="G31" s="6">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
@@ -14469,7 +14473,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="6">
-        <v>82</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
@@ -14492,7 +14496,7 @@
         <v>42</v>
       </c>
       <c r="G33" s="6">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
@@ -14515,7 +14519,7 @@
         <v>43</v>
       </c>
       <c r="G34" s="6">
-        <v>86</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
@@ -14538,7 +14542,7 @@
         <v>44</v>
       </c>
       <c r="G35" s="6">
-        <v>88</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
@@ -14561,7 +14565,7 @@
         <v>45</v>
       </c>
       <c r="G36" s="6">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
@@ -14584,7 +14588,7 @@
         <v>46</v>
       </c>
       <c r="G37" s="6">
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
@@ -14607,7 +14611,7 @@
         <v>47</v>
       </c>
       <c r="G38" s="6">
-        <v>94</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
@@ -14630,7 +14634,7 @@
         <v>48</v>
       </c>
       <c r="G39" s="6">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
@@ -14653,7 +14657,7 @@
         <v>49</v>
       </c>
       <c r="G40" s="6">
-        <v>98</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
@@ -14676,7 +14680,7 @@
         <v>50</v>
       </c>
       <c r="G41" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="5"/>
+    <workbookView xWindow="-25040" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -543,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="652">
+  <cellStyleXfs count="656">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +558,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1225,7 +1229,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="652">
+  <cellStyles count="656">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1554,6 +1558,8 @@
     <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1875,6 +1881,8 @@
     <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -12886,8 +12894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12920,16 +12928,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="C2" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="D2" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="E2" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="F2" s="3">
         <v>10</v>
@@ -12940,16 +12948,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>108000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>108000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>108000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>108000</v>
+        <v>54000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>54000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>54000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>54000</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -12960,16 +12968,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>228000</v>
-      </c>
-      <c r="C4" s="3">
-        <v>228000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>228000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>228000</v>
+        <v>114000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>114000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>114000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>114000</v>
       </c>
       <c r="F4" s="3">
         <v>30</v>
@@ -12980,16 +12988,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>420000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>420000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>420000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>420000</v>
+        <v>210000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>210000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>210000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>210000</v>
       </c>
       <c r="F5" s="3">
         <v>35</v>
@@ -13000,16 +13008,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>684000</v>
-      </c>
-      <c r="C6" s="3">
-        <v>684000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>684000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>684000</v>
+        <v>342000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>342000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>342000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>342000</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -13020,16 +13028,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1020000</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1020000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1020000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1020000</v>
+        <v>510000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>510000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>510000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>510000</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -13040,16 +13048,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1428000</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1428000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1428000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1428000</v>
+        <v>714000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>714000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>714000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>714000</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -13060,16 +13068,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1908000</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1908000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1908000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1908000</v>
+        <v>954000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>954000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>954000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>954000</v>
       </c>
       <c r="F9" s="3">
         <v>150</v>
@@ -13080,16 +13088,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2460000</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2460000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2460000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2460000</v>
+        <v>1230000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1230000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1230000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1230000</v>
       </c>
       <c r="F10" s="3">
         <v>320</v>
@@ -13100,16 +13108,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3084000</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3084000</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3084000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3084000</v>
+        <v>1542000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1542000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1542000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1542000</v>
       </c>
       <c r="F11" s="3">
         <v>480</v>
@@ -13120,16 +13128,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3780000</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3780000</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3780000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3780000</v>
+        <v>1890000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1890000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1890000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1890000</v>
       </c>
       <c r="F12" s="3">
         <v>660</v>
@@ -13140,16 +13148,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4548000</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4548000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4548000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4548000</v>
+        <v>2274000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2274000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2274000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2274000</v>
       </c>
       <c r="F13" s="3">
         <v>840</v>
@@ -13160,16 +13168,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>5388000</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5388000</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5388000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5388000</v>
+        <v>2694000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2694000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2694000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2694000</v>
       </c>
       <c r="F14" s="3">
         <v>1110</v>
@@ -13180,16 +13188,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>6300000</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6300000</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6300000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6300000</v>
+        <v>3150000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3150000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3150000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3150000</v>
       </c>
       <c r="F15" s="3">
         <v>2240</v>
@@ -13200,16 +13208,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>7284000</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7284000</v>
-      </c>
-      <c r="D16" s="3">
-        <v>7284000</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7284000</v>
+        <v>3642000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3642000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3642000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3642000</v>
       </c>
       <c r="F16" s="3">
         <v>3510</v>
@@ -13220,16 +13228,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>8340000</v>
-      </c>
-      <c r="C17" s="3">
-        <v>8340000</v>
-      </c>
-      <c r="D17" s="3">
-        <v>8340000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8340000</v>
+        <v>4170000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4170000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4170000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4170000</v>
       </c>
       <c r="F17" s="3">
         <v>4850</v>
@@ -13240,16 +13248,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>9468000</v>
-      </c>
-      <c r="C18" s="3">
-        <v>9468000</v>
-      </c>
-      <c r="D18" s="3">
-        <v>9468000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>9468000</v>
+        <v>4734000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4734000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4734000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4734000</v>
       </c>
       <c r="F18" s="3">
         <v>7090</v>
@@ -13260,16 +13268,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>10668000</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10668000</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10668000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10668000</v>
+        <v>5334000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5334000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5334000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5334000</v>
       </c>
       <c r="F19" s="3">
         <v>8730</v>
@@ -13280,16 +13288,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>11940000</v>
-      </c>
-      <c r="C20" s="3">
-        <v>11940000</v>
-      </c>
-      <c r="D20" s="3">
-        <v>11940000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>11940000</v>
+        <v>5970000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5970000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5970000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5970000</v>
       </c>
       <c r="F20" s="3">
         <v>10670</v>
@@ -13300,16 +13308,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>13284000</v>
-      </c>
-      <c r="C21" s="3">
-        <v>13284000</v>
-      </c>
-      <c r="D21" s="3">
-        <v>13284000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>13284000</v>
+        <v>6642000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6642000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6642000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6642000</v>
       </c>
       <c r="F21" s="3">
         <v>12510</v>
@@ -13320,16 +13328,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>14700000</v>
-      </c>
-      <c r="C22" s="3">
-        <v>14700000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>14700000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>14700000</v>
+        <v>7350000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7350000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7350000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7350000</v>
       </c>
       <c r="F22" s="3">
         <v>17000</v>
@@ -13340,16 +13348,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>16188000</v>
-      </c>
-      <c r="C23" s="3">
-        <v>16188000</v>
-      </c>
-      <c r="D23" s="3">
-        <v>16188000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>16188000</v>
+        <v>8094000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8094000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8094000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8094000</v>
       </c>
       <c r="F23" s="3">
         <v>19490</v>
@@ -13360,16 +13368,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>17748000</v>
-      </c>
-      <c r="C24" s="3">
-        <v>17748000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>17748000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>17748000</v>
+        <v>8874000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8874000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8874000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8874000</v>
       </c>
       <c r="F24" s="3">
         <v>22490</v>
@@ -13380,16 +13388,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>19380000</v>
-      </c>
-      <c r="C25" s="3">
-        <v>19380000</v>
-      </c>
-      <c r="D25" s="3">
-        <v>19380000</v>
-      </c>
-      <c r="E25" s="3">
-        <v>19380000</v>
+        <v>9690000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9690000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9690000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9690000</v>
       </c>
       <c r="F25" s="3">
         <v>25310</v>
@@ -13400,16 +13408,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>21084000</v>
-      </c>
-      <c r="C26" s="3">
-        <v>21084000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>21084000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>21084000</v>
+        <v>10542000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10542000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10542000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10542000</v>
       </c>
       <c r="F26" s="3">
         <v>34580</v>
@@ -13420,16 +13428,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>22860000</v>
-      </c>
-      <c r="C27" s="3">
-        <v>22860000</v>
-      </c>
-      <c r="D27" s="3">
-        <v>22860000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>22860000</v>
+        <v>11430000</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11430000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>11430000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>11430000</v>
       </c>
       <c r="F27" s="3">
         <v>38600</v>
@@ -13440,16 +13448,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>24708000</v>
-      </c>
-      <c r="C28" s="3">
-        <v>24708000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>24708000</v>
-      </c>
-      <c r="E28" s="3">
-        <v>24708000</v>
+        <v>12354000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12354000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12354000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>12354000</v>
       </c>
       <c r="F28" s="3">
         <v>43430</v>
@@ -13460,16 +13468,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>26628000</v>
-      </c>
-      <c r="C29" s="3">
-        <v>26628000</v>
-      </c>
-      <c r="D29" s="3">
-        <v>26628000</v>
-      </c>
-      <c r="E29" s="3">
-        <v>26628000</v>
+        <v>13314000</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13314000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>13314000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>13314000</v>
       </c>
       <c r="F29" s="3">
         <v>47990</v>
@@ -13480,16 +13488,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>28620000</v>
-      </c>
-      <c r="C30" s="3">
-        <v>28620000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>28620000</v>
-      </c>
-      <c r="E30" s="3">
-        <v>28620000</v>
+        <v>14310000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>14310000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14310000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>14310000</v>
       </c>
       <c r="F30" s="3">
         <v>68300</v>
@@ -13500,16 +13508,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>30684000</v>
-      </c>
-      <c r="C31" s="3">
-        <v>30684000</v>
-      </c>
-      <c r="D31" s="3">
-        <v>30684000</v>
-      </c>
-      <c r="E31" s="3">
-        <v>30684000</v>
+        <v>15342000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>15342000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15342000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>15342000</v>
       </c>
       <c r="F31" s="3">
         <v>78840</v>
@@ -13520,16 +13528,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>32820000</v>
-      </c>
-      <c r="C32" s="3">
-        <v>32820000</v>
-      </c>
-      <c r="D32" s="3">
-        <v>32820000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>32820000</v>
+        <v>16410000</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16410000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>16410000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>16410000</v>
       </c>
       <c r="F32" s="3">
         <v>91060</v>
@@ -13540,16 +13548,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>35028000</v>
-      </c>
-      <c r="C33" s="3">
-        <v>35028000</v>
-      </c>
-      <c r="D33" s="3">
-        <v>35028000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>35028000</v>
+        <v>17514000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>17514000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>17514000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>17514000</v>
       </c>
       <c r="F33" s="3">
         <v>103320</v>
@@ -13560,16 +13568,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>37308000</v>
-      </c>
-      <c r="C34" s="3">
-        <v>37308000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>37308000</v>
-      </c>
-      <c r="E34" s="3">
-        <v>37308000</v>
+        <v>18654000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>18654000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>18654000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>18654000</v>
       </c>
       <c r="F34" s="3">
         <v>141420</v>
@@ -13580,16 +13588,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>39660000</v>
-      </c>
-      <c r="C35" s="3">
-        <v>39660000</v>
-      </c>
-      <c r="D35" s="3">
-        <v>39660000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>39660000</v>
+        <v>19830000</v>
+      </c>
+      <c r="C35" s="1">
+        <v>19830000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>19830000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>19830000</v>
       </c>
       <c r="F35" s="3">
         <v>158910</v>
@@ -13600,16 +13608,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>42084000</v>
-      </c>
-      <c r="C36" s="3">
-        <v>42084000</v>
-      </c>
-      <c r="D36" s="3">
-        <v>42084000</v>
-      </c>
-      <c r="E36" s="3">
-        <v>42084000</v>
+        <v>21042000</v>
+      </c>
+      <c r="C36" s="1">
+        <v>21042000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>21042000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>21042000</v>
       </c>
       <c r="F36" s="3">
         <v>179000</v>
@@ -13620,16 +13628,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="C37" s="3">
-        <v>45000000</v>
-      </c>
-      <c r="D37" s="3">
-        <v>45000000</v>
-      </c>
-      <c r="E37" s="3">
-        <v>45000000</v>
+        <v>22500000</v>
+      </c>
+      <c r="C37" s="1">
+        <v>22500000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>22500000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>22500000</v>
       </c>
       <c r="F37" s="3">
         <v>199230</v>
@@ -13640,16 +13648,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>48000000</v>
-      </c>
-      <c r="C38" s="3">
-        <v>48000000</v>
-      </c>
-      <c r="D38" s="3">
-        <v>48000000</v>
-      </c>
-      <c r="E38" s="3">
-        <v>48000000</v>
+        <v>24000000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>24000000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>24000000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>24000000</v>
       </c>
       <c r="F38" s="3">
         <v>267930</v>
@@ -13660,16 +13668,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>60000000</v>
-      </c>
-      <c r="C39" s="3">
-        <v>60000000</v>
-      </c>
-      <c r="D39" s="3">
-        <v>60000000</v>
-      </c>
-      <c r="E39" s="3">
-        <v>60000000</v>
+        <v>30000000</v>
+      </c>
+      <c r="C39" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>30000000</v>
       </c>
       <c r="F39" s="3">
         <v>296390</v>
@@ -13680,16 +13688,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>72000000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>72000000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>72000000</v>
-      </c>
-      <c r="E40" s="3">
-        <v>72000000</v>
+        <v>36000000</v>
+      </c>
+      <c r="C40" s="1">
+        <v>36000000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>36000000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>36000000</v>
       </c>
       <c r="F40" s="1">
         <v>328590</v>
@@ -13700,16 +13708,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>90000000</v>
-      </c>
-      <c r="C41" s="3">
-        <v>90000000</v>
-      </c>
-      <c r="D41" s="3">
-        <v>90000000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>90000000</v>
+        <v>45000000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45000000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45000000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45000000</v>
       </c>
       <c r="F41" s="1">
         <v>361430</v>
@@ -13731,7 +13739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -14705,7 +14713,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25040" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="3540" yWindow="1460" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -187,19 +187,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_maxMaterial</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_maxCart</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxSoldierMaterial</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxDragonMaterial</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -356,6 +344,22 @@
   </si>
   <si>
     <t>INT_productionType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_soldierMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buildingMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_technologyMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_dragonMaterials</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="656">
+  <cellStyleXfs count="658">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +562,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1229,7 +1235,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="656">
+  <cellStyles count="658">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1560,6 +1566,7 @@
     <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1883,6 +1890,7 @@
     <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2351,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -2931,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E42"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2942,24 +2950,27 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2972,11 +2983,14 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2989,11 +3003,14 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3006,11 +3023,14 @@
       <c r="D4" s="1">
         <v>40</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3023,11 +3043,14 @@
       <c r="D5" s="1">
         <v>60</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
+        <v>60</v>
+      </c>
+      <c r="F5" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3040,11 +3063,14 @@
       <c r="D6" s="1">
         <v>80</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3057,11 +3083,14 @@
       <c r="D7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3074,11 +3103,14 @@
       <c r="D8" s="1">
         <v>120</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
+        <v>120</v>
+      </c>
+      <c r="F8" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3091,11 +3123,14 @@
       <c r="D9" s="1">
         <v>140</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
+        <v>140</v>
+      </c>
+      <c r="F9" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3108,11 +3143,14 @@
       <c r="D10" s="1">
         <v>160</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
+        <v>160</v>
+      </c>
+      <c r="F10" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3125,11 +3163,14 @@
       <c r="D11" s="1">
         <v>180</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
+        <v>180</v>
+      </c>
+      <c r="F11" s="3">
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3142,11 +3183,14 @@
       <c r="D12" s="1">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>730</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3159,11 +3203,14 @@
       <c r="D13" s="1">
         <v>220</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
+        <v>220</v>
+      </c>
+      <c r="F13" s="3">
         <v>920</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3176,11 +3223,14 @@
       <c r="D14" s="1">
         <v>240</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
+        <v>240</v>
+      </c>
+      <c r="F14" s="3">
         <v>1220</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3193,11 +3243,14 @@
       <c r="D15" s="1">
         <v>260</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
+        <v>260</v>
+      </c>
+      <c r="F15" s="3">
         <v>2470</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3210,11 +3263,14 @@
       <c r="D16" s="1">
         <v>280</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
+        <v>280</v>
+      </c>
+      <c r="F16" s="3">
         <v>3860</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3227,11 +3283,14 @@
       <c r="D17" s="1">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>5340</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3244,11 +3303,14 @@
       <c r="D18" s="1">
         <v>320</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
+        <v>320</v>
+      </c>
+      <c r="F18" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3261,11 +3323,14 @@
       <c r="D19" s="1">
         <v>340</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
+        <v>340</v>
+      </c>
+      <c r="F19" s="3">
         <v>9610</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3278,11 +3343,14 @@
       <c r="D20" s="1">
         <v>360</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
+        <v>360</v>
+      </c>
+      <c r="F20" s="3">
         <v>11730</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3295,11 +3363,14 @@
       <c r="D21" s="1">
         <v>380</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
+        <v>380</v>
+      </c>
+      <c r="F21" s="3">
         <v>13770</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3312,11 +3383,14 @@
       <c r="D22" s="1">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:6" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3329,11 +3403,14 @@
       <c r="D23" s="1">
         <v>420</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
+        <v>420</v>
+      </c>
+      <c r="F23" s="3">
         <v>21440</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:6" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3346,11 +3423,14 @@
       <c r="D24" s="1">
         <v>440</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
+        <v>440</v>
+      </c>
+      <c r="F24" s="3">
         <v>24740</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:6" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3363,11 +3443,14 @@
       <c r="D25" s="1">
         <v>460</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
+        <v>460</v>
+      </c>
+      <c r="F25" s="3">
         <v>27850</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:6" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3380,11 +3463,14 @@
       <c r="D26" s="1">
         <v>480</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
+        <v>480</v>
+      </c>
+      <c r="F26" s="3">
         <v>38030</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:6" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3397,11 +3483,14 @@
       <c r="D27" s="1">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>42460</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:6" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3414,11 +3503,14 @@
       <c r="D28" s="1">
         <v>550</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
+        <v>550</v>
+      </c>
+      <c r="F28" s="3">
         <v>47770</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:6" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3431,11 +3523,14 @@
       <c r="D29" s="1">
         <v>600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
+        <v>600</v>
+      </c>
+      <c r="F29" s="3">
         <v>52780</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:6" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3448,11 +3543,14 @@
       <c r="D30" s="1">
         <v>700</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
+        <v>700</v>
+      </c>
+      <c r="F30" s="3">
         <v>75130</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:6" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3465,11 +3563,14 @@
       <c r="D31" s="1">
         <v>800</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
+        <v>800</v>
+      </c>
+      <c r="F31" s="3">
         <v>86730</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:6" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3482,11 +3583,14 @@
       <c r="D32" s="1">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>100170</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1">
+    <row r="33" spans="1:6" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3499,11 +3603,14 @@
       <c r="D33" s="1">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>113650</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1">
+    <row r="34" spans="1:6" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3516,11 +3623,14 @@
       <c r="D34" s="1">
         <v>1200</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F34" s="3">
         <v>155560</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1">
+    <row r="35" spans="1:6" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3533,11 +3643,14 @@
       <c r="D35" s="1">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>174800</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1">
+    <row r="36" spans="1:6" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3550,11 +3663,14 @@
       <c r="D36" s="1">
         <v>1600</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F36" s="3">
         <v>196900</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1">
+    <row r="37" spans="1:6" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3567,11 +3683,14 @@
       <c r="D37" s="1">
         <v>1800</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F37" s="3">
         <v>219150</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1">
+    <row r="38" spans="1:6" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3584,11 +3703,14 @@
       <c r="D38" s="1">
         <v>2000</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F38" s="3">
         <v>294720</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1">
+    <row r="39" spans="1:6" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3601,11 +3723,14 @@
       <c r="D39" s="1">
         <v>2200</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F39" s="3">
         <v>326020</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1">
+    <row r="40" spans="1:6" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3619,10 +3744,13 @@
         <v>2500</v>
       </c>
       <c r="E40" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F40" s="1">
         <v>361440</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1">
+    <row r="41" spans="1:6" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3636,6 +3764,9 @@
         <v>3000</v>
       </c>
       <c r="E41" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="1">
         <v>397570</v>
       </c>
     </row>
@@ -4142,16 +4273,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4744,40 +4875,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -6333,13 +6464,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7049,16 +7180,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7648,16 +7779,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8247,16 +8378,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8849,16 +8980,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -9926,10 +10057,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -12894,7 +13025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -13756,19 +13887,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -14726,7 +14857,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -14740,7 +14871,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3">
         <v>40</v>
@@ -14754,7 +14885,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
@@ -14768,7 +14899,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3">
         <v>60</v>
@@ -14782,7 +14913,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
         <v>70</v>
@@ -14796,7 +14927,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3">
         <v>80</v>
@@ -14810,7 +14941,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3">
         <v>90</v>
@@ -14824,7 +14955,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3">
         <v>130</v>
@@ -14838,7 +14969,7 @@
         <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3">
         <v>220</v>
@@ -14852,7 +14983,7 @@
         <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
         <v>440</v>
@@ -14866,7 +14997,7 @@
         <v>400</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>650</v>
@@ -14880,7 +15011,7 @@
         <v>450</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3">
         <v>890</v>
@@ -14894,7 +15025,7 @@
         <v>500</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3">
         <v>1120</v>
@@ -14908,7 +15039,7 @@
         <v>550</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3">
         <v>1470</v>
@@ -14922,7 +15053,7 @@
         <v>600</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3">
         <v>2940</v>
@@ -14936,7 +15067,7 @@
         <v>650</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3">
         <v>4580</v>
@@ -14950,7 +15081,7 @@
         <v>700</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3">
         <v>6340</v>
@@ -14964,7 +15095,7 @@
         <v>750</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3">
         <v>9250</v>
@@ -14978,7 +15109,7 @@
         <v>800</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3">
         <v>11380</v>
@@ -14992,7 +15123,7 @@
         <v>850</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3">
         <v>13900</v>
@@ -15006,7 +15137,7 @@
         <v>900</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3">
         <v>16300</v>
@@ -15020,7 +15151,7 @@
         <v>950</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3">
         <v>22130</v>
@@ -15034,7 +15165,7 @@
         <v>1000</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3">
         <v>25360</v>
@@ -15048,7 +15179,7 @@
         <v>1100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="3">
         <v>29270</v>
@@ -15062,7 +15193,7 @@
         <v>1200</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="3">
         <v>32940</v>
@@ -15076,7 +15207,7 @@
         <v>1300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" s="3">
         <v>44980</v>
@@ -15090,7 +15221,7 @@
         <v>1400</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3">
         <v>50210</v>
@@ -15104,7 +15235,7 @@
         <v>1500</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" s="3">
         <v>56480</v>
@@ -15118,7 +15249,7 @@
         <v>1600</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29" s="3">
         <v>62410</v>
@@ -15132,7 +15263,7 @@
         <v>1700</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D30" s="3">
         <v>88820</v>
@@ -15146,7 +15277,7 @@
         <v>1800</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3">
         <v>102520</v>
@@ -15160,7 +15291,7 @@
         <v>1900</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D32" s="3">
         <v>118410</v>
@@ -15174,7 +15305,7 @@
         <v>2000</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D33" s="3">
         <v>134340</v>
@@ -15188,7 +15319,7 @@
         <v>2100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3">
         <v>183880</v>
@@ -15202,7 +15333,7 @@
         <v>2200</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3">
         <v>206610</v>
@@ -15216,7 +15347,7 @@
         <v>2300</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3">
         <v>232730</v>
@@ -15230,7 +15361,7 @@
         <v>2400</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D37" s="3">
         <v>259030</v>
@@ -15244,7 +15375,7 @@
         <v>2500</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3">
         <v>348330</v>
@@ -15258,7 +15389,7 @@
         <v>2600</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D39" s="3">
         <v>385330</v>
@@ -15272,7 +15403,7 @@
         <v>2800</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1">
         <v>427190</v>
@@ -15286,7 +15417,7 @@
         <v>3000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1">
         <v>469890</v>
@@ -15322,7 +15453,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="658">
+  <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1235,7 +1241,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="658">
+  <cellStyles count="664">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1567,6 +1573,9 @@
     <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1891,6 +1900,9 @@
     <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2942,7 +2954,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2975,16 +2987,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3">
         <v>15</v>
@@ -2995,16 +3007,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -3015,16 +3027,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -3035,16 +3047,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -3055,16 +3067,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -3075,16 +3087,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -3095,16 +3107,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C8" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D8" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E8" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -3115,16 +3127,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="D9" s="1">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="E9" s="1">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="F9" s="3">
         <v>160</v>
@@ -3135,16 +3147,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C10" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="E10" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F10" s="3">
         <v>350</v>
@@ -3155,16 +3167,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C11" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="D11" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E11" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="F11" s="3">
         <v>520</v>
@@ -3175,16 +3187,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C12" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D12" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>730</v>
@@ -3195,16 +3207,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="C13" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="D13" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="E13" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="F13" s="3">
         <v>920</v>
@@ -3215,16 +3227,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C14" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E14" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F14" s="3">
         <v>1220</v>
@@ -3235,16 +3247,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="C15" s="1">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="D15" s="1">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="E15" s="1">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="F15" s="3">
         <v>2470</v>
@@ -3255,16 +3267,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="C16" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="D16" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="E16" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="F16" s="3">
         <v>3860</v>
@@ -3275,16 +3287,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C17" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D17" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E17" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>5340</v>
@@ -3295,16 +3307,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C18" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="D18" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E18" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="F18" s="3">
         <v>7800</v>
@@ -3315,16 +3327,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="C19" s="1">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="D19" s="1">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="E19" s="1">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="F19" s="3">
         <v>9610</v>
@@ -3335,16 +3347,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="C20" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="D20" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E20" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F20" s="3">
         <v>11730</v>
@@ -3355,16 +3367,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="C21" s="1">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="D21" s="1">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="E21" s="1">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="F21" s="3">
         <v>13770</v>
@@ -3375,16 +3387,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C22" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D22" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E22" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>18700</v>
@@ -3395,16 +3407,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="C23" s="1">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="D23" s="1">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="E23" s="1">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="F23" s="3">
         <v>21440</v>
@@ -3415,16 +3427,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="C24" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="D24" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="E24" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="F24" s="3">
         <v>24740</v>
@@ -3435,16 +3447,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="C25" s="1">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="D25" s="1">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="E25" s="1">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="F25" s="3">
         <v>27850</v>
@@ -3455,16 +3467,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="C26" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="D26" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="E26" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="F26" s="3">
         <v>38030</v>
@@ -3475,16 +3487,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C27" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="3">
         <v>42460</v>
@@ -3495,16 +3507,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="C28" s="1">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="D28" s="1">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="E28" s="1">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="F28" s="3">
         <v>47770</v>
@@ -3515,16 +3527,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="C29" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D29" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F29" s="3">
         <v>52780</v>
@@ -3535,16 +3547,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="C30" s="1">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="D30" s="1">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E30" s="1">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="F30" s="3">
         <v>75130</v>
@@ -3555,16 +3567,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="C31" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="D31" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E31" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F31" s="3">
         <v>86730</v>
@@ -3575,16 +3587,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="C32" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="D32" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F32" s="3">
         <v>100170</v>
@@ -3595,16 +3607,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C33" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D33" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F33" s="3">
         <v>113650</v>
@@ -3615,16 +3627,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="C34" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D34" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E34" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F34" s="3">
         <v>155560</v>
@@ -3635,16 +3647,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="C35" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="D35" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="E35" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="F35" s="3">
         <v>174800</v>
@@ -3655,16 +3667,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="C36" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D36" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E36" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="F36" s="3">
         <v>196900</v>
@@ -3675,16 +3687,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="C37" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="D37" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E37" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F37" s="3">
         <v>219150</v>
@@ -3695,16 +3707,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C38" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D38" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E38" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F38" s="3">
         <v>294720</v>
@@ -3715,16 +3727,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="C39" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="D39" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="E39" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="F39" s="3">
         <v>326020</v>
@@ -3735,16 +3747,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="C40" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D40" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E40" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="F40" s="1">
         <v>361440</v>
@@ -3755,16 +3767,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="C41" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D41" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E41" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F41" s="1">
         <v>397570</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1460" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="664">
+  <cellStyleXfs count="678">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1241,7 +1255,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="664">
+  <cellStyles count="678">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1576,6 +1590,13 @@
     <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1903,6 +1924,13 @@
     <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2953,7 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4876,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4928,34 +4956,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="E2" s="1">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="F2" s="1">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="G2" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H2" s="1">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="I2" s="1">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="J2" s="1">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="K2" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L2" s="3">
         <v>30</v>
@@ -4966,34 +4994,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>40000</v>
+        <v>7960</v>
       </c>
       <c r="E3" s="1">
-        <v>40000</v>
+        <v>7960</v>
       </c>
       <c r="F3" s="1">
-        <v>40000</v>
+        <v>7960</v>
       </c>
       <c r="G3" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="H3" s="1">
-        <v>80000</v>
+        <v>15920</v>
       </c>
       <c r="I3" s="1">
-        <v>80000</v>
+        <v>15920</v>
       </c>
       <c r="J3" s="1">
-        <v>80000</v>
+        <v>15920</v>
       </c>
       <c r="K3" s="1">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="L3" s="3">
         <v>35</v>
@@ -5004,34 +5032,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>80000</v>
+        <v>11880</v>
       </c>
       <c r="E4" s="1">
-        <v>80000</v>
+        <v>11880</v>
       </c>
       <c r="F4" s="1">
-        <v>80000</v>
+        <v>11880</v>
       </c>
       <c r="G4" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H4" s="1">
-        <v>160000</v>
+        <v>23760</v>
       </c>
       <c r="I4" s="1">
-        <v>160000</v>
+        <v>23760</v>
       </c>
       <c r="J4" s="1">
-        <v>160000</v>
+        <v>23760</v>
       </c>
       <c r="K4" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="L4" s="3">
         <v>40</v>
@@ -5042,34 +5070,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>120000</v>
+        <v>15760</v>
       </c>
       <c r="E5" s="1">
-        <v>120000</v>
+        <v>15760</v>
       </c>
       <c r="F5" s="1">
-        <v>120000</v>
+        <v>15760</v>
       </c>
       <c r="G5" s="1">
-        <v>900</v>
+        <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>240000</v>
+        <v>31520</v>
       </c>
       <c r="I5" s="1">
-        <v>240000</v>
+        <v>31520</v>
       </c>
       <c r="J5" s="1">
-        <v>240000</v>
+        <v>31520</v>
       </c>
       <c r="K5" s="1">
-        <v>1800</v>
+        <v>1280</v>
       </c>
       <c r="L5" s="3">
         <v>50</v>
@@ -5080,34 +5108,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>160000</v>
+        <v>19600</v>
       </c>
       <c r="E6" s="1">
-        <v>160000</v>
+        <v>19600</v>
       </c>
       <c r="F6" s="1">
-        <v>160000</v>
+        <v>19600</v>
       </c>
       <c r="G6" s="1">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="H6" s="1">
-        <v>320000</v>
+        <v>39200</v>
       </c>
       <c r="I6" s="1">
-        <v>320000</v>
+        <v>39200</v>
       </c>
       <c r="J6" s="1">
-        <v>320000</v>
+        <v>39200</v>
       </c>
       <c r="K6" s="1">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="L6" s="3">
         <v>60</v>
@@ -5118,34 +5146,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>200000</v>
+        <v>23400</v>
       </c>
       <c r="E7" s="1">
-        <v>200000</v>
+        <v>23400</v>
       </c>
       <c r="F7" s="1">
-        <v>200000</v>
+        <v>23400</v>
       </c>
       <c r="G7" s="1">
-        <v>1500</v>
+        <v>960</v>
       </c>
       <c r="H7" s="1">
-        <v>400000</v>
+        <v>46800</v>
       </c>
       <c r="I7" s="1">
-        <v>400000</v>
+        <v>46800</v>
       </c>
       <c r="J7" s="1">
-        <v>400000</v>
+        <v>46800</v>
       </c>
       <c r="K7" s="1">
-        <v>3000</v>
+        <v>1920</v>
       </c>
       <c r="L7" s="3">
         <v>70</v>
@@ -5156,34 +5184,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>240000</v>
+        <v>27160</v>
       </c>
       <c r="E8" s="1">
-        <v>240000</v>
+        <v>27160</v>
       </c>
       <c r="F8" s="1">
-        <v>240000</v>
+        <v>27160</v>
       </c>
       <c r="G8" s="1">
-        <v>1800</v>
+        <v>1120</v>
       </c>
       <c r="H8" s="1">
-        <v>480000</v>
+        <v>54320</v>
       </c>
       <c r="I8" s="1">
-        <v>480000</v>
+        <v>54320</v>
       </c>
       <c r="J8" s="1">
-        <v>480000</v>
+        <v>54320</v>
       </c>
       <c r="K8" s="1">
-        <v>3600</v>
+        <v>2240</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -5194,34 +5222,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>280000</v>
+        <v>30880</v>
       </c>
       <c r="E9" s="1">
-        <v>280000</v>
+        <v>30880</v>
       </c>
       <c r="F9" s="1">
-        <v>280000</v>
+        <v>30880</v>
       </c>
       <c r="G9" s="1">
-        <v>2100</v>
+        <v>1280</v>
       </c>
       <c r="H9" s="1">
-        <v>560000</v>
+        <v>61760</v>
       </c>
       <c r="I9" s="1">
-        <v>560000</v>
+        <v>61760</v>
       </c>
       <c r="J9" s="1">
-        <v>560000</v>
+        <v>61760</v>
       </c>
       <c r="K9" s="1">
-        <v>4200</v>
+        <v>2560</v>
       </c>
       <c r="L9" s="3">
         <v>180</v>
@@ -5232,34 +5260,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>320000</v>
+        <v>34560</v>
       </c>
       <c r="E10" s="1">
-        <v>320000</v>
+        <v>34560</v>
       </c>
       <c r="F10" s="1">
-        <v>320000</v>
+        <v>34560</v>
       </c>
       <c r="G10" s="1">
-        <v>2400</v>
+        <v>1440</v>
       </c>
       <c r="H10" s="1">
-        <v>640000</v>
+        <v>69120</v>
       </c>
       <c r="I10" s="1">
-        <v>640000</v>
+        <v>69120</v>
       </c>
       <c r="J10" s="1">
-        <v>640000</v>
+        <v>69120</v>
       </c>
       <c r="K10" s="1">
-        <v>4800</v>
+        <v>2880</v>
       </c>
       <c r="L10" s="3">
         <v>370</v>
@@ -5270,34 +5298,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>360000</v>
+        <v>38200</v>
       </c>
       <c r="E11" s="1">
-        <v>360000</v>
+        <v>38200</v>
       </c>
       <c r="F11" s="1">
-        <v>360000</v>
+        <v>38200</v>
       </c>
       <c r="G11" s="1">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="H11" s="1">
-        <v>720000</v>
+        <v>76400</v>
       </c>
       <c r="I11" s="1">
-        <v>720000</v>
+        <v>76400</v>
       </c>
       <c r="J11" s="1">
-        <v>720000</v>
+        <v>76400</v>
       </c>
       <c r="K11" s="1">
-        <v>5400</v>
+        <v>3200</v>
       </c>
       <c r="L11" s="3">
         <v>550</v>
@@ -5308,34 +5336,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>400000</v>
+        <v>41800</v>
       </c>
       <c r="E12" s="1">
-        <v>400000</v>
+        <v>41800</v>
       </c>
       <c r="F12" s="1">
-        <v>400000</v>
+        <v>41800</v>
       </c>
       <c r="G12" s="1">
-        <v>3000</v>
+        <v>1760</v>
       </c>
       <c r="H12" s="1">
-        <v>800000</v>
+        <v>83600</v>
       </c>
       <c r="I12" s="1">
-        <v>800000</v>
+        <v>83600</v>
       </c>
       <c r="J12" s="1">
-        <v>800000</v>
+        <v>83600</v>
       </c>
       <c r="K12" s="1">
-        <v>6000</v>
+        <v>3520</v>
       </c>
       <c r="L12" s="3">
         <v>750</v>
@@ -5346,34 +5374,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>440000</v>
+        <v>45360</v>
       </c>
       <c r="E13" s="1">
-        <v>440000</v>
+        <v>45360</v>
       </c>
       <c r="F13" s="1">
-        <v>440000</v>
+        <v>45360</v>
       </c>
       <c r="G13" s="1">
-        <v>3300</v>
+        <v>1920</v>
       </c>
       <c r="H13" s="1">
-        <v>880000</v>
+        <v>90720</v>
       </c>
       <c r="I13" s="1">
-        <v>880000</v>
+        <v>90720</v>
       </c>
       <c r="J13" s="1">
-        <v>880000</v>
+        <v>90720</v>
       </c>
       <c r="K13" s="1">
-        <v>6600</v>
+        <v>3840</v>
       </c>
       <c r="L13" s="3">
         <v>950</v>
@@ -5384,34 +5412,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>480000</v>
+        <v>48880</v>
       </c>
       <c r="E14" s="1">
-        <v>480000</v>
+        <v>48880</v>
       </c>
       <c r="F14" s="1">
-        <v>480000</v>
+        <v>48880</v>
       </c>
       <c r="G14" s="1">
-        <v>3600</v>
+        <v>2080</v>
       </c>
       <c r="H14" s="1">
-        <v>960000</v>
+        <v>97760</v>
       </c>
       <c r="I14" s="1">
-        <v>960000</v>
+        <v>97760</v>
       </c>
       <c r="J14" s="1">
-        <v>960000</v>
+        <v>97760</v>
       </c>
       <c r="K14" s="1">
-        <v>7200</v>
+        <v>4160</v>
       </c>
       <c r="L14" s="3">
         <v>1250</v>
@@ -5422,34 +5450,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>520000</v>
+        <v>52360</v>
       </c>
       <c r="E15" s="1">
-        <v>520000</v>
+        <v>52360</v>
       </c>
       <c r="F15" s="1">
-        <v>520000</v>
+        <v>52360</v>
       </c>
       <c r="G15" s="1">
-        <v>3900</v>
+        <v>2240</v>
       </c>
       <c r="H15" s="1">
-        <v>1040000</v>
+        <v>104720</v>
       </c>
       <c r="I15" s="1">
-        <v>1040000</v>
+        <v>104720</v>
       </c>
       <c r="J15" s="1">
-        <v>1040000</v>
+        <v>104720</v>
       </c>
       <c r="K15" s="1">
-        <v>7800</v>
+        <v>4480</v>
       </c>
       <c r="L15" s="3">
         <v>2530</v>
@@ -5460,34 +5488,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>560000</v>
+        <v>55800</v>
       </c>
       <c r="E16" s="1">
-        <v>560000</v>
+        <v>55800</v>
       </c>
       <c r="F16" s="1">
-        <v>560000</v>
+        <v>55800</v>
       </c>
       <c r="G16" s="1">
-        <v>4200</v>
+        <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>1120000</v>
+        <v>111600</v>
       </c>
       <c r="I16" s="1">
-        <v>1120000</v>
+        <v>111600</v>
       </c>
       <c r="J16" s="1">
-        <v>1120000</v>
+        <v>111600</v>
       </c>
       <c r="K16" s="1">
-        <v>8400</v>
+        <v>4800</v>
       </c>
       <c r="L16" s="3">
         <v>3940</v>
@@ -5498,34 +5526,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>600000</v>
+        <v>59200</v>
       </c>
       <c r="E17" s="1">
-        <v>600000</v>
+        <v>59200</v>
       </c>
       <c r="F17" s="1">
-        <v>600000</v>
+        <v>59200</v>
       </c>
       <c r="G17" s="1">
-        <v>4500</v>
+        <v>2560</v>
       </c>
       <c r="H17" s="1">
-        <v>1200000</v>
+        <v>118400</v>
       </c>
       <c r="I17" s="1">
-        <v>1200000</v>
+        <v>118400</v>
       </c>
       <c r="J17" s="1">
-        <v>1200000</v>
+        <v>118400</v>
       </c>
       <c r="K17" s="1">
-        <v>9000</v>
+        <v>5120</v>
       </c>
       <c r="L17" s="3">
         <v>5450</v>
@@ -5536,34 +5564,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>640000</v>
+        <v>66240</v>
       </c>
       <c r="E18" s="1">
-        <v>640000</v>
+        <v>66240</v>
       </c>
       <c r="F18" s="1">
-        <v>640000</v>
+        <v>66240</v>
       </c>
       <c r="G18" s="1">
-        <v>4800</v>
+        <v>2880</v>
       </c>
       <c r="H18" s="1">
-        <v>1280000</v>
+        <v>132480</v>
       </c>
       <c r="I18" s="1">
-        <v>1280000</v>
+        <v>132480</v>
       </c>
       <c r="J18" s="1">
-        <v>1280000</v>
+        <v>132480</v>
       </c>
       <c r="K18" s="1">
-        <v>9600</v>
+        <v>5760</v>
       </c>
       <c r="L18" s="3">
         <v>7960</v>
@@ -5574,34 +5602,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>680000</v>
+        <v>73200</v>
       </c>
       <c r="E19" s="1">
-        <v>680000</v>
+        <v>73200</v>
       </c>
       <c r="F19" s="1">
-        <v>680000</v>
+        <v>73200</v>
       </c>
       <c r="G19" s="1">
-        <v>5100</v>
+        <v>3200</v>
       </c>
       <c r="H19" s="1">
-        <v>1360000</v>
+        <v>146400</v>
       </c>
       <c r="I19" s="1">
-        <v>1360000</v>
+        <v>146400</v>
       </c>
       <c r="J19" s="1">
-        <v>1360000</v>
+        <v>146400</v>
       </c>
       <c r="K19" s="1">
-        <v>10200</v>
+        <v>6400</v>
       </c>
       <c r="L19" s="3">
         <v>9790</v>
@@ -5612,34 +5640,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>720000</v>
+        <v>80080</v>
       </c>
       <c r="E20" s="1">
-        <v>720000</v>
+        <v>80080</v>
       </c>
       <c r="F20" s="1">
-        <v>720000</v>
+        <v>80080</v>
       </c>
       <c r="G20" s="1">
-        <v>5400</v>
+        <v>3520</v>
       </c>
       <c r="H20" s="1">
-        <v>1440000</v>
+        <v>160160</v>
       </c>
       <c r="I20" s="1">
-        <v>1440000</v>
+        <v>160160</v>
       </c>
       <c r="J20" s="1">
-        <v>1440000</v>
+        <v>160160</v>
       </c>
       <c r="K20" s="1">
-        <v>10800</v>
+        <v>7040</v>
       </c>
       <c r="L20" s="3">
         <v>11960</v>
@@ -5650,34 +5678,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>760000</v>
+        <v>86880</v>
       </c>
       <c r="E21" s="1">
-        <v>760000</v>
+        <v>86880</v>
       </c>
       <c r="F21" s="1">
-        <v>760000</v>
+        <v>86880</v>
       </c>
       <c r="G21" s="1">
-        <v>5700</v>
+        <v>3840</v>
       </c>
       <c r="H21" s="1">
-        <v>1520000</v>
+        <v>173760</v>
       </c>
       <c r="I21" s="1">
-        <v>1520000</v>
+        <v>173760</v>
       </c>
       <c r="J21" s="1">
-        <v>1520000</v>
+        <v>173760</v>
       </c>
       <c r="K21" s="1">
-        <v>11400</v>
+        <v>7680</v>
       </c>
       <c r="L21" s="3">
         <v>14030</v>
@@ -5688,34 +5716,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>800000</v>
+        <v>93600</v>
       </c>
       <c r="E22" s="1">
-        <v>800000</v>
+        <v>93600</v>
       </c>
       <c r="F22" s="1">
-        <v>800000</v>
+        <v>93600</v>
       </c>
       <c r="G22" s="1">
-        <v>6000</v>
+        <v>4160</v>
       </c>
       <c r="H22" s="1">
-        <v>1600000</v>
+        <v>187200</v>
       </c>
       <c r="I22" s="1">
-        <v>1600000</v>
+        <v>187200</v>
       </c>
       <c r="J22" s="1">
-        <v>1600000</v>
+        <v>187200</v>
       </c>
       <c r="K22" s="1">
-        <v>12000</v>
+        <v>8320</v>
       </c>
       <c r="L22" s="3">
         <v>19060</v>
@@ -5726,34 +5754,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>840000</v>
+        <v>100240</v>
       </c>
       <c r="E23" s="1">
-        <v>840000</v>
+        <v>100240</v>
       </c>
       <c r="F23" s="1">
-        <v>840000</v>
+        <v>100240</v>
       </c>
       <c r="G23" s="1">
-        <v>6300</v>
+        <v>4480</v>
       </c>
       <c r="H23" s="1">
-        <v>1680000</v>
+        <v>200480</v>
       </c>
       <c r="I23" s="1">
-        <v>1680000</v>
+        <v>200480</v>
       </c>
       <c r="J23" s="1">
-        <v>1680000</v>
+        <v>200480</v>
       </c>
       <c r="K23" s="1">
-        <v>12600</v>
+        <v>8960</v>
       </c>
       <c r="L23" s="3">
         <v>21840</v>
@@ -5764,34 +5792,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>880000</v>
+        <v>106800</v>
       </c>
       <c r="E24" s="1">
-        <v>880000</v>
+        <v>106800</v>
       </c>
       <c r="F24" s="1">
-        <v>880000</v>
+        <v>106800</v>
       </c>
       <c r="G24" s="1">
-        <v>6600</v>
+        <v>4800</v>
       </c>
       <c r="H24" s="1">
-        <v>1760000</v>
+        <v>213600</v>
       </c>
       <c r="I24" s="1">
-        <v>1760000</v>
+        <v>213600</v>
       </c>
       <c r="J24" s="1">
-        <v>1760000</v>
+        <v>213600</v>
       </c>
       <c r="K24" s="1">
-        <v>13200</v>
+        <v>9600</v>
       </c>
       <c r="L24" s="3">
         <v>25210</v>
@@ -5802,34 +5830,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>920000</v>
+        <v>113280</v>
       </c>
       <c r="E25" s="1">
-        <v>920000</v>
+        <v>113280</v>
       </c>
       <c r="F25" s="1">
-        <v>920000</v>
+        <v>113280</v>
       </c>
       <c r="G25" s="1">
-        <v>6900</v>
+        <v>5120</v>
       </c>
       <c r="H25" s="1">
-        <v>1840000</v>
+        <v>226560</v>
       </c>
       <c r="I25" s="1">
-        <v>1840000</v>
+        <v>226560</v>
       </c>
       <c r="J25" s="1">
-        <v>1840000</v>
+        <v>226560</v>
       </c>
       <c r="K25" s="1">
-        <v>13800</v>
+        <v>10240</v>
       </c>
       <c r="L25" s="3">
         <v>28370</v>
@@ -5840,34 +5868,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>960000</v>
+        <v>119680</v>
       </c>
       <c r="E26" s="1">
-        <v>960000</v>
+        <v>119680</v>
       </c>
       <c r="F26" s="1">
-        <v>960000</v>
+        <v>119680</v>
       </c>
       <c r="G26" s="1">
-        <v>7200</v>
+        <v>5440</v>
       </c>
       <c r="H26" s="1">
-        <v>1920000</v>
+        <v>239360</v>
       </c>
       <c r="I26" s="1">
-        <v>1920000</v>
+        <v>239360</v>
       </c>
       <c r="J26" s="1">
-        <v>1920000</v>
+        <v>239360</v>
       </c>
       <c r="K26" s="1">
-        <v>14400</v>
+        <v>10880</v>
       </c>
       <c r="L26" s="3">
         <v>38740</v>
@@ -5878,34 +5906,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>1000000</v>
+        <v>126000</v>
       </c>
       <c r="E27" s="1">
-        <v>1000000</v>
+        <v>126000</v>
       </c>
       <c r="F27" s="1">
-        <v>1000000</v>
+        <v>126000</v>
       </c>
       <c r="G27" s="1">
-        <v>7500</v>
+        <v>5760</v>
       </c>
       <c r="H27" s="1">
-        <v>2000000</v>
+        <v>252000</v>
       </c>
       <c r="I27" s="1">
-        <v>2000000</v>
+        <v>252000</v>
       </c>
       <c r="J27" s="1">
-        <v>2000000</v>
+        <v>252000</v>
       </c>
       <c r="K27" s="1">
-        <v>15000</v>
+        <v>11520</v>
       </c>
       <c r="L27" s="3">
         <v>43250</v>
@@ -5916,34 +5944,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>1040000</v>
+        <v>132240</v>
       </c>
       <c r="E28" s="1">
-        <v>1040000</v>
+        <v>132240</v>
       </c>
       <c r="F28" s="1">
-        <v>1040000</v>
+        <v>132240</v>
       </c>
       <c r="G28" s="1">
-        <v>7800</v>
+        <v>6080</v>
       </c>
       <c r="H28" s="1">
-        <v>2080000</v>
+        <v>264480</v>
       </c>
       <c r="I28" s="1">
-        <v>2080000</v>
+        <v>264480</v>
       </c>
       <c r="J28" s="1">
-        <v>2080000</v>
+        <v>264480</v>
       </c>
       <c r="K28" s="1">
-        <v>15600</v>
+        <v>12160</v>
       </c>
       <c r="L28" s="3">
         <v>48650</v>
@@ -5954,34 +5982,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>1080000</v>
+        <v>138400</v>
       </c>
       <c r="E29" s="1">
-        <v>1080000</v>
+        <v>138400</v>
       </c>
       <c r="F29" s="1">
-        <v>1080000</v>
+        <v>138400</v>
       </c>
       <c r="G29" s="1">
-        <v>8100</v>
+        <v>6400</v>
       </c>
       <c r="H29" s="1">
-        <v>2160000</v>
+        <v>276800</v>
       </c>
       <c r="I29" s="1">
-        <v>2160000</v>
+        <v>276800</v>
       </c>
       <c r="J29" s="1">
-        <v>2160000</v>
+        <v>276800</v>
       </c>
       <c r="K29" s="1">
-        <v>16200</v>
+        <v>12800</v>
       </c>
       <c r="L29" s="3">
         <v>53760</v>
@@ -5992,34 +6020,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>1120000</v>
+        <v>154800</v>
       </c>
       <c r="E30" s="1">
-        <v>1120000</v>
+        <v>154800</v>
       </c>
       <c r="F30" s="1">
-        <v>1120000</v>
+        <v>154800</v>
       </c>
       <c r="G30" s="1">
-        <v>8400</v>
+        <v>7200</v>
       </c>
       <c r="H30" s="1">
-        <v>2240000</v>
+        <v>309600</v>
       </c>
       <c r="I30" s="1">
-        <v>2240000</v>
+        <v>309600</v>
       </c>
       <c r="J30" s="1">
-        <v>2240000</v>
+        <v>309600</v>
       </c>
       <c r="K30" s="1">
-        <v>16800</v>
+        <v>14400</v>
       </c>
       <c r="L30" s="3">
         <v>76510</v>
@@ -6030,34 +6058,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>1160000</v>
+        <v>171000</v>
       </c>
       <c r="E31" s="1">
-        <v>1160000</v>
+        <v>171000</v>
       </c>
       <c r="F31" s="1">
-        <v>1160000</v>
+        <v>171000</v>
       </c>
       <c r="G31" s="1">
-        <v>8700</v>
+        <v>8000</v>
       </c>
       <c r="H31" s="1">
-        <v>2320000</v>
+        <v>342000</v>
       </c>
       <c r="I31" s="1">
-        <v>2320000</v>
+        <v>342000</v>
       </c>
       <c r="J31" s="1">
-        <v>2320000</v>
+        <v>342000</v>
       </c>
       <c r="K31" s="1">
-        <v>17400</v>
+        <v>16000</v>
       </c>
       <c r="L31" s="3">
         <v>88320</v>
@@ -6068,34 +6096,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>1200000</v>
+        <v>187000</v>
       </c>
       <c r="E32" s="1">
-        <v>1200000</v>
+        <v>187000</v>
       </c>
       <c r="F32" s="1">
-        <v>1200000</v>
+        <v>187000</v>
       </c>
       <c r="G32" s="1">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="H32" s="1">
-        <v>2400000</v>
+        <v>374000</v>
       </c>
       <c r="I32" s="1">
-        <v>2400000</v>
+        <v>374000</v>
       </c>
       <c r="J32" s="1">
-        <v>2400000</v>
+        <v>374000</v>
       </c>
       <c r="K32" s="1">
-        <v>18000</v>
+        <v>17600</v>
       </c>
       <c r="L32" s="3">
         <v>102010</v>
@@ -6106,31 +6134,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>1280000</v>
+        <v>202800</v>
       </c>
       <c r="E33" s="1">
-        <v>1280000</v>
+        <v>202800</v>
       </c>
       <c r="F33" s="1">
-        <v>1280000</v>
+        <v>202800</v>
       </c>
       <c r="G33" s="1">
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>2560000</v>
+        <v>405600</v>
       </c>
       <c r="I33" s="1">
-        <v>2560000</v>
+        <v>405600</v>
       </c>
       <c r="J33" s="1">
-        <v>2560000</v>
+        <v>405600</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
@@ -6144,34 +6172,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>1360000</v>
+        <v>218400</v>
       </c>
       <c r="E34" s="1">
-        <v>1360000</v>
+        <v>218400</v>
       </c>
       <c r="F34" s="1">
-        <v>1360000</v>
+        <v>218400</v>
       </c>
       <c r="G34" s="1">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="H34" s="1">
-        <v>2720000</v>
+        <v>436800</v>
       </c>
       <c r="I34" s="1">
-        <v>2720000</v>
+        <v>436800</v>
       </c>
       <c r="J34" s="1">
-        <v>2720000</v>
+        <v>436800</v>
       </c>
       <c r="K34" s="1">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="L34" s="3">
         <v>158410</v>
@@ -6182,34 +6210,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>1440000</v>
+        <v>233800</v>
       </c>
       <c r="E35" s="1">
-        <v>1440000</v>
+        <v>233800</v>
       </c>
       <c r="F35" s="1">
-        <v>1440000</v>
+        <v>233800</v>
       </c>
       <c r="G35" s="1">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="H35" s="1">
-        <v>2880000</v>
+        <v>467600</v>
       </c>
       <c r="I35" s="1">
-        <v>2880000</v>
+        <v>467600</v>
       </c>
       <c r="J35" s="1">
-        <v>2880000</v>
+        <v>467600</v>
       </c>
       <c r="K35" s="1">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="L35" s="3">
         <v>178000</v>
@@ -6220,34 +6248,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>1520000</v>
+        <v>249000</v>
       </c>
       <c r="E36" s="1">
-        <v>1520000</v>
+        <v>249000</v>
       </c>
       <c r="F36" s="1">
-        <v>1520000</v>
+        <v>249000</v>
       </c>
       <c r="G36" s="1">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="H36" s="1">
-        <v>3040000</v>
+        <v>498000</v>
       </c>
       <c r="I36" s="1">
-        <v>3040000</v>
+        <v>498000</v>
       </c>
       <c r="J36" s="1">
-        <v>3040000</v>
+        <v>498000</v>
       </c>
       <c r="K36" s="1">
-        <v>22800</v>
+        <v>24000</v>
       </c>
       <c r="L36" s="3">
         <v>200500</v>
@@ -6258,34 +6286,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>1600000</v>
+        <v>264000</v>
       </c>
       <c r="E37" s="1">
-        <v>1600000</v>
+        <v>264000</v>
       </c>
       <c r="F37" s="1">
-        <v>1600000</v>
+        <v>264000</v>
       </c>
       <c r="G37" s="1">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="H37" s="1">
-        <v>3200000</v>
+        <v>528000</v>
       </c>
       <c r="I37" s="1">
-        <v>3200000</v>
+        <v>528000</v>
       </c>
       <c r="J37" s="1">
-        <v>3200000</v>
+        <v>528000</v>
       </c>
       <c r="K37" s="1">
-        <v>24000</v>
+        <v>25600</v>
       </c>
       <c r="L37" s="3">
         <v>223150</v>
@@ -6296,34 +6324,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>1680000</v>
+        <v>278800</v>
       </c>
       <c r="E38" s="1">
-        <v>1680000</v>
+        <v>278800</v>
       </c>
       <c r="F38" s="1">
-        <v>1680000</v>
+        <v>278800</v>
       </c>
       <c r="G38" s="1">
-        <v>12600</v>
+        <v>13600</v>
       </c>
       <c r="H38" s="1">
-        <v>3360000</v>
+        <v>557600</v>
       </c>
       <c r="I38" s="1">
-        <v>3360000</v>
+        <v>557600</v>
       </c>
       <c r="J38" s="1">
-        <v>3360000</v>
+        <v>557600</v>
       </c>
       <c r="K38" s="1">
-        <v>25200</v>
+        <v>27200</v>
       </c>
       <c r="L38" s="3">
         <v>300090</v>
@@ -6334,34 +6362,34 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>440</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>1760000</v>
+        <v>293400</v>
       </c>
       <c r="E39" s="1">
-        <v>1760000</v>
+        <v>293400</v>
       </c>
       <c r="F39" s="1">
-        <v>1760000</v>
+        <v>293400</v>
       </c>
       <c r="G39" s="1">
-        <v>13200</v>
+        <v>14400</v>
       </c>
       <c r="H39" s="1">
-        <v>3520000</v>
+        <v>586800</v>
       </c>
       <c r="I39" s="1">
-        <v>3520000</v>
+        <v>586800</v>
       </c>
       <c r="J39" s="1">
-        <v>3520000</v>
+        <v>586800</v>
       </c>
       <c r="K39" s="1">
-        <v>26400</v>
+        <v>28800</v>
       </c>
       <c r="L39" s="3">
         <v>331970</v>
@@ -6372,34 +6400,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>1840000</v>
+        <v>307800</v>
       </c>
       <c r="E40" s="1">
-        <v>1840000</v>
+        <v>307800</v>
       </c>
       <c r="F40" s="1">
-        <v>1840000</v>
+        <v>307800</v>
       </c>
       <c r="G40" s="1">
-        <v>13800</v>
+        <v>15200</v>
       </c>
       <c r="H40" s="1">
-        <v>3680000</v>
+        <v>615600</v>
       </c>
       <c r="I40" s="1">
-        <v>3680000</v>
+        <v>615600</v>
       </c>
       <c r="J40" s="1">
-        <v>3680000</v>
+        <v>615600</v>
       </c>
       <c r="K40" s="1">
-        <v>27600</v>
+        <v>30400</v>
       </c>
       <c r="L40" s="3">
         <v>368030</v>
@@ -6410,34 +6438,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>1920000</v>
+        <v>320000</v>
       </c>
       <c r="E41" s="1">
-        <v>1920000</v>
+        <v>320000</v>
       </c>
       <c r="F41" s="1">
-        <v>1920000</v>
+        <v>320000</v>
       </c>
       <c r="G41" s="1">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="H41" s="1">
-        <v>3840000</v>
+        <v>640000</v>
       </c>
       <c r="I41" s="1">
-        <v>3840000</v>
+        <v>640000</v>
       </c>
       <c r="J41" s="1">
-        <v>3840000</v>
+        <v>640000</v>
       </c>
       <c r="K41" s="1">
-        <v>28800</v>
+        <v>32000</v>
       </c>
       <c r="L41" s="1">
         <v>404820</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="678">
+  <cellStyleXfs count="686">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1255,7 +1263,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="678">
+  <cellStyles count="686">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1597,6 +1605,10 @@
     <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1931,6 +1943,10 @@
     <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4302,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4329,7 +4345,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="1">
@@ -4343,7 +4359,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -4357,7 +4373,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -4371,7 +4387,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -4385,7 +4401,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -4399,7 +4415,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="1">
@@ -4413,7 +4429,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -4427,7 +4443,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -4441,7 +4457,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="1">
@@ -4455,7 +4471,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="1">
@@ -4469,7 +4485,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -4483,7 +4499,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
       <c r="C13" s="1">
@@ -4497,7 +4513,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="1">
@@ -4511,7 +4527,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="1">
@@ -4525,8 +4541,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>2</v>
+      <c r="B16" s="6">
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>7.5</v>
@@ -4539,7 +4555,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="1">
@@ -4553,7 +4569,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="1">
@@ -4567,7 +4583,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="1">
@@ -4581,7 +4597,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>3</v>
       </c>
       <c r="C20" s="1">
@@ -4595,7 +4611,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>3</v>
       </c>
       <c r="C21" s="1">
@@ -4609,7 +4625,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="1">
@@ -4623,8 +4639,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>3</v>
+      <c r="B23" s="6">
+        <v>4</v>
       </c>
       <c r="C23" s="1">
         <v>11</v>
@@ -4637,8 +4653,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>3</v>
+      <c r="B24" s="6">
+        <v>4</v>
       </c>
       <c r="C24" s="1">
         <v>11.5</v>
@@ -4651,7 +4667,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <v>4</v>
       </c>
       <c r="C25" s="1">
@@ -4665,7 +4681,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
       <c r="C26" s="1">
@@ -4679,7 +4695,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <v>4</v>
       </c>
       <c r="C27" s="1">
@@ -4693,7 +4709,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <v>4</v>
       </c>
       <c r="C28" s="1">
@@ -4707,7 +4723,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
       <c r="C29" s="1">
@@ -4721,8 +4737,8 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <v>4</v>
+      <c r="B30" s="6">
+        <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>14.5</v>
@@ -4735,8 +4751,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>4</v>
+      <c r="B31" s="6">
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>15</v>
@@ -4749,8 +4765,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <v>4</v>
+      <c r="B32" s="6">
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>15.5</v>
@@ -4763,7 +4779,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="6">
         <v>5</v>
       </c>
       <c r="C33" s="1">
@@ -4777,7 +4793,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="1">
@@ -4791,7 +4807,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="6">
         <v>5</v>
       </c>
       <c r="C35" s="1">
@@ -4805,7 +4821,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="6">
         <v>5</v>
       </c>
       <c r="C36" s="1">
@@ -4819,8 +4835,8 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
-        <v>5</v>
+      <c r="B37" s="6">
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>18</v>
@@ -4833,8 +4849,8 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
-        <v>5</v>
+      <c r="B38" s="6">
+        <v>6</v>
       </c>
       <c r="C38" s="1">
         <v>18.5</v>
@@ -4847,8 +4863,8 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
-        <v>5</v>
+      <c r="B39" s="6">
+        <v>6</v>
       </c>
       <c r="C39" s="1">
         <v>19</v>
@@ -4861,8 +4877,8 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <v>5</v>
+      <c r="B40" s="6">
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>19.5</v>
@@ -4875,7 +4891,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="6">
         <v>6</v>
       </c>
       <c r="C41" s="1">
@@ -4904,7 +4920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -7209,8 +7225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D45"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="11"/>
+    <workbookView xWindow="400" yWindow="360" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -362,6 +362,10 @@
     <t>INT_dragonMaterials</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_dragonCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -547,7 +551,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="686">
+  <cellStyleXfs count="688">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +566,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1263,7 +1269,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="686">
+  <cellStyles count="688">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1609,6 +1615,7 @@
     <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1947,6 +1954,7 @@
     <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4318,8 +4326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B44"/>
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10098,10 +10106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B43"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10111,7 +10119,7 @@
     <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10119,10 +10127,13 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10130,10 +10141,13 @@
         <v>32</v>
       </c>
       <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -10141,10 +10155,13 @@
         <v>40</v>
       </c>
       <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -10152,10 +10169,13 @@
         <v>48</v>
       </c>
       <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -10163,10 +10183,13 @@
         <v>56</v>
       </c>
       <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -10174,10 +10197,13 @@
         <v>64</v>
       </c>
       <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -10185,10 +10211,13 @@
         <v>76</v>
       </c>
       <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -10196,10 +10225,13 @@
         <v>88</v>
       </c>
       <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -10207,10 +10239,13 @@
         <v>100</v>
       </c>
       <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -10218,10 +10253,13 @@
         <v>112</v>
       </c>
       <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
         <v>760</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -10229,10 +10267,13 @@
         <v>124</v>
       </c>
       <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
         <v>1150</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -10240,10 +10281,13 @@
         <v>140</v>
       </c>
       <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
         <v>1590</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -10251,10 +10295,13 @@
         <v>156</v>
       </c>
       <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -10262,10 +10309,13 @@
         <v>172</v>
       </c>
       <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
         <v>2660</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -10273,10 +10323,13 @@
         <v>188</v>
       </c>
       <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
         <v>5390</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -10284,10 +10337,13 @@
         <v>204</v>
       </c>
       <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
         <v>8420</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -10295,10 +10351,13 @@
         <v>236</v>
       </c>
       <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
         <v>11650</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -10306,10 +10365,13 @@
         <v>268</v>
       </c>
       <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
         <v>17030</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -10317,10 +10379,13 @@
         <v>300</v>
       </c>
       <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
         <v>20960</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -10328,10 +10393,13 @@
         <v>332</v>
       </c>
       <c r="C20" s="6">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6">
         <v>25610</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -10339,10 +10407,13 @@
         <v>364</v>
       </c>
       <c r="C21" s="6">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6">
         <v>30040</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -10350,10 +10421,13 @@
         <v>428</v>
       </c>
       <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
         <v>40800</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -10361,10 +10435,13 @@
         <v>492</v>
       </c>
       <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
         <v>46780</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -10372,10 +10449,13 @@
         <v>556</v>
       </c>
       <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6">
         <v>53980</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -10383,10 +10463,13 @@
         <v>620</v>
       </c>
       <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6">
         <v>60760</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -10394,10 +10477,13 @@
         <v>684</v>
       </c>
       <c r="C26" s="6">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6">
         <v>82990</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -10405,10 +10491,13 @@
         <v>780</v>
       </c>
       <c r="C27" s="6">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
         <v>92640</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -10416,10 +10505,13 @@
         <v>886</v>
       </c>
       <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
         <v>104220</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -10427,10 +10519,13 @@
         <v>1002</v>
       </c>
       <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
         <v>115170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -10438,10 +10533,13 @@
         <v>1128</v>
       </c>
       <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
         <v>163920</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -10449,10 +10547,13 @@
         <v>1264</v>
       </c>
       <c r="C31" s="6">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
         <v>189230</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -10460,10 +10561,13 @@
         <v>1410</v>
       </c>
       <c r="C32" s="6">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6">
         <v>218560</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1">
+    <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -10471,10 +10575,13 @@
         <v>1566</v>
       </c>
       <c r="C33" s="6">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6">
         <v>247970</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1">
+    <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -10482,10 +10589,13 @@
         <v>1732</v>
       </c>
       <c r="C34" s="6">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6">
         <v>339420</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1">
+    <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -10493,10 +10603,13 @@
         <v>1908</v>
       </c>
       <c r="C35" s="6">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6">
         <v>381390</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1">
+    <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -10504,10 +10617,13 @@
         <v>2094</v>
       </c>
       <c r="C36" s="6">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
         <v>429610</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1">
+    <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -10515,10 +10631,13 @@
         <v>2290</v>
       </c>
       <c r="C37" s="6">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
         <v>478150</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1">
+    <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -10526,10 +10645,13 @@
         <v>2496</v>
       </c>
       <c r="C38" s="6">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6">
         <v>643020</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1">
+    <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -10537,10 +10659,13 @@
         <v>2712</v>
       </c>
       <c r="C39" s="6">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6">
         <v>711330</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1">
+    <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -10548,17 +10673,23 @@
         <v>2940</v>
       </c>
       <c r="C40" s="6">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6">
         <v>788610</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1">
+    <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>3220</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
         <v>867440</v>
       </c>
     </row>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="360" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="360" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -551,7 +551,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="688">
+  <cellStyleXfs count="696">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -566,6 +566,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1269,7 +1277,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="688">
+  <cellStyles count="696">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1616,6 +1624,10 @@
     <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1955,6 +1967,10 @@
     <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -10108,7 +10124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -15626,8 +15642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15651,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
@@ -15662,7 +15678,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="C3" s="3">
         <v>35</v>
@@ -15673,7 +15689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="C4" s="3">
         <v>40</v>
@@ -15684,7 +15700,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="C5" s="3">
         <v>50</v>
@@ -15695,7 +15711,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="C6" s="3">
         <v>60</v>
@@ -15706,7 +15722,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="C7" s="3">
         <v>70</v>
@@ -15717,7 +15733,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2800</v>
+        <v>2240</v>
       </c>
       <c r="C8" s="3">
         <v>110</v>
@@ -15728,7 +15744,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3200</v>
+        <v>2560</v>
       </c>
       <c r="C9" s="3">
         <v>200</v>
@@ -15739,7 +15755,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3600</v>
+        <v>2880</v>
       </c>
       <c r="C10" s="3">
         <v>410</v>
@@ -15750,7 +15766,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="C11" s="3">
         <v>610</v>
@@ -15761,7 +15777,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="C12" s="3">
         <v>830</v>
@@ -15772,7 +15788,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>9600</v>
+        <v>7680</v>
       </c>
       <c r="C13" s="3">
         <v>1050</v>
@@ -15783,7 +15799,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11200</v>
+        <v>8960</v>
       </c>
       <c r="C14" s="3">
         <v>1390</v>
@@ -15794,7 +15810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>12800</v>
+        <v>10240</v>
       </c>
       <c r="C15" s="3">
         <v>2800</v>
@@ -15805,7 +15821,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>14400</v>
+        <v>11520</v>
       </c>
       <c r="C16" s="3">
         <v>4360</v>
@@ -15816,7 +15832,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>16000</v>
+        <v>12800</v>
       </c>
       <c r="C17" s="3">
         <v>6030</v>
@@ -15827,7 +15843,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>17600</v>
+        <v>14080</v>
       </c>
       <c r="C18" s="3">
         <v>8810</v>
@@ -15838,7 +15854,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>19200</v>
+        <v>15360</v>
       </c>
       <c r="C19" s="3">
         <v>10840</v>
@@ -15849,7 +15865,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>20800</v>
+        <v>16640</v>
       </c>
       <c r="C20" s="3">
         <v>13240</v>
@@ -15860,7 +15876,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>22400</v>
+        <v>17920</v>
       </c>
       <c r="C21" s="3">
         <v>15530</v>
@@ -15871,7 +15887,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>44800</v>
+        <v>35840</v>
       </c>
       <c r="C22" s="3">
         <v>21090</v>
@@ -15882,7 +15898,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>51200</v>
+        <v>40960</v>
       </c>
       <c r="C23" s="3">
         <v>24180</v>
@@ -15893,7 +15909,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>57600</v>
+        <v>46080</v>
       </c>
       <c r="C24" s="3">
         <v>27900</v>
@@ -15904,7 +15920,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="C25" s="3">
         <v>31400</v>
@@ -15915,7 +15931,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>70400</v>
+        <v>56320</v>
       </c>
       <c r="C26" s="3">
         <v>42890</v>
@@ -15926,7 +15942,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>76800</v>
+        <v>61440</v>
       </c>
       <c r="C27" s="3">
         <v>47880</v>
@@ -15937,7 +15953,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>83200</v>
+        <v>66560</v>
       </c>
       <c r="C28" s="3">
         <v>53860</v>
@@ -15948,7 +15964,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>89600</v>
+        <v>71680</v>
       </c>
       <c r="C29" s="3">
         <v>59520</v>
@@ -15959,7 +15975,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>96000</v>
+        <v>76800</v>
       </c>
       <c r="C30" s="3">
         <v>84700</v>
@@ -15970,7 +15986,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>102400</v>
+        <v>81920</v>
       </c>
       <c r="C31" s="3">
         <v>97780</v>
@@ -15981,7 +15997,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>204800</v>
+        <v>163840</v>
       </c>
       <c r="C32" s="3">
         <v>112930</v>
@@ -15992,7 +16008,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>230400</v>
+        <v>184320</v>
       </c>
       <c r="C33" s="3">
         <v>128130</v>
@@ -16003,7 +16019,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>256000</v>
+        <v>204800</v>
       </c>
       <c r="C34" s="3">
         <v>175380</v>
@@ -16014,7 +16030,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>281600</v>
+        <v>225280</v>
       </c>
       <c r="C35" s="3">
         <v>197060</v>
@@ -16025,7 +16041,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>307200</v>
+        <v>245760</v>
       </c>
       <c r="C36" s="3">
         <v>221980</v>
@@ -16036,7 +16052,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>332800</v>
+        <v>266240</v>
       </c>
       <c r="C37" s="3">
         <v>247060</v>
@@ -16047,7 +16063,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>358400</v>
+        <v>286720</v>
       </c>
       <c r="C38" s="3">
         <v>332240</v>
@@ -16058,7 +16074,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>384000</v>
+        <v>307200</v>
       </c>
       <c r="C39" s="3">
         <v>367530</v>
@@ -16069,7 +16085,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>409600</v>
+        <v>327680</v>
       </c>
       <c r="C40" s="1">
         <v>407460</v>
@@ -16080,7 +16096,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="C41" s="1">
         <v>448190</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1280" windowWidth="33980" windowHeight="15220" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="1000" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
   <si>
     <t>FLOAT_efficiency</t>
   </si>
@@ -290,6 +290,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>INT_productBmWood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -322,6 +326,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>INT_production</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -342,15 +350,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_dragonCount</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_dragonMaterials</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_power</t>
+    <t>INT_dragonCount</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="716">
+  <cellStyleXfs count="698">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -553,24 +557,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1284,7 +1270,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="716">
+  <cellStyles count="698">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1636,15 +1622,6 @@
     <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1989,15 +1966,6 @@
     <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2449,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2494,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>20</v>
@@ -2508,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
@@ -2522,7 +2490,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <v>40</v>
@@ -2536,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>60</v>
@@ -2550,7 +2518,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
         <v>70</v>
@@ -2564,7 +2532,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>130</v>
@@ -2578,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>270</v>
@@ -2592,7 +2560,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
         <v>610</v>
@@ -2606,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>930</v>
@@ -2620,7 +2588,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
         <v>1300</v>
@@ -2634,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3">
         <v>1650</v>
@@ -2648,7 +2616,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3">
         <v>2190</v>
@@ -2662,7 +2630,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3">
         <v>4460</v>
@@ -2676,7 +2644,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3">
         <v>6990</v>
@@ -2690,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
         <v>9680</v>
@@ -2704,7 +2672,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
         <v>14160</v>
@@ -2718,7 +2686,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3">
         <v>17440</v>
@@ -2732,7 +2700,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
         <v>21310</v>
@@ -2746,7 +2714,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
         <v>25000</v>
@@ -2760,7 +2728,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3">
         <v>33980</v>
@@ -2774,7 +2742,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
         <v>38950</v>
@@ -2788,7 +2756,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>44960</v>
@@ -2802,7 +2770,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3">
         <v>50600</v>
@@ -2816,7 +2784,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3">
         <v>69130</v>
@@ -2830,7 +2798,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3">
         <v>77180</v>
@@ -2844,7 +2812,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3">
         <v>86830</v>
@@ -2858,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3">
         <v>95950</v>
@@ -2872,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D30" s="3">
         <v>136570</v>
@@ -2886,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3">
         <v>157660</v>
@@ -2900,7 +2868,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3">
         <v>182100</v>
@@ -2914,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3">
         <v>206620</v>
@@ -2928,7 +2896,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3">
         <v>282820</v>
@@ -2942,7 +2910,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3">
         <v>317800</v>
@@ -2956,7 +2924,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3">
         <v>357980</v>
@@ -2970,7 +2938,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3">
         <v>398440</v>
@@ -2984,7 +2952,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3">
         <v>535830</v>
@@ -2998,7 +2966,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1">
         <v>592750</v>
@@ -3012,7 +2980,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1">
         <v>657150</v>
@@ -3026,7 +2994,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1">
         <v>722840</v>
@@ -3048,7 +3016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3524,7 +3492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -4127,7 +4095,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:L41"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4137,40 +4105,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -4254,31 +4222,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>15840</v>
+        <v>11880</v>
       </c>
       <c r="E4" s="1">
-        <v>15840</v>
+        <v>11880</v>
       </c>
       <c r="F4" s="1">
-        <v>15840</v>
+        <v>11880</v>
       </c>
       <c r="G4" s="1">
         <v>480</v>
       </c>
       <c r="H4" s="1">
-        <v>31680</v>
+        <v>23760</v>
       </c>
       <c r="I4" s="1">
-        <v>31680</v>
+        <v>23760</v>
       </c>
       <c r="J4" s="1">
-        <v>31680</v>
+        <v>23760</v>
       </c>
       <c r="K4" s="1">
         <v>960</v>
@@ -4292,31 +4260,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>23640</v>
+        <v>15760</v>
       </c>
       <c r="E5" s="1">
-        <v>23640</v>
+        <v>15760</v>
       </c>
       <c r="F5" s="1">
-        <v>23640</v>
+        <v>15760</v>
       </c>
       <c r="G5" s="1">
         <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>47280</v>
+        <v>31520</v>
       </c>
       <c r="I5" s="1">
-        <v>47280</v>
+        <v>31520</v>
       </c>
       <c r="J5" s="1">
-        <v>47280</v>
+        <v>31520</v>
       </c>
       <c r="K5" s="1">
         <v>1280</v>
@@ -4330,31 +4298,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>31360</v>
+        <v>19600</v>
       </c>
       <c r="E6" s="1">
-        <v>31360</v>
+        <v>19600</v>
       </c>
       <c r="F6" s="1">
-        <v>31360</v>
+        <v>19600</v>
       </c>
       <c r="G6" s="1">
         <v>800</v>
       </c>
       <c r="H6" s="1">
-        <v>62720</v>
+        <v>39200</v>
       </c>
       <c r="I6" s="1">
-        <v>62720</v>
+        <v>39200</v>
       </c>
       <c r="J6" s="1">
-        <v>62720</v>
+        <v>39200</v>
       </c>
       <c r="K6" s="1">
         <v>1600</v>
@@ -4368,31 +4336,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>39000</v>
+        <v>23400</v>
       </c>
       <c r="E7" s="1">
-        <v>39000</v>
+        <v>23400</v>
       </c>
       <c r="F7" s="1">
-        <v>39000</v>
+        <v>23400</v>
       </c>
       <c r="G7" s="1">
         <v>960</v>
       </c>
       <c r="H7" s="1">
-        <v>78000</v>
+        <v>46800</v>
       </c>
       <c r="I7" s="1">
-        <v>78000</v>
+        <v>46800</v>
       </c>
       <c r="J7" s="1">
-        <v>78000</v>
+        <v>46800</v>
       </c>
       <c r="K7" s="1">
         <v>1920</v>
@@ -4406,31 +4374,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>46560</v>
+        <v>27160</v>
       </c>
       <c r="E8" s="1">
-        <v>46560</v>
+        <v>27160</v>
       </c>
       <c r="F8" s="1">
-        <v>46560</v>
+        <v>27160</v>
       </c>
       <c r="G8" s="1">
         <v>1120</v>
       </c>
       <c r="H8" s="1">
-        <v>93120</v>
+        <v>54320</v>
       </c>
       <c r="I8" s="1">
-        <v>93120</v>
+        <v>54320</v>
       </c>
       <c r="J8" s="1">
-        <v>93120</v>
+        <v>54320</v>
       </c>
       <c r="K8" s="1">
         <v>2240</v>
@@ -4444,31 +4412,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>57900</v>
+        <v>30880</v>
       </c>
       <c r="E9" s="1">
-        <v>57900</v>
+        <v>30880</v>
       </c>
       <c r="F9" s="1">
-        <v>57900</v>
+        <v>30880</v>
       </c>
       <c r="G9" s="1">
         <v>1280</v>
       </c>
       <c r="H9" s="1">
-        <v>115800</v>
+        <v>61760</v>
       </c>
       <c r="I9" s="1">
-        <v>115800</v>
+        <v>61760</v>
       </c>
       <c r="J9" s="1">
-        <v>115800</v>
+        <v>61760</v>
       </c>
       <c r="K9" s="1">
         <v>2560</v>
@@ -4482,31 +4450,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>76800</v>
+        <v>34560</v>
       </c>
       <c r="E10" s="1">
-        <v>76800</v>
+        <v>34560</v>
       </c>
       <c r="F10" s="1">
-        <v>76800</v>
+        <v>34560</v>
       </c>
       <c r="G10" s="1">
         <v>1440</v>
       </c>
       <c r="H10" s="1">
-        <v>153600</v>
+        <v>69120</v>
       </c>
       <c r="I10" s="1">
-        <v>153600</v>
+        <v>69120</v>
       </c>
       <c r="J10" s="1">
-        <v>153600</v>
+        <v>69120</v>
       </c>
       <c r="K10" s="1">
         <v>2880</v>
@@ -4520,31 +4488,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>95500</v>
+        <v>38200</v>
       </c>
       <c r="E11" s="1">
-        <v>95500</v>
+        <v>38200</v>
       </c>
       <c r="F11" s="1">
-        <v>95500</v>
+        <v>38200</v>
       </c>
       <c r="G11" s="1">
         <v>1600</v>
       </c>
       <c r="H11" s="1">
-        <v>191000</v>
+        <v>76400</v>
       </c>
       <c r="I11" s="1">
-        <v>191000</v>
+        <v>76400</v>
       </c>
       <c r="J11" s="1">
-        <v>191000</v>
+        <v>76400</v>
       </c>
       <c r="K11" s="1">
         <v>3200</v>
@@ -4558,31 +4526,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>114000</v>
+        <v>41800</v>
       </c>
       <c r="E12" s="1">
-        <v>114000</v>
+        <v>41800</v>
       </c>
       <c r="F12" s="1">
-        <v>114000</v>
+        <v>41800</v>
       </c>
       <c r="G12" s="1">
         <v>1760</v>
       </c>
       <c r="H12" s="1">
-        <v>228000</v>
+        <v>83600</v>
       </c>
       <c r="I12" s="1">
-        <v>228000</v>
+        <v>83600</v>
       </c>
       <c r="J12" s="1">
-        <v>228000</v>
+        <v>83600</v>
       </c>
       <c r="K12" s="1">
         <v>3520</v>
@@ -4596,31 +4564,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>132300</v>
+        <v>45360</v>
       </c>
       <c r="E13" s="1">
-        <v>132300</v>
+        <v>45360</v>
       </c>
       <c r="F13" s="1">
-        <v>132300</v>
+        <v>45360</v>
       </c>
       <c r="G13" s="1">
         <v>1920</v>
       </c>
       <c r="H13" s="1">
-        <v>264600</v>
+        <v>90720</v>
       </c>
       <c r="I13" s="1">
-        <v>264600</v>
+        <v>90720</v>
       </c>
       <c r="J13" s="1">
-        <v>264600</v>
+        <v>90720</v>
       </c>
       <c r="K13" s="1">
         <v>3840</v>
@@ -4634,31 +4602,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>150400</v>
+        <v>48880</v>
       </c>
       <c r="E14" s="1">
-        <v>150400</v>
+        <v>48880</v>
       </c>
       <c r="F14" s="1">
-        <v>150400</v>
+        <v>48880</v>
       </c>
       <c r="G14" s="1">
         <v>2080</v>
       </c>
       <c r="H14" s="1">
-        <v>300800</v>
+        <v>97760</v>
       </c>
       <c r="I14" s="1">
-        <v>300800</v>
+        <v>97760</v>
       </c>
       <c r="J14" s="1">
-        <v>300800</v>
+        <v>97760</v>
       </c>
       <c r="K14" s="1">
         <v>4160</v>
@@ -4672,31 +4640,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>168300</v>
+        <v>52360</v>
       </c>
       <c r="E15" s="1">
-        <v>168300</v>
+        <v>52360</v>
       </c>
       <c r="F15" s="1">
-        <v>168300</v>
+        <v>52360</v>
       </c>
       <c r="G15" s="1">
         <v>2240</v>
       </c>
       <c r="H15" s="1">
-        <v>336600</v>
+        <v>104720</v>
       </c>
       <c r="I15" s="1">
-        <v>336600</v>
+        <v>104720</v>
       </c>
       <c r="J15" s="1">
-        <v>336600</v>
+        <v>104720</v>
       </c>
       <c r="K15" s="1">
         <v>4480</v>
@@ -4710,31 +4678,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>186000</v>
+        <v>55800</v>
       </c>
       <c r="E16" s="1">
-        <v>186000</v>
+        <v>55800</v>
       </c>
       <c r="F16" s="1">
-        <v>186000</v>
+        <v>55800</v>
       </c>
       <c r="G16" s="1">
         <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>372000</v>
+        <v>111600</v>
       </c>
       <c r="I16" s="1">
-        <v>372000</v>
+        <v>111600</v>
       </c>
       <c r="J16" s="1">
-        <v>372000</v>
+        <v>111600</v>
       </c>
       <c r="K16" s="1">
         <v>4800</v>
@@ -4748,31 +4716,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>203500</v>
+        <v>59200</v>
       </c>
       <c r="E17" s="1">
-        <v>203500</v>
+        <v>59200</v>
       </c>
       <c r="F17" s="1">
-        <v>203500</v>
+        <v>59200</v>
       </c>
       <c r="G17" s="1">
         <v>2560</v>
       </c>
       <c r="H17" s="1">
-        <v>407000</v>
+        <v>118400</v>
       </c>
       <c r="I17" s="1">
-        <v>407000</v>
+        <v>118400</v>
       </c>
       <c r="J17" s="1">
-        <v>407000</v>
+        <v>118400</v>
       </c>
       <c r="K17" s="1">
         <v>5120</v>
@@ -4786,31 +4754,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>220800</v>
+        <v>66240</v>
       </c>
       <c r="E18" s="1">
-        <v>220800</v>
+        <v>66240</v>
       </c>
       <c r="F18" s="1">
-        <v>220800</v>
+        <v>66240</v>
       </c>
       <c r="G18" s="1">
         <v>2880</v>
       </c>
       <c r="H18" s="1">
-        <v>441600</v>
+        <v>132480</v>
       </c>
       <c r="I18" s="1">
-        <v>441600</v>
+        <v>132480</v>
       </c>
       <c r="J18" s="1">
-        <v>441600</v>
+        <v>132480</v>
       </c>
       <c r="K18" s="1">
         <v>5760</v>
@@ -4824,31 +4792,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>237900</v>
+        <v>73200</v>
       </c>
       <c r="E19" s="1">
-        <v>237900</v>
+        <v>73200</v>
       </c>
       <c r="F19" s="1">
-        <v>237900</v>
+        <v>73200</v>
       </c>
       <c r="G19" s="1">
         <v>3200</v>
       </c>
       <c r="H19" s="1">
-        <v>475800</v>
+        <v>146400</v>
       </c>
       <c r="I19" s="1">
-        <v>475800</v>
+        <v>146400</v>
       </c>
       <c r="J19" s="1">
-        <v>475800</v>
+        <v>146400</v>
       </c>
       <c r="K19" s="1">
         <v>6400</v>
@@ -4862,31 +4830,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>254800</v>
+        <v>80080</v>
       </c>
       <c r="E20" s="1">
-        <v>254800</v>
+        <v>80080</v>
       </c>
       <c r="F20" s="1">
-        <v>254800</v>
+        <v>80080</v>
       </c>
       <c r="G20" s="1">
         <v>3520</v>
       </c>
       <c r="H20" s="1">
-        <v>509600</v>
+        <v>160160</v>
       </c>
       <c r="I20" s="1">
-        <v>509600</v>
+        <v>160160</v>
       </c>
       <c r="J20" s="1">
-        <v>509600</v>
+        <v>160160</v>
       </c>
       <c r="K20" s="1">
         <v>7040</v>
@@ -4900,31 +4868,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>271500</v>
+        <v>86880</v>
       </c>
       <c r="E21" s="1">
-        <v>271500</v>
+        <v>86880</v>
       </c>
       <c r="F21" s="1">
-        <v>271500</v>
+        <v>86880</v>
       </c>
       <c r="G21" s="1">
         <v>3840</v>
       </c>
       <c r="H21" s="1">
-        <v>543000</v>
+        <v>173760</v>
       </c>
       <c r="I21" s="1">
-        <v>543000</v>
+        <v>173760</v>
       </c>
       <c r="J21" s="1">
-        <v>543000</v>
+        <v>173760</v>
       </c>
       <c r="K21" s="1">
         <v>7680</v>
@@ -4938,31 +4906,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>288000</v>
+        <v>93600</v>
       </c>
       <c r="E22" s="1">
-        <v>288000</v>
+        <v>93600</v>
       </c>
       <c r="F22" s="1">
-        <v>288000</v>
+        <v>93600</v>
       </c>
       <c r="G22" s="1">
         <v>4160</v>
       </c>
       <c r="H22" s="1">
-        <v>576000</v>
+        <v>187200</v>
       </c>
       <c r="I22" s="1">
-        <v>576000</v>
+        <v>187200</v>
       </c>
       <c r="J22" s="1">
-        <v>576000</v>
+        <v>187200</v>
       </c>
       <c r="K22" s="1">
         <v>8320</v>
@@ -4976,31 +4944,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>304300</v>
+        <v>100240</v>
       </c>
       <c r="E23" s="1">
-        <v>304300</v>
+        <v>100240</v>
       </c>
       <c r="F23" s="1">
-        <v>304300</v>
+        <v>100240</v>
       </c>
       <c r="G23" s="1">
         <v>4480</v>
       </c>
       <c r="H23" s="1">
-        <v>608600</v>
+        <v>200480</v>
       </c>
       <c r="I23" s="1">
-        <v>608600</v>
+        <v>200480</v>
       </c>
       <c r="J23" s="1">
-        <v>608600</v>
+        <v>200480</v>
       </c>
       <c r="K23" s="1">
         <v>8960</v>
@@ -5014,31 +4982,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>320400</v>
+        <v>106800</v>
       </c>
       <c r="E24" s="1">
-        <v>320400</v>
+        <v>106800</v>
       </c>
       <c r="F24" s="1">
-        <v>320400</v>
+        <v>106800</v>
       </c>
       <c r="G24" s="1">
         <v>4800</v>
       </c>
       <c r="H24" s="1">
-        <v>640800</v>
+        <v>213600</v>
       </c>
       <c r="I24" s="1">
-        <v>640800</v>
+        <v>213600</v>
       </c>
       <c r="J24" s="1">
-        <v>640800</v>
+        <v>213600</v>
       </c>
       <c r="K24" s="1">
         <v>9600</v>
@@ -5052,31 +5020,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>336300</v>
+        <v>113280</v>
       </c>
       <c r="E25" s="1">
-        <v>336300</v>
+        <v>113280</v>
       </c>
       <c r="F25" s="1">
-        <v>336300</v>
+        <v>113280</v>
       </c>
       <c r="G25" s="1">
         <v>5120</v>
       </c>
       <c r="H25" s="1">
-        <v>672600</v>
+        <v>226560</v>
       </c>
       <c r="I25" s="1">
-        <v>672600</v>
+        <v>226560</v>
       </c>
       <c r="J25" s="1">
-        <v>672600</v>
+        <v>226560</v>
       </c>
       <c r="K25" s="1">
         <v>10240</v>
@@ -5090,31 +5058,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>352000</v>
+        <v>119680</v>
       </c>
       <c r="E26" s="1">
-        <v>352000</v>
+        <v>119680</v>
       </c>
       <c r="F26" s="1">
-        <v>352000</v>
+        <v>119680</v>
       </c>
       <c r="G26" s="1">
         <v>5440</v>
       </c>
       <c r="H26" s="1">
-        <v>704000</v>
+        <v>239360</v>
       </c>
       <c r="I26" s="1">
-        <v>704000</v>
+        <v>239360</v>
       </c>
       <c r="J26" s="1">
-        <v>704000</v>
+        <v>239360</v>
       </c>
       <c r="K26" s="1">
         <v>10880</v>
@@ -5128,31 +5096,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>385000</v>
+        <v>126000</v>
       </c>
       <c r="E27" s="1">
-        <v>385000</v>
+        <v>126000</v>
       </c>
       <c r="F27" s="1">
-        <v>385000</v>
+        <v>126000</v>
       </c>
       <c r="G27" s="1">
         <v>5760</v>
       </c>
       <c r="H27" s="1">
-        <v>770000</v>
+        <v>252000</v>
       </c>
       <c r="I27" s="1">
-        <v>770000</v>
+        <v>252000</v>
       </c>
       <c r="J27" s="1">
-        <v>770000</v>
+        <v>252000</v>
       </c>
       <c r="K27" s="1">
         <v>11520</v>
@@ -5166,31 +5134,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>417600</v>
+        <v>132240</v>
       </c>
       <c r="E28" s="1">
-        <v>417600</v>
+        <v>132240</v>
       </c>
       <c r="F28" s="1">
-        <v>417600</v>
+        <v>132240</v>
       </c>
       <c r="G28" s="1">
         <v>6080</v>
       </c>
       <c r="H28" s="1">
-        <v>835200</v>
+        <v>264480</v>
       </c>
       <c r="I28" s="1">
-        <v>835200</v>
+        <v>264480</v>
       </c>
       <c r="J28" s="1">
-        <v>835200</v>
+        <v>264480</v>
       </c>
       <c r="K28" s="1">
         <v>12160</v>
@@ -5204,31 +5172,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>449800</v>
+        <v>138400</v>
       </c>
       <c r="E29" s="1">
-        <v>449800</v>
+        <v>138400</v>
       </c>
       <c r="F29" s="1">
-        <v>449800</v>
+        <v>138400</v>
       </c>
       <c r="G29" s="1">
         <v>6400</v>
       </c>
       <c r="H29" s="1">
-        <v>899600</v>
+        <v>276800</v>
       </c>
       <c r="I29" s="1">
-        <v>899600</v>
+        <v>276800</v>
       </c>
       <c r="J29" s="1">
-        <v>899600</v>
+        <v>276800</v>
       </c>
       <c r="K29" s="1">
         <v>12800</v>
@@ -5242,31 +5210,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>481600</v>
+        <v>154800</v>
       </c>
       <c r="E30" s="1">
-        <v>481600</v>
+        <v>154800</v>
       </c>
       <c r="F30" s="1">
-        <v>481600</v>
+        <v>154800</v>
       </c>
       <c r="G30" s="1">
         <v>7200</v>
       </c>
       <c r="H30" s="1">
-        <v>963200</v>
+        <v>309600</v>
       </c>
       <c r="I30" s="1">
-        <v>963200</v>
+        <v>309600</v>
       </c>
       <c r="J30" s="1">
-        <v>963200</v>
+        <v>309600</v>
       </c>
       <c r="K30" s="1">
         <v>14400</v>
@@ -5280,31 +5248,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>513000</v>
+        <v>171000</v>
       </c>
       <c r="E31" s="1">
-        <v>513000</v>
+        <v>171000</v>
       </c>
       <c r="F31" s="1">
-        <v>513000</v>
+        <v>171000</v>
       </c>
       <c r="G31" s="1">
         <v>8000</v>
       </c>
       <c r="H31" s="1">
-        <v>1026000</v>
+        <v>342000</v>
       </c>
       <c r="I31" s="1">
-        <v>1026000</v>
+        <v>342000</v>
       </c>
       <c r="J31" s="1">
-        <v>1026000</v>
+        <v>342000</v>
       </c>
       <c r="K31" s="1">
         <v>16000</v>
@@ -5318,31 +5286,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>544000</v>
+        <v>187000</v>
       </c>
       <c r="E32" s="1">
-        <v>544000</v>
+        <v>187000</v>
       </c>
       <c r="F32" s="1">
-        <v>544000</v>
+        <v>187000</v>
       </c>
       <c r="G32" s="1">
         <v>8800</v>
       </c>
       <c r="H32" s="1">
-        <v>1088000</v>
+        <v>374000</v>
       </c>
       <c r="I32" s="1">
-        <v>1088000</v>
+        <v>374000</v>
       </c>
       <c r="J32" s="1">
-        <v>1088000</v>
+        <v>374000</v>
       </c>
       <c r="K32" s="1">
         <v>17600</v>
@@ -5356,31 +5324,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>574600</v>
+        <v>202800</v>
       </c>
       <c r="E33" s="1">
-        <v>574600</v>
+        <v>202800</v>
       </c>
       <c r="F33" s="1">
-        <v>574600</v>
+        <v>202800</v>
       </c>
       <c r="G33" s="1">
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>1149200</v>
+        <v>405600</v>
       </c>
       <c r="I33" s="1">
-        <v>1149200</v>
+        <v>405600</v>
       </c>
       <c r="J33" s="1">
-        <v>1149200</v>
+        <v>405600</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
@@ -5394,31 +5362,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>604800</v>
+        <v>218400</v>
       </c>
       <c r="E34" s="1">
-        <v>604800</v>
+        <v>218400</v>
       </c>
       <c r="F34" s="1">
-        <v>604800</v>
+        <v>218400</v>
       </c>
       <c r="G34" s="1">
         <v>10400</v>
       </c>
       <c r="H34" s="1">
-        <v>1209600</v>
+        <v>436800</v>
       </c>
       <c r="I34" s="1">
-        <v>1209600</v>
+        <v>436800</v>
       </c>
       <c r="J34" s="1">
-        <v>1209600</v>
+        <v>436800</v>
       </c>
       <c r="K34" s="1">
         <v>20800</v>
@@ -5432,31 +5400,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>634600</v>
+        <v>233800</v>
       </c>
       <c r="E35" s="1">
-        <v>634600</v>
+        <v>233800</v>
       </c>
       <c r="F35" s="1">
-        <v>634600</v>
+        <v>233800</v>
       </c>
       <c r="G35" s="1">
         <v>11200</v>
       </c>
       <c r="H35" s="1">
-        <v>1269200</v>
+        <v>467600</v>
       </c>
       <c r="I35" s="1">
-        <v>1269200</v>
+        <v>467600</v>
       </c>
       <c r="J35" s="1">
-        <v>1269200</v>
+        <v>467600</v>
       </c>
       <c r="K35" s="1">
         <v>22400</v>
@@ -5470,31 +5438,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>664000</v>
+        <v>249000</v>
       </c>
       <c r="E36" s="1">
-        <v>664000</v>
+        <v>249000</v>
       </c>
       <c r="F36" s="1">
-        <v>664000</v>
+        <v>249000</v>
       </c>
       <c r="G36" s="1">
         <v>12000</v>
       </c>
       <c r="H36" s="1">
-        <v>1328000</v>
+        <v>498000</v>
       </c>
       <c r="I36" s="1">
-        <v>1328000</v>
+        <v>498000</v>
       </c>
       <c r="J36" s="1">
-        <v>1328000</v>
+        <v>498000</v>
       </c>
       <c r="K36" s="1">
         <v>24000</v>
@@ -5508,31 +5476,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>693000</v>
+        <v>264000</v>
       </c>
       <c r="E37" s="1">
-        <v>693000</v>
+        <v>264000</v>
       </c>
       <c r="F37" s="1">
-        <v>693000</v>
+        <v>264000</v>
       </c>
       <c r="G37" s="1">
         <v>12800</v>
       </c>
       <c r="H37" s="1">
-        <v>1386000</v>
+        <v>528000</v>
       </c>
       <c r="I37" s="1">
-        <v>1386000</v>
+        <v>528000</v>
       </c>
       <c r="J37" s="1">
-        <v>1386000</v>
+        <v>528000</v>
       </c>
       <c r="K37" s="1">
         <v>25600</v>
@@ -5546,31 +5514,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>721600</v>
+        <v>278800</v>
       </c>
       <c r="E38" s="1">
-        <v>721600</v>
+        <v>278800</v>
       </c>
       <c r="F38" s="1">
-        <v>721600</v>
+        <v>278800</v>
       </c>
       <c r="G38" s="1">
         <v>13600</v>
       </c>
       <c r="H38" s="1">
-        <v>1443200</v>
+        <v>557600</v>
       </c>
       <c r="I38" s="1">
-        <v>1443200</v>
+        <v>557600</v>
       </c>
       <c r="J38" s="1">
-        <v>1443200</v>
+        <v>557600</v>
       </c>
       <c r="K38" s="1">
         <v>27200</v>
@@ -5584,31 +5552,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>749800</v>
+        <v>293400</v>
       </c>
       <c r="E39" s="1">
-        <v>749800</v>
+        <v>293400</v>
       </c>
       <c r="F39" s="1">
-        <v>749800</v>
+        <v>293400</v>
       </c>
       <c r="G39" s="1">
         <v>14400</v>
       </c>
       <c r="H39" s="1">
-        <v>1499600</v>
+        <v>586800</v>
       </c>
       <c r="I39" s="1">
-        <v>1499600</v>
+        <v>586800</v>
       </c>
       <c r="J39" s="1">
-        <v>1499600</v>
+        <v>586800</v>
       </c>
       <c r="K39" s="1">
         <v>28800</v>
@@ -5622,31 +5590,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>777600</v>
+        <v>307800</v>
       </c>
       <c r="E40" s="1">
-        <v>777600</v>
+        <v>307800</v>
       </c>
       <c r="F40" s="1">
-        <v>777600</v>
+        <v>307800</v>
       </c>
       <c r="G40" s="1">
         <v>15200</v>
       </c>
       <c r="H40" s="1">
-        <v>1555200</v>
+        <v>615600</v>
       </c>
       <c r="I40" s="1">
-        <v>1555200</v>
+        <v>615600</v>
       </c>
       <c r="J40" s="1">
-        <v>1555200</v>
+        <v>615600</v>
       </c>
       <c r="K40" s="1">
         <v>30400</v>
@@ -5660,31 +5628,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>800000</v>
+        <v>320000</v>
       </c>
       <c r="E41" s="1">
-        <v>800000</v>
+        <v>320000</v>
       </c>
       <c r="F41" s="1">
-        <v>800000</v>
+        <v>320000</v>
       </c>
       <c r="G41" s="1">
         <v>16000</v>
       </c>
       <c r="H41" s="1">
-        <v>1600000</v>
+        <v>640000</v>
       </c>
       <c r="I41" s="1">
-        <v>1600000</v>
+        <v>640000</v>
       </c>
       <c r="J41" s="1">
-        <v>1600000</v>
+        <v>640000</v>
       </c>
       <c r="K41" s="1">
         <v>32000</v>
@@ -5709,8 +5677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5746,7 +5714,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -5760,10 +5728,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -5777,10 +5745,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -5794,10 +5762,10 @@
         <v>35</v>
       </c>
       <c r="C5" s="6">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D5" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -5811,10 +5779,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -5828,10 +5796,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="6">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="D7" s="6">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -5845,10 +5813,10 @@
         <v>80</v>
       </c>
       <c r="C8" s="6">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="D8" s="6">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -5862,10 +5830,10 @@
         <v>150</v>
       </c>
       <c r="C9" s="6">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="D9" s="6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -5879,10 +5847,10 @@
         <v>320</v>
       </c>
       <c r="C10" s="6">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="D10" s="6">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -5896,10 +5864,10 @@
         <v>480</v>
       </c>
       <c r="C11" s="6">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D11" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -5913,10 +5881,10 @@
         <v>660</v>
       </c>
       <c r="C12" s="6">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="D12" s="6">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -5930,10 +5898,10 @@
         <v>840</v>
       </c>
       <c r="C13" s="6">
-        <v>1500</v>
+        <v>280</v>
       </c>
       <c r="D13" s="6">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -5947,10 +5915,10 @@
         <v>1110</v>
       </c>
       <c r="C14" s="6">
-        <v>2000</v>
+        <v>320</v>
       </c>
       <c r="D14" s="6">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="E14" s="6">
         <v>2</v>
@@ -5964,10 +5932,10 @@
         <v>2240</v>
       </c>
       <c r="C15" s="6">
-        <v>2500</v>
+        <v>360</v>
       </c>
       <c r="D15" s="6">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
@@ -5981,10 +5949,10 @@
         <v>3510</v>
       </c>
       <c r="C16" s="6">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="D16" s="6">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
@@ -5998,10 +5966,10 @@
         <v>4850</v>
       </c>
       <c r="C17" s="6">
-        <v>3500</v>
+        <v>600</v>
       </c>
       <c r="D17" s="6">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="E17" s="6">
         <v>2</v>
@@ -6015,10 +5983,10 @@
         <v>7090</v>
       </c>
       <c r="C18" s="6">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="D18" s="6">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="E18" s="6">
         <v>2</v>
@@ -6032,10 +6000,10 @@
         <v>8730</v>
       </c>
       <c r="C19" s="6">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="D19" s="6">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -6049,10 +6017,10 @@
         <v>10670</v>
       </c>
       <c r="C20" s="6">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="D20" s="6">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
@@ -6066,10 +6034,10 @@
         <v>12510</v>
       </c>
       <c r="C21" s="6">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="D21" s="6">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
@@ -6083,10 +6051,10 @@
         <v>17000</v>
       </c>
       <c r="C22" s="6">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="D22" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E22" s="6">
         <v>3</v>
@@ -6100,10 +6068,10 @@
         <v>19490</v>
       </c>
       <c r="C23" s="6">
-        <v>8000</v>
+        <v>2400</v>
       </c>
       <c r="D23" s="6">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
@@ -6117,10 +6085,10 @@
         <v>22490</v>
       </c>
       <c r="C24" s="6">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D24" s="6">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -6134,10 +6102,10 @@
         <v>25310</v>
       </c>
       <c r="C25" s="6">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="D25" s="6">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="E25" s="6">
         <v>3</v>
@@ -6151,10 +6119,10 @@
         <v>34580</v>
       </c>
       <c r="C26" s="6">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="D26" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="6">
         <v>3</v>
@@ -6168,10 +6136,10 @@
         <v>38600</v>
       </c>
       <c r="C27" s="6">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="D27" s="6">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="E27" s="6">
         <v>3</v>
@@ -6185,10 +6153,10 @@
         <v>43430</v>
       </c>
       <c r="C28" s="6">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="D28" s="6">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="E28" s="6">
         <v>3</v>
@@ -6202,10 +6170,10 @@
         <v>47990</v>
       </c>
       <c r="C29" s="6">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D29" s="6">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="E29" s="6">
         <v>3</v>
@@ -6219,10 +6187,10 @@
         <v>68300</v>
       </c>
       <c r="C30" s="6">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="D30" s="6">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -6236,10 +6204,10 @@
         <v>78840</v>
       </c>
       <c r="C31" s="6">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="D31" s="6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
@@ -6253,10 +6221,10 @@
         <v>91060</v>
       </c>
       <c r="C32" s="6">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="D32" s="6">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="6">
         <v>4</v>
@@ -6270,10 +6238,10 @@
         <v>103320</v>
       </c>
       <c r="C33" s="6">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="D33" s="6">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="E33" s="6">
         <v>4</v>
@@ -6287,10 +6255,10 @@
         <v>141420</v>
       </c>
       <c r="C34" s="6">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D34" s="6">
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="E34" s="6">
         <v>4</v>
@@ -6304,10 +6272,10 @@
         <v>158910</v>
       </c>
       <c r="C35" s="6">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="D35" s="6">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="E35" s="6">
         <v>4</v>
@@ -6321,10 +6289,10 @@
         <v>179000</v>
       </c>
       <c r="C36" s="6">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="D36" s="6">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E36" s="6">
         <v>4</v>
@@ -6338,10 +6306,10 @@
         <v>199230</v>
       </c>
       <c r="C37" s="6">
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="D37" s="6">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="E37" s="6">
         <v>4</v>
@@ -6355,10 +6323,10 @@
         <v>267930</v>
       </c>
       <c r="C38" s="6">
-        <v>72000</v>
+        <v>40000</v>
       </c>
       <c r="D38" s="6">
-        <v>6800</v>
+        <v>3400</v>
       </c>
       <c r="E38" s="6">
         <v>4</v>
@@ -6372,10 +6340,10 @@
         <v>296390</v>
       </c>
       <c r="C39" s="6">
-        <v>80000</v>
+        <v>48000</v>
       </c>
       <c r="D39" s="6">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="E39" s="6">
         <v>4</v>
@@ -6389,10 +6357,10 @@
         <v>328590</v>
       </c>
       <c r="C40" s="6">
-        <v>88000</v>
+        <v>56000</v>
       </c>
       <c r="D40" s="6">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="E40" s="6">
         <v>4</v>
@@ -6406,10 +6374,10 @@
         <v>361430</v>
       </c>
       <c r="C41" s="6">
-        <v>96000</v>
+        <v>72000</v>
       </c>
       <c r="D41" s="6">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E41" s="6">
         <v>4</v>
@@ -9782,7 +9750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -9801,7 +9769,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -15301,7 +15269,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:F41"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15311,22 +15279,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -15334,16 +15302,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3">
         <v>15</v>
@@ -15354,16 +15322,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -15374,16 +15342,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -15394,16 +15362,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -15414,16 +15382,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -15434,16 +15402,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E7" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -15454,16 +15422,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="C8" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="D8" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="E8" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -15474,16 +15442,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="D9" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="E9" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="F9" s="3">
         <v>160</v>
@@ -15494,16 +15462,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="C10" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="E10" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="F10" s="3">
         <v>350</v>
@@ -15514,16 +15482,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="C11" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="D11" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="E11" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="F11" s="3">
         <v>520</v>
@@ -15534,16 +15502,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C12" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D12" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E12" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>730</v>
@@ -15554,16 +15522,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="C13" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="D13" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="E13" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="F13" s="3">
         <v>920</v>
@@ -15574,16 +15542,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="C14" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="E14" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="F14" s="3">
         <v>1220</v>
@@ -15594,16 +15562,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1040</v>
+        <v>520</v>
       </c>
       <c r="C15" s="1">
-        <v>1040</v>
+        <v>520</v>
       </c>
       <c r="D15" s="1">
-        <v>1040</v>
+        <v>520</v>
       </c>
       <c r="E15" s="1">
-        <v>1040</v>
+        <v>520</v>
       </c>
       <c r="F15" s="3">
         <v>2470</v>
@@ -15614,16 +15582,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1120</v>
+        <v>560</v>
       </c>
       <c r="C16" s="1">
-        <v>1120</v>
+        <v>560</v>
       </c>
       <c r="D16" s="1">
-        <v>1120</v>
+        <v>560</v>
       </c>
       <c r="E16" s="1">
-        <v>1120</v>
+        <v>560</v>
       </c>
       <c r="F16" s="3">
         <v>3860</v>
@@ -15634,16 +15602,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="C17" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="D17" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E17" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>5340</v>
@@ -15654,16 +15622,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1280</v>
+        <v>640</v>
       </c>
       <c r="C18" s="1">
-        <v>1280</v>
+        <v>640</v>
       </c>
       <c r="D18" s="1">
-        <v>1280</v>
+        <v>640</v>
       </c>
       <c r="E18" s="1">
-        <v>1280</v>
+        <v>640</v>
       </c>
       <c r="F18" s="3">
         <v>7800</v>
@@ -15674,16 +15642,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="C19" s="1">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="D19" s="1">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="E19" s="1">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="F19" s="3">
         <v>9610</v>
@@ -15694,16 +15662,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="C20" s="1">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="D20" s="1">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="E20" s="1">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="F20" s="3">
         <v>11730</v>
@@ -15714,16 +15682,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1520</v>
+        <v>760</v>
       </c>
       <c r="C21" s="1">
-        <v>1520</v>
+        <v>760</v>
       </c>
       <c r="D21" s="1">
-        <v>1520</v>
+        <v>760</v>
       </c>
       <c r="E21" s="1">
-        <v>1520</v>
+        <v>760</v>
       </c>
       <c r="F21" s="3">
         <v>13770</v>
@@ -15734,16 +15702,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="C22" s="1">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D22" s="1">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="E22" s="1">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>18700</v>
@@ -15754,16 +15722,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1680</v>
+        <v>840</v>
       </c>
       <c r="C23" s="1">
-        <v>1680</v>
+        <v>840</v>
       </c>
       <c r="D23" s="1">
-        <v>1680</v>
+        <v>840</v>
       </c>
       <c r="E23" s="1">
-        <v>1680</v>
+        <v>840</v>
       </c>
       <c r="F23" s="3">
         <v>21440</v>
@@ -15774,16 +15742,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1760</v>
+        <v>880</v>
       </c>
       <c r="C24" s="1">
-        <v>1760</v>
+        <v>880</v>
       </c>
       <c r="D24" s="1">
-        <v>1760</v>
+        <v>880</v>
       </c>
       <c r="E24" s="1">
-        <v>1760</v>
+        <v>880</v>
       </c>
       <c r="F24" s="3">
         <v>24740</v>
@@ -15794,16 +15762,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1840</v>
+        <v>920</v>
       </c>
       <c r="C25" s="1">
-        <v>1840</v>
+        <v>920</v>
       </c>
       <c r="D25" s="1">
-        <v>1840</v>
+        <v>920</v>
       </c>
       <c r="E25" s="1">
-        <v>1840</v>
+        <v>920</v>
       </c>
       <c r="F25" s="3">
         <v>27850</v>
@@ -15814,16 +15782,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="C26" s="1">
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="D26" s="1">
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="E26" s="1">
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="F26" s="3">
         <v>38030</v>
@@ -15834,16 +15802,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C27" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="3">
         <v>42460</v>
@@ -15854,16 +15822,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="C28" s="1">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="D28" s="1">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="E28" s="1">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="F28" s="3">
         <v>47770</v>
@@ -15874,16 +15842,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="C29" s="1">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="D29" s="1">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="1">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="F29" s="3">
         <v>52780</v>
@@ -15894,16 +15862,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="C30" s="1">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="D30" s="1">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="E30" s="1">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="F30" s="3">
         <v>75130</v>
@@ -15914,16 +15882,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="C31" s="1">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="D31" s="1">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="E31" s="1">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="F31" s="3">
         <v>86730</v>
@@ -15934,16 +15902,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="C32" s="1">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="D32" s="1">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="1">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="F32" s="3">
         <v>100170</v>
@@ -15954,16 +15922,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="C33" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D33" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F33" s="3">
         <v>113650</v>
@@ -15974,16 +15942,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="C34" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="D34" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="E34" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="F34" s="3">
         <v>155560</v>
@@ -15994,16 +15962,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="C35" s="1">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="D35" s="1">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="E35" s="1">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="F35" s="3">
         <v>174800</v>
@@ -16014,16 +15982,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="C36" s="1">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="D36" s="1">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="E36" s="1">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="F36" s="3">
         <v>196900</v>
@@ -16034,16 +16002,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="C37" s="1">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="D37" s="1">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="E37" s="1">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="F37" s="3">
         <v>219150</v>
@@ -16054,16 +16022,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="C38" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="D38" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="E38" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="F38" s="3">
         <v>294720</v>
@@ -16074,16 +16042,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>8800</v>
+        <v>4400</v>
       </c>
       <c r="C39" s="1">
-        <v>8800</v>
+        <v>4400</v>
       </c>
       <c r="D39" s="1">
-        <v>8800</v>
+        <v>4400</v>
       </c>
       <c r="E39" s="1">
-        <v>8800</v>
+        <v>4400</v>
       </c>
       <c r="F39" s="3">
         <v>326020</v>
@@ -16094,16 +16062,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="C40" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D40" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E40" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F40" s="1">
         <v>361440</v>
@@ -16114,16 +16082,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="C41" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="D41" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="E41" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F41" s="1">
         <v>397570</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883"/>
+    <workbookView xWindow="1320" yWindow="1280" windowWidth="33980" windowHeight="15220" tabRatio="883" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>FLOAT_efficiency</t>
   </si>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_level</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_productBmWood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -326,10 +322,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_power</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_production</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -350,11 +342,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>INT_dragonCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>INT_dragonMaterials</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_dragonCount</t>
+    <t>INT_power</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="698">
+  <cellStyleXfs count="716">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -557,6 +553,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1270,7 +1284,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="698">
+  <cellStyles count="716">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1622,6 +1636,15 @@
     <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1966,6 +1989,15 @@
     <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2417,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2462,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>20</v>
@@ -2476,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
@@ -2490,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3">
         <v>40</v>
@@ -2504,7 +2536,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
         <v>60</v>
@@ -2518,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <v>70</v>
@@ -2532,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
         <v>130</v>
@@ -2546,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3">
         <v>270</v>
@@ -2560,7 +2592,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>610</v>
@@ -2574,7 +2606,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
         <v>930</v>
@@ -2588,7 +2620,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>1300</v>
@@ -2602,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3">
         <v>1650</v>
@@ -2616,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>2190</v>
@@ -2630,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
         <v>4460</v>
@@ -2644,7 +2676,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
         <v>6990</v>
@@ -2658,7 +2690,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3">
         <v>9680</v>
@@ -2672,7 +2704,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3">
         <v>14160</v>
@@ -2686,7 +2718,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3">
         <v>17440</v>
@@ -2700,7 +2732,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3">
         <v>21310</v>
@@ -2714,7 +2746,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
         <v>25000</v>
@@ -2728,7 +2760,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3">
         <v>33980</v>
@@ -2742,7 +2774,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3">
         <v>38950</v>
@@ -2756,7 +2788,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3">
         <v>44960</v>
@@ -2770,7 +2802,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3">
         <v>50600</v>
@@ -2784,7 +2816,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3">
         <v>69130</v>
@@ -2798,7 +2830,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3">
         <v>77180</v>
@@ -2812,7 +2844,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3">
         <v>86830</v>
@@ -2826,7 +2858,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3">
         <v>95950</v>
@@ -2840,7 +2872,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3">
         <v>136570</v>
@@ -2854,7 +2886,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3">
         <v>157660</v>
@@ -2868,7 +2900,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D32" s="3">
         <v>182100</v>
@@ -2882,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D33" s="3">
         <v>206620</v>
@@ -2896,7 +2928,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D34" s="3">
         <v>282820</v>
@@ -2910,7 +2942,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3">
         <v>317800</v>
@@ -2924,7 +2956,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3">
         <v>357980</v>
@@ -2938,7 +2970,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D37" s="3">
         <v>398440</v>
@@ -2952,7 +2984,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D38" s="3">
         <v>535830</v>
@@ -2966,7 +2998,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1">
         <v>592750</v>
@@ -2980,7 +3012,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1">
         <v>657150</v>
@@ -2994,7 +3026,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1">
         <v>722840</v>
@@ -3016,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3492,7 +3524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -4095,7 +4127,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4105,40 +4137,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -4222,31 +4254,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>11880</v>
+        <v>15840</v>
       </c>
       <c r="E4" s="1">
-        <v>11880</v>
+        <v>15840</v>
       </c>
       <c r="F4" s="1">
-        <v>11880</v>
+        <v>15840</v>
       </c>
       <c r="G4" s="1">
         <v>480</v>
       </c>
       <c r="H4" s="1">
-        <v>23760</v>
+        <v>31680</v>
       </c>
       <c r="I4" s="1">
-        <v>23760</v>
+        <v>31680</v>
       </c>
       <c r="J4" s="1">
-        <v>23760</v>
+        <v>31680</v>
       </c>
       <c r="K4" s="1">
         <v>960</v>
@@ -4260,31 +4292,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>15760</v>
+        <v>23640</v>
       </c>
       <c r="E5" s="1">
-        <v>15760</v>
+        <v>23640</v>
       </c>
       <c r="F5" s="1">
-        <v>15760</v>
+        <v>23640</v>
       </c>
       <c r="G5" s="1">
         <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>31520</v>
+        <v>47280</v>
       </c>
       <c r="I5" s="1">
-        <v>31520</v>
+        <v>47280</v>
       </c>
       <c r="J5" s="1">
-        <v>31520</v>
+        <v>47280</v>
       </c>
       <c r="K5" s="1">
         <v>1280</v>
@@ -4298,31 +4330,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>19600</v>
+        <v>31360</v>
       </c>
       <c r="E6" s="1">
-        <v>19600</v>
+        <v>31360</v>
       </c>
       <c r="F6" s="1">
-        <v>19600</v>
+        <v>31360</v>
       </c>
       <c r="G6" s="1">
         <v>800</v>
       </c>
       <c r="H6" s="1">
-        <v>39200</v>
+        <v>62720</v>
       </c>
       <c r="I6" s="1">
-        <v>39200</v>
+        <v>62720</v>
       </c>
       <c r="J6" s="1">
-        <v>39200</v>
+        <v>62720</v>
       </c>
       <c r="K6" s="1">
         <v>1600</v>
@@ -4336,31 +4368,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>23400</v>
+        <v>39000</v>
       </c>
       <c r="E7" s="1">
-        <v>23400</v>
+        <v>39000</v>
       </c>
       <c r="F7" s="1">
-        <v>23400</v>
+        <v>39000</v>
       </c>
       <c r="G7" s="1">
         <v>960</v>
       </c>
       <c r="H7" s="1">
-        <v>46800</v>
+        <v>78000</v>
       </c>
       <c r="I7" s="1">
-        <v>46800</v>
+        <v>78000</v>
       </c>
       <c r="J7" s="1">
-        <v>46800</v>
+        <v>78000</v>
       </c>
       <c r="K7" s="1">
         <v>1920</v>
@@ -4374,31 +4406,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>27160</v>
+        <v>46560</v>
       </c>
       <c r="E8" s="1">
-        <v>27160</v>
+        <v>46560</v>
       </c>
       <c r="F8" s="1">
-        <v>27160</v>
+        <v>46560</v>
       </c>
       <c r="G8" s="1">
         <v>1120</v>
       </c>
       <c r="H8" s="1">
-        <v>54320</v>
+        <v>93120</v>
       </c>
       <c r="I8" s="1">
-        <v>54320</v>
+        <v>93120</v>
       </c>
       <c r="J8" s="1">
-        <v>54320</v>
+        <v>93120</v>
       </c>
       <c r="K8" s="1">
         <v>2240</v>
@@ -4412,31 +4444,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>30880</v>
+        <v>57900</v>
       </c>
       <c r="E9" s="1">
-        <v>30880</v>
+        <v>57900</v>
       </c>
       <c r="F9" s="1">
-        <v>30880</v>
+        <v>57900</v>
       </c>
       <c r="G9" s="1">
         <v>1280</v>
       </c>
       <c r="H9" s="1">
-        <v>61760</v>
+        <v>115800</v>
       </c>
       <c r="I9" s="1">
-        <v>61760</v>
+        <v>115800</v>
       </c>
       <c r="J9" s="1">
-        <v>61760</v>
+        <v>115800</v>
       </c>
       <c r="K9" s="1">
         <v>2560</v>
@@ -4450,31 +4482,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>34560</v>
+        <v>76800</v>
       </c>
       <c r="E10" s="1">
-        <v>34560</v>
+        <v>76800</v>
       </c>
       <c r="F10" s="1">
-        <v>34560</v>
+        <v>76800</v>
       </c>
       <c r="G10" s="1">
         <v>1440</v>
       </c>
       <c r="H10" s="1">
-        <v>69120</v>
+        <v>153600</v>
       </c>
       <c r="I10" s="1">
-        <v>69120</v>
+        <v>153600</v>
       </c>
       <c r="J10" s="1">
-        <v>69120</v>
+        <v>153600</v>
       </c>
       <c r="K10" s="1">
         <v>2880</v>
@@ -4488,31 +4520,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>38200</v>
+        <v>95500</v>
       </c>
       <c r="E11" s="1">
-        <v>38200</v>
+        <v>95500</v>
       </c>
       <c r="F11" s="1">
-        <v>38200</v>
+        <v>95500</v>
       </c>
       <c r="G11" s="1">
         <v>1600</v>
       </c>
       <c r="H11" s="1">
-        <v>76400</v>
+        <v>191000</v>
       </c>
       <c r="I11" s="1">
-        <v>76400</v>
+        <v>191000</v>
       </c>
       <c r="J11" s="1">
-        <v>76400</v>
+        <v>191000</v>
       </c>
       <c r="K11" s="1">
         <v>3200</v>
@@ -4526,31 +4558,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>41800</v>
+        <v>114000</v>
       </c>
       <c r="E12" s="1">
-        <v>41800</v>
+        <v>114000</v>
       </c>
       <c r="F12" s="1">
-        <v>41800</v>
+        <v>114000</v>
       </c>
       <c r="G12" s="1">
         <v>1760</v>
       </c>
       <c r="H12" s="1">
-        <v>83600</v>
+        <v>228000</v>
       </c>
       <c r="I12" s="1">
-        <v>83600</v>
+        <v>228000</v>
       </c>
       <c r="J12" s="1">
-        <v>83600</v>
+        <v>228000</v>
       </c>
       <c r="K12" s="1">
         <v>3520</v>
@@ -4564,31 +4596,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>45360</v>
+        <v>132300</v>
       </c>
       <c r="E13" s="1">
-        <v>45360</v>
+        <v>132300</v>
       </c>
       <c r="F13" s="1">
-        <v>45360</v>
+        <v>132300</v>
       </c>
       <c r="G13" s="1">
         <v>1920</v>
       </c>
       <c r="H13" s="1">
-        <v>90720</v>
+        <v>264600</v>
       </c>
       <c r="I13" s="1">
-        <v>90720</v>
+        <v>264600</v>
       </c>
       <c r="J13" s="1">
-        <v>90720</v>
+        <v>264600</v>
       </c>
       <c r="K13" s="1">
         <v>3840</v>
@@ -4602,31 +4634,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>48880</v>
+        <v>150400</v>
       </c>
       <c r="E14" s="1">
-        <v>48880</v>
+        <v>150400</v>
       </c>
       <c r="F14" s="1">
-        <v>48880</v>
+        <v>150400</v>
       </c>
       <c r="G14" s="1">
         <v>2080</v>
       </c>
       <c r="H14" s="1">
-        <v>97760</v>
+        <v>300800</v>
       </c>
       <c r="I14" s="1">
-        <v>97760</v>
+        <v>300800</v>
       </c>
       <c r="J14" s="1">
-        <v>97760</v>
+        <v>300800</v>
       </c>
       <c r="K14" s="1">
         <v>4160</v>
@@ -4640,31 +4672,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>52360</v>
+        <v>168300</v>
       </c>
       <c r="E15" s="1">
-        <v>52360</v>
+        <v>168300</v>
       </c>
       <c r="F15" s="1">
-        <v>52360</v>
+        <v>168300</v>
       </c>
       <c r="G15" s="1">
         <v>2240</v>
       </c>
       <c r="H15" s="1">
-        <v>104720</v>
+        <v>336600</v>
       </c>
       <c r="I15" s="1">
-        <v>104720</v>
+        <v>336600</v>
       </c>
       <c r="J15" s="1">
-        <v>104720</v>
+        <v>336600</v>
       </c>
       <c r="K15" s="1">
         <v>4480</v>
@@ -4678,31 +4710,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>55800</v>
+        <v>186000</v>
       </c>
       <c r="E16" s="1">
-        <v>55800</v>
+        <v>186000</v>
       </c>
       <c r="F16" s="1">
-        <v>55800</v>
+        <v>186000</v>
       </c>
       <c r="G16" s="1">
         <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>111600</v>
+        <v>372000</v>
       </c>
       <c r="I16" s="1">
-        <v>111600</v>
+        <v>372000</v>
       </c>
       <c r="J16" s="1">
-        <v>111600</v>
+        <v>372000</v>
       </c>
       <c r="K16" s="1">
         <v>4800</v>
@@ -4716,31 +4748,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>59200</v>
+        <v>203500</v>
       </c>
       <c r="E17" s="1">
-        <v>59200</v>
+        <v>203500</v>
       </c>
       <c r="F17" s="1">
-        <v>59200</v>
+        <v>203500</v>
       </c>
       <c r="G17" s="1">
         <v>2560</v>
       </c>
       <c r="H17" s="1">
-        <v>118400</v>
+        <v>407000</v>
       </c>
       <c r="I17" s="1">
-        <v>118400</v>
+        <v>407000</v>
       </c>
       <c r="J17" s="1">
-        <v>118400</v>
+        <v>407000</v>
       </c>
       <c r="K17" s="1">
         <v>5120</v>
@@ -4754,31 +4786,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>66240</v>
+        <v>220800</v>
       </c>
       <c r="E18" s="1">
-        <v>66240</v>
+        <v>220800</v>
       </c>
       <c r="F18" s="1">
-        <v>66240</v>
+        <v>220800</v>
       </c>
       <c r="G18" s="1">
         <v>2880</v>
       </c>
       <c r="H18" s="1">
-        <v>132480</v>
+        <v>441600</v>
       </c>
       <c r="I18" s="1">
-        <v>132480</v>
+        <v>441600</v>
       </c>
       <c r="J18" s="1">
-        <v>132480</v>
+        <v>441600</v>
       </c>
       <c r="K18" s="1">
         <v>5760</v>
@@ -4792,31 +4824,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>73200</v>
+        <v>237900</v>
       </c>
       <c r="E19" s="1">
-        <v>73200</v>
+        <v>237900</v>
       </c>
       <c r="F19" s="1">
-        <v>73200</v>
+        <v>237900</v>
       </c>
       <c r="G19" s="1">
         <v>3200</v>
       </c>
       <c r="H19" s="1">
-        <v>146400</v>
+        <v>475800</v>
       </c>
       <c r="I19" s="1">
-        <v>146400</v>
+        <v>475800</v>
       </c>
       <c r="J19" s="1">
-        <v>146400</v>
+        <v>475800</v>
       </c>
       <c r="K19" s="1">
         <v>6400</v>
@@ -4830,31 +4862,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>80080</v>
+        <v>254800</v>
       </c>
       <c r="E20" s="1">
-        <v>80080</v>
+        <v>254800</v>
       </c>
       <c r="F20" s="1">
-        <v>80080</v>
+        <v>254800</v>
       </c>
       <c r="G20" s="1">
         <v>3520</v>
       </c>
       <c r="H20" s="1">
-        <v>160160</v>
+        <v>509600</v>
       </c>
       <c r="I20" s="1">
-        <v>160160</v>
+        <v>509600</v>
       </c>
       <c r="J20" s="1">
-        <v>160160</v>
+        <v>509600</v>
       </c>
       <c r="K20" s="1">
         <v>7040</v>
@@ -4868,31 +4900,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>86880</v>
+        <v>271500</v>
       </c>
       <c r="E21" s="1">
-        <v>86880</v>
+        <v>271500</v>
       </c>
       <c r="F21" s="1">
-        <v>86880</v>
+        <v>271500</v>
       </c>
       <c r="G21" s="1">
         <v>3840</v>
       </c>
       <c r="H21" s="1">
-        <v>173760</v>
+        <v>543000</v>
       </c>
       <c r="I21" s="1">
-        <v>173760</v>
+        <v>543000</v>
       </c>
       <c r="J21" s="1">
-        <v>173760</v>
+        <v>543000</v>
       </c>
       <c r="K21" s="1">
         <v>7680</v>
@@ -4906,31 +4938,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>93600</v>
+        <v>288000</v>
       </c>
       <c r="E22" s="1">
-        <v>93600</v>
+        <v>288000</v>
       </c>
       <c r="F22" s="1">
-        <v>93600</v>
+        <v>288000</v>
       </c>
       <c r="G22" s="1">
         <v>4160</v>
       </c>
       <c r="H22" s="1">
-        <v>187200</v>
+        <v>576000</v>
       </c>
       <c r="I22" s="1">
-        <v>187200</v>
+        <v>576000</v>
       </c>
       <c r="J22" s="1">
-        <v>187200</v>
+        <v>576000</v>
       </c>
       <c r="K22" s="1">
         <v>8320</v>
@@ -4944,31 +4976,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>100240</v>
+        <v>304300</v>
       </c>
       <c r="E23" s="1">
-        <v>100240</v>
+        <v>304300</v>
       </c>
       <c r="F23" s="1">
-        <v>100240</v>
+        <v>304300</v>
       </c>
       <c r="G23" s="1">
         <v>4480</v>
       </c>
       <c r="H23" s="1">
-        <v>200480</v>
+        <v>608600</v>
       </c>
       <c r="I23" s="1">
-        <v>200480</v>
+        <v>608600</v>
       </c>
       <c r="J23" s="1">
-        <v>200480</v>
+        <v>608600</v>
       </c>
       <c r="K23" s="1">
         <v>8960</v>
@@ -4982,31 +5014,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>106800</v>
+        <v>320400</v>
       </c>
       <c r="E24" s="1">
-        <v>106800</v>
+        <v>320400</v>
       </c>
       <c r="F24" s="1">
-        <v>106800</v>
+        <v>320400</v>
       </c>
       <c r="G24" s="1">
         <v>4800</v>
       </c>
       <c r="H24" s="1">
-        <v>213600</v>
+        <v>640800</v>
       </c>
       <c r="I24" s="1">
-        <v>213600</v>
+        <v>640800</v>
       </c>
       <c r="J24" s="1">
-        <v>213600</v>
+        <v>640800</v>
       </c>
       <c r="K24" s="1">
         <v>9600</v>
@@ -5020,31 +5052,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>113280</v>
+        <v>336300</v>
       </c>
       <c r="E25" s="1">
-        <v>113280</v>
+        <v>336300</v>
       </c>
       <c r="F25" s="1">
-        <v>113280</v>
+        <v>336300</v>
       </c>
       <c r="G25" s="1">
         <v>5120</v>
       </c>
       <c r="H25" s="1">
-        <v>226560</v>
+        <v>672600</v>
       </c>
       <c r="I25" s="1">
-        <v>226560</v>
+        <v>672600</v>
       </c>
       <c r="J25" s="1">
-        <v>226560</v>
+        <v>672600</v>
       </c>
       <c r="K25" s="1">
         <v>10240</v>
@@ -5058,31 +5090,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>119680</v>
+        <v>352000</v>
       </c>
       <c r="E26" s="1">
-        <v>119680</v>
+        <v>352000</v>
       </c>
       <c r="F26" s="1">
-        <v>119680</v>
+        <v>352000</v>
       </c>
       <c r="G26" s="1">
         <v>5440</v>
       </c>
       <c r="H26" s="1">
-        <v>239360</v>
+        <v>704000</v>
       </c>
       <c r="I26" s="1">
-        <v>239360</v>
+        <v>704000</v>
       </c>
       <c r="J26" s="1">
-        <v>239360</v>
+        <v>704000</v>
       </c>
       <c r="K26" s="1">
         <v>10880</v>
@@ -5096,31 +5128,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>126000</v>
+        <v>385000</v>
       </c>
       <c r="E27" s="1">
-        <v>126000</v>
+        <v>385000</v>
       </c>
       <c r="F27" s="1">
-        <v>126000</v>
+        <v>385000</v>
       </c>
       <c r="G27" s="1">
         <v>5760</v>
       </c>
       <c r="H27" s="1">
-        <v>252000</v>
+        <v>770000</v>
       </c>
       <c r="I27" s="1">
-        <v>252000</v>
+        <v>770000</v>
       </c>
       <c r="J27" s="1">
-        <v>252000</v>
+        <v>770000</v>
       </c>
       <c r="K27" s="1">
         <v>11520</v>
@@ -5134,31 +5166,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>132240</v>
+        <v>417600</v>
       </c>
       <c r="E28" s="1">
-        <v>132240</v>
+        <v>417600</v>
       </c>
       <c r="F28" s="1">
-        <v>132240</v>
+        <v>417600</v>
       </c>
       <c r="G28" s="1">
         <v>6080</v>
       </c>
       <c r="H28" s="1">
-        <v>264480</v>
+        <v>835200</v>
       </c>
       <c r="I28" s="1">
-        <v>264480</v>
+        <v>835200</v>
       </c>
       <c r="J28" s="1">
-        <v>264480</v>
+        <v>835200</v>
       </c>
       <c r="K28" s="1">
         <v>12160</v>
@@ -5172,31 +5204,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>138400</v>
+        <v>449800</v>
       </c>
       <c r="E29" s="1">
-        <v>138400</v>
+        <v>449800</v>
       </c>
       <c r="F29" s="1">
-        <v>138400</v>
+        <v>449800</v>
       </c>
       <c r="G29" s="1">
         <v>6400</v>
       </c>
       <c r="H29" s="1">
-        <v>276800</v>
+        <v>899600</v>
       </c>
       <c r="I29" s="1">
-        <v>276800</v>
+        <v>899600</v>
       </c>
       <c r="J29" s="1">
-        <v>276800</v>
+        <v>899600</v>
       </c>
       <c r="K29" s="1">
         <v>12800</v>
@@ -5210,31 +5242,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>154800</v>
+        <v>481600</v>
       </c>
       <c r="E30" s="1">
-        <v>154800</v>
+        <v>481600</v>
       </c>
       <c r="F30" s="1">
-        <v>154800</v>
+        <v>481600</v>
       </c>
       <c r="G30" s="1">
         <v>7200</v>
       </c>
       <c r="H30" s="1">
-        <v>309600</v>
+        <v>963200</v>
       </c>
       <c r="I30" s="1">
-        <v>309600</v>
+        <v>963200</v>
       </c>
       <c r="J30" s="1">
-        <v>309600</v>
+        <v>963200</v>
       </c>
       <c r="K30" s="1">
         <v>14400</v>
@@ -5248,31 +5280,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>171000</v>
+        <v>513000</v>
       </c>
       <c r="E31" s="1">
-        <v>171000</v>
+        <v>513000</v>
       </c>
       <c r="F31" s="1">
-        <v>171000</v>
+        <v>513000</v>
       </c>
       <c r="G31" s="1">
         <v>8000</v>
       </c>
       <c r="H31" s="1">
-        <v>342000</v>
+        <v>1026000</v>
       </c>
       <c r="I31" s="1">
-        <v>342000</v>
+        <v>1026000</v>
       </c>
       <c r="J31" s="1">
-        <v>342000</v>
+        <v>1026000</v>
       </c>
       <c r="K31" s="1">
         <v>16000</v>
@@ -5286,31 +5318,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>187000</v>
+        <v>544000</v>
       </c>
       <c r="E32" s="1">
-        <v>187000</v>
+        <v>544000</v>
       </c>
       <c r="F32" s="1">
-        <v>187000</v>
+        <v>544000</v>
       </c>
       <c r="G32" s="1">
         <v>8800</v>
       </c>
       <c r="H32" s="1">
-        <v>374000</v>
+        <v>1088000</v>
       </c>
       <c r="I32" s="1">
-        <v>374000</v>
+        <v>1088000</v>
       </c>
       <c r="J32" s="1">
-        <v>374000</v>
+        <v>1088000</v>
       </c>
       <c r="K32" s="1">
         <v>17600</v>
@@ -5324,31 +5356,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>202800</v>
+        <v>574600</v>
       </c>
       <c r="E33" s="1">
-        <v>202800</v>
+        <v>574600</v>
       </c>
       <c r="F33" s="1">
-        <v>202800</v>
+        <v>574600</v>
       </c>
       <c r="G33" s="1">
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>405600</v>
+        <v>1149200</v>
       </c>
       <c r="I33" s="1">
-        <v>405600</v>
+        <v>1149200</v>
       </c>
       <c r="J33" s="1">
-        <v>405600</v>
+        <v>1149200</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
@@ -5362,31 +5394,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>218400</v>
+        <v>604800</v>
       </c>
       <c r="E34" s="1">
-        <v>218400</v>
+        <v>604800</v>
       </c>
       <c r="F34" s="1">
-        <v>218400</v>
+        <v>604800</v>
       </c>
       <c r="G34" s="1">
         <v>10400</v>
       </c>
       <c r="H34" s="1">
-        <v>436800</v>
+        <v>1209600</v>
       </c>
       <c r="I34" s="1">
-        <v>436800</v>
+        <v>1209600</v>
       </c>
       <c r="J34" s="1">
-        <v>436800</v>
+        <v>1209600</v>
       </c>
       <c r="K34" s="1">
         <v>20800</v>
@@ -5400,31 +5432,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>233800</v>
+        <v>634600</v>
       </c>
       <c r="E35" s="1">
-        <v>233800</v>
+        <v>634600</v>
       </c>
       <c r="F35" s="1">
-        <v>233800</v>
+        <v>634600</v>
       </c>
       <c r="G35" s="1">
         <v>11200</v>
       </c>
       <c r="H35" s="1">
-        <v>467600</v>
+        <v>1269200</v>
       </c>
       <c r="I35" s="1">
-        <v>467600</v>
+        <v>1269200</v>
       </c>
       <c r="J35" s="1">
-        <v>467600</v>
+        <v>1269200</v>
       </c>
       <c r="K35" s="1">
         <v>22400</v>
@@ -5438,31 +5470,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>249000</v>
+        <v>664000</v>
       </c>
       <c r="E36" s="1">
-        <v>249000</v>
+        <v>664000</v>
       </c>
       <c r="F36" s="1">
-        <v>249000</v>
+        <v>664000</v>
       </c>
       <c r="G36" s="1">
         <v>12000</v>
       </c>
       <c r="H36" s="1">
-        <v>498000</v>
+        <v>1328000</v>
       </c>
       <c r="I36" s="1">
-        <v>498000</v>
+        <v>1328000</v>
       </c>
       <c r="J36" s="1">
-        <v>498000</v>
+        <v>1328000</v>
       </c>
       <c r="K36" s="1">
         <v>24000</v>
@@ -5476,31 +5508,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>264000</v>
+        <v>693000</v>
       </c>
       <c r="E37" s="1">
-        <v>264000</v>
+        <v>693000</v>
       </c>
       <c r="F37" s="1">
-        <v>264000</v>
+        <v>693000</v>
       </c>
       <c r="G37" s="1">
         <v>12800</v>
       </c>
       <c r="H37" s="1">
-        <v>528000</v>
+        <v>1386000</v>
       </c>
       <c r="I37" s="1">
-        <v>528000</v>
+        <v>1386000</v>
       </c>
       <c r="J37" s="1">
-        <v>528000</v>
+        <v>1386000</v>
       </c>
       <c r="K37" s="1">
         <v>25600</v>
@@ -5514,31 +5546,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>278800</v>
+        <v>721600</v>
       </c>
       <c r="E38" s="1">
-        <v>278800</v>
+        <v>721600</v>
       </c>
       <c r="F38" s="1">
-        <v>278800</v>
+        <v>721600</v>
       </c>
       <c r="G38" s="1">
         <v>13600</v>
       </c>
       <c r="H38" s="1">
-        <v>557600</v>
+        <v>1443200</v>
       </c>
       <c r="I38" s="1">
-        <v>557600</v>
+        <v>1443200</v>
       </c>
       <c r="J38" s="1">
-        <v>557600</v>
+        <v>1443200</v>
       </c>
       <c r="K38" s="1">
         <v>27200</v>
@@ -5552,31 +5584,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>293400</v>
+        <v>749800</v>
       </c>
       <c r="E39" s="1">
-        <v>293400</v>
+        <v>749800</v>
       </c>
       <c r="F39" s="1">
-        <v>293400</v>
+        <v>749800</v>
       </c>
       <c r="G39" s="1">
         <v>14400</v>
       </c>
       <c r="H39" s="1">
-        <v>586800</v>
+        <v>1499600</v>
       </c>
       <c r="I39" s="1">
-        <v>586800</v>
+        <v>1499600</v>
       </c>
       <c r="J39" s="1">
-        <v>586800</v>
+        <v>1499600</v>
       </c>
       <c r="K39" s="1">
         <v>28800</v>
@@ -5590,31 +5622,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>307800</v>
+        <v>777600</v>
       </c>
       <c r="E40" s="1">
-        <v>307800</v>
+        <v>777600</v>
       </c>
       <c r="F40" s="1">
-        <v>307800</v>
+        <v>777600</v>
       </c>
       <c r="G40" s="1">
         <v>15200</v>
       </c>
       <c r="H40" s="1">
-        <v>615600</v>
+        <v>1555200</v>
       </c>
       <c r="I40" s="1">
-        <v>615600</v>
+        <v>1555200</v>
       </c>
       <c r="J40" s="1">
-        <v>615600</v>
+        <v>1555200</v>
       </c>
       <c r="K40" s="1">
         <v>30400</v>
@@ -5628,31 +5660,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>320000</v>
+        <v>800000</v>
       </c>
       <c r="E41" s="1">
-        <v>320000</v>
+        <v>800000</v>
       </c>
       <c r="F41" s="1">
-        <v>320000</v>
+        <v>800000</v>
       </c>
       <c r="G41" s="1">
         <v>16000</v>
       </c>
       <c r="H41" s="1">
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="I41" s="1">
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="J41" s="1">
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="K41" s="1">
         <v>32000</v>
@@ -5677,8 +5709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5714,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -5728,10 +5760,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="6">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6">
         <v>40</v>
-      </c>
-      <c r="D3" s="6">
-        <v>20</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -5745,10 +5777,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="6">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6">
         <v>60</v>
-      </c>
-      <c r="D4" s="6">
-        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -5762,10 +5794,10 @@
         <v>35</v>
       </c>
       <c r="C5" s="6">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6">
         <v>80</v>
-      </c>
-      <c r="D5" s="6">
-        <v>40</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -5779,10 +5811,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="6">
+        <v>200</v>
+      </c>
+      <c r="D6" s="6">
         <v>100</v>
-      </c>
-      <c r="D6" s="6">
-        <v>50</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -5796,10 +5828,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="6">
+        <v>250</v>
+      </c>
+      <c r="D7" s="6">
         <v>120</v>
-      </c>
-      <c r="D7" s="6">
-        <v>60</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -5813,10 +5845,10 @@
         <v>80</v>
       </c>
       <c r="C8" s="6">
+        <v>300</v>
+      </c>
+      <c r="D8" s="6">
         <v>140</v>
-      </c>
-      <c r="D8" s="6">
-        <v>70</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -5830,10 +5862,10 @@
         <v>150</v>
       </c>
       <c r="C9" s="6">
+        <v>400</v>
+      </c>
+      <c r="D9" s="6">
         <v>160</v>
-      </c>
-      <c r="D9" s="6">
-        <v>80</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -5847,10 +5879,10 @@
         <v>320</v>
       </c>
       <c r="C10" s="6">
+        <v>600</v>
+      </c>
+      <c r="D10" s="6">
         <v>180</v>
-      </c>
-      <c r="D10" s="6">
-        <v>90</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -5864,10 +5896,10 @@
         <v>480</v>
       </c>
       <c r="C11" s="6">
+        <v>800</v>
+      </c>
+      <c r="D11" s="6">
         <v>200</v>
-      </c>
-      <c r="D11" s="6">
-        <v>100</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -5881,10 +5913,10 @@
         <v>660</v>
       </c>
       <c r="C12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="6">
         <v>240</v>
-      </c>
-      <c r="D12" s="6">
-        <v>120</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -5898,10 +5930,10 @@
         <v>840</v>
       </c>
       <c r="C13" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="6">
         <v>280</v>
-      </c>
-      <c r="D13" s="6">
-        <v>140</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -5915,10 +5947,10 @@
         <v>1110</v>
       </c>
       <c r="C14" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="6">
         <v>320</v>
-      </c>
-      <c r="D14" s="6">
-        <v>160</v>
       </c>
       <c r="E14" s="6">
         <v>2</v>
@@ -5932,10 +5964,10 @@
         <v>2240</v>
       </c>
       <c r="C15" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D15" s="6">
         <v>360</v>
-      </c>
-      <c r="D15" s="6">
-        <v>180</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
@@ -5949,10 +5981,10 @@
         <v>3510</v>
       </c>
       <c r="C16" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="6">
         <v>400</v>
-      </c>
-      <c r="D16" s="6">
-        <v>200</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
@@ -5966,10 +5998,10 @@
         <v>4850</v>
       </c>
       <c r="C17" s="6">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="D17" s="6">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E17" s="6">
         <v>2</v>
@@ -5983,10 +6015,10 @@
         <v>7090</v>
       </c>
       <c r="C18" s="6">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="D18" s="6">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="E18" s="6">
         <v>2</v>
@@ -6000,10 +6032,10 @@
         <v>8730</v>
       </c>
       <c r="C19" s="6">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="D19" s="6">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -6017,10 +6049,10 @@
         <v>10670</v>
       </c>
       <c r="C20" s="6">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="D20" s="6">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
@@ -6034,10 +6066,10 @@
         <v>12510</v>
       </c>
       <c r="C21" s="6">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="6">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
@@ -6051,10 +6083,10 @@
         <v>17000</v>
       </c>
       <c r="C22" s="6">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="D22" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="6">
         <v>3</v>
@@ -6068,10 +6100,10 @@
         <v>19490</v>
       </c>
       <c r="C23" s="6">
-        <v>2400</v>
+        <v>8000</v>
       </c>
       <c r="D23" s="6">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
@@ -6085,10 +6117,10 @@
         <v>22490</v>
       </c>
       <c r="C24" s="6">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D24" s="6">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -6102,10 +6134,10 @@
         <v>25310</v>
       </c>
       <c r="C25" s="6">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="D25" s="6">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E25" s="6">
         <v>3</v>
@@ -6119,10 +6151,10 @@
         <v>34580</v>
       </c>
       <c r="C26" s="6">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="D26" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="6">
         <v>3</v>
@@ -6136,10 +6168,10 @@
         <v>38600</v>
       </c>
       <c r="C27" s="6">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="D27" s="6">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E27" s="6">
         <v>3</v>
@@ -6153,10 +6185,10 @@
         <v>43430</v>
       </c>
       <c r="C28" s="6">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="D28" s="6">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="E28" s="6">
         <v>3</v>
@@ -6170,10 +6202,10 @@
         <v>47990</v>
       </c>
       <c r="C29" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D29" s="6">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E29" s="6">
         <v>3</v>
@@ -6187,10 +6219,10 @@
         <v>68300</v>
       </c>
       <c r="C30" s="6">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="D30" s="6">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -6204,10 +6236,10 @@
         <v>78840</v>
       </c>
       <c r="C31" s="6">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="D31" s="6">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
@@ -6221,10 +6253,10 @@
         <v>91060</v>
       </c>
       <c r="C32" s="6">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="D32" s="6">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="E32" s="6">
         <v>4</v>
@@ -6238,10 +6270,10 @@
         <v>103320</v>
       </c>
       <c r="C33" s="6">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="D33" s="6">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E33" s="6">
         <v>4</v>
@@ -6255,10 +6287,10 @@
         <v>141420</v>
       </c>
       <c r="C34" s="6">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D34" s="6">
-        <v>2600</v>
+        <v>5200</v>
       </c>
       <c r="E34" s="6">
         <v>4</v>
@@ -6272,10 +6304,10 @@
         <v>158910</v>
       </c>
       <c r="C35" s="6">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="D35" s="6">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="6">
         <v>4</v>
@@ -6289,10 +6321,10 @@
         <v>179000</v>
       </c>
       <c r="C36" s="6">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="D36" s="6">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E36" s="6">
         <v>4</v>
@@ -6306,10 +6338,10 @@
         <v>199230</v>
       </c>
       <c r="C37" s="6">
-        <v>32000</v>
+        <v>64000</v>
       </c>
       <c r="D37" s="6">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="E37" s="6">
         <v>4</v>
@@ -6323,10 +6355,10 @@
         <v>267930</v>
       </c>
       <c r="C38" s="6">
-        <v>40000</v>
+        <v>72000</v>
       </c>
       <c r="D38" s="6">
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="E38" s="6">
         <v>4</v>
@@ -6340,10 +6372,10 @@
         <v>296390</v>
       </c>
       <c r="C39" s="6">
-        <v>48000</v>
+        <v>80000</v>
       </c>
       <c r="D39" s="6">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E39" s="6">
         <v>4</v>
@@ -6357,10 +6389,10 @@
         <v>328590</v>
       </c>
       <c r="C40" s="6">
-        <v>56000</v>
+        <v>88000</v>
       </c>
       <c r="D40" s="6">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E40" s="6">
         <v>4</v>
@@ -6374,10 +6406,10 @@
         <v>361430</v>
       </c>
       <c r="C41" s="6">
-        <v>72000</v>
+        <v>96000</v>
       </c>
       <c r="D41" s="6">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E41" s="6">
         <v>4</v>
@@ -9750,7 +9782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -9769,7 +9801,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -15269,7 +15301,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15279,22 +15311,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -15302,16 +15334,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3">
         <v>15</v>
@@ -15322,16 +15354,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -15342,16 +15374,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -15362,16 +15394,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -15382,16 +15414,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="E6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -15402,16 +15434,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -15422,16 +15454,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="D8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -15442,16 +15474,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="C9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="D9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="E9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="F9" s="3">
         <v>160</v>
@@ -15462,16 +15494,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="D10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="F10" s="3">
         <v>350</v>
@@ -15482,16 +15514,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="C11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="D11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F11" s="3">
         <v>520</v>
@@ -15502,16 +15534,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>730</v>
@@ -15522,16 +15554,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="C13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="D13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="E13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="F13" s="3">
         <v>920</v>
@@ -15542,16 +15574,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="C14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="D14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="E14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="F14" s="3">
         <v>1220</v>
@@ -15562,16 +15594,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="C15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="D15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="E15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="F15" s="3">
         <v>2470</v>
@@ -15582,16 +15614,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="C16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="D16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="E16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="F16" s="3">
         <v>3860</v>
@@ -15602,16 +15634,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>5340</v>
@@ -15622,16 +15654,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="C18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="D18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="E18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="F18" s="3">
         <v>7800</v>
@@ -15642,16 +15674,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="C19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="D19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="E19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="F19" s="3">
         <v>9610</v>
@@ -15662,16 +15694,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="C20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="D20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="E20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="F20" s="3">
         <v>11730</v>
@@ -15682,16 +15714,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="C21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="D21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="E21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="F21" s="3">
         <v>13770</v>
@@ -15702,16 +15734,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="C22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="D22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
         <v>18700</v>
@@ -15722,16 +15754,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="C23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="D23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="E23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="F23" s="3">
         <v>21440</v>
@@ -15742,16 +15774,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="C24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="D24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="E24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="F24" s="3">
         <v>24740</v>
@@ -15762,16 +15794,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="C25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="D25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="E25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="F25" s="3">
         <v>27850</v>
@@ -15782,16 +15814,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="C26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="D26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="E26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="F26" s="3">
         <v>38030</v>
@@ -15802,16 +15834,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="3">
         <v>42460</v>
@@ -15822,16 +15854,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="C28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="D28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="E28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="F28" s="3">
         <v>47770</v>
@@ -15842,16 +15874,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="C29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="3">
         <v>52780</v>
@@ -15862,16 +15894,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="C30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="D30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="E30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="F30" s="3">
         <v>75130</v>
@@ -15882,16 +15914,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="C31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="F31" s="3">
         <v>86730</v>
@@ -15902,16 +15934,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="C32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="D32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F32" s="3">
         <v>100170</v>
@@ -15922,16 +15954,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F33" s="3">
         <v>113650</v>
@@ -15942,16 +15974,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="C34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="D34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F34" s="3">
         <v>155560</v>
@@ -15962,16 +15994,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="C35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="F35" s="3">
         <v>174800</v>
@@ -15982,16 +16014,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="C36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="D36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="E36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="F36" s="3">
         <v>196900</v>
@@ -16002,16 +16034,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="C37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="D37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F37" s="3">
         <v>219150</v>
@@ -16022,16 +16054,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="C38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F38" s="3">
         <v>294720</v>
@@ -16042,16 +16074,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="C39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="D39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="E39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="F39" s="3">
         <v>326020</v>
@@ -16062,16 +16094,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F40" s="1">
         <v>361440</v>
@@ -16082,16 +16114,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="C41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="D41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="F41" s="1">
         <v>397570</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1280" windowWidth="33980" windowHeight="15220" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="520" yWindow="580" windowWidth="36000" windowHeight="20560" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -538,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="716">
+  <cellStyleXfs count="718">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -553,6 +553,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1284,7 +1286,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="716">
+  <cellStyles count="718">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1645,6 +1647,7 @@
     <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1998,6 +2001,7 @@
     <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2449,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2494,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>20</v>
@@ -2508,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
@@ -2522,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <v>40</v>
@@ -2536,7 +2540,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>60</v>
@@ -2550,7 +2554,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
         <v>70</v>
@@ -2564,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>130</v>
@@ -2578,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>270</v>
@@ -2592,7 +2596,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
         <v>610</v>
@@ -2606,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>930</v>
@@ -2620,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
         <v>1300</v>
@@ -2634,7 +2638,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3">
         <v>1650</v>
@@ -2648,7 +2652,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3">
         <v>2190</v>
@@ -2662,7 +2666,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3">
         <v>4460</v>
@@ -2676,7 +2680,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3">
         <v>6990</v>
@@ -2690,7 +2694,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
         <v>9680</v>
@@ -2704,7 +2708,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
         <v>14160</v>
@@ -2718,7 +2722,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3">
         <v>17440</v>
@@ -2732,7 +2736,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
         <v>21310</v>
@@ -2746,7 +2750,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
         <v>25000</v>
@@ -2760,7 +2764,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3">
         <v>33980</v>
@@ -2774,7 +2778,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
         <v>38950</v>
@@ -2788,7 +2792,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>44960</v>
@@ -2802,7 +2806,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3">
         <v>50600</v>
@@ -2816,7 +2820,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3">
         <v>69130</v>
@@ -2830,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3">
         <v>77180</v>
@@ -2844,7 +2848,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3">
         <v>86830</v>
@@ -2858,7 +2862,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3">
         <v>95950</v>
@@ -2872,7 +2876,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D30" s="3">
         <v>136570</v>
@@ -2886,7 +2890,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3">
         <v>157660</v>
@@ -2900,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3">
         <v>182100</v>
@@ -2914,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3">
         <v>206620</v>
@@ -2928,7 +2932,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3">
         <v>282820</v>
@@ -2942,7 +2946,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3">
         <v>317800</v>
@@ -2956,7 +2960,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3">
         <v>357980</v>
@@ -2970,7 +2974,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3">
         <v>398440</v>
@@ -2984,7 +2988,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3">
         <v>535830</v>
@@ -2998,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1">
         <v>592750</v>
@@ -3012,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1">
         <v>657150</v>
@@ -3026,7 +3030,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1">
         <v>722840</v>
@@ -5709,7 +5713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
